--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="212">
   <si>
     <t>Doi</t>
   </si>
@@ -962,6 +962,122 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,    Xin%Zhang%NULL%0,    Jianguo%Xia%NULL%1,    Tao%Zhang%NULL%1,    Yalei%Shang%NULL%1,    Renjun%Huang%NULL%1,    Rongrong%Liu%NULL%1,    Dan%Wang%NULL%1,    Min%Li%105549156@qq.com%1,    Jinping%Wu%czwjp@sina.com%1,    Qiuzhen%Xu%xuqiuzhen831@sina.com%1,    Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+id="Par2"&gt;A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,       Zhencang%Zheng%NULL%1,       Chao%Zhang%NULL%1,       Xijiang%Zhang%NULL%1,       Huijuan%Wu%NULL%1,       Jingdong%Wang%NULL%1,       Shuwei%Wang%NULL%1,       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,        Zhencang%Zheng%NULL%1,        Chao%Zhang%NULL%1,        Xijiang%Zhang%NULL%1,        Huijuan%Wu%NULL%1,        Jingdong%Wang%NULL%1,        Shuwei%Wang%NULL%1,        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1873,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -962,122 +962,6 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,    Xin%Zhang%NULL%0,    Jianguo%Xia%NULL%1,    Tao%Zhang%NULL%1,    Yalei%Shang%NULL%1,    Renjun%Huang%NULL%1,    Rongrong%Liu%NULL%1,    Dan%Wang%NULL%1,    Min%Li%105549156@qq.com%1,    Jinping%Wu%czwjp@sina.com%1,    Qiuzhen%Xu%xuqiuzhen831@sina.com%1,    Yonggang%Li%liyonggang224@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-id="Par2"&gt;A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%0,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%0,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%0,       Zhencang%Zheng%NULL%1,       Chao%Zhang%NULL%1,       Xijiang%Zhang%NULL%1,       Huijuan%Wu%NULL%1,       Jingdong%Wang%NULL%1,       Shuwei%Wang%NULL%1,       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%0,        Zhencang%Zheng%NULL%1,        Chao%Zhang%NULL%1,        Xijiang%Zhang%NULL%1,        Huijuan%Wu%NULL%1,        Jingdong%Wang%NULL%1,        Shuwei%Wang%NULL%1,        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +1757,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -962,6 +962,84 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,    Xin%Zhang%NULL%0,    Jianguo%Xia%NULL%1,    Tao%Zhang%NULL%1,    Yalei%Shang%NULL%1,    Renjun%Huang%NULL%1,    Rongrong%Liu%NULL%1,    Dan%Wang%NULL%1,    Min%Li%105549156@qq.com%1,    Jinping%Wu%czwjp@sina.com%1,    Qiuzhen%Xu%xuqiuzhen831@sina.com%1,    Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,     Shiva%Samavat%NULL%1,     Behdad%Behnam%NULL%1,     Mehran%Arab-Ahmadi%NULL%1,     Mohsen%Nafar%NULL%1,     Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,     Elisa%Delbarba%NULL%2,     Chiara%Manenti%NULL%2,     Laura%Econimo%NULL%2,     Francesca%Valerio%NULL%2,     Alessandra%Pola%NULL%2,     Camilla%Maffei%NULL%2,     Stefano%Possenti%NULL%2,     Nicole%Zambetti%NULL%1,     Marianna%Moscato%NULL%1,     Margherita%Venturini%NULL%1,     Stefania%Affatato%NULL%2,     Mario%Gaggiotti%NULL%2,     Nicola%Bossini%NULL%2,     Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,     Elisa%Delbarba%NULL%0,     Chiara%Manenti%NULL%0,     Laura%Econimo%NULL%0,     Francesca%Valerio%NULL%0,     Alessandra%Pola%NULL%0,     Camilla%Maffei%NULL%0,     Stefano%Possenti%NULL%0,     Bernardo%Lucca%NULL%1,     Roberta%Cortinovis%NULL%1,     Vincenzo%Terlizzi%NULL%1,     Mattia%Zappa%NULL%1,     Chiara%Saccà%NULL%1,     Elena%Pezzini%NULL%1,     Eleonora%Calcaterra%NULL%1,     Paola%Piarulli%NULL%1,     Alice%Guerini%NULL%1,     Francesca%Boni%NULL%1,     Agnese%Gallico%NULL%1,     Alberto%Mucchetti%NULL%1,     Stefania%Affatato%NULL%0,     Sergio%Bove%NULL%1,     Martina%Bracchi%NULL%1,     Ester Maria%Costantino%NULL%1,     Roberto%Zubani%NULL%1,     Corrado%Camerini%NULL%1,     Paola%Gaggia%NULL%1,     Ezio%Movilli%NULL%1,     Nicola%Bossini%NULL%0,     Mario%Gaggiotti%NULL%0,     Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,     Jordi%Rello%NULL%1,     Sofia%Tejada%NULL%1,     Alejandro%Martín%NULL%1,     Goiatz%Balziskueta%NULL%1,     Cristina%Vinuesa%NULL%1,     Borja%Fernández-Miret%NULL%1,     Ana%Villagra%NULL%1,     Ana%Vallejo%NULL%1,     Ana%San Sebastián%NULL%1,     Sara%Cabañes%NULL%1,     Sebastián%Iribarren%NULL%1,     Fernando%Fonseca%NULL%1,     Javier%Maynar%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,     Denise J%McCulloch%NULL%2,     Denise J%McCulloch%NULL%0,     Vidya%Atluri%NULL%1,     Michela%Blain%NULL%1,     Sarah A%McGuffin%NULL%1,     Arun K%Nalla%NULL%1,     Meei-Li%Huang%NULL%1,     Alex L%Greninger%NULL%1,     Keith R%Jerome%NULL%1,     Seth A%Cohen%NULL%1,     Santiago%Neme%NULL%1,     Margaret L%Green%NULL%1,     Helen Y%Chu%NULL%1,     H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,     Timothy%Mazzuchelli%NULL%1,     Elia%Lo Priore%NULL%1,     Carlo%Balmelli%NULL%1,     Michael%Llamas%NULL%1,     Micol%Pallanza%NULL%1,     Luigia%Elzi%NULL%1,     Vera%Consonni%NULL%1,     Pierpaolo%Trimboli%NULL%1,     Valentina%Forni-Ogna%NULL%1,     Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,   Deliang%Huang%coreGivesNoEmail%1,   Hong%Yu%coreGivesNoEmail%1,   Jun%Chen%coreGivesNoEmail%0,   Lei%Liu%coreGivesNoEmail%0,   National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%1,   Pengcheng%Ou%coreGivesNoEmail%1,   Qing%He%coreGivesNoEmail%1,   Qingxian%Cai%coreGivesNoEmail%1,   Rossaint%J%coreGivesNoEmail%1,   Yang%Fu%coreGivesNoEmail%1,   Yiming%Zhang%coreGivesNoEmail%1,   Yinan%Su%coreGivesNoEmail%1,   Zhang%Xia%coreGivesNoEmail%1,   Zhenghua%Ma%coreGivesNoEmail%1,   Zhibin%Zhu%coreGivesNoEmail%1,   Zhiwei%Li%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,     Yeming%Wang%NULL%0,     Danning%Wen%NULL%1,     Wen%Liu%NULL%1,     Jingli%Wang%NULL%0,     Guohui%Fan%NULL%0,     Lianguo%Ruan%NULL%1,     Bin%Song%NULL%0,     Yanping%Cai%NULL%1,     Ming%Wei%NULL%1,     Xingwang%Li%NULL%0,     Jiaan%Xia%NULL%0,     Nanshan%Chen%NULL%1,     Jie%Xiang%NULL%0,     Ting%Yu%NULL%0,     Tao%Bai%NULL%1,     Xuelei%Xie%NULL%0,     Li%Zhang%NULL%0,     Caihong%Li%NULL%1,     Ye%Yuan%NULL%0,     Hua%Chen%NULL%0,     Huadong%Li%NULL%1,     Hanping%Huang%NULL%1,     Shengjing%Tu%NULL%1,     Fengyun%Gong%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Chongya%Dong%NULL%1,     Fei%Zhou%NULL%1,     Xiaoying%Gu%NULL%0,     Jiuyang%Xu%NULL%0,     Zhibo%Liu%NULL%0,     Yi%Zhang%NULL%0,     Hui%Li%NULL%0,     Lianhan%Shang%NULL%1,     Ke%Wang%NULL%0,     Kunxia%Li%NULL%1,     Xia%Zhou%NULL%1,     Xuan%Dong%NULL%0,     Zhaohui%Qu%NULL%1,     Sixia%Lu%NULL%1,     Xujuan%Hu%NULL%1,     Shunan%Ruan%NULL%1,     Shanshan%Luo%NULL%1,     Jing%Wu%NULL%1,     Lu%Peng%NULL%1,     Fang%Cheng%NULL%1,     Lihong%Pan%NULL%1,     Jun%Zou%NULL%1,     Chunmin%Jia%NULL%1,     Juan%Wang%NULL%1,     Xia%Liu%NULL%1,     Shuzhen%Wang%NULL%1,     Xudong%Wu%NULL%0,     Qin%Ge%NULL%1,     Jing%He%NULL%1,     Haiyan%Zhan%NULL%1,     Fang%Qiu%NULL%1,     Li%Guo%NULL%0,     Chaolin%Huang%NULL%0,     Thomas%Jaki%NULL%1,     Frederick G.%Hayden%NULL%1,     Peter W.%Horby%NULL%1,     Dingyu%Zhang%NULL%1,     Chen%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%1,     Xiaoyong%Hu%NULL%1,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,     Jia%Wei%NULL%1,     Liang%Zou%NULL%1,     Tiebin%Jiang%NULL%1,     Gaoxiang%Wang%NULL%1,     Liting%Chen%NULL%1,     Liang%Huang%NULL%1,     Fankai%Meng%NULL%1,     Lifang%Huang%NULL%1,     Na%Wang%NULL%1,     Xiaoxi%Zhou%NULL%1,     Hui%Luo%NULL%1,     Zekai%Mao%NULL%1,     Xing%Chen%NULL%1,     Jungang%Xie%NULL%0,     Jing%Liu%NULL%0,     Hui%Cheng%NULL%1,     Jianping%Zhao%NULL%0,     Gang%Huang%NULL%1,     Wei%Wang%NULL%0,     Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,     Giacomo%De Luca%NULL%1,     Corrado%Campochiaro%NULL%1,     Emanuel%Della-Torre%NULL%1,     Marco%Ripa%NULL%1,     Diana%Canetti%NULL%1,     Chiara%Oltolini%NULL%1,     Barbara%Castiglioni%NULL%1,     Chiara%Tassan Din%NULL%1,     Nicola%Boffini%NULL%1,     Alessandro%Tomelleri%NULL%1,     Nicola%Farina%NULL%1,     Annalisa%Ruggeri%NULL%1,     Patrizia%Rovere-Querini%NULL%1,     Giuseppe%Di Lucca%NULL%1,     Sabina%Martinenghi%NULL%1,     Raffaella%Scotti%NULL%1,     Moreno%Tresoldi%NULL%1,     Fabio%Ciceri%NULL%1,     Giovanni%Landoni%NULL%1,     Alberto%Zangrillo%NULL%1,     Paolo%Scarpellini%NULL%1,     Lorenzo%Dagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,     Kim R.%Derespina%NULL%2,     Betsy C.%Herold%NULL%1,     David L.%Goldman%NULL%1,     Margaret%Aldrich%NULL%1,     Jacqueline%Weingarten%NULL%1,     Henry M.%Ushay%NULL%2,     Michael D.%Cabana%NULL%1,     Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,     Zhen-Zhen%Zhang%NULL%1,     Yao-Kai%Chen%NULL%1,     Quan-Xin%Long%NULL%1,     Wen-Guang%Tian%NULL%1,     Hai-Jun%Deng%NULL%1,     Jie-Li%Hu%NULL%1,     Xian-Xiang%Zhang%NULL%1,     NULL%Pu-Liao%NULL%1,     Jiang-Lin%Xiang%NULL%1,     Dao-Xin%Wang%NULL%1,     Peng%Hu%NULL%1,     Fa-Chun%Zhou%NULL%1,     Zhi-Jie%Li%NULL%1,     Hong-Mei%Xu%NULL%1,     Xue-Fei%Cai%NULL%1,     De-Qiang%Wang%NULL%1,     Yuan%Hu%NULL%1,     Ni%Tang%NULL%1,     Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,     Gui-Cheng%Wu%wuguic@hotmail.com%1,     Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,     Wenhua%Liang%NULL%1,     Mei%Jiang%NULL%1,     Weijie%Guan%NULL%1,     Chen%Zhan%NULL%1,     Tao%Wang%NULL%0,     Chunli%Tang%NULL%1,     Ling%Sang%NULL%1,     Jiaxing%Liu%NULL%1,     Zhengyi%Ni%NULL%1,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chunliang%Lei%NULL%1,     Yixiang%Peng%NULL%1,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Yahua%Hu%NULL%1,     Peng%Peng%NULL%0,     Jianming%Wang%NULL%0,     Jiyang%Liu%NULL%1,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhijian%Zheng%NULL%1,     Shaoqin%Qiu%NULL%1,     Jie%Luo%NULL%0,     Changjiang%Ye%NULL%1,     Shaoyong%Zhu%NULL%1,     Xiaoqing%Liu%NULL%1,     Linling%Cheng%NULL%1,     Feng%Ye%NULL%1,     Jinping%Zheng%NULL%1,     Nuofu%Zhang%NULL%1,     Yimin%Li%NULL%1,     Jianxing%He%NULL%1,     Shiyue%Li%lishiyue@188.com%1,     Nanshan%Zhong%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,     Wei%An%NULL%2,     Wei%An%NULL%0,     Fei%Xia%NULL%0,     Ping%Yang%NULL%1,     Kuangyu%Li%NULL%1,     Qin%Zhou%NULL%1,     Shasha%Fang%NULL%1,     Yaling%Liao%NULL%1,     Xin%Xu%NULL%0,     Jialin%Liu%NULL%1,     Shiguo%Liu%NULL%1,     Tao%Qin%NULL%1,     Jianjun%Zhang%NULL%1,     Wei%Wei%NULL%1,     Yafang%Zhang%NULL%1,     Guowei%Zhang%NULL%1,     Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,     Nan%Yang%NULL%2,     Nan%Yang%NULL%0,     Yanqiu%Wei%NULL%1,     Huihui%Yue%NULL%1,     Fengqin%Zhang%NULL%1,     Jianping%Zhao%NULL%0,     Li%He%NULL%0,     Gaohong%Sheng%NULL%2,     Gaohong%Sheng%NULL%0,     Peng%Chen%NULL%0,     Gang%Li%NULL%0,     Sisi%Wu%NULL%1,     Bo%Zhang%NULL%1,     Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,     Xiaoping%Miao%miaoxp@hust.edu.cn%1,     Juan%Li%lijuan@tjh.tjmu.edu.cn%0,     Wenhua%Liu%liuwh_2013@126.com%1,     Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,     Susannah%Ahern%NULL%1,     Scott C.%Bell%NULL%1,     Keith%Brownlee%NULL%1,     Pierre-Régis%Burgel%NULL%1,     Cass%Byrnes%NULL%1,     Harriet%Corvol%NULL%1,     Stephanie Y.%Cheng%NULL%1,     Alexander%Elbert%NULL%1,     Albert%Faro%NULL%1,     Christopher H.%Goss%NULL%1,     Vincent%Gulmans%NULL%1,     Bruce C.%Marshall%NULL%1,     Edward%McKone%NULL%1,     Peter G.%Middleton%NULL%1,     Rasa%Ruseckaite%NULL%1,     Anne L.%Stephenson%NULL%1,     Siobhán B%Carr%NULL%1,     David%Reid%NULL%1,     Peter%Wark%NULL%1,     Géraldine%Daneau%NULL%1,     Véronique%Boussaud%NULL%1,     Graziella%Brinchault%NULL%1,     Emmanuelle%Coirier-Duet%NULL%1,     Jean-Christophe%Dubus%NULL%1,     Dominique%Grenet%NULL%1,     Sandra de%Miranda%NULL%1,     Laurence%Beaumont%NULL%1,     Reem%Kanaan%NULL%1,     Muriel%Lauraens%NULL%1,     Clémence%Martin%NULL%1,     Marie%Mittaine%NULL%1,     Anne%Prévotat%NULL%1,     Martine%Reynaud-Gaubert%NULL%1,     Isabelle%Sermet-Gaudelus%NULL%1,     Aurelie%Tatopoulos%NULL%1,     Lutz%Nährlich%NULL%1,     Barry%Plant%NULL%1,     Cedric%Gunaratnam%NULL%1,     Abaigeal%Jackson%NULL%1,     Karin M. de Winter-de%Groot%NULL%1,     Bart%Luijk%NULL%1,     Geertjan%Wesseling%NULL%1,     Mark%Allenby%NULL%1,     Jamie%Duckers%NULL%1,     Elaine%Gunn%NULL%1,     Andrew%Jones%NULL%1,     Robert Ian%Ketchell%NULL%1,     Susan L.%Madge%NULL%1,     Anirban%Maitra%NULL%1,     Ghulam%Mujtaba%NULL%1,     Helen%Rodgers%NULL%1,     Nadia%Shafi%NULL%1,     Nicholas%Simmonds%NULL%1,     Kevin%Southern%NULL%1,     Danie%Watson%NULL%1,     Samar%Rizvi%NULL%1,     Julie%Seguin%NULL%1,     Janet%Garbarz%NULL%1,     Kristen%Rosamilia%NULL%1,     Maria%Berdella%NULL%1,     Jerry A.%Nick%NULL%1,     Richard%Belkin%NULL%1,     Diana%Gilmore%NULL%1,     Kim%McBennett%NULL%1,     Rita%Padoan%NULL%1,     Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,     Matthew R%Baldwin%NULL%0,     Darryl%Abrams%NULL%0,     Samuel D%Jacobson%NULL%0,     Benjamin J%Meyer%NULL%0,     Elizabeth M%Balough%NULL%0,     Justin G%Aaron%NULL%0,     Jan%Claassen%NULL%0,     LeRoy E%Rabbani%NULL%0,     Jonathan%Hastie%NULL%0,     Beth R%Hochman%NULL%0,     John%Salazar-Schicchi%NULL%0,     Natalie H%Yip%NULL%0,     Daniel%Brodie%NULL%0,     Max R%O'Donnell%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,     Xin%Zhang%NULL%1,     Jianguo%Xia%NULL%1,     Tao%Zhang%NULL%1,     Yalei%Shang%NULL%1,     Renjun%Huang%NULL%1,     Rongrong%Liu%NULL%1,     Dan%Wang%NULL%1,     Min%Li%105549156@qq.com%1,     Jinping%Wu%czwjp@sina.com%1,     Qiuzhen%Xu%xuqiuzhen831@sina.com%1,     Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1407,9 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1344,7 +1425,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1354,6 +1435,9 @@
       </c>
       <c r="H2" t="s">
         <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3">
@@ -1370,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1380,6 +1464,9 @@
       </c>
       <c r="H3" t="s">
         <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -1396,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1406,6 +1493,9 @@
       </c>
       <c r="H4" t="s">
         <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -1422,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1432,6 +1522,9 @@
       </c>
       <c r="H5" t="s">
         <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -1448,7 +1541,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1458,6 +1551,9 @@
       </c>
       <c r="H6" t="s">
         <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
@@ -1474,7 +1570,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1484,6 +1580,9 @@
       </c>
       <c r="H7" t="s">
         <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8">
@@ -1500,16 +1599,19 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1628,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1536,6 +1638,9 @@
       </c>
       <c r="H9" t="s">
         <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1657,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -1562,6 +1667,9 @@
       </c>
       <c r="H10" t="s">
         <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11">
@@ -1578,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -1588,6 +1696,9 @@
       </c>
       <c r="H11" t="s">
         <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1715,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -1614,6 +1725,9 @@
       </c>
       <c r="H12" t="s">
         <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13">
@@ -1630,7 +1744,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -1640,6 +1754,9 @@
       </c>
       <c r="H13" t="s">
         <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -1656,7 +1773,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -1666,6 +1783,9 @@
       </c>
       <c r="H14" t="s">
         <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1693,6 +1813,9 @@
       <c r="H15" t="s">
         <v>57</v>
       </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1708,7 +1831,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -1718,6 +1841,9 @@
       </c>
       <c r="H16" t="s">
         <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17">
@@ -1734,7 +1860,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -1744,6 +1870,9 @@
       </c>
       <c r="H17" t="s">
         <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18">
@@ -1760,7 +1889,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -1770,6 +1899,9 @@
       </c>
       <c r="H18" t="s">
         <v>108</v>
+      </c>
+      <c r="I18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19">
@@ -1786,7 +1918,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -1796,6 +1928,9 @@
       </c>
       <c r="H19" t="s">
         <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -1812,7 +1947,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -1822,6 +1957,9 @@
       </c>
       <c r="H20" t="s">
         <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -1838,7 +1976,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -1848,6 +1986,9 @@
       </c>
       <c r="H21" t="s">
         <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -1864,7 +2005,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -1874,6 +2015,9 @@
       </c>
       <c r="H22" t="s">
         <v>127</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -1890,7 +2034,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -1900,6 +2044,9 @@
       </c>
       <c r="H23" t="s">
         <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -1916,7 +2063,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>
@@ -1926,6 +2073,9 @@
       </c>
       <c r="H24" t="s">
         <v>136</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="296">
   <si>
     <t>Doi</t>
   </si>
@@ -1040,6 +1040,204 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,     Xin%Zhang%NULL%1,     Jianguo%Xia%NULL%1,     Tao%Zhang%NULL%1,     Yalei%Shang%NULL%1,     Renjun%Huang%NULL%1,     Rongrong%Liu%NULL%1,     Dan%Wang%NULL%1,     Min%Li%105549156@qq.com%1,     Jinping%Wu%czwjp@sina.com%1,     Qiuzhen%Xu%xuqiuzhen831@sina.com%1,     Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,      Shiva%Samavat%NULL%1,      Behdad%Behnam%NULL%1,      Mehran%Arab-Ahmadi%NULL%1,      Mohsen%Nafar%NULL%1,      Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,      Elisa%Delbarba%NULL%2,      Chiara%Manenti%NULL%2,      Laura%Econimo%NULL%2,      Francesca%Valerio%NULL%2,      Alessandra%Pola%NULL%2,      Camilla%Maffei%NULL%2,      Stefano%Possenti%NULL%2,      Nicole%Zambetti%NULL%1,      Marianna%Moscato%NULL%1,      Margherita%Venturini%NULL%1,      Stefania%Affatato%NULL%2,      Mario%Gaggiotti%NULL%2,      Nicola%Bossini%NULL%2,      Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,      Elisa%Delbarba%NULL%0,      Chiara%Manenti%NULL%0,      Laura%Econimo%NULL%0,      Francesca%Valerio%NULL%0,      Alessandra%Pola%NULL%0,      Camilla%Maffei%NULL%0,      Stefano%Possenti%NULL%0,      Bernardo%Lucca%NULL%1,      Roberta%Cortinovis%NULL%1,      Vincenzo%Terlizzi%NULL%1,      Mattia%Zappa%NULL%1,      Chiara%Saccà%NULL%1,      Elena%Pezzini%NULL%1,      Eleonora%Calcaterra%NULL%1,      Paola%Piarulli%NULL%1,      Alice%Guerini%NULL%1,      Francesca%Boni%NULL%1,      Agnese%Gallico%NULL%1,      Alberto%Mucchetti%NULL%1,      Stefania%Affatato%NULL%0,      Sergio%Bove%NULL%1,      Martina%Bracchi%NULL%1,      Ester Maria%Costantino%NULL%1,      Roberto%Zubani%NULL%1,      Corrado%Camerini%NULL%1,      Paola%Gaggia%NULL%1,      Ezio%Movilli%NULL%1,      Nicola%Bossini%NULL%0,      Mario%Gaggiotti%NULL%0,      Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,      Jordi%Rello%NULL%1,      Sofia%Tejada%NULL%1,      Alejandro%Martín%NULL%1,      Goiatz%Balziskueta%NULL%1,      Cristina%Vinuesa%NULL%1,      Borja%Fernández-Miret%NULL%1,      Ana%Villagra%NULL%1,      Ana%Vallejo%NULL%1,      Ana%San Sebastián%NULL%1,      Sara%Cabañes%NULL%1,      Sebastián%Iribarren%NULL%1,      Fernando%Fonseca%NULL%1,      Javier%Maynar%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,      Denise J%McCulloch%NULL%2,      Denise J%McCulloch%NULL%0,      Vidya%Atluri%NULL%1,      Michela%Blain%NULL%1,      Sarah A%McGuffin%NULL%1,      Arun K%Nalla%NULL%1,      Meei-Li%Huang%NULL%1,      Alex L%Greninger%NULL%1,      Keith R%Jerome%NULL%1,      Seth A%Cohen%NULL%1,      Santiago%Neme%NULL%1,      Margaret L%Green%NULL%1,      Helen Y%Chu%NULL%1,      H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,      Timothy%Mazzuchelli%NULL%1,      Elia%Lo Priore%NULL%1,      Carlo%Balmelli%NULL%1,      Michael%Llamas%NULL%1,      Micol%Pallanza%NULL%1,      Luigia%Elzi%NULL%1,      Vera%Consonni%NULL%1,      Pierpaolo%Trimboli%NULL%1,      Valentina%Forni-Ogna%NULL%1,      Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,    Deliang%Huang%coreGivesNoEmail%0,    Hong%Yu%coreGivesNoEmail%0,    Jun%Chen%coreGivesNoEmail%0,    Lei%Liu%coreGivesNoEmail%0,    National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,    Pengcheng%Ou%coreGivesNoEmail%0,    Qing%He%coreGivesNoEmail%0,    Qingxian%Cai%coreGivesNoEmail%0,    Rossaint%J%coreGivesNoEmail%0,    Yang%Fu%coreGivesNoEmail%0,    Yiming%Zhang%coreGivesNoEmail%0,    Yinan%Su%coreGivesNoEmail%0,    Zhang%Xia%coreGivesNoEmail%0,    Zhenghua%Ma%coreGivesNoEmail%0,    Zhibin%Zhu%coreGivesNoEmail%0,    Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,      Yeming%Wang%NULL%0,      Danning%Wen%NULL%1,      Wen%Liu%NULL%1,      Jingli%Wang%NULL%0,      Guohui%Fan%NULL%0,      Lianguo%Ruan%NULL%1,      Bin%Song%NULL%0,      Yanping%Cai%NULL%1,      Ming%Wei%NULL%1,      Xingwang%Li%NULL%0,      Jiaan%Xia%NULL%0,      Nanshan%Chen%NULL%1,      Jie%Xiang%NULL%0,      Ting%Yu%NULL%0,      Tao%Bai%NULL%0,      Xuelei%Xie%NULL%0,      Li%Zhang%NULL%0,      Caihong%Li%NULL%1,      Ye%Yuan%NULL%0,      Hua%Chen%NULL%0,      Huadong%Li%NULL%1,      Hanping%Huang%NULL%1,      Shengjing%Tu%NULL%1,      Fengyun%Gong%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Chongya%Dong%NULL%1,      Fei%Zhou%NULL%1,      Xiaoying%Gu%NULL%0,      Jiuyang%Xu%NULL%0,      Zhibo%Liu%NULL%0,      Yi%Zhang%NULL%0,      Hui%Li%NULL%0,      Lianhan%Shang%NULL%1,      Ke%Wang%NULL%1,      Kunxia%Li%NULL%1,      Xia%Zhou%NULL%1,      Xuan%Dong%NULL%0,      Zhaohui%Qu%NULL%1,      Sixia%Lu%NULL%1,      Xujuan%Hu%NULL%1,      Shunan%Ruan%NULL%1,      Shanshan%Luo%NULL%1,      Jing%Wu%NULL%0,      Lu%Peng%NULL%1,      Fang%Cheng%NULL%0,      Lihong%Pan%NULL%1,      Jun%Zou%NULL%1,      Chunmin%Jia%NULL%1,      Juan%Wang%NULL%1,      Xia%Liu%NULL%1,      Shuzhen%Wang%NULL%1,      Xudong%Wu%NULL%0,      Qin%Ge%NULL%1,      Jing%He%NULL%1,      Haiyan%Zhan%NULL%1,      Fang%Qiu%NULL%1,      Li%Guo%NULL%0,      Chaolin%Huang%NULL%1,      Thomas%Jaki%NULL%1,      Frederick G.%Hayden%NULL%1,      Peter W.%Horby%NULL%1,      Dingyu%Zhang%NULL%1,      Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,      Jia%Wei%NULL%1,      Liang%Zou%NULL%1,      Tiebin%Jiang%NULL%1,      Gaoxiang%Wang%NULL%1,      Liting%Chen%NULL%1,      Liang%Huang%NULL%1,      Fankai%Meng%NULL%1,      Lifang%Huang%NULL%1,      Na%Wang%NULL%1,      Xiaoxi%Zhou%NULL%1,      Hui%Luo%NULL%1,      Zekai%Mao%NULL%1,      Xing%Chen%NULL%1,      Jungang%Xie%NULL%0,      Jing%Liu%NULL%0,      Hui%Cheng%NULL%1,      Jianping%Zhao%NULL%0,      Gang%Huang%NULL%1,      Wei%Wang%NULL%0,      Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,      Giacomo%De Luca%NULL%1,      Corrado%Campochiaro%NULL%1,      Emanuel%Della-Torre%NULL%1,      Marco%Ripa%NULL%1,      Diana%Canetti%NULL%1,      Chiara%Oltolini%NULL%1,      Barbara%Castiglioni%NULL%1,      Chiara%Tassan Din%NULL%1,      Nicola%Boffini%NULL%1,      Alessandro%Tomelleri%NULL%1,      Nicola%Farina%NULL%1,      Annalisa%Ruggeri%NULL%1,      Patrizia%Rovere-Querini%NULL%1,      Giuseppe%Di Lucca%NULL%1,      Sabina%Martinenghi%NULL%1,      Raffaella%Scotti%NULL%1,      Moreno%Tresoldi%NULL%1,      Fabio%Ciceri%NULL%1,      Giovanni%Landoni%NULL%1,      Alberto%Zangrillo%NULL%1,      Paolo%Scarpellini%NULL%1,      Lorenzo%Dagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,      Kim R.%Derespina%NULL%2,      Betsy C.%Herold%NULL%1,      David L.%Goldman%NULL%1,      Margaret%Aldrich%NULL%1,      Jacqueline%Weingarten%NULL%1,      Henry M.%Ushay%NULL%2,      Michael D.%Cabana%NULL%1,      Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,      Zhen-Zhen%Zhang%NULL%1,      Yao-Kai%Chen%NULL%1,      Quan-Xin%Long%NULL%1,      Wen-Guang%Tian%NULL%1,      Hai-Jun%Deng%NULL%1,      Jie-Li%Hu%NULL%1,      Xian-Xiang%Zhang%NULL%1,      NULL%Pu-Liao%NULL%1,      Jiang-Lin%Xiang%NULL%1,      Dao-Xin%Wang%NULL%1,      Peng%Hu%NULL%0,      Fa-Chun%Zhou%NULL%1,      Zhi-Jie%Li%NULL%1,      Hong-Mei%Xu%NULL%1,      Xue-Fei%Cai%NULL%1,      De-Qiang%Wang%NULL%1,      Yuan%Hu%NULL%1,      Ni%Tang%NULL%1,      Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,      Gui-Cheng%Wu%wuguic@hotmail.com%1,      Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,      Wenhua%Liang%NULL%0,      Mei%Jiang%NULL%0,      Weijie%Guan%NULL%0,      Chen%Zhan%NULL%0,      Tao%Wang%NULL%0,      Chunli%Tang%NULL%0,      Ling%Sang%NULL%0,      Jiaxing%Liu%NULL%0,      Zhengyi%Ni%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chunliang%Lei%NULL%0,      Yixiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Yahua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jianming%Wang%NULL%0,      Jiyang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhijian%Zheng%NULL%0,      Shaoqin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Changjiang%Ye%NULL%0,      Shaoyong%Zhu%NULL%0,      Xiaoqing%Liu%NULL%0,      Linling%Cheng%NULL%0,      Feng%Ye%NULL%0,      Jinping%Zheng%NULL%0,      Nuofu%Zhang%NULL%0,      Yimin%Li%NULL%0,      Jianxing%He%NULL%0,      Shiyue%Li%lishiyue@188.com%0,      Nanshan%Zhong%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,      Wei%An%NULL%2,      Wei%An%NULL%0,      Fei%Xia%NULL%0,      Ping%Yang%NULL%1,      Kuangyu%Li%NULL%1,      Qin%Zhou%NULL%1,      Shasha%Fang%NULL%1,      Yaling%Liao%NULL%1,      Xin%Xu%NULL%0,      Jialin%Liu%NULL%1,      Shiguo%Liu%NULL%1,      Tao%Qin%NULL%1,      Jianjun%Zhang%NULL%1,      Wei%Wei%NULL%0,      Yafang%Zhang%NULL%1,      Guowei%Zhang%NULL%1,      Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,      Nan%Yang%NULL%2,      Nan%Yang%NULL%0,      Yanqiu%Wei%NULL%1,      Huihui%Yue%NULL%1,      Fengqin%Zhang%NULL%1,      Jianping%Zhao%NULL%0,      Li%He%NULL%0,      Gaohong%Sheng%NULL%2,      Gaohong%Sheng%NULL%0,      Peng%Chen%NULL%1,      Gang%Li%NULL%0,      Sisi%Wu%NULL%1,      Bo%Zhang%NULL%0,      Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,      Xiaoping%Miao%miaoxp@hust.edu.cn%1,      Juan%Li%lijuan@tjh.tjmu.edu.cn%0,      Wenhua%Liu%liuwh_2013@126.com%1,      Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,      Susannah%Ahern%NULL%1,      Scott C.%Bell%NULL%1,      Keith%Brownlee%NULL%1,      Pierre-Régis%Burgel%NULL%1,      Cass%Byrnes%NULL%1,      Harriet%Corvol%NULL%1,      Stephanie Y.%Cheng%NULL%1,      Alexander%Elbert%NULL%1,      Albert%Faro%NULL%1,      Christopher H.%Goss%NULL%1,      Vincent%Gulmans%NULL%1,      Bruce C.%Marshall%NULL%1,      Edward%McKone%NULL%1,      Peter G.%Middleton%NULL%1,      Rasa%Ruseckaite%NULL%1,      Anne L.%Stephenson%NULL%1,      Siobhán B%Carr%NULL%1,      David%Reid%NULL%1,      Peter%Wark%NULL%1,      Géraldine%Daneau%NULL%1,      Véronique%Boussaud%NULL%1,      Graziella%Brinchault%NULL%1,      Emmanuelle%Coirier-Duet%NULL%1,      Jean-Christophe%Dubus%NULL%1,      Dominique%Grenet%NULL%1,      Sandra de%Miranda%NULL%1,      Laurence%Beaumont%NULL%1,      Reem%Kanaan%NULL%1,      Muriel%Lauraens%NULL%1,      Clémence%Martin%NULL%1,      Marie%Mittaine%NULL%1,      Anne%Prévotat%NULL%1,      Martine%Reynaud-Gaubert%NULL%1,      Isabelle%Sermet-Gaudelus%NULL%1,      Aurelie%Tatopoulos%NULL%1,      Lutz%Nährlich%NULL%1,      Barry%Plant%NULL%1,      Cedric%Gunaratnam%NULL%1,      Abaigeal%Jackson%NULL%1,      Karin M. de Winter-de%Groot%NULL%1,      Bart%Luijk%NULL%1,      Geertjan%Wesseling%NULL%1,      Mark%Allenby%NULL%1,      Jamie%Duckers%NULL%1,      Elaine%Gunn%NULL%1,      Andrew%Jones%NULL%1,      Robert Ian%Ketchell%NULL%1,      Susan L.%Madge%NULL%1,      Anirban%Maitra%NULL%1,      Ghulam%Mujtaba%NULL%1,      Helen%Rodgers%NULL%1,      Nadia%Shafi%NULL%1,      Nicholas%Simmonds%NULL%1,      Kevin%Southern%NULL%1,      Danie%Watson%NULL%1,      Samar%Rizvi%NULL%1,      Julie%Seguin%NULL%1,      Janet%Garbarz%NULL%1,      Kristen%Rosamilia%NULL%1,      Maria%Berdella%NULL%1,      Jerry A.%Nick%NULL%1,      Richard%Belkin%NULL%1,      Diana%Gilmore%NULL%1,      Kim%McBennett%NULL%1,      Rita%Padoan%NULL%1,      Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,      Matthew R%Baldwin%NULL%0,      Darryl%Abrams%NULL%1,      Samuel D%Jacobson%NULL%1,      Benjamin J%Meyer%NULL%1,      Elizabeth M%Balough%NULL%1,      Justin G%Aaron%NULL%1,      Jan%Claassen%NULL%0,      LeRoy E%Rabbani%NULL%1,      Jonathan%Hastie%NULL%1,      Beth R%Hochman%NULL%1,      John%Salazar-Schicchi%NULL%1,      Natalie H%Yip%NULL%1,      Daniel%Brodie%NULL%0,      Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,      Xin%Zhang%NULL%0,      Jianguo%Xia%NULL%1,      Tao%Zhang%NULL%1,      Yalei%Shang%NULL%1,      Renjun%Huang%NULL%1,      Rongrong%Liu%NULL%1,      Dan%Wang%NULL%1,      Min%Li%105549156@qq.com%1,      Jinping%Wu%czwjp@sina.com%1,      Qiuzhen%Xu%xuqiuzhen831@sina.com%1,      Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,       Shiva%Samavat%NULL%1,       Behdad%Behnam%NULL%1,       Mehran%Arab-Ahmadi%NULL%1,       Mohsen%Nafar%NULL%1,       Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,       Elisa%Delbarba%NULL%2,       Chiara%Manenti%NULL%2,       Laura%Econimo%NULL%2,       Francesca%Valerio%NULL%2,       Alessandra%Pola%NULL%2,       Camilla%Maffei%NULL%2,       Stefano%Possenti%NULL%2,       Nicole%Zambetti%NULL%1,       Marianna%Moscato%NULL%1,       Margherita%Venturini%NULL%1,       Stefania%Affatato%NULL%2,       Mario%Gaggiotti%NULL%2,       Nicola%Bossini%NULL%2,       Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,       Elisa%Delbarba%NULL%0,       Chiara%Manenti%NULL%0,       Laura%Econimo%NULL%0,       Francesca%Valerio%NULL%0,       Alessandra%Pola%NULL%0,       Camilla%Maffei%NULL%0,       Stefano%Possenti%NULL%0,       Bernardo%Lucca%NULL%1,       Roberta%Cortinovis%NULL%1,       Vincenzo%Terlizzi%NULL%1,       Mattia%Zappa%NULL%1,       Chiara%Saccà%NULL%1,       Elena%Pezzini%NULL%1,       Eleonora%Calcaterra%NULL%1,       Paola%Piarulli%NULL%1,       Alice%Guerini%NULL%1,       Francesca%Boni%NULL%1,       Agnese%Gallico%NULL%1,       Alberto%Mucchetti%NULL%1,       Stefania%Affatato%NULL%0,       Sergio%Bove%NULL%1,       Martina%Bracchi%NULL%1,       Ester Maria%Costantino%NULL%1,       Roberto%Zubani%NULL%1,       Corrado%Camerini%NULL%1,       Paola%Gaggia%NULL%1,       Ezio%Movilli%NULL%1,       Nicola%Bossini%NULL%0,       Mario%Gaggiotti%NULL%0,       Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,       Jordi%Rello%NULL%1,       Sofia%Tejada%NULL%1,       Alejandro%Martín%NULL%1,       Goiatz%Balziskueta%NULL%1,       Cristina%Vinuesa%NULL%1,       Borja%Fernández-Miret%NULL%1,       Ana%Villagra%NULL%1,       Ana%Vallejo%NULL%1,       Ana%San Sebastián%NULL%1,       Sara%Cabañes%NULL%1,       Sebastián%Iribarren%NULL%1,       Fernando%Fonseca%NULL%1,       Javier%Maynar%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,       Denise J%McCulloch%NULL%2,       Denise J%McCulloch%NULL%0,       Vidya%Atluri%NULL%1,       Michela%Blain%NULL%1,       Sarah A%McGuffin%NULL%1,       Arun K%Nalla%NULL%1,       Meei-Li%Huang%NULL%1,       Alex L%Greninger%NULL%1,       Keith R%Jerome%NULL%1,       Seth A%Cohen%NULL%1,       Santiago%Neme%NULL%1,       Margaret L%Green%NULL%1,       Helen Y%Chu%NULL%1,       H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,       Timothy%Mazzuchelli%NULL%1,       Elia%Lo Priore%NULL%1,       Carlo%Balmelli%NULL%1,       Michael%Llamas%NULL%1,       Micol%Pallanza%NULL%1,       Luigia%Elzi%NULL%1,       Vera%Consonni%NULL%1,       Pierpaolo%Trimboli%NULL%1,       Valentina%Forni-Ogna%NULL%1,       Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,     Deliang%Huang%coreGivesNoEmail%0,     Hong%Yu%coreGivesNoEmail%0,     Jun%Chen%coreGivesNoEmail%0,     Lei%Liu%coreGivesNoEmail%0,     National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,     Pengcheng%Ou%coreGivesNoEmail%0,     Qing%He%coreGivesNoEmail%0,     Qingxian%Cai%coreGivesNoEmail%0,     Rossaint%J%coreGivesNoEmail%0,     Yang%Fu%coreGivesNoEmail%0,     Yiming%Zhang%coreGivesNoEmail%0,     Yinan%Su%coreGivesNoEmail%0,     Zhang%Xia%coreGivesNoEmail%0,     Zhenghua%Ma%coreGivesNoEmail%0,     Zhibin%Zhu%coreGivesNoEmail%0,     Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,       Yeming%Wang%NULL%0,       Danning%Wen%NULL%1,       Wen%Liu%NULL%1,       Jingli%Wang%NULL%0,       Guohui%Fan%NULL%0,       Lianguo%Ruan%NULL%1,       Bin%Song%NULL%0,       Yanping%Cai%NULL%1,       Ming%Wei%NULL%1,       Xingwang%Li%NULL%0,       Jiaan%Xia%NULL%0,       Nanshan%Chen%NULL%1,       Jie%Xiang%NULL%0,       Ting%Yu%NULL%0,       Tao%Bai%NULL%0,       Xuelei%Xie%NULL%0,       Li%Zhang%NULL%0,       Caihong%Li%NULL%1,       Ye%Yuan%NULL%0,       Hua%Chen%NULL%0,       Huadong%Li%NULL%1,       Hanping%Huang%NULL%1,       Shengjing%Tu%NULL%1,       Fengyun%Gong%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Chongya%Dong%NULL%1,       Fei%Zhou%NULL%1,       Xiaoying%Gu%NULL%0,       Jiuyang%Xu%NULL%0,       Zhibo%Liu%NULL%0,       Yi%Zhang%NULL%0,       Hui%Li%NULL%0,       Lianhan%Shang%NULL%1,       Ke%Wang%NULL%1,       Kunxia%Li%NULL%1,       Xia%Zhou%NULL%1,       Xuan%Dong%NULL%0,       Zhaohui%Qu%NULL%1,       Sixia%Lu%NULL%1,       Xujuan%Hu%NULL%1,       Shunan%Ruan%NULL%1,       Shanshan%Luo%NULL%1,       Jing%Wu%NULL%0,       Lu%Peng%NULL%1,       Fang%Cheng%NULL%0,       Lihong%Pan%NULL%1,       Jun%Zou%NULL%1,       Chunmin%Jia%NULL%1,       Juan%Wang%NULL%1,       Xia%Liu%NULL%1,       Shuzhen%Wang%NULL%1,       Xudong%Wu%NULL%0,       Qin%Ge%NULL%1,       Jing%He%NULL%1,       Haiyan%Zhan%NULL%1,       Fang%Qiu%NULL%1,       Li%Guo%NULL%0,       Chaolin%Huang%NULL%1,       Thomas%Jaki%NULL%1,       Frederick G.%Hayden%NULL%1,       Peter W.%Horby%NULL%1,       Dingyu%Zhang%NULL%1,       Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,       Jia%Wei%NULL%1,       Liang%Zou%NULL%1,       Tiebin%Jiang%NULL%1,       Gaoxiang%Wang%NULL%1,       Liting%Chen%NULL%1,       Liang%Huang%NULL%1,       Fankai%Meng%NULL%1,       Lifang%Huang%NULL%1,       Na%Wang%NULL%1,       Xiaoxi%Zhou%NULL%1,       Hui%Luo%NULL%1,       Zekai%Mao%NULL%1,       Xing%Chen%NULL%1,       Jungang%Xie%NULL%0,       Jing%Liu%NULL%0,       Hui%Cheng%NULL%1,       Jianping%Zhao%NULL%0,       Gang%Huang%NULL%1,       Wei%Wang%NULL%0,       Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,       Giacomo%De Luca%NULL%1,       Corrado%Campochiaro%NULL%1,       Emanuel%Della-Torre%NULL%1,       Marco%Ripa%NULL%1,       Diana%Canetti%NULL%1,       Chiara%Oltolini%NULL%1,       Barbara%Castiglioni%NULL%1,       Chiara%Tassan Din%NULL%1,       Nicola%Boffini%NULL%1,       Alessandro%Tomelleri%NULL%1,       Nicola%Farina%NULL%1,       Annalisa%Ruggeri%NULL%1,       Patrizia%Rovere-Querini%NULL%1,       Giuseppe%Di Lucca%NULL%1,       Sabina%Martinenghi%NULL%1,       Raffaella%Scotti%NULL%1,       Moreno%Tresoldi%NULL%1,       Fabio%Ciceri%NULL%1,       Giovanni%Landoni%NULL%1,       Alberto%Zangrillo%NULL%1,       Paolo%Scarpellini%NULL%1,       Lorenzo%Dagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,       Kim R.%Derespina%NULL%2,       Betsy C.%Herold%NULL%1,       David L.%Goldman%NULL%1,       Margaret%Aldrich%NULL%1,       Jacqueline%Weingarten%NULL%1,       Henry M.%Ushay%NULL%2,       Michael D.%Cabana%NULL%1,       Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,       Zhen-Zhen%Zhang%NULL%1,       Yao-Kai%Chen%NULL%1,       Quan-Xin%Long%NULL%1,       Wen-Guang%Tian%NULL%1,       Hai-Jun%Deng%NULL%1,       Jie-Li%Hu%NULL%1,       Xian-Xiang%Zhang%NULL%1,       NULL%Pu-Liao%NULL%1,       Jiang-Lin%Xiang%NULL%1,       Dao-Xin%Wang%NULL%1,       Peng%Hu%NULL%0,       Fa-Chun%Zhou%NULL%1,       Zhi-Jie%Li%NULL%1,       Hong-Mei%Xu%NULL%1,       Xue-Fei%Cai%NULL%1,       De-Qiang%Wang%NULL%1,       Yuan%Hu%NULL%1,       Ni%Tang%NULL%1,       Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,       Gui-Cheng%Wu%wuguic@hotmail.com%1,       Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,       Zhencang%Zheng%NULL%1,       Chao%Zhang%NULL%1,       Xijiang%Zhang%NULL%1,       Huijuan%Wu%NULL%1,       Jingdong%Wang%NULL%1,       Shuwei%Wang%NULL%1,       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,       Wenhua%Liang%NULL%0,       Mei%Jiang%NULL%0,       Weijie%Guan%NULL%0,       Chen%Zhan%NULL%0,       Tao%Wang%NULL%0,       Chunli%Tang%NULL%0,       Ling%Sang%NULL%0,       Jiaxing%Liu%NULL%0,       Zhengyi%Ni%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chunliang%Lei%NULL%0,       Yixiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Yahua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jianming%Wang%NULL%0,       Jiyang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhijian%Zheng%NULL%0,       Shaoqin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Changjiang%Ye%NULL%0,       Shaoyong%Zhu%NULL%0,       Xiaoqing%Liu%NULL%0,       Linling%Cheng%NULL%0,       Feng%Ye%NULL%0,       Jinping%Zheng%NULL%0,       Nuofu%Zhang%NULL%0,       Yimin%Li%NULL%0,       Jianxing%He%NULL%0,       Shiyue%Li%lishiyue@188.com%0,       Nanshan%Zhong%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,       Wei%An%NULL%2,       Wei%An%NULL%0,       Fei%Xia%NULL%0,       Ping%Yang%NULL%1,       Kuangyu%Li%NULL%1,       Qin%Zhou%NULL%1,       Shasha%Fang%NULL%1,       Yaling%Liao%NULL%1,       Xin%Xu%NULL%0,       Jialin%Liu%NULL%1,       Shiguo%Liu%NULL%1,       Tao%Qin%NULL%1,       Jianjun%Zhang%NULL%1,       Wei%Wei%NULL%0,       Yafang%Zhang%NULL%1,       Guowei%Zhang%NULL%1,       Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,       Nan%Yang%NULL%2,       Nan%Yang%NULL%0,       Yanqiu%Wei%NULL%1,       Huihui%Yue%NULL%1,       Fengqin%Zhang%NULL%1,       Jianping%Zhao%NULL%0,       Li%He%NULL%0,       Gaohong%Sheng%NULL%2,       Gaohong%Sheng%NULL%0,       Peng%Chen%NULL%1,       Gang%Li%NULL%0,       Sisi%Wu%NULL%1,       Bo%Zhang%NULL%0,       Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,       Xiaoping%Miao%miaoxp@hust.edu.cn%1,       Juan%Li%lijuan@tjh.tjmu.edu.cn%0,       Wenhua%Liu%liuwh_2013@126.com%1,       Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,       Susannah%Ahern%NULL%1,       Scott C.%Bell%NULL%1,       Keith%Brownlee%NULL%1,       Pierre-Régis%Burgel%NULL%1,       Cass%Byrnes%NULL%1,       Harriet%Corvol%NULL%1,       Stephanie Y.%Cheng%NULL%1,       Alexander%Elbert%NULL%1,       Albert%Faro%NULL%1,       Christopher H.%Goss%NULL%1,       Vincent%Gulmans%NULL%1,       Bruce C.%Marshall%NULL%1,       Edward%McKone%NULL%1,       Peter G.%Middleton%NULL%1,       Rasa%Ruseckaite%NULL%1,       Anne L.%Stephenson%NULL%1,       Siobhán B%Carr%NULL%1,       David%Reid%NULL%1,       Peter%Wark%NULL%1,       Géraldine%Daneau%NULL%1,       Véronique%Boussaud%NULL%1,       Graziella%Brinchault%NULL%1,       Emmanuelle%Coirier-Duet%NULL%1,       Jean-Christophe%Dubus%NULL%1,       Dominique%Grenet%NULL%1,       Sandra de%Miranda%NULL%1,       Laurence%Beaumont%NULL%1,       Reem%Kanaan%NULL%1,       Muriel%Lauraens%NULL%1,       Clémence%Martin%NULL%1,       Marie%Mittaine%NULL%1,       Anne%Prévotat%NULL%1,       Martine%Reynaud-Gaubert%NULL%1,       Isabelle%Sermet-Gaudelus%NULL%1,       Aurelie%Tatopoulos%NULL%1,       Lutz%Nährlich%NULL%1,       Barry%Plant%NULL%1,       Cedric%Gunaratnam%NULL%1,       Abaigeal%Jackson%NULL%1,       Karin M. de Winter-de%Groot%NULL%1,       Bart%Luijk%NULL%1,       Geertjan%Wesseling%NULL%1,       Mark%Allenby%NULL%1,       Jamie%Duckers%NULL%1,       Elaine%Gunn%NULL%1,       Andrew%Jones%NULL%1,       Robert Ian%Ketchell%NULL%1,       Susan L.%Madge%NULL%1,       Anirban%Maitra%NULL%1,       Ghulam%Mujtaba%NULL%1,       Helen%Rodgers%NULL%1,       Nadia%Shafi%NULL%1,       Nicholas%Simmonds%NULL%1,       Kevin%Southern%NULL%1,       Danie%Watson%NULL%1,       Samar%Rizvi%NULL%1,       Julie%Seguin%NULL%1,       Janet%Garbarz%NULL%1,       Kristen%Rosamilia%NULL%1,       Maria%Berdella%NULL%1,       Jerry A.%Nick%NULL%1,       Richard%Belkin%NULL%1,       Diana%Gilmore%NULL%1,       Kim%McBennett%NULL%1,       Rita%Padoan%NULL%1,       Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,       Matthew R%Baldwin%NULL%0,       Darryl%Abrams%NULL%1,       Samuel D%Jacobson%NULL%1,       Benjamin J%Meyer%NULL%1,       Elizabeth M%Balough%NULL%1,       Justin G%Aaron%NULL%1,       Jan%Claassen%NULL%0,       LeRoy E%Rabbani%NULL%1,       Jonathan%Hastie%NULL%1,       Beth R%Hochman%NULL%1,       John%Salazar-Schicchi%NULL%1,       Natalie H%Yip%NULL%1,       Daniel%Brodie%NULL%0,       Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,       Xin%Zhang%NULL%0,       Jianguo%Xia%NULL%1,       Tao%Zhang%NULL%1,       Yalei%Shang%NULL%1,       Renjun%Huang%NULL%1,       Rongrong%Liu%NULL%1,       Dan%Wang%NULL%1,       Min%Li%105549156@qq.com%1,       Jinping%Wu%czwjp@sina.com%1,       Qiuzhen%Xu%xuqiuzhen831@sina.com%1,       Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,        Shiva%Samavat%NULL%1,        Behdad%Behnam%NULL%1,        Mehran%Arab-Ahmadi%NULL%1,        Mohsen%Nafar%NULL%1,        Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,        Elisa%Delbarba%NULL%2,        Chiara%Manenti%NULL%2,        Laura%Econimo%NULL%2,        Francesca%Valerio%NULL%2,        Alessandra%Pola%NULL%2,        Camilla%Maffei%NULL%2,        Stefano%Possenti%NULL%2,        Nicole%Zambetti%NULL%1,        Marianna%Moscato%NULL%1,        Margherita%Venturini%NULL%1,        Stefania%Affatato%NULL%2,        Mario%Gaggiotti%NULL%2,        Nicola%Bossini%NULL%2,        Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,        Elisa%Delbarba%NULL%0,        Chiara%Manenti%NULL%0,        Laura%Econimo%NULL%0,        Francesca%Valerio%NULL%0,        Alessandra%Pola%NULL%0,        Camilla%Maffei%NULL%0,        Stefano%Possenti%NULL%0,        Bernardo%Lucca%NULL%1,        Roberta%Cortinovis%NULL%1,        Vincenzo%Terlizzi%NULL%1,        Mattia%Zappa%NULL%1,        Chiara%Saccà%NULL%1,        Elena%Pezzini%NULL%1,        Eleonora%Calcaterra%NULL%1,        Paola%Piarulli%NULL%1,        Alice%Guerini%NULL%1,        Francesca%Boni%NULL%1,        Agnese%Gallico%NULL%1,        Alberto%Mucchetti%NULL%1,        Stefania%Affatato%NULL%0,        Sergio%Bove%NULL%1,        Martina%Bracchi%NULL%1,        Ester Maria%Costantino%NULL%1,        Roberto%Zubani%NULL%1,        Corrado%Camerini%NULL%1,        Paola%Gaggia%NULL%1,        Ezio%Movilli%NULL%1,        Nicola%Bossini%NULL%0,        Mario%Gaggiotti%NULL%0,        Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,        Jordi%Rello%NULL%1,        Sofia%Tejada%NULL%1,        Alejandro%Martín%NULL%1,        Goiatz%Balziskueta%NULL%1,        Cristina%Vinuesa%NULL%1,        Borja%Fernández-Miret%NULL%1,        Ana%Villagra%NULL%1,        Ana%Vallejo%NULL%1,        Ana%San Sebastián%NULL%1,        Sara%Cabañes%NULL%1,        Sebastián%Iribarren%NULL%1,        Fernando%Fonseca%NULL%1,        Javier%Maynar%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,        Denise J%McCulloch%NULL%2,        Denise J%McCulloch%NULL%0,        Vidya%Atluri%NULL%1,        Michela%Blain%NULL%1,        Sarah A%McGuffin%NULL%1,        Arun K%Nalla%NULL%1,        Meei-Li%Huang%NULL%1,        Alex L%Greninger%NULL%1,        Keith R%Jerome%NULL%1,        Seth A%Cohen%NULL%1,        Santiago%Neme%NULL%1,        Margaret L%Green%NULL%1,        Helen Y%Chu%NULL%1,        H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,        Timothy%Mazzuchelli%NULL%1,        Elia%Lo Priore%NULL%1,        Carlo%Balmelli%NULL%1,        Michael%Llamas%NULL%1,        Micol%Pallanza%NULL%1,        Luigia%Elzi%NULL%1,        Vera%Consonni%NULL%1,        Pierpaolo%Trimboli%NULL%1,        Valentina%Forni-Ogna%NULL%1,        Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,      Deliang%Huang%coreGivesNoEmail%0,      Hong%Yu%coreGivesNoEmail%0,      Jun%Chen%coreGivesNoEmail%0,      Lei%Liu%coreGivesNoEmail%0,      National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,      Pengcheng%Ou%coreGivesNoEmail%0,      Qing%He%coreGivesNoEmail%0,      Qingxian%Cai%coreGivesNoEmail%0,      Rossaint%J%coreGivesNoEmail%0,      Yang%Fu%coreGivesNoEmail%0,      Yiming%Zhang%coreGivesNoEmail%0,      Yinan%Su%coreGivesNoEmail%0,      Zhang%Xia%coreGivesNoEmail%0,      Zhenghua%Ma%coreGivesNoEmail%0,      Zhibin%Zhu%coreGivesNoEmail%0,      Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,        Yeming%Wang%NULL%0,        Danning%Wen%NULL%1,        Wen%Liu%NULL%1,        Jingli%Wang%NULL%0,        Guohui%Fan%NULL%0,        Lianguo%Ruan%NULL%1,        Bin%Song%NULL%0,        Yanping%Cai%NULL%1,        Ming%Wei%NULL%1,        Xingwang%Li%NULL%0,        Jiaan%Xia%NULL%0,        Nanshan%Chen%NULL%1,        Jie%Xiang%NULL%0,        Ting%Yu%NULL%0,        Tao%Bai%NULL%0,        Xuelei%Xie%NULL%0,        Li%Zhang%NULL%0,        Caihong%Li%NULL%1,        Ye%Yuan%NULL%0,        Hua%Chen%NULL%0,        Huadong%Li%NULL%1,        Hanping%Huang%NULL%1,        Shengjing%Tu%NULL%1,        Fengyun%Gong%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Chongya%Dong%NULL%1,        Fei%Zhou%NULL%1,        Xiaoying%Gu%NULL%0,        Jiuyang%Xu%NULL%0,        Zhibo%Liu%NULL%0,        Yi%Zhang%NULL%0,        Hui%Li%NULL%0,        Lianhan%Shang%NULL%1,        Ke%Wang%NULL%1,        Kunxia%Li%NULL%1,        Xia%Zhou%NULL%1,        Xuan%Dong%NULL%0,        Zhaohui%Qu%NULL%1,        Sixia%Lu%NULL%1,        Xujuan%Hu%NULL%1,        Shunan%Ruan%NULL%1,        Shanshan%Luo%NULL%1,        Jing%Wu%NULL%0,        Lu%Peng%NULL%1,        Fang%Cheng%NULL%0,        Lihong%Pan%NULL%1,        Jun%Zou%NULL%1,        Chunmin%Jia%NULL%1,        Juan%Wang%NULL%1,        Xia%Liu%NULL%1,        Shuzhen%Wang%NULL%1,        Xudong%Wu%NULL%0,        Qin%Ge%NULL%1,        Jing%He%NULL%1,        Haiyan%Zhan%NULL%1,        Fang%Qiu%NULL%1,        Li%Guo%NULL%0,        Chaolin%Huang%NULL%1,        Thomas%Jaki%NULL%1,        Frederick G.%Hayden%NULL%1,        Peter W.%Horby%NULL%1,        Dingyu%Zhang%NULL%1,        Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,        Jia%Wei%NULL%1,        Liang%Zou%NULL%1,        Tiebin%Jiang%NULL%1,        Gaoxiang%Wang%NULL%1,        Liting%Chen%NULL%1,        Liang%Huang%NULL%1,        Fankai%Meng%NULL%1,        Lifang%Huang%NULL%1,        Na%Wang%NULL%1,        Xiaoxi%Zhou%NULL%1,        Hui%Luo%NULL%1,        Zekai%Mao%NULL%1,        Xing%Chen%NULL%1,        Jungang%Xie%NULL%0,        Jing%Liu%NULL%0,        Hui%Cheng%NULL%1,        Jianping%Zhao%NULL%0,        Gang%Huang%NULL%1,        Wei%Wang%NULL%0,        Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,        Giacomo%De Luca%NULL%1,        Corrado%Campochiaro%NULL%1,        Emanuel%Della-Torre%NULL%1,        Marco%Ripa%NULL%1,        Diana%Canetti%NULL%1,        Chiara%Oltolini%NULL%1,        Barbara%Castiglioni%NULL%1,        Chiara%Tassan Din%NULL%1,        Nicola%Boffini%NULL%1,        Alessandro%Tomelleri%NULL%1,        Nicola%Farina%NULL%1,        Annalisa%Ruggeri%NULL%1,        Patrizia%Rovere-Querini%NULL%1,        Giuseppe%Di Lucca%NULL%1,        Sabina%Martinenghi%NULL%1,        Raffaella%Scotti%NULL%1,        Moreno%Tresoldi%NULL%1,        Fabio%Ciceri%NULL%1,        Giovanni%Landoni%NULL%1,        Alberto%Zangrillo%NULL%1,        Paolo%Scarpellini%NULL%1,        Lorenzo%Dagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,        Kim R.%Derespina%NULL%2,        Betsy C.%Herold%NULL%1,        David L.%Goldman%NULL%1,        Margaret%Aldrich%NULL%1,        Jacqueline%Weingarten%NULL%1,        Henry M.%Ushay%NULL%2,        Michael D.%Cabana%NULL%1,        Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,        Zhen-Zhen%Zhang%NULL%1,        Yao-Kai%Chen%NULL%1,        Quan-Xin%Long%NULL%1,        Wen-Guang%Tian%NULL%1,        Hai-Jun%Deng%NULL%1,        Jie-Li%Hu%NULL%1,        Xian-Xiang%Zhang%NULL%1,        NULL%Pu-Liao%NULL%1,        Jiang-Lin%Xiang%NULL%1,        Dao-Xin%Wang%NULL%1,        Peng%Hu%NULL%0,        Fa-Chun%Zhou%NULL%1,        Zhi-Jie%Li%NULL%1,        Hong-Mei%Xu%NULL%1,        Xue-Fei%Cai%NULL%1,        De-Qiang%Wang%NULL%1,        Yuan%Hu%NULL%1,        Ni%Tang%NULL%1,        Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,        Gui-Cheng%Wu%wuguic@hotmail.com%1,        Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,        Zhencang%Zheng%NULL%1,        Chao%Zhang%NULL%1,        Xijiang%Zhang%NULL%1,        Huijuan%Wu%NULL%1,        Jingdong%Wang%NULL%1,        Shuwei%Wang%NULL%1,        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,        Wenhua%Liang%NULL%0,        Mei%Jiang%NULL%0,        Weijie%Guan%NULL%0,        Chen%Zhan%NULL%0,        Tao%Wang%NULL%0,        Chunli%Tang%NULL%0,        Ling%Sang%NULL%0,        Jiaxing%Liu%NULL%0,        Zhengyi%Ni%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chunliang%Lei%NULL%0,        Yixiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Yahua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jianming%Wang%NULL%0,        Jiyang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhijian%Zheng%NULL%0,        Shaoqin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Changjiang%Ye%NULL%0,        Shaoyong%Zhu%NULL%0,        Xiaoqing%Liu%NULL%0,        Linling%Cheng%NULL%0,        Feng%Ye%NULL%0,        Jinping%Zheng%NULL%0,        Nuofu%Zhang%NULL%0,        Yimin%Li%NULL%0,        Jianxing%He%NULL%0,        Shiyue%Li%lishiyue@188.com%0,        Nanshan%Zhong%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,        Wei%An%NULL%2,        Wei%An%NULL%0,        Fei%Xia%NULL%0,        Ping%Yang%NULL%1,        Kuangyu%Li%NULL%1,        Qin%Zhou%NULL%1,        Shasha%Fang%NULL%1,        Yaling%Liao%NULL%1,        Xin%Xu%NULL%0,        Jialin%Liu%NULL%1,        Shiguo%Liu%NULL%1,        Tao%Qin%NULL%1,        Jianjun%Zhang%NULL%1,        Wei%Wei%NULL%0,        Yafang%Zhang%NULL%1,        Guowei%Zhang%NULL%1,        Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,        Nan%Yang%NULL%2,        Nan%Yang%NULL%0,        Yanqiu%Wei%NULL%1,        Huihui%Yue%NULL%1,        Fengqin%Zhang%NULL%1,        Jianping%Zhao%NULL%0,        Li%He%NULL%0,        Gaohong%Sheng%NULL%2,        Gaohong%Sheng%NULL%0,        Peng%Chen%NULL%1,        Gang%Li%NULL%0,        Sisi%Wu%NULL%1,        Bo%Zhang%NULL%0,        Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,        Xiaoping%Miao%miaoxp@hust.edu.cn%1,        Juan%Li%lijuan@tjh.tjmu.edu.cn%0,        Wenhua%Liu%liuwh_2013@126.com%1,        Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,        Susannah%Ahern%NULL%1,        Scott C.%Bell%NULL%1,        Keith%Brownlee%NULL%1,        Pierre-Régis%Burgel%NULL%1,        Cass%Byrnes%NULL%1,        Harriet%Corvol%NULL%1,        Stephanie Y.%Cheng%NULL%1,        Alexander%Elbert%NULL%1,        Albert%Faro%NULL%1,        Christopher H.%Goss%NULL%1,        Vincent%Gulmans%NULL%1,        Bruce C.%Marshall%NULL%1,        Edward%McKone%NULL%1,        Peter G.%Middleton%NULL%1,        Rasa%Ruseckaite%NULL%1,        Anne L.%Stephenson%NULL%1,        Siobhán B%Carr%NULL%1,        David%Reid%NULL%1,        Peter%Wark%NULL%1,        Géraldine%Daneau%NULL%1,        Véronique%Boussaud%NULL%1,        Graziella%Brinchault%NULL%1,        Emmanuelle%Coirier-Duet%NULL%1,        Jean-Christophe%Dubus%NULL%1,        Dominique%Grenet%NULL%1,        Sandra de%Miranda%NULL%1,        Laurence%Beaumont%NULL%1,        Reem%Kanaan%NULL%1,        Muriel%Lauraens%NULL%1,        Clémence%Martin%NULL%1,        Marie%Mittaine%NULL%1,        Anne%Prévotat%NULL%1,        Martine%Reynaud-Gaubert%NULL%1,        Isabelle%Sermet-Gaudelus%NULL%1,        Aurelie%Tatopoulos%NULL%1,        Lutz%Nährlich%NULL%1,        Barry%Plant%NULL%1,        Cedric%Gunaratnam%NULL%1,        Abaigeal%Jackson%NULL%1,        Karin M. de Winter-de%Groot%NULL%1,        Bart%Luijk%NULL%1,        Geertjan%Wesseling%NULL%1,        Mark%Allenby%NULL%1,        Jamie%Duckers%NULL%1,        Elaine%Gunn%NULL%1,        Andrew%Jones%NULL%1,        Robert Ian%Ketchell%NULL%1,        Susan L.%Madge%NULL%1,        Anirban%Maitra%NULL%1,        Ghulam%Mujtaba%NULL%1,        Helen%Rodgers%NULL%1,        Nadia%Shafi%NULL%1,        Nicholas%Simmonds%NULL%1,        Kevin%Southern%NULL%1,        Danie%Watson%NULL%1,        Samar%Rizvi%NULL%1,        Julie%Seguin%NULL%1,        Janet%Garbarz%NULL%1,        Kristen%Rosamilia%NULL%1,        Maria%Berdella%NULL%1,        Jerry A.%Nick%NULL%1,        Richard%Belkin%NULL%1,        Diana%Gilmore%NULL%1,        Kim%McBennett%NULL%1,        Rita%Padoan%NULL%1,        Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,        Matthew R%Baldwin%NULL%0,        Darryl%Abrams%NULL%1,        Samuel D%Jacobson%NULL%1,        Benjamin J%Meyer%NULL%1,        Elizabeth M%Balough%NULL%1,        Justin G%Aaron%NULL%1,        Jan%Claassen%NULL%0,        LeRoy E%Rabbani%NULL%1,        Jonathan%Hastie%NULL%1,        Beth R%Hochman%NULL%1,        John%Salazar-Schicchi%NULL%1,        Natalie H%Yip%NULL%1,        Daniel%Brodie%NULL%0,        Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,        Xin%Zhang%NULL%0,        Jianguo%Xia%NULL%1,        Tao%Zhang%NULL%1,        Yalei%Shang%NULL%1,        Renjun%Huang%NULL%1,        Rongrong%Liu%NULL%1,        Dan%Wang%NULL%1,        Min%Li%105549156@qq.com%1,        Jinping%Wu%czwjp@sina.com%1,        Qiuzhen%Xu%xuqiuzhen831@sina.com%1,        Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1623,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1454,7 +1652,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1483,7 +1681,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1512,7 +1710,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1541,7 +1739,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1570,7 +1768,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1599,13 +1797,13 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
@@ -1628,7 +1826,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1657,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -1686,7 +1884,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -1715,7 +1913,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -1744,7 +1942,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -1773,7 +1971,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -1831,7 +2029,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -1860,7 +2058,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -1889,7 +2087,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -1918,7 +2116,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -1947,7 +2145,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -1976,7 +2174,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2005,7 +2203,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2034,7 +2232,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2063,7 +2261,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="345">
   <si>
     <t>Doi</t>
   </si>
@@ -1238,6 +1238,153 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,        Xin%Zhang%NULL%0,        Jianguo%Xia%NULL%1,        Tao%Zhang%NULL%1,        Yalei%Shang%NULL%1,        Renjun%Huang%NULL%1,        Rongrong%Liu%NULL%1,        Dan%Wang%NULL%1,        Min%Li%105549156@qq.com%1,        Jinping%Wu%czwjp@sina.com%1,        Qiuzhen%Xu%xuqiuzhen831@sina.com%1,        Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,         Shiva%Samavat%NULL%1,         Behdad%Behnam%NULL%1,         Mehran%Arab-Ahmadi%NULL%1,         Mohsen%Nafar%NULL%1,         Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,         Elisa%Delbarba%NULL%2,         Chiara%Manenti%NULL%2,         Laura%Econimo%NULL%2,         Francesca%Valerio%NULL%2,         Alessandra%Pola%NULL%2,         Camilla%Maffei%NULL%2,         Stefano%Possenti%NULL%2,         Nicole%Zambetti%NULL%1,         Marianna%Moscato%NULL%1,         Margherita%Venturini%NULL%1,         Stefania%Affatato%NULL%2,         Mario%Gaggiotti%NULL%2,         Nicola%Bossini%NULL%2,         Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,         Elisa%Delbarba%NULL%0,         Chiara%Manenti%NULL%0,         Laura%Econimo%NULL%0,         Francesca%Valerio%NULL%0,         Alessandra%Pola%NULL%0,         Camilla%Maffei%NULL%0,         Stefano%Possenti%NULL%0,         Bernardo%Lucca%NULL%1,         Roberta%Cortinovis%NULL%1,         Vincenzo%Terlizzi%NULL%1,         Mattia%Zappa%NULL%1,         Chiara%Saccà%NULL%1,         Elena%Pezzini%NULL%1,         Eleonora%Calcaterra%NULL%1,         Paola%Piarulli%NULL%1,         Alice%Guerini%NULL%1,         Francesca%Boni%NULL%1,         Agnese%Gallico%NULL%1,         Alberto%Mucchetti%NULL%1,         Stefania%Affatato%NULL%0,         Sergio%Bove%NULL%1,         Martina%Bracchi%NULL%1,         Ester Maria%Costantino%NULL%1,         Roberto%Zubani%NULL%1,         Corrado%Camerini%NULL%1,         Paola%Gaggia%NULL%1,         Ezio%Movilli%NULL%1,         Nicola%Bossini%NULL%0,         Mario%Gaggiotti%NULL%0,         Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,         Jordi%Rello%NULL%1,         Sofia%Tejada%NULL%1,         Alejandro%Martín%NULL%1,         Goiatz%Balziskueta%NULL%1,         Cristina%Vinuesa%NULL%1,         Borja%Fernández-Miret%NULL%1,         Ana%Villagra%NULL%1,         Ana%Vallejo%NULL%1,         Ana%San Sebastián%NULL%1,         Sara%Cabañes%NULL%1,         Sebastián%Iribarren%NULL%1,         Fernando%Fonseca%NULL%1,         Javier%Maynar%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,         Denise J%McCulloch%NULL%0,         Denise J%McCulloch%NULL%0,         Vidya%Atluri%NULL%0,         Michela%Blain%NULL%0,         Sarah A%McGuffin%NULL%0,         Arun K%Nalla%NULL%0,         Meei-Li%Huang%NULL%0,         Alex L%Greninger%NULL%0,         Keith R%Jerome%NULL%0,         Seth A%Cohen%NULL%0,         Santiago%Neme%NULL%0,         Margaret L%Green%NULL%0,         Helen Y%Chu%NULL%0,         H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,         Timothy%Mazzuchelli%NULL%1,         Elia%Lo Priore%NULL%1,         Carlo%Balmelli%NULL%1,         Michael%Llamas%NULL%1,         Micol%Pallanza%NULL%1,         Luigia%Elzi%NULL%1,         Vera%Consonni%NULL%1,         Pierpaolo%Trimboli%NULL%1,         Valentina%Forni-Ogna%NULL%1,         Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,       Deliang%Huang%coreGivesNoEmail%0,       Hong%Yu%coreGivesNoEmail%0,       Jun%Chen%coreGivesNoEmail%0,       Lei%Liu%coreGivesNoEmail%0,       National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,       Pengcheng%Ou%coreGivesNoEmail%0,       Qing%He%coreGivesNoEmail%0,       Qingxian%Cai%coreGivesNoEmail%0,       Rossaint%J%coreGivesNoEmail%0,       Yang%Fu%coreGivesNoEmail%0,       Yiming%Zhang%coreGivesNoEmail%0,       Yinan%Su%coreGivesNoEmail%0,       Zhang%Xia%coreGivesNoEmail%0,       Zhenghua%Ma%coreGivesNoEmail%0,       Zhibin%Zhu%coreGivesNoEmail%0,       Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,         Yeming%Wang%NULL%0,         Danning%Wen%NULL%1,         Wen%Liu%NULL%1,         Jingli%Wang%NULL%0,         Guohui%Fan%NULL%0,         Lianguo%Ruan%NULL%1,         Bin%Song%NULL%0,         Yanping%Cai%NULL%1,         Ming%Wei%NULL%1,         Xingwang%Li%NULL%0,         Jiaan%Xia%NULL%0,         Nanshan%Chen%NULL%1,         Jie%Xiang%NULL%0,         Ting%Yu%NULL%0,         Tao%Bai%NULL%0,         Xuelei%Xie%NULL%0,         Li%Zhang%NULL%0,         Caihong%Li%NULL%1,         Ye%Yuan%NULL%0,         Hua%Chen%NULL%0,         Huadong%Li%NULL%1,         Hanping%Huang%NULL%1,         Shengjing%Tu%NULL%1,         Fengyun%Gong%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Chongya%Dong%NULL%1,         Fei%Zhou%NULL%1,         Xiaoying%Gu%NULL%0,         Jiuyang%Xu%NULL%0,         Zhibo%Liu%NULL%0,         Yi%Zhang%NULL%0,         Hui%Li%NULL%0,         Lianhan%Shang%NULL%1,         Ke%Wang%NULL%0,         Kunxia%Li%NULL%1,         Xia%Zhou%NULL%1,         Xuan%Dong%NULL%0,         Zhaohui%Qu%NULL%1,         Sixia%Lu%NULL%1,         Xujuan%Hu%NULL%1,         Shunan%Ruan%NULL%1,         Shanshan%Luo%NULL%1,         Jing%Wu%NULL%0,         Lu%Peng%NULL%1,         Fang%Cheng%NULL%0,         Lihong%Pan%NULL%1,         Jun%Zou%NULL%1,         Chunmin%Jia%NULL%1,         Juan%Wang%NULL%1,         Xia%Liu%NULL%1,         Shuzhen%Wang%NULL%1,         Xudong%Wu%NULL%0,         Qin%Ge%NULL%1,         Jing%He%NULL%1,         Haiyan%Zhan%NULL%1,         Fang%Qiu%NULL%1,         Li%Guo%NULL%0,         Chaolin%Huang%NULL%1,         Thomas%Jaki%NULL%1,         Frederick G.%Hayden%NULL%1,         Peter W.%Horby%NULL%1,         Dingyu%Zhang%NULL%1,         Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,         Jia%Wei%NULL%1,         Liang%Zou%NULL%1,         Tiebin%Jiang%NULL%1,         Gaoxiang%Wang%NULL%1,         Liting%Chen%NULL%1,         Liang%Huang%NULL%1,         Fankai%Meng%NULL%1,         Lifang%Huang%NULL%1,         Na%Wang%NULL%1,         Xiaoxi%Zhou%NULL%1,         Hui%Luo%NULL%1,         Zekai%Mao%NULL%1,         Xing%Chen%NULL%1,         Jungang%Xie%NULL%0,         Jing%Liu%NULL%0,         Hui%Cheng%NULL%1,         Jianping%Zhao%NULL%0,         Gang%Huang%NULL%1,         Wei%Wang%NULL%0,         Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,         Giacomo%De Luca%NULL%1,         Corrado%Campochiaro%NULL%1,         Emanuel%Della-Torre%NULL%1,         Marco%Ripa%NULL%1,         Diana%Canetti%NULL%1,         Chiara%Oltolini%NULL%1,         Barbara%Castiglioni%NULL%1,         Chiara%Tassan Din%NULL%1,         Nicola%Boffini%NULL%1,         Alessandro%Tomelleri%NULL%1,         Nicola%Farina%NULL%1,         Annalisa%Ruggeri%NULL%0,         Patrizia%Rovere-Querini%NULL%0,         Giuseppe%Di Lucca%NULL%1,         Sabina%Martinenghi%NULL%1,         Raffaella%Scotti%NULL%1,         Moreno%Tresoldi%NULL%0,         Fabio%Ciceri%NULL%1,         Giovanni%Landoni%NULL%0,         Alberto%Zangrillo%NULL%0,         Paolo%Scarpellini%NULL%0,         Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,         Kim R.%Derespina%NULL%2,         Betsy C.%Herold%NULL%1,         David L.%Goldman%NULL%1,         Margaret%Aldrich%NULL%1,         Jacqueline%Weingarten%NULL%1,         Henry M.%Ushay%NULL%2,         Michael D.%Cabana%NULL%1,         Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Clinical and immunological features of severe and moderate coronavirus disease 2019"</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0, Di%Wu%xref no email%0, Wei%Guo%xref no email%0, Yong%Cao%xref no email%0, Da%Huang%xref no email%0, Hongwu%Wang%xref no email%0, Tao%Wang%xref no email%0, Xiaoyun%Zhang%xref no email%0, Huilong%Chen%xref no email%0, Haijing%Yu%xref no email%0, Xiaoping%Zhang%xref no email%0, Minxia%Zhang%xref no email%0, Shiji%Wu%xref no email%0, Jianxin%Song%xref no email%0, Tao%Chen%xref no email%0, Meifang%Han%xref no email%0, Shusheng%Li%xref no email%0, Xiaoping%Luo%xref no email%0, Jianping%Zhao%xref no email%0, Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,         Zhen-Zhen%Zhang%NULL%1,         Yao-Kai%Chen%NULL%1,         Quan-Xin%Long%NULL%1,         Wen-Guang%Tian%NULL%1,         Hai-Jun%Deng%NULL%1,         Jie-Li%Hu%NULL%1,         Xian-Xiang%Zhang%NULL%1,         NULL%Pu-Liao%NULL%1,         Jiang-Lin%Xiang%NULL%1,         Dao-Xin%Wang%NULL%1,         Peng%Hu%NULL%0,         Fa-Chun%Zhou%NULL%1,         Zhi-Jie%Li%NULL%1,         Hong-Mei%Xu%NULL%1,         Xue-Fei%Cai%NULL%1,         De-Qiang%Wang%NULL%1,         Yuan%Hu%NULL%1,         Ni%Tang%NULL%1,         Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,         Gui-Cheng%Wu%wuguic@hotmail.com%1,         Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,         Zhencang%Zheng%NULL%0,         Chao%Zhang%NULL%0,         Xijiang%Zhang%NULL%0,         Huijuan%Wu%NULL%0,         Jingdong%Wang%NULL%0,         Shuwei%Wang%NULL%0,         Cheng%Zheng%dr.zhengcheng@foxmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,         Wenhua%Liang%NULL%0,         Mei%Jiang%NULL%0,         Weijie%Guan%NULL%0,         Chen%Zhan%NULL%0,         Tao%Wang%NULL%0,         Chunli%Tang%NULL%0,         Ling%Sang%NULL%0,         Jiaxing%Liu%NULL%0,         Zhengyi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chunliang%Lei%NULL%0,         Yixiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Yahua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jianming%Wang%NULL%0,         Jiyang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhijian%Zheng%NULL%0,         Shaoqin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Changjiang%Ye%NULL%0,         Shaoyong%Zhu%NULL%0,         Xiaoqing%Liu%NULL%0,         Linling%Cheng%NULL%0,         Feng%Ye%NULL%0,         Jinping%Zheng%NULL%0,         Nuofu%Zhang%NULL%0,         Yimin%Li%NULL%0,         Jianxing%He%NULL%0,         Shiyue%Li%lishiyue@188.com%0,         Nanshan%Zhong%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,         Wei%An%NULL%2,         Wei%An%NULL%0,         Fei%Xia%NULL%0,         Ping%Yang%NULL%1,         Kuangyu%Li%NULL%1,         Qin%Zhou%NULL%1,         Shasha%Fang%NULL%1,         Yaling%Liao%NULL%1,         Xin%Xu%NULL%0,         Jialin%Liu%NULL%1,         Shiguo%Liu%NULL%1,         Tao%Qin%NULL%1,         Jianjun%Zhang%NULL%1,         Wei%Wei%NULL%0,         Yafang%Zhang%NULL%1,         Guowei%Zhang%NULL%1,         Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,         Nan%Yang%NULL%2,         Nan%Yang%NULL%0,         Yanqiu%Wei%NULL%1,         Huihui%Yue%NULL%1,         Fengqin%Zhang%NULL%1,         Jianping%Zhao%NULL%0,         Li%He%NULL%1,         Gaohong%Sheng%NULL%2,         Gaohong%Sheng%NULL%0,         Peng%Chen%NULL%1,         Gang%Li%NULL%0,         Sisi%Wu%NULL%1,         Bo%Zhang%NULL%0,         Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,         Xiaoping%Miao%miaoxp@hust.edu.cn%1,         Juan%Li%lijuan@tjh.tjmu.edu.cn%0,         Wenhua%Liu%liuwh_2013@126.com%1,         Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,         Susannah%Ahern%NULL%1,         Scott C.%Bell%NULL%1,         Keith%Brownlee%NULL%1,         Pierre-Régis%Burgel%NULL%1,         Cass%Byrnes%NULL%1,         Harriet%Corvol%NULL%1,         Stephanie Y.%Cheng%NULL%1,         Alexander%Elbert%NULL%1,         Albert%Faro%NULL%1,         Christopher H.%Goss%NULL%1,         Vincent%Gulmans%NULL%1,         Bruce C.%Marshall%NULL%1,         Edward%McKone%NULL%1,         Peter G.%Middleton%NULL%1,         Rasa%Ruseckaite%NULL%1,         Anne L.%Stephenson%NULL%1,         Siobhán B%Carr%NULL%1,         David%Reid%NULL%1,         Peter%Wark%NULL%1,         Géraldine%Daneau%NULL%1,         Véronique%Boussaud%NULL%1,         Graziella%Brinchault%NULL%1,         Emmanuelle%Coirier-Duet%NULL%1,         Jean-Christophe%Dubus%NULL%1,         Dominique%Grenet%NULL%1,         Sandra de%Miranda%NULL%1,         Laurence%Beaumont%NULL%1,         Reem%Kanaan%NULL%1,         Muriel%Lauraens%NULL%1,         Clémence%Martin%NULL%1,         Marie%Mittaine%NULL%1,         Anne%Prévotat%NULL%1,         Martine%Reynaud-Gaubert%NULL%1,         Isabelle%Sermet-Gaudelus%NULL%1,         Aurelie%Tatopoulos%NULL%1,         Lutz%Nährlich%NULL%1,         Barry%Plant%NULL%1,         Cedric%Gunaratnam%NULL%1,         Abaigeal%Jackson%NULL%1,         Karin M. de Winter-de%Groot%NULL%1,         Bart%Luijk%NULL%1,         Geertjan%Wesseling%NULL%1,         Mark%Allenby%NULL%1,         Jamie%Duckers%NULL%1,         Elaine%Gunn%NULL%1,         Andrew%Jones%NULL%1,         Robert Ian%Ketchell%NULL%1,         Susan L.%Madge%NULL%1,         Anirban%Maitra%NULL%1,         Ghulam%Mujtaba%NULL%1,         Helen%Rodgers%NULL%1,         Nadia%Shafi%NULL%1,         Nicholas%Simmonds%NULL%1,         Kevin%Southern%NULL%1,         Danie%Watson%NULL%1,         Samar%Rizvi%NULL%1,         Julie%Seguin%NULL%1,         Janet%Garbarz%NULL%1,         Kristen%Rosamilia%NULL%1,         Maria%Berdella%NULL%1,         Jerry A.%Nick%NULL%1,         Richard%Belkin%NULL%1,         Diana%Gilmore%NULL%1,         Kim%McBennett%NULL%1,         Rita%Padoan%NULL%1,         Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,         Matthew R%Baldwin%NULL%0,         Darryl%Abrams%NULL%1,         Samuel D%Jacobson%NULL%1,         Benjamin J%Meyer%NULL%1,         Elizabeth M%Balough%NULL%1,         Justin G%Aaron%NULL%1,         Jan%Claassen%NULL%0,         LeRoy E%Rabbani%NULL%1,         Jonathan%Hastie%NULL%1,         Beth R%Hochman%NULL%1,         John%Salazar-Schicchi%NULL%1,         Natalie H%Yip%NULL%1,         Daniel%Brodie%NULL%0,         Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,         Xin%Zhang%NULL%0,         Jianguo%Xia%NULL%1,         Tao%Zhang%NULL%1,         Yalei%Shang%NULL%1,         Renjun%Huang%NULL%1,         Rongrong%Liu%NULL%1,         Dan%Wang%NULL%0,         Min%Li%105549156@qq.com%1,         Jinping%Wu%czwjp@sina.com%1,         Qiuzhen%Xu%xuqiuzhen831@sina.com%1,         Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,          Shiva%Samavat%NULL%1,          Behdad%Behnam%NULL%1,          Mehran%Arab-Ahmadi%NULL%1,          Mohsen%Nafar%NULL%1,          Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,          Elisa%Delbarba%NULL%2,          Chiara%Manenti%NULL%2,          Laura%Econimo%NULL%2,          Francesca%Valerio%NULL%2,          Alessandra%Pola%NULL%2,          Camilla%Maffei%NULL%2,          Stefano%Possenti%NULL%2,          Nicole%Zambetti%NULL%1,          Marianna%Moscato%NULL%1,          Margherita%Venturini%NULL%1,          Stefania%Affatato%NULL%2,          Mario%Gaggiotti%NULL%2,          Nicola%Bossini%NULL%2,          Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,          Elisa%Delbarba%NULL%0,          Chiara%Manenti%NULL%0,          Laura%Econimo%NULL%0,          Francesca%Valerio%NULL%0,          Alessandra%Pola%NULL%0,          Camilla%Maffei%NULL%0,          Stefano%Possenti%NULL%0,          Bernardo%Lucca%NULL%1,          Roberta%Cortinovis%NULL%1,          Vincenzo%Terlizzi%NULL%1,          Mattia%Zappa%NULL%1,          Chiara%Saccà%NULL%1,          Elena%Pezzini%NULL%1,          Eleonora%Calcaterra%NULL%1,          Paola%Piarulli%NULL%1,          Alice%Guerini%NULL%1,          Francesca%Boni%NULL%1,          Agnese%Gallico%NULL%1,          Alberto%Mucchetti%NULL%1,          Stefania%Affatato%NULL%0,          Sergio%Bove%NULL%1,          Martina%Bracchi%NULL%1,          Ester Maria%Costantino%NULL%1,          Roberto%Zubani%NULL%1,          Corrado%Camerini%NULL%1,          Paola%Gaggia%NULL%1,          Ezio%Movilli%NULL%1,          Nicola%Bossini%NULL%0,          Mario%Gaggiotti%NULL%0,          Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,          Jordi%Rello%NULL%1,          Sofia%Tejada%NULL%1,          Alejandro%Martín%NULL%1,          Goiatz%Balziskueta%NULL%1,          Cristina%Vinuesa%NULL%1,          Borja%Fernández-Miret%NULL%1,          Ana%Villagra%NULL%1,          Ana%Vallejo%NULL%1,          Ana%San Sebastián%NULL%1,          Sara%Cabañes%NULL%1,          Sebastián%Iribarren%NULL%1,          Fernando%Fonseca%NULL%1,          Javier%Maynar%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,          Denise J%McCulloch%NULL%0,          Denise J%McCulloch%NULL%0,          Vidya%Atluri%NULL%0,          Michela%Blain%NULL%0,          Sarah A%McGuffin%NULL%0,          Arun K%Nalla%NULL%0,          Meei-Li%Huang%NULL%0,          Alex L%Greninger%NULL%0,          Keith R%Jerome%NULL%0,          Seth A%Cohen%NULL%0,          Santiago%Neme%NULL%0,          Margaret L%Green%NULL%0,          Helen Y%Chu%NULL%0,          H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,          Timothy%Mazzuchelli%NULL%1,          Elia%Lo Priore%NULL%1,          Carlo%Balmelli%NULL%1,          Michael%Llamas%NULL%1,          Micol%Pallanza%NULL%1,          Luigia%Elzi%NULL%1,          Vera%Consonni%NULL%1,          Pierpaolo%Trimboli%NULL%1,          Valentina%Forni-Ogna%NULL%1,          Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,        Deliang%Huang%coreGivesNoEmail%0,        Hong%Yu%coreGivesNoEmail%0,        Jun%Chen%coreGivesNoEmail%0,        Lei%Liu%coreGivesNoEmail%0,        National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,        Pengcheng%Ou%coreGivesNoEmail%0,        Qing%He%coreGivesNoEmail%0,        Qingxian%Cai%coreGivesNoEmail%0,        Rossaint%J%coreGivesNoEmail%0,        Yang%Fu%coreGivesNoEmail%0,        Yiming%Zhang%coreGivesNoEmail%0,        Yinan%Su%coreGivesNoEmail%0,        Zhang%Xia%coreGivesNoEmail%0,        Zhenghua%Ma%coreGivesNoEmail%0,        Zhibin%Zhu%coreGivesNoEmail%0,        Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,          Yeming%Wang%NULL%0,          Danning%Wen%NULL%1,          Wen%Liu%NULL%1,          Jingli%Wang%NULL%0,          Guohui%Fan%NULL%0,          Lianguo%Ruan%NULL%1,          Bin%Song%NULL%0,          Yanping%Cai%NULL%1,          Ming%Wei%NULL%1,          Xingwang%Li%NULL%0,          Jiaan%Xia%NULL%0,          Nanshan%Chen%NULL%1,          Jie%Xiang%NULL%0,          Ting%Yu%NULL%0,          Tao%Bai%NULL%0,          Xuelei%Xie%NULL%0,          Li%Zhang%NULL%0,          Caihong%Li%NULL%1,          Ye%Yuan%NULL%0,          Hua%Chen%NULL%0,          Huadong%Li%NULL%1,          Hanping%Huang%NULL%1,          Shengjing%Tu%NULL%1,          Fengyun%Gong%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Chongya%Dong%NULL%1,          Fei%Zhou%NULL%1,          Xiaoying%Gu%NULL%0,          Jiuyang%Xu%NULL%0,          Zhibo%Liu%NULL%0,          Yi%Zhang%NULL%0,          Hui%Li%NULL%0,          Lianhan%Shang%NULL%1,          Ke%Wang%NULL%0,          Kunxia%Li%NULL%1,          Xia%Zhou%NULL%1,          Xuan%Dong%NULL%0,          Zhaohui%Qu%NULL%1,          Sixia%Lu%NULL%1,          Xujuan%Hu%NULL%1,          Shunan%Ruan%NULL%1,          Shanshan%Luo%NULL%1,          Jing%Wu%NULL%0,          Lu%Peng%NULL%1,          Fang%Cheng%NULL%0,          Lihong%Pan%NULL%1,          Jun%Zou%NULL%1,          Chunmin%Jia%NULL%1,          Juan%Wang%NULL%1,          Xia%Liu%NULL%1,          Shuzhen%Wang%NULL%1,          Xudong%Wu%NULL%0,          Qin%Ge%NULL%1,          Jing%He%NULL%1,          Haiyan%Zhan%NULL%1,          Fang%Qiu%NULL%1,          Li%Guo%NULL%0,          Chaolin%Huang%NULL%1,          Thomas%Jaki%NULL%1,          Frederick G.%Hayden%NULL%1,          Peter W.%Horby%NULL%1,          Dingyu%Zhang%NULL%1,          Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,          Jia%Wei%NULL%1,          Liang%Zou%NULL%1,          Tiebin%Jiang%NULL%1,          Gaoxiang%Wang%NULL%1,          Liting%Chen%NULL%1,          Liang%Huang%NULL%1,          Fankai%Meng%NULL%1,          Lifang%Huang%NULL%1,          Na%Wang%NULL%1,          Xiaoxi%Zhou%NULL%1,          Hui%Luo%NULL%1,          Zekai%Mao%NULL%1,          Xing%Chen%NULL%1,          Jungang%Xie%NULL%0,          Jing%Liu%NULL%0,          Hui%Cheng%NULL%1,          Jianping%Zhao%NULL%0,          Gang%Huang%NULL%1,          Wei%Wang%NULL%0,          Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,          Giacomo%De Luca%NULL%1,          Corrado%Campochiaro%NULL%1,          Emanuel%Della-Torre%NULL%1,          Marco%Ripa%NULL%1,          Diana%Canetti%NULL%1,          Chiara%Oltolini%NULL%1,          Barbara%Castiglioni%NULL%1,          Chiara%Tassan Din%NULL%1,          Nicola%Boffini%NULL%1,          Alessandro%Tomelleri%NULL%1,          Nicola%Farina%NULL%1,          Annalisa%Ruggeri%NULL%0,          Patrizia%Rovere-Querini%NULL%0,          Giuseppe%Di Lucca%NULL%1,          Sabina%Martinenghi%NULL%1,          Raffaella%Scotti%NULL%1,          Moreno%Tresoldi%NULL%0,          Fabio%Ciceri%NULL%1,          Giovanni%Landoni%NULL%0,          Alberto%Zangrillo%NULL%0,          Paolo%Scarpellini%NULL%0,          Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,          Kim R.%Derespina%NULL%2,          Betsy C.%Herold%NULL%1,          David L.%Goldman%NULL%1,          Margaret%Aldrich%NULL%1,          Jacqueline%Weingarten%NULL%1,          Henry M.%Ushay%NULL%2,          Michael D.%Cabana%NULL%1,          Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,  Di%Wu%xref no email%0,  Wei%Guo%xref no email%0,  Yong%Cao%xref no email%0,  Da%Huang%xref no email%0,  Hongwu%Wang%xref no email%0,  Tao%Wang%xref no email%0,  Xiaoyun%Zhang%xref no email%0,  Huilong%Chen%xref no email%0,  Haijing%Yu%xref no email%0,  Xiaoping%Zhang%xref no email%0,  Minxia%Zhang%xref no email%0,  Shiji%Wu%xref no email%0,  Jianxin%Song%xref no email%0,  Tao%Chen%xref no email%0,  Meifang%Han%xref no email%0,  Shusheng%Li%xref no email%0,  Xiaoping%Luo%xref no email%0,  Jianping%Zhao%xref no email%0,  Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,          Zhen-Zhen%Zhang%NULL%1,          Yao-Kai%Chen%NULL%1,          Quan-Xin%Long%NULL%1,          Wen-Guang%Tian%NULL%1,          Hai-Jun%Deng%NULL%1,          Jie-Li%Hu%NULL%1,          Xian-Xiang%Zhang%NULL%1,          NULL%Pu-Liao%NULL%1,          Jiang-Lin%Xiang%NULL%1,          Dao-Xin%Wang%NULL%1,          Peng%Hu%NULL%0,          Fa-Chun%Zhou%NULL%1,          Zhi-Jie%Li%NULL%1,          Hong-Mei%Xu%NULL%1,          Xue-Fei%Cai%NULL%1,          De-Qiang%Wang%NULL%1,          Yuan%Hu%NULL%1,          Ni%Tang%NULL%1,          Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,          Gui-Cheng%Wu%wuguic@hotmail.com%1,          Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,          Zhencang%Zheng%NULL%0,          Chao%Zhang%NULL%0,          Xijiang%Zhang%NULL%0,          Huijuan%Wu%NULL%0,          Jingdong%Wang%NULL%0,          Shuwei%Wang%NULL%0,          Cheng%Zheng%dr.zhengcheng@foxmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,          Wenhua%Liang%NULL%0,          Mei%Jiang%NULL%0,          Weijie%Guan%NULL%0,          Chen%Zhan%NULL%0,          Tao%Wang%NULL%0,          Chunli%Tang%NULL%0,          Ling%Sang%NULL%0,          Jiaxing%Liu%NULL%0,          Zhengyi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chunliang%Lei%NULL%0,          Yixiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Yahua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jianming%Wang%NULL%0,          Jiyang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhijian%Zheng%NULL%0,          Shaoqin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Changjiang%Ye%NULL%0,          Shaoyong%Zhu%NULL%0,          Xiaoqing%Liu%NULL%0,          Linling%Cheng%NULL%0,          Feng%Ye%NULL%0,          Jinping%Zheng%NULL%0,          Nuofu%Zhang%NULL%0,          Yimin%Li%NULL%0,          Jianxing%He%NULL%0,          Shiyue%Li%lishiyue@188.com%0,          Nanshan%Zhong%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,          Wei%An%NULL%2,          Wei%An%NULL%0,          Fei%Xia%NULL%0,          Ping%Yang%NULL%1,          Kuangyu%Li%NULL%1,          Qin%Zhou%NULL%1,          Shasha%Fang%NULL%1,          Yaling%Liao%NULL%1,          Xin%Xu%NULL%0,          Jialin%Liu%NULL%1,          Shiguo%Liu%NULL%1,          Tao%Qin%NULL%1,          Jianjun%Zhang%NULL%1,          Wei%Wei%NULL%0,          Yafang%Zhang%NULL%1,          Guowei%Zhang%NULL%1,          Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,          Nan%Yang%NULL%2,          Nan%Yang%NULL%0,          Yanqiu%Wei%NULL%1,          Huihui%Yue%NULL%1,          Fengqin%Zhang%NULL%1,          Jianping%Zhao%NULL%0,          Li%He%NULL%1,          Gaohong%Sheng%NULL%2,          Gaohong%Sheng%NULL%0,          Peng%Chen%NULL%1,          Gang%Li%NULL%0,          Sisi%Wu%NULL%1,          Bo%Zhang%NULL%0,          Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,          Xiaoping%Miao%miaoxp@hust.edu.cn%1,          Juan%Li%lijuan@tjh.tjmu.edu.cn%0,          Wenhua%Liu%liuwh_2013@126.com%1,          Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,          Susannah%Ahern%NULL%1,          Scott C.%Bell%NULL%1,          Keith%Brownlee%NULL%1,          Pierre-Régis%Burgel%NULL%1,          Cass%Byrnes%NULL%1,          Harriet%Corvol%NULL%1,          Stephanie Y.%Cheng%NULL%1,          Alexander%Elbert%NULL%1,          Albert%Faro%NULL%1,          Christopher H.%Goss%NULL%1,          Vincent%Gulmans%NULL%1,          Bruce C.%Marshall%NULL%1,          Edward%McKone%NULL%1,          Peter G.%Middleton%NULL%1,          Rasa%Ruseckaite%NULL%1,          Anne L.%Stephenson%NULL%1,          Siobhán B%Carr%NULL%1,          David%Reid%NULL%1,          Peter%Wark%NULL%1,          Géraldine%Daneau%NULL%1,          Véronique%Boussaud%NULL%1,          Graziella%Brinchault%NULL%1,          Emmanuelle%Coirier-Duet%NULL%1,          Jean-Christophe%Dubus%NULL%1,          Dominique%Grenet%NULL%1,          Sandra de%Miranda%NULL%1,          Laurence%Beaumont%NULL%1,          Reem%Kanaan%NULL%1,          Muriel%Lauraens%NULL%1,          Clémence%Martin%NULL%1,          Marie%Mittaine%NULL%1,          Anne%Prévotat%NULL%1,          Martine%Reynaud-Gaubert%NULL%1,          Isabelle%Sermet-Gaudelus%NULL%1,          Aurelie%Tatopoulos%NULL%1,          Lutz%Nährlich%NULL%1,          Barry%Plant%NULL%1,          Cedric%Gunaratnam%NULL%1,          Abaigeal%Jackson%NULL%1,          Karin M. de Winter-de%Groot%NULL%1,          Bart%Luijk%NULL%1,          Geertjan%Wesseling%NULL%1,          Mark%Allenby%NULL%1,          Jamie%Duckers%NULL%1,          Elaine%Gunn%NULL%1,          Andrew%Jones%NULL%1,          Robert Ian%Ketchell%NULL%1,          Susan L.%Madge%NULL%1,          Anirban%Maitra%NULL%1,          Ghulam%Mujtaba%NULL%1,          Helen%Rodgers%NULL%1,          Nadia%Shafi%NULL%1,          Nicholas%Simmonds%NULL%1,          Kevin%Southern%NULL%1,          Danie%Watson%NULL%1,          Samar%Rizvi%NULL%1,          Julie%Seguin%NULL%1,          Janet%Garbarz%NULL%1,          Kristen%Rosamilia%NULL%1,          Maria%Berdella%NULL%1,          Jerry A.%Nick%NULL%1,          Richard%Belkin%NULL%1,          Diana%Gilmore%NULL%1,          Kim%McBennett%NULL%1,          Rita%Padoan%NULL%1,          Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,          Matthew R%Baldwin%NULL%0,          Darryl%Abrams%NULL%1,          Samuel D%Jacobson%NULL%1,          Benjamin J%Meyer%NULL%1,          Elizabeth M%Balough%NULL%1,          Justin G%Aaron%NULL%1,          Jan%Claassen%NULL%0,          LeRoy E%Rabbani%NULL%1,          Jonathan%Hastie%NULL%1,          Beth R%Hochman%NULL%1,          John%Salazar-Schicchi%NULL%1,          Natalie H%Yip%NULL%1,          Daniel%Brodie%NULL%0,          Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,          Xin%Zhang%NULL%0,          Jianguo%Xia%NULL%1,          Tao%Zhang%NULL%1,          Yalei%Shang%NULL%1,          Renjun%Huang%NULL%1,          Rongrong%Liu%NULL%1,          Dan%Wang%NULL%0,          Min%Li%105549156@qq.com%1,          Jinping%Wu%czwjp@sina.com%1,          Qiuzhen%Xu%xuqiuzhen831@sina.com%1,          Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1652,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1681,7 +1828,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1710,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1739,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1768,7 +1915,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1797,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1826,7 +1973,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1855,7 +2002,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -1884,7 +2031,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -1913,7 +2060,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -1942,7 +2089,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -1971,7 +2118,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -1994,22 +2141,22 @@
         <v>43917.0</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="I15" t="s">
         <v>64</v>
@@ -2029,7 +2176,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2058,7 +2205,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2087,7 +2234,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2116,7 +2263,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2145,7 +2292,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2174,7 +2321,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2203,7 +2350,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2232,7 +2379,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2261,7 +2408,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1385,6 +1385,144 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,          Xin%Zhang%NULL%0,          Jianguo%Xia%NULL%1,          Tao%Zhang%NULL%1,          Yalei%Shang%NULL%1,          Renjun%Huang%NULL%1,          Rongrong%Liu%NULL%1,          Dan%Wang%NULL%0,          Min%Li%105549156@qq.com%1,          Jinping%Wu%czwjp@sina.com%1,          Qiuzhen%Xu%xuqiuzhen831@sina.com%1,          Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,           Shiva%Samavat%NULL%1,           Behdad%Behnam%NULL%1,           Mehran%Arab-Ahmadi%NULL%1,           Mohsen%Nafar%NULL%1,           Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,           Elisa%Delbarba%NULL%2,           Chiara%Manenti%NULL%2,           Laura%Econimo%NULL%2,           Francesca%Valerio%NULL%2,           Alessandra%Pola%NULL%2,           Camilla%Maffei%NULL%2,           Stefano%Possenti%NULL%2,           Nicole%Zambetti%NULL%1,           Marianna%Moscato%NULL%1,           Margherita%Venturini%NULL%1,           Stefania%Affatato%NULL%2,           Mario%Gaggiotti%NULL%2,           Nicola%Bossini%NULL%2,           Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,           Elisa%Delbarba%NULL%0,           Chiara%Manenti%NULL%0,           Laura%Econimo%NULL%0,           Francesca%Valerio%NULL%0,           Alessandra%Pola%NULL%0,           Camilla%Maffei%NULL%0,           Stefano%Possenti%NULL%0,           Bernardo%Lucca%NULL%1,           Roberta%Cortinovis%NULL%1,           Vincenzo%Terlizzi%NULL%1,           Mattia%Zappa%NULL%1,           Chiara%Saccà%NULL%1,           Elena%Pezzini%NULL%1,           Eleonora%Calcaterra%NULL%1,           Paola%Piarulli%NULL%1,           Alice%Guerini%NULL%1,           Francesca%Boni%NULL%1,           Agnese%Gallico%NULL%1,           Alberto%Mucchetti%NULL%1,           Stefania%Affatato%NULL%0,           Sergio%Bove%NULL%1,           Martina%Bracchi%NULL%1,           Ester Maria%Costantino%NULL%1,           Roberto%Zubani%NULL%1,           Corrado%Camerini%NULL%1,           Paola%Gaggia%NULL%1,           Ezio%Movilli%NULL%1,           Nicola%Bossini%NULL%0,           Mario%Gaggiotti%NULL%0,           Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,           Jordi%Rello%NULL%1,           Sofia%Tejada%NULL%1,           Alejandro%Martín%NULL%1,           Goiatz%Balziskueta%NULL%1,           Cristina%Vinuesa%NULL%1,           Borja%Fernández-Miret%NULL%1,           Ana%Villagra%NULL%1,           Ana%Vallejo%NULL%1,           Ana%San Sebastián%NULL%1,           Sara%Cabañes%NULL%1,           Sebastián%Iribarren%NULL%1,           Fernando%Fonseca%NULL%1,           Javier%Maynar%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,           Denise J%McCulloch%NULL%0,           Denise J%McCulloch%NULL%0,           Vidya%Atluri%NULL%0,           Michela%Blain%NULL%0,           Sarah A%McGuffin%NULL%0,           Arun K%Nalla%NULL%0,           Meei-Li%Huang%NULL%0,           Alex L%Greninger%NULL%0,           Keith R%Jerome%NULL%0,           Seth A%Cohen%NULL%0,           Santiago%Neme%NULL%0,           Margaret L%Green%NULL%0,           Helen Y%Chu%NULL%0,           H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,           Timothy%Mazzuchelli%NULL%1,           Elia%Lo Priore%NULL%1,           Carlo%Balmelli%NULL%1,           Michael%Llamas%NULL%1,           Micol%Pallanza%NULL%1,           Luigia%Elzi%NULL%1,           Vera%Consonni%NULL%1,           Pierpaolo%Trimboli%NULL%1,           Valentina%Forni-Ogna%NULL%1,           Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,         Deliang%Huang%coreGivesNoEmail%0,         Hong%Yu%coreGivesNoEmail%0,         Jun%Chen%coreGivesNoEmail%0,         Lei%Liu%coreGivesNoEmail%0,         National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,         Pengcheng%Ou%coreGivesNoEmail%0,         Qing%He%coreGivesNoEmail%0,         Qingxian%Cai%coreGivesNoEmail%0,         Rossaint%J%coreGivesNoEmail%0,         Yang%Fu%coreGivesNoEmail%0,         Yiming%Zhang%coreGivesNoEmail%0,         Yinan%Su%coreGivesNoEmail%0,         Zhang%Xia%coreGivesNoEmail%0,         Zhenghua%Ma%coreGivesNoEmail%0,         Zhibin%Zhu%coreGivesNoEmail%0,         Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,           Yeming%Wang%NULL%0,           Danning%Wen%NULL%1,           Wen%Liu%NULL%1,           Jingli%Wang%NULL%0,           Guohui%Fan%NULL%0,           Lianguo%Ruan%NULL%1,           Bin%Song%NULL%0,           Yanping%Cai%NULL%1,           Ming%Wei%NULL%1,           Xingwang%Li%NULL%0,           Jiaan%Xia%NULL%0,           Nanshan%Chen%NULL%1,           Jie%Xiang%NULL%0,           Ting%Yu%NULL%0,           Tao%Bai%NULL%0,           Xuelei%Xie%NULL%0,           Li%Zhang%NULL%0,           Caihong%Li%NULL%1,           Ye%Yuan%NULL%0,           Hua%Chen%NULL%0,           Huadong%Li%NULL%1,           Hanping%Huang%NULL%1,           Shengjing%Tu%NULL%1,           Fengyun%Gong%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Chongya%Dong%NULL%1,           Fei%Zhou%NULL%1,           Xiaoying%Gu%NULL%0,           Jiuyang%Xu%NULL%0,           Zhibo%Liu%NULL%0,           Yi%Zhang%NULL%0,           Hui%Li%NULL%0,           Lianhan%Shang%NULL%1,           Ke%Wang%NULL%0,           Kunxia%Li%NULL%1,           Xia%Zhou%NULL%1,           Xuan%Dong%NULL%0,           Zhaohui%Qu%NULL%1,           Sixia%Lu%NULL%1,           Xujuan%Hu%NULL%1,           Shunan%Ruan%NULL%1,           Shanshan%Luo%NULL%1,           Jing%Wu%NULL%0,           Lu%Peng%NULL%1,           Fang%Cheng%NULL%0,           Lihong%Pan%NULL%1,           Jun%Zou%NULL%1,           Chunmin%Jia%NULL%1,           Juan%Wang%NULL%1,           Xia%Liu%NULL%1,           Shuzhen%Wang%NULL%1,           Xudong%Wu%NULL%0,           Qin%Ge%NULL%1,           Jing%He%NULL%1,           Haiyan%Zhan%NULL%1,           Fang%Qiu%NULL%1,           Li%Guo%NULL%0,           Chaolin%Huang%NULL%1,           Thomas%Jaki%NULL%1,           Frederick G.%Hayden%NULL%1,           Peter W.%Horby%NULL%1,           Dingyu%Zhang%NULL%1,           Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,           Jia%Wei%NULL%1,           Liang%Zou%NULL%1,           Tiebin%Jiang%NULL%1,           Gaoxiang%Wang%NULL%1,           Liting%Chen%NULL%1,           Liang%Huang%NULL%1,           Fankai%Meng%NULL%1,           Lifang%Huang%NULL%1,           Na%Wang%NULL%1,           Xiaoxi%Zhou%NULL%1,           Hui%Luo%NULL%1,           Zekai%Mao%NULL%1,           Xing%Chen%NULL%1,           Jungang%Xie%NULL%0,           Jing%Liu%NULL%0,           Hui%Cheng%NULL%1,           Jianping%Zhao%NULL%0,           Gang%Huang%NULL%1,           Wei%Wang%NULL%0,           Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,           Giacomo%De Luca%NULL%1,           Corrado%Campochiaro%NULL%1,           Emanuel%Della-Torre%NULL%1,           Marco%Ripa%NULL%1,           Diana%Canetti%NULL%1,           Chiara%Oltolini%NULL%1,           Barbara%Castiglioni%NULL%1,           Chiara%Tassan Din%NULL%1,           Nicola%Boffini%NULL%1,           Alessandro%Tomelleri%NULL%1,           Nicola%Farina%NULL%1,           Annalisa%Ruggeri%NULL%0,           Patrizia%Rovere-Querini%NULL%0,           Giuseppe%Di Lucca%NULL%1,           Sabina%Martinenghi%NULL%1,           Raffaella%Scotti%NULL%1,           Moreno%Tresoldi%NULL%0,           Fabio%Ciceri%NULL%1,           Giovanni%Landoni%NULL%0,           Alberto%Zangrillo%NULL%0,           Paolo%Scarpellini%NULL%0,           Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,           Kim R.%Derespina%NULL%2,           Betsy C.%Herold%NULL%1,           David L.%Goldman%NULL%1,           Margaret%Aldrich%NULL%1,           Jacqueline%Weingarten%NULL%1,           Henry M.%Ushay%NULL%2,           Michael D.%Cabana%NULL%1,           Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,   Di%Wu%xref no email%0,   Wei%Guo%xref no email%0,   Yong%Cao%xref no email%0,   Da%Huang%xref no email%0,   Hongwu%Wang%xref no email%0,   Tao%Wang%xref no email%0,   Xiaoyun%Zhang%xref no email%0,   Huilong%Chen%xref no email%0,   Haijing%Yu%xref no email%0,   Xiaoping%Zhang%xref no email%0,   Minxia%Zhang%xref no email%0,   Shiji%Wu%xref no email%0,   Jianxin%Song%xref no email%0,   Tao%Chen%xref no email%0,   Meifang%Han%xref no email%0,   Shusheng%Li%xref no email%0,   Xiaoping%Luo%xref no email%0,   Jianping%Zhao%xref no email%0,   Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,           Zhen-Zhen%Zhang%NULL%1,           Yao-Kai%Chen%NULL%1,           Quan-Xin%Long%NULL%1,           Wen-Guang%Tian%NULL%1,           Hai-Jun%Deng%NULL%1,           Jie-Li%Hu%NULL%1,           Xian-Xiang%Zhang%NULL%1,           NULL%Pu-Liao%NULL%1,           Jiang-Lin%Xiang%NULL%1,           Dao-Xin%Wang%NULL%1,           Peng%Hu%NULL%0,           Fa-Chun%Zhou%NULL%1,           Zhi-Jie%Li%NULL%1,           Hong-Mei%Xu%NULL%1,           Xue-Fei%Cai%NULL%1,           De-Qiang%Wang%NULL%1,           Yuan%Hu%NULL%1,           Ni%Tang%NULL%1,           Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,           Gui-Cheng%Wu%wuguic@hotmail.com%1,           Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,           Zhencang%Zheng%NULL%0,           Chao%Zhang%NULL%0,           Xijiang%Zhang%NULL%0,           Huijuan%Wu%NULL%0,           Jingdong%Wang%NULL%0,           Shuwei%Wang%NULL%0,           Cheng%Zheng%dr.zhengcheng@foxmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,           Wenhua%Liang%NULL%0,           Mei%Jiang%NULL%0,           Weijie%Guan%NULL%0,           Chen%Zhan%NULL%0,           Tao%Wang%NULL%0,           Chunli%Tang%NULL%0,           Ling%Sang%NULL%0,           Jiaxing%Liu%NULL%0,           Zhengyi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chunliang%Lei%NULL%0,           Yixiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Yahua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jianming%Wang%NULL%0,           Jiyang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhijian%Zheng%NULL%0,           Shaoqin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Changjiang%Ye%NULL%0,           Shaoyong%Zhu%NULL%0,           Xiaoqing%Liu%NULL%0,           Linling%Cheng%NULL%0,           Feng%Ye%NULL%0,           Jinping%Zheng%NULL%0,           Nuofu%Zhang%NULL%0,           Yimin%Li%NULL%0,           Jianxing%He%NULL%0,           Shiyue%Li%lishiyue@188.com%0,           Nanshan%Zhong%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,           Wei%An%NULL%2,           Wei%An%NULL%0,           Fei%Xia%NULL%0,           Ping%Yang%NULL%1,           Kuangyu%Li%NULL%1,           Qin%Zhou%NULL%1,           Shasha%Fang%NULL%1,           Yaling%Liao%NULL%1,           Xin%Xu%NULL%0,           Jialin%Liu%NULL%1,           Shiguo%Liu%NULL%1,           Tao%Qin%NULL%1,           Jianjun%Zhang%NULL%1,           Wei%Wei%NULL%0,           Yafang%Zhang%NULL%1,           Guowei%Zhang%NULL%1,           Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,           Nan%Yang%NULL%2,           Nan%Yang%NULL%0,           Yanqiu%Wei%NULL%1,           Huihui%Yue%NULL%1,           Fengqin%Zhang%NULL%1,           Jianping%Zhao%NULL%0,           Li%He%NULL%1,           Gaohong%Sheng%NULL%2,           Gaohong%Sheng%NULL%0,           Peng%Chen%NULL%1,           Gang%Li%NULL%0,           Sisi%Wu%NULL%1,           Bo%Zhang%NULL%0,           Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,           Xiaoping%Miao%miaoxp@hust.edu.cn%1,           Juan%Li%lijuan@tjh.tjmu.edu.cn%0,           Wenhua%Liu%liuwh_2013@126.com%1,           Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,           Susannah%Ahern%NULL%1,           Scott C.%Bell%NULL%1,           Keith%Brownlee%NULL%1,           Pierre-Régis%Burgel%NULL%1,           Cass%Byrnes%NULL%1,           Harriet%Corvol%NULL%1,           Stephanie Y.%Cheng%NULL%1,           Alexander%Elbert%NULL%1,           Albert%Faro%NULL%1,           Christopher H.%Goss%NULL%1,           Vincent%Gulmans%NULL%1,           Bruce C.%Marshall%NULL%1,           Edward%McKone%NULL%1,           Peter G.%Middleton%NULL%1,           Rasa%Ruseckaite%NULL%1,           Anne L.%Stephenson%NULL%1,           Siobhán B%Carr%NULL%1,           David%Reid%NULL%1,           Peter%Wark%NULL%1,           Géraldine%Daneau%NULL%1,           Véronique%Boussaud%NULL%1,           Graziella%Brinchault%NULL%1,           Emmanuelle%Coirier-Duet%NULL%1,           Jean-Christophe%Dubus%NULL%1,           Dominique%Grenet%NULL%1,           Sandra de%Miranda%NULL%1,           Laurence%Beaumont%NULL%1,           Reem%Kanaan%NULL%1,           Muriel%Lauraens%NULL%1,           Clémence%Martin%NULL%1,           Marie%Mittaine%NULL%1,           Anne%Prévotat%NULL%1,           Martine%Reynaud-Gaubert%NULL%1,           Isabelle%Sermet-Gaudelus%NULL%1,           Aurelie%Tatopoulos%NULL%1,           Lutz%Nährlich%NULL%1,           Barry%Plant%NULL%1,           Cedric%Gunaratnam%NULL%1,           Abaigeal%Jackson%NULL%1,           Karin M. de Winter-de%Groot%NULL%1,           Bart%Luijk%NULL%1,           Geertjan%Wesseling%NULL%1,           Mark%Allenby%NULL%1,           Jamie%Duckers%NULL%1,           Elaine%Gunn%NULL%1,           Andrew%Jones%NULL%1,           Robert Ian%Ketchell%NULL%1,           Susan L.%Madge%NULL%1,           Anirban%Maitra%NULL%1,           Ghulam%Mujtaba%NULL%1,           Helen%Rodgers%NULL%1,           Nadia%Shafi%NULL%1,           Nicholas%Simmonds%NULL%1,           Kevin%Southern%NULL%1,           Danie%Watson%NULL%1,           Samar%Rizvi%NULL%1,           Julie%Seguin%NULL%1,           Janet%Garbarz%NULL%1,           Kristen%Rosamilia%NULL%1,           Maria%Berdella%NULL%1,           Jerry A.%Nick%NULL%1,           Richard%Belkin%NULL%1,           Diana%Gilmore%NULL%1,           Kim%McBennett%NULL%1,           Rita%Padoan%NULL%1,           Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,           Matthew R%Baldwin%NULL%0,           Darryl%Abrams%NULL%1,           Samuel D%Jacobson%NULL%1,           Benjamin J%Meyer%NULL%1,           Elizabeth M%Balough%NULL%1,           Justin G%Aaron%NULL%1,           Jan%Claassen%NULL%0,           LeRoy E%Rabbani%NULL%1,           Jonathan%Hastie%NULL%1,           Beth R%Hochman%NULL%1,           John%Salazar-Schicchi%NULL%1,           Natalie H%Yip%NULL%1,           Daniel%Brodie%NULL%0,           Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,           Xin%Zhang%NULL%0,           Jianguo%Xia%NULL%1,           Tao%Zhang%NULL%1,           Yalei%Shang%NULL%1,           Renjun%Huang%NULL%1,           Rongrong%Liu%NULL%1,           Dan%Wang%NULL%0,           Min%Li%105549156@qq.com%1,           Jinping%Wu%czwjp@sina.com%1,           Qiuzhen%Xu%xuqiuzhen831@sina.com%1,           Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,            Shiva%Samavat%NULL%1,            Behdad%Behnam%NULL%1,            Mehran%Arab-Ahmadi%NULL%1,            Mohsen%Nafar%NULL%1,            Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,            Elisa%Delbarba%NULL%2,            Chiara%Manenti%NULL%2,            Laura%Econimo%NULL%2,            Francesca%Valerio%NULL%2,            Alessandra%Pola%NULL%2,            Camilla%Maffei%NULL%2,            Stefano%Possenti%NULL%2,            Nicole%Zambetti%NULL%1,            Marianna%Moscato%NULL%1,            Margherita%Venturini%NULL%1,            Stefania%Affatato%NULL%2,            Mario%Gaggiotti%NULL%2,            Nicola%Bossini%NULL%2,            Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,            Elisa%Delbarba%NULL%0,            Chiara%Manenti%NULL%0,            Laura%Econimo%NULL%0,            Francesca%Valerio%NULL%0,            Alessandra%Pola%NULL%0,            Camilla%Maffei%NULL%0,            Stefano%Possenti%NULL%0,            Bernardo%Lucca%NULL%1,            Roberta%Cortinovis%NULL%1,            Vincenzo%Terlizzi%NULL%1,            Mattia%Zappa%NULL%1,            Chiara%Saccà%NULL%1,            Elena%Pezzini%NULL%1,            Eleonora%Calcaterra%NULL%1,            Paola%Piarulli%NULL%1,            Alice%Guerini%NULL%1,            Francesca%Boni%NULL%1,            Agnese%Gallico%NULL%1,            Alberto%Mucchetti%NULL%1,            Stefania%Affatato%NULL%0,            Sergio%Bove%NULL%1,            Martina%Bracchi%NULL%1,            Ester Maria%Costantino%NULL%1,            Roberto%Zubani%NULL%1,            Corrado%Camerini%NULL%1,            Paola%Gaggia%NULL%1,            Ezio%Movilli%NULL%1,            Nicola%Bossini%NULL%0,            Mario%Gaggiotti%NULL%0,            Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,            Jordi%Rello%NULL%1,            Sofia%Tejada%NULL%1,            Alejandro%Martín%NULL%1,            Goiatz%Balziskueta%NULL%1,            Cristina%Vinuesa%NULL%1,            Borja%Fernández-Miret%NULL%1,            Ana%Villagra%NULL%1,            Ana%Vallejo%NULL%1,            Ana%San Sebastián%NULL%1,            Sara%Cabañes%NULL%1,            Sebastián%Iribarren%NULL%1,            Fernando%Fonseca%NULL%1,            Javier%Maynar%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,            Denise J%McCulloch%NULL%2,            Denise J%McCulloch%NULL%0,            Vidya%Atluri%NULL%1,            Michela%Blain%NULL%1,            Sarah A%McGuffin%NULL%1,            Arun K%Nalla%NULL%1,            Meei-Li%Huang%NULL%1,            Alex L%Greninger%NULL%1,            Keith R%Jerome%NULL%1,            Seth A%Cohen%NULL%1,            Santiago%Neme%NULL%1,            Margaret L%Green%NULL%1,            Helen Y%Chu%NULL%1,            H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,            Timothy%Mazzuchelli%NULL%1,            Elia%Lo Priore%NULL%1,            Carlo%Balmelli%NULL%1,            Michael%Llamas%NULL%1,            Micol%Pallanza%NULL%1,            Luigia%Elzi%NULL%1,            Vera%Consonni%NULL%1,            Pierpaolo%Trimboli%NULL%1,            Valentina%Forni-Ogna%NULL%1,            Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,          Deliang%Huang%coreGivesNoEmail%0,          Hong%Yu%coreGivesNoEmail%0,          Jun%Chen%coreGivesNoEmail%0,          Lei%Liu%coreGivesNoEmail%0,          National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,          Pengcheng%Ou%coreGivesNoEmail%0,          Qing%He%coreGivesNoEmail%0,          Qingxian%Cai%coreGivesNoEmail%0,          Rossaint%J%coreGivesNoEmail%0,          Yang%Fu%coreGivesNoEmail%0,          Yiming%Zhang%coreGivesNoEmail%0,          Yinan%Su%coreGivesNoEmail%0,          Zhang%Xia%coreGivesNoEmail%0,          Zhenghua%Ma%coreGivesNoEmail%0,          Zhibin%Zhu%coreGivesNoEmail%0,          Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,            Yeming%Wang%NULL%0,            Danning%Wen%NULL%1,            Wen%Liu%NULL%1,            Jingli%Wang%NULL%0,            Guohui%Fan%NULL%0,            Lianguo%Ruan%NULL%1,            Bin%Song%NULL%0,            Yanping%Cai%NULL%1,            Ming%Wei%NULL%1,            Xingwang%Li%NULL%0,            Jiaan%Xia%NULL%0,            Nanshan%Chen%NULL%1,            Jie%Xiang%NULL%0,            Ting%Yu%NULL%0,            Tao%Bai%NULL%0,            Xuelei%Xie%NULL%0,            Li%Zhang%NULL%0,            Caihong%Li%NULL%1,            Ye%Yuan%NULL%0,            Hua%Chen%NULL%0,            Huadong%Li%NULL%1,            Hanping%Huang%NULL%1,            Shengjing%Tu%NULL%1,            Fengyun%Gong%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Chongya%Dong%NULL%1,            Fei%Zhou%NULL%1,            Xiaoying%Gu%NULL%0,            Jiuyang%Xu%NULL%0,            Zhibo%Liu%NULL%0,            Yi%Zhang%NULL%0,            Hui%Li%NULL%0,            Lianhan%Shang%NULL%1,            Ke%Wang%NULL%0,            Kunxia%Li%NULL%1,            Xia%Zhou%NULL%1,            Xuan%Dong%NULL%0,            Zhaohui%Qu%NULL%1,            Sixia%Lu%NULL%1,            Xujuan%Hu%NULL%1,            Shunan%Ruan%NULL%1,            Shanshan%Luo%NULL%1,            Jing%Wu%NULL%0,            Lu%Peng%NULL%1,            Fang%Cheng%NULL%0,            Lihong%Pan%NULL%1,            Jun%Zou%NULL%1,            Chunmin%Jia%NULL%1,            Juan%Wang%NULL%1,            Xia%Liu%NULL%1,            Shuzhen%Wang%NULL%1,            Xudong%Wu%NULL%0,            Qin%Ge%NULL%1,            Jing%He%NULL%1,            Haiyan%Zhan%NULL%1,            Fang%Qiu%NULL%1,            Li%Guo%NULL%0,            Chaolin%Huang%NULL%1,            Thomas%Jaki%NULL%1,            Frederick G.%Hayden%NULL%1,            Peter W.%Horby%NULL%1,            Dingyu%Zhang%NULL%1,            Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Ya-Kun%Liu%NULL%0,            Xiaoyong%Hu%NULL%0,            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,            Jia%Wei%NULL%1,            Liang%Zou%NULL%1,            Tiebin%Jiang%NULL%1,            Gaoxiang%Wang%NULL%1,            Liting%Chen%NULL%1,            Liang%Huang%NULL%1,            Fankai%Meng%NULL%1,            Lifang%Huang%NULL%1,            Na%Wang%NULL%1,            Xiaoxi%Zhou%NULL%1,            Hui%Luo%NULL%1,            Zekai%Mao%NULL%1,            Xing%Chen%NULL%1,            Jungang%Xie%NULL%0,            Jing%Liu%NULL%0,            Hui%Cheng%NULL%1,            Jianping%Zhao%NULL%0,            Gang%Huang%NULL%1,            Wei%Wang%NULL%0,            Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,            Giacomo%De Luca%NULL%1,            Corrado%Campochiaro%NULL%1,            Emanuel%Della-Torre%NULL%1,            Marco%Ripa%NULL%1,            Diana%Canetti%NULL%1,            Chiara%Oltolini%NULL%1,            Barbara%Castiglioni%NULL%1,            Chiara%Tassan Din%NULL%1,            Nicola%Boffini%NULL%1,            Alessandro%Tomelleri%NULL%1,            Nicola%Farina%NULL%1,            Annalisa%Ruggeri%NULL%0,            Patrizia%Rovere-Querini%NULL%0,            Giuseppe%Di Lucca%NULL%1,            Sabina%Martinenghi%NULL%1,            Raffaella%Scotti%NULL%1,            Moreno%Tresoldi%NULL%0,            Fabio%Ciceri%NULL%1,            Giovanni%Landoni%NULL%0,            Alberto%Zangrillo%NULL%0,            Paolo%Scarpellini%NULL%0,            Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,            Kim R.%Derespina%NULL%2,            Betsy C.%Herold%NULL%1,            David L.%Goldman%NULL%1,            Margaret%Aldrich%NULL%1,            Jacqueline%Weingarten%NULL%1,            Henry M.%Ushay%NULL%2,            Michael D.%Cabana%NULL%1,            Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,    Di%Wu%xref no email%0,    Wei%Guo%xref no email%0,    Yong%Cao%xref no email%0,    Da%Huang%xref no email%0,    Hongwu%Wang%xref no email%0,    Tao%Wang%xref no email%0,    Xiaoyun%Zhang%xref no email%0,    Huilong%Chen%xref no email%0,    Haijing%Yu%xref no email%0,    Xiaoping%Zhang%xref no email%0,    Minxia%Zhang%xref no email%0,    Shiji%Wu%xref no email%0,    Jianxin%Song%xref no email%0,    Tao%Chen%xref no email%0,    Meifang%Han%xref no email%0,    Shusheng%Li%xref no email%0,    Xiaoping%Luo%xref no email%0,    Jianping%Zhao%xref no email%0,    Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,            Zhen-Zhen%Zhang%NULL%1,            Yao-Kai%Chen%NULL%1,            Quan-Xin%Long%NULL%1,            Wen-Guang%Tian%NULL%1,            Hai-Jun%Deng%NULL%1,            Jie-Li%Hu%NULL%1,            Xian-Xiang%Zhang%NULL%1,            NULL%Pu-Liao%NULL%1,            Jiang-Lin%Xiang%NULL%1,            Dao-Xin%Wang%NULL%1,            Peng%Hu%NULL%0,            Fa-Chun%Zhou%NULL%1,            Zhi-Jie%Li%NULL%1,            Hong-Mei%Xu%NULL%1,            Xue-Fei%Cai%NULL%1,            De-Qiang%Wang%NULL%1,            Yuan%Hu%NULL%1,            Ni%Tang%NULL%1,            Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,            Gui-Cheng%Wu%wuguic@hotmail.com%1,            Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,            Zhencang%Zheng%NULL%1,            Chao%Zhang%NULL%1,            Xijiang%Zhang%NULL%1,            Huijuan%Wu%NULL%1,            Jingdong%Wang%NULL%1,            Shuwei%Wang%NULL%1,            Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,            Wenhua%Liang%NULL%0,            Mei%Jiang%NULL%0,            Weijie%Guan%NULL%0,            Chen%Zhan%NULL%0,            Tao%Wang%NULL%0,            Chunli%Tang%NULL%0,            Ling%Sang%NULL%0,            Jiaxing%Liu%NULL%0,            Zhengyi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chunliang%Lei%NULL%0,            Yixiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Yahua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jianming%Wang%NULL%0,            Jiyang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhijian%Zheng%NULL%0,            Shaoqin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Changjiang%Ye%NULL%0,            Shaoyong%Zhu%NULL%0,            Xiaoqing%Liu%NULL%0,            Linling%Cheng%NULL%0,            Feng%Ye%NULL%0,            Jinping%Zheng%NULL%0,            Nuofu%Zhang%NULL%0,            Yimin%Li%NULL%0,            Jianxing%He%NULL%0,            Shiyue%Li%lishiyue@188.com%0,            Nanshan%Zhong%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,            Wei%An%NULL%2,            Wei%An%NULL%0,            Fei%Xia%NULL%0,            Ping%Yang%NULL%1,            Kuangyu%Li%NULL%1,            Qin%Zhou%NULL%1,            Shasha%Fang%NULL%1,            Yaling%Liao%NULL%1,            Xin%Xu%NULL%0,            Jialin%Liu%NULL%1,            Shiguo%Liu%NULL%1,            Tao%Qin%NULL%1,            Jianjun%Zhang%NULL%1,            Wei%Wei%NULL%0,            Yafang%Zhang%NULL%1,            Guowei%Zhang%NULL%1,            Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,            Nan%Yang%NULL%2,            Nan%Yang%NULL%0,            Yanqiu%Wei%NULL%1,            Huihui%Yue%NULL%1,            Fengqin%Zhang%NULL%1,            Jianping%Zhao%NULL%0,            Li%He%NULL%1,            Gaohong%Sheng%NULL%2,            Gaohong%Sheng%NULL%0,            Peng%Chen%NULL%1,            Gang%Li%NULL%0,            Sisi%Wu%NULL%1,            Bo%Zhang%NULL%0,            Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,            Xiaoping%Miao%miaoxp@hust.edu.cn%1,            Juan%Li%lijuan@tjh.tjmu.edu.cn%0,            Wenhua%Liu%liuwh_2013@126.com%1,            Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,            Susannah%Ahern%NULL%1,            Scott C.%Bell%NULL%1,            Keith%Brownlee%NULL%1,            Pierre-Régis%Burgel%NULL%1,            Cass%Byrnes%NULL%1,            Harriet%Corvol%NULL%1,            Stephanie Y.%Cheng%NULL%1,            Alexander%Elbert%NULL%1,            Albert%Faro%NULL%1,            Christopher H.%Goss%NULL%1,            Vincent%Gulmans%NULL%1,            Bruce C.%Marshall%NULL%1,            Edward%McKone%NULL%1,            Peter G.%Middleton%NULL%1,            Rasa%Ruseckaite%NULL%1,            Anne L.%Stephenson%NULL%1,            Siobhán B%Carr%NULL%1,            David%Reid%NULL%1,            Peter%Wark%NULL%1,            Géraldine%Daneau%NULL%1,            Véronique%Boussaud%NULL%1,            Graziella%Brinchault%NULL%1,            Emmanuelle%Coirier-Duet%NULL%1,            Jean-Christophe%Dubus%NULL%1,            Dominique%Grenet%NULL%1,            Sandra de%Miranda%NULL%1,            Laurence%Beaumont%NULL%1,            Reem%Kanaan%NULL%1,            Muriel%Lauraens%NULL%1,            Clémence%Martin%NULL%1,            Marie%Mittaine%NULL%1,            Anne%Prévotat%NULL%1,            Martine%Reynaud-Gaubert%NULL%1,            Isabelle%Sermet-Gaudelus%NULL%1,            Aurelie%Tatopoulos%NULL%1,            Lutz%Nährlich%NULL%1,            Barry%Plant%NULL%1,            Cedric%Gunaratnam%NULL%1,            Abaigeal%Jackson%NULL%1,            Karin M. de Winter-de%Groot%NULL%1,            Bart%Luijk%NULL%1,            Geertjan%Wesseling%NULL%1,            Mark%Allenby%NULL%1,            Jamie%Duckers%NULL%1,            Elaine%Gunn%NULL%1,            Andrew%Jones%NULL%1,            Robert Ian%Ketchell%NULL%1,            Susan L.%Madge%NULL%1,            Anirban%Maitra%NULL%1,            Ghulam%Mujtaba%NULL%1,            Helen%Rodgers%NULL%1,            Nadia%Shafi%NULL%1,            Nicholas%Simmonds%NULL%1,            Kevin%Southern%NULL%1,            Danie%Watson%NULL%1,            Samar%Rizvi%NULL%1,            Julie%Seguin%NULL%1,            Janet%Garbarz%NULL%1,            Kristen%Rosamilia%NULL%1,            Maria%Berdella%NULL%1,            Jerry A.%Nick%NULL%1,            Richard%Belkin%NULL%1,            Diana%Gilmore%NULL%1,            Kim%McBennett%NULL%1,            Rita%Padoan%NULL%1,            Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,            Matthew R%Baldwin%NULL%0,            Darryl%Abrams%NULL%1,            Samuel D%Jacobson%NULL%1,            Benjamin J%Meyer%NULL%1,            Elizabeth M%Balough%NULL%1,            Justin G%Aaron%NULL%1,            Jan%Claassen%NULL%0,            LeRoy E%Rabbani%NULL%1,            Jonathan%Hastie%NULL%1,            Beth R%Hochman%NULL%1,            John%Salazar-Schicchi%NULL%1,            Natalie H%Yip%NULL%1,            Daniel%Brodie%NULL%0,            Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,            Xin%Zhang%NULL%0,            Jianguo%Xia%NULL%1,            Tao%Zhang%NULL%1,            Yalei%Shang%NULL%1,            Renjun%Huang%NULL%1,            Rongrong%Liu%NULL%1,            Dan%Wang%NULL%0,            Min%Li%105549156@qq.com%1,            Jinping%Wu%czwjp@sina.com%1,            Qiuzhen%Xu%xuqiuzhen831@sina.com%1,            Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1908,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1799,7 +1937,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1828,7 +1966,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1857,7 +1995,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1886,7 +2024,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1915,7 +2053,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1944,7 +2082,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1973,7 +2111,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2002,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2031,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2060,7 +2198,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2089,7 +2227,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2118,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2147,7 +2285,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2176,7 +2314,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2205,7 +2343,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2234,7 +2372,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2263,7 +2401,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2292,7 +2430,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2321,7 +2459,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2350,7 +2488,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2379,7 +2517,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2408,7 +2546,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="438">
   <si>
     <t>Doi</t>
   </si>
@@ -1523,6 +1523,170 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,            Xin%Zhang%NULL%0,            Jianguo%Xia%NULL%1,            Tao%Zhang%NULL%1,            Yalei%Shang%NULL%1,            Renjun%Huang%NULL%1,            Rongrong%Liu%NULL%1,            Dan%Wang%NULL%0,            Min%Li%105549156@qq.com%1,            Jinping%Wu%czwjp@sina.com%1,            Qiuzhen%Xu%xuqiuzhen831@sina.com%1,            Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,             Shiva%Samavat%NULL%1,             Behdad%Behnam%NULL%1,             Mehran%Arab-Ahmadi%NULL%1,             Mohsen%Nafar%NULL%1,             Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,             Elisa%Delbarba%NULL%2,             Chiara%Manenti%NULL%2,             Laura%Econimo%NULL%2,             Francesca%Valerio%NULL%2,             Alessandra%Pola%NULL%2,             Camilla%Maffei%NULL%2,             Stefano%Possenti%NULL%2,             Nicole%Zambetti%NULL%1,             Marianna%Moscato%NULL%1,             Margherita%Venturini%NULL%1,             Stefania%Affatato%NULL%2,             Mario%Gaggiotti%NULL%2,             Nicola%Bossini%NULL%2,             Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,             Elisa%Delbarba%NULL%0,             Chiara%Manenti%NULL%0,             Laura%Econimo%NULL%0,             Francesca%Valerio%NULL%0,             Alessandra%Pola%NULL%0,             Camilla%Maffei%NULL%0,             Stefano%Possenti%NULL%0,             Bernardo%Lucca%NULL%1,             Roberta%Cortinovis%NULL%1,             Vincenzo%Terlizzi%NULL%1,             Mattia%Zappa%NULL%1,             Chiara%Saccà%NULL%1,             Elena%Pezzini%NULL%1,             Eleonora%Calcaterra%NULL%1,             Paola%Piarulli%NULL%1,             Alice%Guerini%NULL%1,             Francesca%Boni%NULL%1,             Agnese%Gallico%NULL%1,             Alberto%Mucchetti%NULL%1,             Stefania%Affatato%NULL%0,             Sergio%Bove%NULL%1,             Martina%Bracchi%NULL%1,             Ester Maria%Costantino%NULL%1,             Roberto%Zubani%NULL%1,             Corrado%Camerini%NULL%1,             Paola%Gaggia%NULL%1,             Ezio%Movilli%NULL%1,             Nicola%Bossini%NULL%0,             Mario%Gaggiotti%NULL%0,             Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,             Jordi%Rello%NULL%1,             Sofia%Tejada%NULL%1,             Alejandro%Martín%NULL%1,             Goiatz%Balziskueta%NULL%1,             Cristina%Vinuesa%NULL%1,             Borja%Fernández-Miret%NULL%1,             Ana%Villagra%NULL%1,             Ana%Vallejo%NULL%1,             Ana%San Sebastián%NULL%1,             Sara%Cabañes%NULL%1,             Sebastián%Iribarren%NULL%1,             Fernando%Fonseca%NULL%1,             Javier%Maynar%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,             Denise J%McCulloch%NULL%2,             Denise J%McCulloch%NULL%0,             Vidya%Atluri%NULL%1,             Michela%Blain%NULL%1,             Sarah A%McGuffin%NULL%1,             Arun K%Nalla%NULL%1,             Meei-Li%Huang%NULL%1,             Alex L%Greninger%NULL%1,             Keith R%Jerome%NULL%1,             Seth A%Cohen%NULL%1,             Santiago%Neme%NULL%1,             Margaret L%Green%NULL%1,             Helen Y%Chu%NULL%1,             H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,             Timothy%Mazzuchelli%NULL%1,             Elia%Lo Priore%NULL%1,             Carlo%Balmelli%NULL%1,             Michael%Llamas%NULL%1,             Micol%Pallanza%NULL%1,             Luigia%Elzi%NULL%1,             Vera%Consonni%NULL%1,             Pierpaolo%Trimboli%NULL%1,             Valentina%Forni-Ogna%NULL%1,             Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,           Deliang%Huang%coreGivesNoEmail%0,           Hong%Yu%coreGivesNoEmail%0,           Jun%Chen%coreGivesNoEmail%0,           Lei%Liu%coreGivesNoEmail%0,           National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,           Pengcheng%Ou%coreGivesNoEmail%0,           Qing%He%coreGivesNoEmail%0,           Qingxian%Cai%coreGivesNoEmail%0,           Rossaint%J%coreGivesNoEmail%0,           Yang%Fu%coreGivesNoEmail%0,           Yiming%Zhang%coreGivesNoEmail%0,           Yinan%Su%coreGivesNoEmail%0,           Zhang%Xia%coreGivesNoEmail%0,           Zhenghua%Ma%coreGivesNoEmail%0,           Zhibin%Zhu%coreGivesNoEmail%0,           Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,             Yeming%Wang%NULL%0,             Danning%Wen%NULL%1,             Wen%Liu%NULL%1,             Jingli%Wang%NULL%0,             Guohui%Fan%NULL%0,             Lianguo%Ruan%NULL%1,             Bin%Song%NULL%0,             Yanping%Cai%NULL%1,             Ming%Wei%NULL%1,             Xingwang%Li%NULL%0,             Jiaan%Xia%NULL%0,             Nanshan%Chen%NULL%1,             Jie%Xiang%NULL%0,             Ting%Yu%NULL%0,             Tao%Bai%NULL%0,             Xuelei%Xie%NULL%0,             Li%Zhang%NULL%0,             Caihong%Li%NULL%1,             Ye%Yuan%NULL%1,             Hua%Chen%NULL%0,             Huadong%Li%NULL%1,             Hanping%Huang%NULL%1,             Shengjing%Tu%NULL%1,             Fengyun%Gong%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Chongya%Dong%NULL%1,             Fei%Zhou%NULL%1,             Xiaoying%Gu%NULL%0,             Jiuyang%Xu%NULL%0,             Zhibo%Liu%NULL%0,             Yi%Zhang%NULL%0,             Hui%Li%NULL%0,             Lianhan%Shang%NULL%1,             Ke%Wang%NULL%0,             Kunxia%Li%NULL%1,             Xia%Zhou%NULL%1,             Xuan%Dong%NULL%0,             Zhaohui%Qu%NULL%1,             Sixia%Lu%NULL%1,             Xujuan%Hu%NULL%1,             Shunan%Ruan%NULL%1,             Shanshan%Luo%NULL%1,             Jing%Wu%NULL%0,             Lu%Peng%NULL%1,             Fang%Cheng%NULL%0,             Lihong%Pan%NULL%1,             Jun%Zou%NULL%1,             Chunmin%Jia%NULL%1,             Juan%Wang%NULL%1,             Xia%Liu%NULL%1,             Shuzhen%Wang%NULL%1,             Xudong%Wu%NULL%0,             Qin%Ge%NULL%1,             Jing%He%NULL%1,             Haiyan%Zhan%NULL%1,             Fang%Qiu%NULL%1,             Li%Guo%NULL%0,             Chaolin%Huang%NULL%1,             Thomas%Jaki%NULL%1,             Frederick G.%Hayden%NULL%1,             Peter W.%Horby%NULL%1,             Dingyu%Zhang%NULL%1,             Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Ya-Kun%Liu%NULL%0,             Xiaoyong%Hu%NULL%0,             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,             Jia%Wei%NULL%1,             Liang%Zou%NULL%1,             Tiebin%Jiang%NULL%1,             Gaoxiang%Wang%NULL%1,             Liting%Chen%NULL%1,             Liang%Huang%NULL%1,             Fankai%Meng%NULL%1,             Lifang%Huang%NULL%1,             Na%Wang%NULL%1,             Xiaoxi%Zhou%NULL%1,             Hui%Luo%NULL%1,             Zekai%Mao%NULL%1,             Xing%Chen%NULL%1,             Jungang%Xie%NULL%0,             Jing%Liu%NULL%0,             Hui%Cheng%NULL%1,             Jianping%Zhao%NULL%0,             Gang%Huang%NULL%1,             Wei%Wang%NULL%0,             Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,             Giacomo%De Luca%NULL%1,             Corrado%Campochiaro%NULL%1,             Emanuel%Della-Torre%NULL%1,             Marco%Ripa%NULL%1,             Diana%Canetti%NULL%1,             Chiara%Oltolini%NULL%1,             Barbara%Castiglioni%NULL%1,             Chiara%Tassan Din%NULL%1,             Nicola%Boffini%NULL%1,             Alessandro%Tomelleri%NULL%1,             Nicola%Farina%NULL%1,             Annalisa%Ruggeri%NULL%0,             Patrizia%Rovere-Querini%NULL%0,             Giuseppe%Di Lucca%NULL%1,             Sabina%Martinenghi%NULL%1,             Raffaella%Scotti%NULL%1,             Moreno%Tresoldi%NULL%0,             Fabio%Ciceri%NULL%1,             Giovanni%Landoni%NULL%0,             Alberto%Zangrillo%NULL%0,             Paolo%Scarpellini%NULL%0,             Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,             Kim R.%Derespina%NULL%2,             Betsy C.%Herold%NULL%1,             David L.%Goldman%NULL%1,             Margaret%Aldrich%NULL%1,             Jacqueline%Weingarten%NULL%1,             Henry M.%Ushay%NULL%2,             Michael D.%Cabana%NULL%1,             Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,     Di%Wu%xref no email%0,     Wei%Guo%xref no email%0,     Yong%Cao%xref no email%0,     Da%Huang%xref no email%0,     Hongwu%Wang%xref no email%0,     Tao%Wang%xref no email%0,     Xiaoyun%Zhang%xref no email%0,     Huilong%Chen%xref no email%0,     Haijing%Yu%xref no email%0,     Xiaoping%Zhang%xref no email%0,     Minxia%Zhang%xref no email%0,     Shiji%Wu%xref no email%0,     Jianxin%Song%xref no email%0,     Tao%Chen%xref no email%0,     Meifang%Han%xref no email%0,     Shusheng%Li%xref no email%0,     Xiaoping%Luo%xref no email%0,     Jianping%Zhao%xref no email%0,     Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,             Zhen-Zhen%Zhang%NULL%1,             Yao-Kai%Chen%NULL%1,             Quan-Xin%Long%NULL%1,             Wen-Guang%Tian%NULL%1,             Hai-Jun%Deng%NULL%1,             Jie-Li%Hu%NULL%1,             Xian-Xiang%Zhang%NULL%1,             NULL%Pu-Liao%NULL%1,             Jiang-Lin%Xiang%NULL%1,             Dao-Xin%Wang%NULL%1,             Peng%Hu%NULL%0,             Fa-Chun%Zhou%NULL%1,             Zhi-Jie%Li%NULL%1,             Hong-Mei%Xu%NULL%1,             Xue-Fei%Cai%NULL%1,             De-Qiang%Wang%NULL%1,             Yuan%Hu%NULL%1,             Ni%Tang%NULL%1,             Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,             Gui-Cheng%Wu%wuguic@hotmail.com%1,             Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,             Zhencang%Zheng%NULL%1,             Chao%Zhang%NULL%1,             Xijiang%Zhang%NULL%1,             Huijuan%Wu%NULL%1,             Jingdong%Wang%NULL%1,             Shuwei%Wang%NULL%1,             Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,             Wenhua%Liang%NULL%0,             Mei%Jiang%NULL%0,             Weijie%Guan%NULL%0,             Chen%Zhan%NULL%0,             Tao%Wang%NULL%0,             Chunli%Tang%NULL%0,             Ling%Sang%NULL%0,             Jiaxing%Liu%NULL%0,             Zhengyi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chunliang%Lei%NULL%0,             Yixiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Yahua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jianming%Wang%NULL%0,             Jiyang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhijian%Zheng%NULL%0,             Shaoqin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Changjiang%Ye%NULL%0,             Shaoyong%Zhu%NULL%0,             Xiaoqing%Liu%NULL%0,             Linling%Cheng%NULL%0,             Feng%Ye%NULL%0,             Jinping%Zheng%NULL%0,             Nuofu%Zhang%NULL%0,             Yimin%Li%NULL%0,             Jianxing%He%NULL%0,             Shiyue%Li%lishiyue@188.com%0,             Nanshan%Zhong%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,             Wei%An%NULL%2,             Wei%An%NULL%0,             Fei%Xia%NULL%0,             Ping%Yang%NULL%1,             Kuangyu%Li%NULL%1,             Qin%Zhou%NULL%1,             Shasha%Fang%NULL%1,             Yaling%Liao%NULL%1,             Xin%Xu%NULL%0,             Jialin%Liu%NULL%1,             Shiguo%Liu%NULL%1,             Tao%Qin%NULL%1,             Jianjun%Zhang%NULL%1,             Wei%Wei%NULL%0,             Yafang%Zhang%NULL%1,             Guowei%Zhang%NULL%1,             Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,             Nan%Yang%NULL%2,             Nan%Yang%NULL%0,             Yanqiu%Wei%NULL%1,             Huihui%Yue%NULL%1,             Fengqin%Zhang%NULL%1,             Jianping%Zhao%NULL%0,             Li%He%NULL%1,             Gaohong%Sheng%NULL%2,             Gaohong%Sheng%NULL%0,             Peng%Chen%NULL%1,             Gang%Li%NULL%0,             Sisi%Wu%NULL%1,             Bo%Zhang%NULL%0,             Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,             Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,             Xiaoping%Miao%miaoxp@hust.edu.cn%1,             Juan%Li%lijuan@tjh.tjmu.edu.cn%0,             Wenhua%Liu%liuwh_2013@126.com%1,             Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,             Susannah%Ahern%NULL%1,             Scott C.%Bell%NULL%1,             Keith%Brownlee%NULL%1,             Pierre-Régis%Burgel%NULL%1,             Cass%Byrnes%NULL%1,             Harriet%Corvol%NULL%1,             Stephanie Y.%Cheng%NULL%1,             Alexander%Elbert%NULL%1,             Albert%Faro%NULL%1,             Christopher H.%Goss%NULL%1,             Vincent%Gulmans%NULL%1,             Bruce C.%Marshall%NULL%1,             Edward%McKone%NULL%1,             Peter G.%Middleton%NULL%1,             Rasa%Ruseckaite%NULL%1,             Anne L.%Stephenson%NULL%1,             Siobhán B%Carr%NULL%1,             David%Reid%NULL%1,             Peter%Wark%NULL%1,             Géraldine%Daneau%NULL%1,             Véronique%Boussaud%NULL%1,             Graziella%Brinchault%NULL%1,             Emmanuelle%Coirier-Duet%NULL%1,             Jean-Christophe%Dubus%NULL%1,             Dominique%Grenet%NULL%1,             Sandra de%Miranda%NULL%1,             Laurence%Beaumont%NULL%1,             Reem%Kanaan%NULL%1,             Muriel%Lauraens%NULL%1,             Clémence%Martin%NULL%1,             Marie%Mittaine%NULL%1,             Anne%Prévotat%NULL%1,             Martine%Reynaud-Gaubert%NULL%1,             Isabelle%Sermet-Gaudelus%NULL%1,             Aurelie%Tatopoulos%NULL%1,             Lutz%Nährlich%NULL%1,             Barry%Plant%NULL%1,             Cedric%Gunaratnam%NULL%1,             Abaigeal%Jackson%NULL%1,             Karin M. de Winter-de%Groot%NULL%1,             Bart%Luijk%NULL%1,             Geertjan%Wesseling%NULL%1,             Mark%Allenby%NULL%1,             Jamie%Duckers%NULL%1,             Elaine%Gunn%NULL%1,             Andrew%Jones%NULL%1,             Robert Ian%Ketchell%NULL%1,             Susan L.%Madge%NULL%1,             Anirban%Maitra%NULL%1,             Ghulam%Mujtaba%NULL%1,             Helen%Rodgers%NULL%1,             Nadia%Shafi%NULL%1,             Nicholas%Simmonds%NULL%1,             Kevin%Southern%NULL%1,             Danie%Watson%NULL%1,             Samar%Rizvi%NULL%1,             Julie%Seguin%NULL%1,             Janet%Garbarz%NULL%1,             Kristen%Rosamilia%NULL%1,             Maria%Berdella%NULL%1,             Jerry A.%Nick%NULL%1,             Richard%Belkin%NULL%1,             Diana%Gilmore%NULL%1,             Kim%McBennett%NULL%1,             Rita%Padoan%NULL%1,             Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,             Matthew R%Baldwin%NULL%0,             Darryl%Abrams%NULL%1,             Samuel D%Jacobson%NULL%1,             Benjamin J%Meyer%NULL%1,             Elizabeth M%Balough%NULL%1,             Justin G%Aaron%NULL%1,             Jan%Claassen%NULL%0,             LeRoy E%Rabbani%NULL%1,             Jonathan%Hastie%NULL%1,             Beth R%Hochman%NULL%1,             John%Salazar-Schicchi%NULL%1,             Natalie H%Yip%NULL%1,             Daniel%Brodie%NULL%0,             Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,             Xin%Zhang%NULL%0,             Jianguo%Xia%NULL%1,             Tao%Zhang%NULL%1,             Yalei%Shang%NULL%1,             Renjun%Huang%NULL%1,             Rongrong%Liu%NULL%1,             Dan%Wang%NULL%0,             Min%Li%105549156@qq.com%1,             Jinping%Wu%czwjp@sina.com%1,             Qiuzhen%Xu%xuqiuzhen831@sina.com%1,             Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,              Shiva%Samavat%NULL%1,              Behdad%Behnam%NULL%1,              Mehran%Arab-Ahmadi%NULL%1,              Mohsen%Nafar%NULL%1,              Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,              Elisa%Delbarba%NULL%2,              Chiara%Manenti%NULL%2,              Laura%Econimo%NULL%2,              Francesca%Valerio%NULL%2,              Alessandra%Pola%NULL%2,              Camilla%Maffei%NULL%2,              Stefano%Possenti%NULL%2,              Nicole%Zambetti%NULL%1,              Marianna%Moscato%NULL%1,              Margherita%Venturini%NULL%1,              Stefania%Affatato%NULL%2,              Mario%Gaggiotti%NULL%2,              Nicola%Bossini%NULL%2,              Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,              Elisa%Delbarba%NULL%0,              Chiara%Manenti%NULL%0,              Laura%Econimo%NULL%0,              Francesca%Valerio%NULL%0,              Alessandra%Pola%NULL%0,              Camilla%Maffei%NULL%0,              Stefano%Possenti%NULL%0,              Bernardo%Lucca%NULL%1,              Roberta%Cortinovis%NULL%1,              Vincenzo%Terlizzi%NULL%1,              Mattia%Zappa%NULL%1,              Chiara%Saccà%NULL%1,              Elena%Pezzini%NULL%1,              Eleonora%Calcaterra%NULL%1,              Paola%Piarulli%NULL%1,              Alice%Guerini%NULL%1,              Francesca%Boni%NULL%1,              Agnese%Gallico%NULL%1,              Alberto%Mucchetti%NULL%1,              Stefania%Affatato%NULL%0,              Sergio%Bove%NULL%1,              Martina%Bracchi%NULL%1,              Ester Maria%Costantino%NULL%1,              Roberto%Zubani%NULL%1,              Corrado%Camerini%NULL%1,              Paola%Gaggia%NULL%1,              Ezio%Movilli%NULL%1,              Nicola%Bossini%NULL%0,              Mario%Gaggiotti%NULL%0,              Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,              Jordi%Rello%NULL%1,              Sofia%Tejada%NULL%1,              Alejandro%Martín%NULL%1,              Goiatz%Balziskueta%NULL%1,              Cristina%Vinuesa%NULL%1,              Borja%Fernández-Miret%NULL%1,              Ana%Villagra%NULL%1,              Ana%Vallejo%NULL%1,              Ana%San Sebastián%NULL%1,              Sara%Cabañes%NULL%1,              Sebastián%Iribarren%NULL%1,              Fernando%Fonseca%NULL%1,              Javier%Maynar%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,              Denise J%McCulloch%NULL%2,              Denise J%McCulloch%NULL%0,              Vidya%Atluri%NULL%1,              Michela%Blain%NULL%1,              Sarah A%McGuffin%NULL%1,              Arun K%Nalla%NULL%1,              Meei-Li%Huang%NULL%1,              Alex L%Greninger%NULL%1,              Keith R%Jerome%NULL%1,              Seth A%Cohen%NULL%1,              Santiago%Neme%NULL%1,              Margaret L%Green%NULL%1,              Helen Y%Chu%NULL%1,              H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,              Timothy%Mazzuchelli%NULL%1,              Elia%Lo Priore%NULL%1,              Carlo%Balmelli%NULL%1,              Michael%Llamas%NULL%1,              Micol%Pallanza%NULL%1,              Luigia%Elzi%NULL%1,              Vera%Consonni%NULL%1,              Pierpaolo%Trimboli%NULL%1,              Valentina%Forni-Ogna%NULL%1,              Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,            Deliang%Huang%coreGivesNoEmail%0,            Hong%Yu%coreGivesNoEmail%0,            Jun%Chen%coreGivesNoEmail%0,            Lei%Liu%coreGivesNoEmail%0,            National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,            Pengcheng%Ou%coreGivesNoEmail%0,            Qing%He%coreGivesNoEmail%0,            Qingxian%Cai%coreGivesNoEmail%0,            Rossaint%J%coreGivesNoEmail%0,            Yang%Fu%coreGivesNoEmail%0,            Yiming%Zhang%coreGivesNoEmail%0,            Yinan%Su%coreGivesNoEmail%0,            Zhang%Xia%coreGivesNoEmail%0,            Zhenghua%Ma%coreGivesNoEmail%0,            Zhibin%Zhu%coreGivesNoEmail%0,            Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,              Yeming%Wang%NULL%0,              Danning%Wen%NULL%1,              Wen%Liu%NULL%1,              Jingli%Wang%NULL%0,              Guohui%Fan%NULL%0,              Lianguo%Ruan%NULL%1,              Bin%Song%NULL%0,              Yanping%Cai%NULL%1,              Ming%Wei%NULL%1,              Xingwang%Li%NULL%0,              Jiaan%Xia%NULL%0,              Nanshan%Chen%NULL%1,              Jie%Xiang%NULL%0,              Ting%Yu%NULL%0,              Tao%Bai%NULL%0,              Xuelei%Xie%NULL%0,              Li%Zhang%NULL%0,              Caihong%Li%NULL%1,              Ye%Yuan%NULL%1,              Hua%Chen%NULL%0,              Huadong%Li%NULL%1,              Hanping%Huang%NULL%1,              Shengjing%Tu%NULL%1,              Fengyun%Gong%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Chongya%Dong%NULL%1,              Fei%Zhou%NULL%1,              Xiaoying%Gu%NULL%0,              Jiuyang%Xu%NULL%0,              Zhibo%Liu%NULL%0,              Yi%Zhang%NULL%0,              Hui%Li%NULL%0,              Lianhan%Shang%NULL%1,              Ke%Wang%NULL%0,              Kunxia%Li%NULL%1,              Xia%Zhou%NULL%1,              Xuan%Dong%NULL%0,              Zhaohui%Qu%NULL%1,              Sixia%Lu%NULL%1,              Xujuan%Hu%NULL%1,              Shunan%Ruan%NULL%1,              Shanshan%Luo%NULL%1,              Jing%Wu%NULL%0,              Lu%Peng%NULL%1,              Fang%Cheng%NULL%0,              Lihong%Pan%NULL%1,              Jun%Zou%NULL%1,              Chunmin%Jia%NULL%1,              Juan%Wang%NULL%1,              Xia%Liu%NULL%1,              Shuzhen%Wang%NULL%1,              Xudong%Wu%NULL%0,              Qin%Ge%NULL%1,              Jing%He%NULL%1,              Haiyan%Zhan%NULL%1,              Fang%Qiu%NULL%1,              Li%Guo%NULL%0,              Chaolin%Huang%NULL%1,              Thomas%Jaki%NULL%1,              Frederick G.%Hayden%NULL%1,              Peter W.%Horby%NULL%1,              Dingyu%Zhang%NULL%1,              Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Ya-Kun%Liu%NULL%0,              Xiaoyong%Hu%NULL%0,              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,              Jia%Wei%NULL%1,              Liang%Zou%NULL%1,              Tiebin%Jiang%NULL%1,              Gaoxiang%Wang%NULL%1,              Liting%Chen%NULL%1,              Liang%Huang%NULL%1,              Fankai%Meng%NULL%1,              Lifang%Huang%NULL%1,              Na%Wang%NULL%1,              Xiaoxi%Zhou%NULL%1,              Hui%Luo%NULL%1,              Zekai%Mao%NULL%1,              Xing%Chen%NULL%1,              Jungang%Xie%NULL%0,              Jing%Liu%NULL%0,              Hui%Cheng%NULL%1,              Jianping%Zhao%NULL%0,              Gang%Huang%NULL%1,              Wei%Wang%NULL%0,              Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,              Giacomo%De Luca%NULL%1,              Corrado%Campochiaro%NULL%1,              Emanuel%Della-Torre%NULL%1,              Marco%Ripa%NULL%1,              Diana%Canetti%NULL%1,              Chiara%Oltolini%NULL%1,              Barbara%Castiglioni%NULL%1,              Chiara%Tassan Din%NULL%1,              Nicola%Boffini%NULL%1,              Alessandro%Tomelleri%NULL%1,              Nicola%Farina%NULL%1,              Annalisa%Ruggeri%NULL%0,              Patrizia%Rovere-Querini%NULL%0,              Giuseppe%Di Lucca%NULL%1,              Sabina%Martinenghi%NULL%1,              Raffaella%Scotti%NULL%1,              Moreno%Tresoldi%NULL%0,              Fabio%Ciceri%NULL%1,              Giovanni%Landoni%NULL%0,              Alberto%Zangrillo%NULL%0,              Paolo%Scarpellini%NULL%0,              Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,              Kim R.%Derespina%NULL%2,              Betsy C.%Herold%NULL%1,              David L.%Goldman%NULL%1,              Margaret%Aldrich%NULL%1,              Jacqueline%Weingarten%NULL%1,              Henry M.%Ushay%NULL%2,              Michael D.%Cabana%NULL%1,              Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,      Di%Wu%xref no email%0,      Wei%Guo%xref no email%0,      Yong%Cao%xref no email%0,      Da%Huang%xref no email%0,      Hongwu%Wang%xref no email%0,      Tao%Wang%xref no email%0,      Xiaoyun%Zhang%xref no email%0,      Huilong%Chen%xref no email%0,      Haijing%Yu%xref no email%0,      Xiaoping%Zhang%xref no email%0,      Minxia%Zhang%xref no email%0,      Shiji%Wu%xref no email%0,      Jianxin%Song%xref no email%0,      Tao%Chen%xref no email%0,      Meifang%Han%xref no email%0,      Shusheng%Li%xref no email%0,      Xiaoping%Luo%xref no email%0,      Jianping%Zhao%xref no email%0,      Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,              Zhen-Zhen%Zhang%NULL%1,              Yao-Kai%Chen%NULL%1,              Quan-Xin%Long%NULL%1,              Wen-Guang%Tian%NULL%1,              Hai-Jun%Deng%NULL%1,              Jie-Li%Hu%NULL%1,              Xian-Xiang%Zhang%NULL%1,              NULL%Pu-Liao%NULL%1,              Jiang-Lin%Xiang%NULL%1,              Dao-Xin%Wang%NULL%1,              Peng%Hu%NULL%0,              Fa-Chun%Zhou%NULL%1,              Zhi-Jie%Li%NULL%1,              Hong-Mei%Xu%NULL%1,              Xue-Fei%Cai%NULL%1,              De-Qiang%Wang%NULL%1,              Yuan%Hu%NULL%1,              Ni%Tang%NULL%1,              Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,              Gui-Cheng%Wu%wuguic@hotmail.com%1,              Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,              Zhencang%Zheng%NULL%1,              Chao%Zhang%NULL%1,              Xijiang%Zhang%NULL%1,              Huijuan%Wu%NULL%1,              Jingdong%Wang%NULL%1,              Shuwei%Wang%NULL%1,              Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,              Wenhua%Liang%NULL%0,              Mei%Jiang%NULL%0,              Weijie%Guan%NULL%0,              Chen%Zhan%NULL%0,              Tao%Wang%NULL%0,              Chunli%Tang%NULL%0,              Ling%Sang%NULL%0,              Jiaxing%Liu%NULL%0,              Zhengyi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chunliang%Lei%NULL%0,              Yixiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Yahua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jianming%Wang%NULL%0,              Jiyang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhijian%Zheng%NULL%0,              Shaoqin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Changjiang%Ye%NULL%0,              Shaoyong%Zhu%NULL%0,              Xiaoqing%Liu%NULL%0,              Linling%Cheng%NULL%0,              Feng%Ye%NULL%0,              Jinping%Zheng%NULL%0,              Nuofu%Zhang%NULL%0,              Yimin%Li%NULL%0,              Jianxing%He%NULL%0,              Shiyue%Li%lishiyue@188.com%0,              Nanshan%Zhong%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,              Wei%An%NULL%2,              Wei%An%NULL%0,              Fei%Xia%NULL%0,              Ping%Yang%NULL%1,              Kuangyu%Li%NULL%1,              Qin%Zhou%NULL%1,              Shasha%Fang%NULL%1,              Yaling%Liao%NULL%1,              Xin%Xu%NULL%0,              Jialin%Liu%NULL%1,              Shiguo%Liu%NULL%1,              Tao%Qin%NULL%1,              Jianjun%Zhang%NULL%1,              Wei%Wei%NULL%0,              Yafang%Zhang%NULL%1,              Guowei%Zhang%NULL%1,              Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,              Nan%Yang%NULL%2,              Nan%Yang%NULL%0,              Yanqiu%Wei%NULL%1,              Huihui%Yue%NULL%1,              Fengqin%Zhang%NULL%1,              Jianping%Zhao%NULL%0,              Li%He%NULL%1,              Gaohong%Sheng%NULL%2,              Gaohong%Sheng%NULL%0,              Peng%Chen%NULL%1,              Gang%Li%NULL%0,              Sisi%Wu%NULL%1,              Bo%Zhang%NULL%0,              Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,              Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,              Xiaoping%Miao%miaoxp@hust.edu.cn%1,              Juan%Li%lijuan@tjh.tjmu.edu.cn%0,              Wenhua%Liu%liuwh_2013@126.com%1,              Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,              Susannah%Ahern%NULL%1,              Scott C.%Bell%NULL%1,              Keith%Brownlee%NULL%1,              Pierre-Régis%Burgel%NULL%1,              Cass%Byrnes%NULL%1,              Harriet%Corvol%NULL%1,              Stephanie Y.%Cheng%NULL%1,              Alexander%Elbert%NULL%1,              Albert%Faro%NULL%1,              Christopher H.%Goss%NULL%1,              Vincent%Gulmans%NULL%1,              Bruce C.%Marshall%NULL%1,              Edward%McKone%NULL%1,              Peter G.%Middleton%NULL%1,              Rasa%Ruseckaite%NULL%1,              Anne L.%Stephenson%NULL%1,              Siobhán B%Carr%NULL%1,              David%Reid%NULL%1,              Peter%Wark%NULL%1,              Géraldine%Daneau%NULL%1,              Véronique%Boussaud%NULL%1,              Graziella%Brinchault%NULL%1,              Emmanuelle%Coirier-Duet%NULL%1,              Jean-Christophe%Dubus%NULL%1,              Dominique%Grenet%NULL%1,              Sandra de%Miranda%NULL%1,              Laurence%Beaumont%NULL%1,              Reem%Kanaan%NULL%1,              Muriel%Lauraens%NULL%1,              Clémence%Martin%NULL%1,              Marie%Mittaine%NULL%1,              Anne%Prévotat%NULL%1,              Martine%Reynaud-Gaubert%NULL%1,              Isabelle%Sermet-Gaudelus%NULL%1,              Aurelie%Tatopoulos%NULL%1,              Lutz%Nährlich%NULL%1,              Barry%Plant%NULL%1,              Cedric%Gunaratnam%NULL%1,              Abaigeal%Jackson%NULL%1,              Karin M. de Winter-de%Groot%NULL%1,              Bart%Luijk%NULL%1,              Geertjan%Wesseling%NULL%1,              Mark%Allenby%NULL%1,              Jamie%Duckers%NULL%1,              Elaine%Gunn%NULL%1,              Andrew%Jones%NULL%1,              Robert Ian%Ketchell%NULL%1,              Susan L.%Madge%NULL%1,              Anirban%Maitra%NULL%1,              Ghulam%Mujtaba%NULL%1,              Helen%Rodgers%NULL%1,              Nadia%Shafi%NULL%1,              Nicholas%Simmonds%NULL%1,              Kevin%Southern%NULL%1,              Danie%Watson%NULL%1,              Samar%Rizvi%NULL%1,              Julie%Seguin%NULL%1,              Janet%Garbarz%NULL%1,              Kristen%Rosamilia%NULL%1,              Maria%Berdella%NULL%1,              Jerry A.%Nick%NULL%1,              Richard%Belkin%NULL%1,              Diana%Gilmore%NULL%1,              Kim%McBennett%NULL%1,              Rita%Padoan%NULL%1,              Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,              Matthew R%Baldwin%NULL%0,              Darryl%Abrams%NULL%1,              Samuel D%Jacobson%NULL%1,              Benjamin J%Meyer%NULL%1,              Elizabeth M%Balough%NULL%1,              Justin G%Aaron%NULL%1,              Jan%Claassen%NULL%0,              LeRoy E%Rabbani%NULL%1,              Jonathan%Hastie%NULL%1,              Beth R%Hochman%NULL%1,              John%Salazar-Schicchi%NULL%1,              Natalie H%Yip%NULL%1,              Daniel%Brodie%NULL%0,              Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,              Xin%Zhang%NULL%0,              Jianguo%Xia%NULL%1,              Tao%Zhang%NULL%1,              Yalei%Shang%NULL%1,              Renjun%Huang%NULL%1,              Rongrong%Liu%NULL%1,              Dan%Wang%NULL%0,              Min%Li%105549156@qq.com%1,              Jinping%Wu%czwjp@sina.com%1,              Qiuzhen%Xu%xuqiuzhen831@sina.com%1,              Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1937,7 +2101,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1966,7 +2130,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1995,7 +2159,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2024,7 +2188,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2053,7 +2217,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2082,7 +2246,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2111,7 +2275,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2140,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2169,7 +2333,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2198,7 +2362,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2227,7 +2391,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2256,7 +2420,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2285,7 +2449,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2314,7 +2478,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2343,7 +2507,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2369,10 +2533,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2401,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2430,7 +2594,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2459,7 +2623,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2488,7 +2652,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2517,7 +2681,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2546,7 +2710,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="461">
   <si>
     <t>Doi</t>
   </si>
@@ -1687,6 +1687,75 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,              Xin%Zhang%NULL%0,              Jianguo%Xia%NULL%1,              Tao%Zhang%NULL%1,              Yalei%Shang%NULL%1,              Renjun%Huang%NULL%1,              Rongrong%Liu%NULL%1,              Dan%Wang%NULL%0,              Min%Li%105549156@qq.com%1,              Jinping%Wu%czwjp@sina.com%1,              Qiuzhen%Xu%xuqiuzhen831@sina.com%1,              Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,               Shiva%Samavat%NULL%1,               Behdad%Behnam%NULL%1,               Mehran%Arab-Ahmadi%NULL%1,               Mohsen%Nafar%NULL%1,               Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,               Elisa%Delbarba%NULL%2,               Chiara%Manenti%NULL%2,               Laura%Econimo%NULL%2,               Francesca%Valerio%NULL%2,               Alessandra%Pola%NULL%2,               Camilla%Maffei%NULL%2,               Stefano%Possenti%NULL%2,               Nicole%Zambetti%NULL%1,               Marianna%Moscato%NULL%1,               Margherita%Venturini%NULL%1,               Stefania%Affatato%NULL%2,               Mario%Gaggiotti%NULL%2,               Nicola%Bossini%NULL%2,               Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,               Elisa%Delbarba%NULL%0,               Chiara%Manenti%NULL%0,               Laura%Econimo%NULL%0,               Francesca%Valerio%NULL%0,               Alessandra%Pola%NULL%0,               Camilla%Maffei%NULL%0,               Stefano%Possenti%NULL%0,               Bernardo%Lucca%NULL%1,               Roberta%Cortinovis%NULL%1,               Vincenzo%Terlizzi%NULL%1,               Mattia%Zappa%NULL%1,               Chiara%Saccà%NULL%1,               Elena%Pezzini%NULL%1,               Eleonora%Calcaterra%NULL%1,               Paola%Piarulli%NULL%1,               Alice%Guerini%NULL%1,               Francesca%Boni%NULL%1,               Agnese%Gallico%NULL%1,               Alberto%Mucchetti%NULL%1,               Stefania%Affatato%NULL%0,               Sergio%Bove%NULL%1,               Martina%Bracchi%NULL%1,               Ester Maria%Costantino%NULL%1,               Roberto%Zubani%NULL%1,               Corrado%Camerini%NULL%1,               Paola%Gaggia%NULL%1,               Ezio%Movilli%NULL%1,               Nicola%Bossini%NULL%0,               Mario%Gaggiotti%NULL%0,               Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,               Jordi%Rello%NULL%1,               Sofia%Tejada%NULL%1,               Alejandro%Martín%NULL%1,               Goiatz%Balziskueta%NULL%1,               Cristina%Vinuesa%NULL%1,               Borja%Fernández-Miret%NULL%1,               Ana%Villagra%NULL%1,               Ana%Vallejo%NULL%1,               Ana%San Sebastián%NULL%1,               Sara%Cabañes%NULL%1,               Sebastián%Iribarren%NULL%1,               Fernando%Fonseca%NULL%1,               Javier%Maynar%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,               Denise J%McCulloch%NULL%2,               Denise J%McCulloch%NULL%0,               Vidya%Atluri%NULL%1,               Michela%Blain%NULL%1,               Sarah A%McGuffin%NULL%1,               Arun K%Nalla%NULL%1,               Meei-Li%Huang%NULL%1,               Alex L%Greninger%NULL%1,               Keith R%Jerome%NULL%1,               Seth A%Cohen%NULL%1,               Santiago%Neme%NULL%1,               Margaret L%Green%NULL%1,               Helen Y%Chu%NULL%1,               H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,               Timothy%Mazzuchelli%NULL%1,               Elia%Lo Priore%NULL%1,               Carlo%Balmelli%NULL%1,               Michael%Llamas%NULL%1,               Micol%Pallanza%NULL%1,               Luigia%Elzi%NULL%1,               Vera%Consonni%NULL%1,               Pierpaolo%Trimboli%NULL%1,               Valentina%Forni-Ogna%NULL%1,               Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,             Deliang%Huang%coreGivesNoEmail%0,             Hong%Yu%coreGivesNoEmail%0,             Jun%Chen%coreGivesNoEmail%0,             Lei%Liu%coreGivesNoEmail%0,             National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,             Pengcheng%Ou%coreGivesNoEmail%0,             Qing%He%coreGivesNoEmail%0,             Qingxian%Cai%coreGivesNoEmail%0,             Rossaint%J%coreGivesNoEmail%0,             Yang%Fu%coreGivesNoEmail%0,             Yiming%Zhang%coreGivesNoEmail%0,             Yinan%Su%coreGivesNoEmail%0,             Zhang%Xia%coreGivesNoEmail%0,             Zhenghua%Ma%coreGivesNoEmail%0,             Zhibin%Zhu%coreGivesNoEmail%0,             Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,               Yeming%Wang%NULL%0,               Danning%Wen%NULL%1,               Wen%Liu%NULL%1,               Jingli%Wang%NULL%0,               Guohui%Fan%NULL%0,               Lianguo%Ruan%NULL%1,               Bin%Song%NULL%0,               Yanping%Cai%NULL%1,               Ming%Wei%NULL%1,               Xingwang%Li%NULL%0,               Jiaan%Xia%NULL%0,               Nanshan%Chen%NULL%1,               Jie%Xiang%NULL%0,               Ting%Yu%NULL%0,               Tao%Bai%NULL%0,               Xuelei%Xie%NULL%0,               Li%Zhang%NULL%0,               Caihong%Li%NULL%1,               Ye%Yuan%NULL%1,               Hua%Chen%NULL%0,               Huadong%Li%NULL%1,               Hanping%Huang%NULL%1,               Shengjing%Tu%NULL%1,               Fengyun%Gong%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Chongya%Dong%NULL%1,               Fei%Zhou%NULL%1,               Xiaoying%Gu%NULL%0,               Jiuyang%Xu%NULL%0,               Zhibo%Liu%NULL%0,               Yi%Zhang%NULL%0,               Hui%Li%NULL%0,               Lianhan%Shang%NULL%1,               Ke%Wang%NULL%0,               Kunxia%Li%NULL%1,               Xia%Zhou%NULL%1,               Xuan%Dong%NULL%0,               Zhaohui%Qu%NULL%1,               Sixia%Lu%NULL%1,               Xujuan%Hu%NULL%1,               Shunan%Ruan%NULL%1,               Shanshan%Luo%NULL%1,               Jing%Wu%NULL%0,               Lu%Peng%NULL%1,               Fang%Cheng%NULL%0,               Lihong%Pan%NULL%1,               Jun%Zou%NULL%1,               Chunmin%Jia%NULL%1,               Juan%Wang%NULL%1,               Xia%Liu%NULL%1,               Shuzhen%Wang%NULL%1,               Xudong%Wu%NULL%0,               Qin%Ge%NULL%1,               Jing%He%NULL%1,               Haiyan%Zhan%NULL%1,               Fang%Qiu%NULL%1,               Li%Guo%NULL%0,               Chaolin%Huang%NULL%1,               Thomas%Jaki%NULL%1,               Frederick G.%Hayden%NULL%1,               Peter W.%Horby%NULL%1,               Dingyu%Zhang%NULL%1,               Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Ya-Kun%Liu%NULL%0,               Xiaoyong%Hu%NULL%0,               Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,               Jia%Wei%NULL%1,               Liang%Zou%NULL%1,               Tiebin%Jiang%NULL%1,               Gaoxiang%Wang%NULL%1,               Liting%Chen%NULL%1,               Liang%Huang%NULL%1,               Fankai%Meng%NULL%1,               Lifang%Huang%NULL%1,               Na%Wang%NULL%1,               Xiaoxi%Zhou%NULL%1,               Hui%Luo%NULL%1,               Zekai%Mao%NULL%1,               Xing%Chen%NULL%1,               Jungang%Xie%NULL%0,               Jing%Liu%NULL%0,               Hui%Cheng%NULL%1,               Jianping%Zhao%NULL%0,               Gang%Huang%NULL%1,               Wei%Wang%NULL%0,               Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,               Giacomo%De Luca%NULL%1,               Corrado%Campochiaro%NULL%1,               Emanuel%Della-Torre%NULL%1,               Marco%Ripa%NULL%1,               Diana%Canetti%NULL%1,               Chiara%Oltolini%NULL%1,               Barbara%Castiglioni%NULL%1,               Chiara%Tassan Din%NULL%1,               Nicola%Boffini%NULL%1,               Alessandro%Tomelleri%NULL%1,               Nicola%Farina%NULL%1,               Annalisa%Ruggeri%NULL%0,               Patrizia%Rovere-Querini%NULL%0,               Giuseppe%Di Lucca%NULL%1,               Sabina%Martinenghi%NULL%1,               Raffaella%Scotti%NULL%1,               Moreno%Tresoldi%NULL%0,               Fabio%Ciceri%NULL%1,               Giovanni%Landoni%NULL%0,               Alberto%Zangrillo%NULL%0,               Paolo%Scarpellini%NULL%0,               Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,               Kim R.%Derespina%NULL%2,               Betsy C.%Herold%NULL%1,               David L.%Goldman%NULL%1,               Margaret%Aldrich%NULL%1,               Jacqueline%Weingarten%NULL%1,               Henry M.%Ushay%NULL%2,               Michael D.%Cabana%NULL%1,               Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,       Di%Wu%xref no email%0,       Wei%Guo%xref no email%0,       Yong%Cao%xref no email%0,       Da%Huang%xref no email%0,       Hongwu%Wang%xref no email%0,       Tao%Wang%xref no email%0,       Xiaoyun%Zhang%xref no email%0,       Huilong%Chen%xref no email%0,       Haijing%Yu%xref no email%0,       Xiaoping%Zhang%xref no email%0,       Minxia%Zhang%xref no email%0,       Shiji%Wu%xref no email%0,       Jianxin%Song%xref no email%0,       Tao%Chen%xref no email%0,       Meifang%Han%xref no email%0,       Shusheng%Li%xref no email%0,       Xiaoping%Luo%xref no email%0,       Jianping%Zhao%xref no email%0,       Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,               Zhen-Zhen%Zhang%NULL%1,               Yao-Kai%Chen%NULL%1,               Quan-Xin%Long%NULL%1,               Wen-Guang%Tian%NULL%1,               Hai-Jun%Deng%NULL%1,               Jie-Li%Hu%NULL%1,               Xian-Xiang%Zhang%NULL%1,               NULL%Pu-Liao%NULL%1,               Jiang-Lin%Xiang%NULL%1,               Dao-Xin%Wang%NULL%1,               Peng%Hu%NULL%0,               Fa-Chun%Zhou%NULL%1,               Zhi-Jie%Li%NULL%1,               Hong-Mei%Xu%NULL%1,               Xue-Fei%Cai%NULL%1,               De-Qiang%Wang%NULL%1,               Yuan%Hu%NULL%1,               Ni%Tang%NULL%1,               Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,               Gui-Cheng%Wu%wuguic@hotmail.com%1,               Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,               Zhencang%Zheng%NULL%1,               Chao%Zhang%NULL%1,               Xijiang%Zhang%NULL%1,               Huijuan%Wu%NULL%1,               Jingdong%Wang%NULL%1,               Shuwei%Wang%NULL%1,               Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,               Wenhua%Liang%NULL%0,               Mei%Jiang%NULL%0,               Weijie%Guan%NULL%0,               Chen%Zhan%NULL%0,               Tao%Wang%NULL%0,               Chunli%Tang%NULL%0,               Ling%Sang%NULL%0,               Jiaxing%Liu%NULL%0,               Zhengyi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chunliang%Lei%NULL%0,               Yixiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Yahua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jianming%Wang%NULL%0,               Jiyang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhijian%Zheng%NULL%0,               Shaoqin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Changjiang%Ye%NULL%0,               Shaoyong%Zhu%NULL%0,               Xiaoqing%Liu%NULL%0,               Linling%Cheng%NULL%0,               Feng%Ye%NULL%0,               Jinping%Zheng%NULL%0,               Nuofu%Zhang%NULL%0,               Yimin%Li%NULL%0,               Jianxing%He%NULL%0,               Shiyue%Li%lishiyue@188.com%0,               Nanshan%Zhong%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,               Wei%An%NULL%2,               Wei%An%NULL%0,               Fei%Xia%NULL%0,               Ping%Yang%NULL%1,               Kuangyu%Li%NULL%1,               Qin%Zhou%NULL%1,               Shasha%Fang%NULL%1,               Yaling%Liao%NULL%1,               Xin%Xu%NULL%0,               Jialin%Liu%NULL%1,               Shiguo%Liu%NULL%1,               Tao%Qin%NULL%1,               Jianjun%Zhang%NULL%1,               Wei%Wei%NULL%0,               Yafang%Zhang%NULL%1,               Guowei%Zhang%NULL%1,               Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,               Nan%Yang%NULL%2,               Nan%Yang%NULL%0,               Yanqiu%Wei%NULL%1,               Huihui%Yue%NULL%1,               Fengqin%Zhang%NULL%1,               Jianping%Zhao%NULL%0,               Li%He%NULL%1,               Gaohong%Sheng%NULL%2,               Gaohong%Sheng%NULL%0,               Peng%Chen%NULL%1,               Gang%Li%NULL%0,               Sisi%Wu%NULL%1,               Bo%Zhang%NULL%0,               Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,               Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,               Xiaoping%Miao%miaoxp@hust.edu.cn%1,               Juan%Li%lijuan@tjh.tjmu.edu.cn%0,               Wenhua%Liu%liuwh_2013@126.com%1,               Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,               Susannah%Ahern%NULL%1,               Scott C.%Bell%NULL%1,               Keith%Brownlee%NULL%1,               Pierre-Régis%Burgel%NULL%1,               Cass%Byrnes%NULL%1,               Harriet%Corvol%NULL%1,               Stephanie Y.%Cheng%NULL%1,               Alexander%Elbert%NULL%1,               Albert%Faro%NULL%1,               Christopher H.%Goss%NULL%1,               Vincent%Gulmans%NULL%1,               Bruce C.%Marshall%NULL%1,               Edward%McKone%NULL%1,               Peter G.%Middleton%NULL%1,               Rasa%Ruseckaite%NULL%1,               Anne L.%Stephenson%NULL%1,               Siobhán B%Carr%NULL%1,               David%Reid%NULL%1,               Peter%Wark%NULL%1,               Géraldine%Daneau%NULL%1,               Véronique%Boussaud%NULL%1,               Graziella%Brinchault%NULL%1,               Emmanuelle%Coirier-Duet%NULL%1,               Jean-Christophe%Dubus%NULL%1,               Dominique%Grenet%NULL%1,               Sandra de%Miranda%NULL%1,               Laurence%Beaumont%NULL%1,               Reem%Kanaan%NULL%1,               Muriel%Lauraens%NULL%1,               Clémence%Martin%NULL%1,               Marie%Mittaine%NULL%1,               Anne%Prévotat%NULL%1,               Martine%Reynaud-Gaubert%NULL%1,               Isabelle%Sermet-Gaudelus%NULL%1,               Aurelie%Tatopoulos%NULL%1,               Lutz%Nährlich%NULL%1,               Barry%Plant%NULL%1,               Cedric%Gunaratnam%NULL%1,               Abaigeal%Jackson%NULL%1,               Karin M. de Winter-de%Groot%NULL%1,               Bart%Luijk%NULL%1,               Geertjan%Wesseling%NULL%1,               Mark%Allenby%NULL%1,               Jamie%Duckers%NULL%1,               Elaine%Gunn%NULL%1,               Andrew%Jones%NULL%1,               Robert Ian%Ketchell%NULL%1,               Susan L.%Madge%NULL%1,               Anirban%Maitra%NULL%1,               Ghulam%Mujtaba%NULL%1,               Helen%Rodgers%NULL%1,               Nadia%Shafi%NULL%1,               Nicholas%Simmonds%NULL%1,               Kevin%Southern%NULL%1,               Danie%Watson%NULL%1,               Samar%Rizvi%NULL%1,               Julie%Seguin%NULL%1,               Janet%Garbarz%NULL%1,               Kristen%Rosamilia%NULL%1,               Maria%Berdella%NULL%1,               Jerry A.%Nick%NULL%1,               Richard%Belkin%NULL%1,               Diana%Gilmore%NULL%1,               Kim%McBennett%NULL%1,               Rita%Padoan%NULL%1,               Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,               Matthew R%Baldwin%NULL%0,               Darryl%Abrams%NULL%1,               Samuel D%Jacobson%NULL%1,               Benjamin J%Meyer%NULL%1,               Elizabeth M%Balough%NULL%1,               Justin G%Aaron%NULL%1,               Jan%Claassen%NULL%0,               LeRoy E%Rabbani%NULL%1,               Jonathan%Hastie%NULL%1,               Beth R%Hochman%NULL%1,               John%Salazar-Schicchi%NULL%1,               Natalie H%Yip%NULL%1,               Daniel%Brodie%NULL%0,               Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,               Xin%Zhang%NULL%0,               Jianguo%Xia%NULL%1,               Tao%Zhang%NULL%1,               Yalei%Shang%NULL%1,               Renjun%Huang%NULL%1,               Rongrong%Liu%NULL%1,               Dan%Wang%NULL%0,               Min%Li%105549156@qq.com%1,               Jinping%Wu%czwjp@sina.com%1,               Qiuzhen%Xu%xuqiuzhen831@sina.com%1,               Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2141,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2101,7 +2170,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2130,7 +2199,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2159,7 +2228,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2188,7 +2257,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2217,7 +2286,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2246,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2275,7 +2344,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2304,7 +2373,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2333,7 +2402,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2362,7 +2431,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2391,7 +2460,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2420,7 +2489,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2449,7 +2518,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2478,7 +2547,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2507,7 +2576,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2536,7 +2605,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2565,7 +2634,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2594,7 +2663,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2623,7 +2692,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2652,7 +2721,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2681,7 +2750,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2710,7 +2779,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="484">
   <si>
     <t>Doi</t>
   </si>
@@ -1756,6 +1756,75 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,               Xin%Zhang%NULL%0,               Jianguo%Xia%NULL%1,               Tao%Zhang%NULL%1,               Yalei%Shang%NULL%1,               Renjun%Huang%NULL%1,               Rongrong%Liu%NULL%1,               Dan%Wang%NULL%0,               Min%Li%105549156@qq.com%1,               Jinping%Wu%czwjp@sina.com%1,               Qiuzhen%Xu%xuqiuzhen831@sina.com%1,               Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                Shiva%Samavat%NULL%1,                Behdad%Behnam%NULL%1,                Mehran%Arab-Ahmadi%NULL%1,                Mohsen%Nafar%NULL%1,                Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                Elisa%Delbarba%NULL%2,                Chiara%Manenti%NULL%2,                Laura%Econimo%NULL%2,                Francesca%Valerio%NULL%2,                Alessandra%Pola%NULL%2,                Camilla%Maffei%NULL%2,                Stefano%Possenti%NULL%2,                Nicole%Zambetti%NULL%1,                Marianna%Moscato%NULL%1,                Margherita%Venturini%NULL%1,                Stefania%Affatato%NULL%2,                Mario%Gaggiotti%NULL%2,                Nicola%Bossini%NULL%2,                Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                Elisa%Delbarba%NULL%0,                Chiara%Manenti%NULL%0,                Laura%Econimo%NULL%0,                Francesca%Valerio%NULL%0,                Alessandra%Pola%NULL%0,                Camilla%Maffei%NULL%0,                Stefano%Possenti%NULL%0,                Bernardo%Lucca%NULL%1,                Roberta%Cortinovis%NULL%1,                Vincenzo%Terlizzi%NULL%1,                Mattia%Zappa%NULL%1,                Chiara%Saccà%NULL%1,                Elena%Pezzini%NULL%1,                Eleonora%Calcaterra%NULL%1,                Paola%Piarulli%NULL%1,                Alice%Guerini%NULL%1,                Francesca%Boni%NULL%1,                Agnese%Gallico%NULL%1,                Alberto%Mucchetti%NULL%1,                Stefania%Affatato%NULL%0,                Sergio%Bove%NULL%1,                Martina%Bracchi%NULL%1,                Ester Maria%Costantino%NULL%1,                Roberto%Zubani%NULL%1,                Corrado%Camerini%NULL%1,                Paola%Gaggia%NULL%1,                Ezio%Movilli%NULL%1,                Nicola%Bossini%NULL%0,                Mario%Gaggiotti%NULL%0,                Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                Jordi%Rello%NULL%1,                Sofia%Tejada%NULL%1,                Alejandro%Martín%NULL%1,                Goiatz%Balziskueta%NULL%1,                Cristina%Vinuesa%NULL%1,                Borja%Fernández-Miret%NULL%1,                Ana%Villagra%NULL%1,                Ana%Vallejo%NULL%1,                Ana%San Sebastián%NULL%1,                Sara%Cabañes%NULL%1,                Sebastián%Iribarren%NULL%1,                Fernando%Fonseca%NULL%1,                Javier%Maynar%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                Denise J%McCulloch%NULL%2,                Denise J%McCulloch%NULL%0,                Vidya%Atluri%NULL%1,                Michela%Blain%NULL%1,                Sarah A%McGuffin%NULL%1,                Arun K%Nalla%NULL%1,                Meei-Li%Huang%NULL%1,                Alex L%Greninger%NULL%1,                Keith R%Jerome%NULL%1,                Seth A%Cohen%NULL%1,                Santiago%Neme%NULL%1,                Margaret L%Green%NULL%1,                Helen Y%Chu%NULL%1,                H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                Timothy%Mazzuchelli%NULL%1,                Elia%Lo Priore%NULL%1,                Carlo%Balmelli%NULL%1,                Michael%Llamas%NULL%1,                Micol%Pallanza%NULL%1,                Luigia%Elzi%NULL%1,                Vera%Consonni%NULL%1,                Pierpaolo%Trimboli%NULL%1,                Valentina%Forni-Ogna%NULL%1,                Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,              Deliang%Huang%coreGivesNoEmail%0,              Hong%Yu%coreGivesNoEmail%0,              Jun%Chen%coreGivesNoEmail%0,              Lei%Liu%coreGivesNoEmail%0,              National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,              Pengcheng%Ou%coreGivesNoEmail%0,              Qing%He%coreGivesNoEmail%0,              Qingxian%Cai%coreGivesNoEmail%0,              Rossaint%J%coreGivesNoEmail%0,              Yang%Fu%coreGivesNoEmail%0,              Yiming%Zhang%coreGivesNoEmail%0,              Yinan%Su%coreGivesNoEmail%0,              Zhang%Xia%coreGivesNoEmail%0,              Zhenghua%Ma%coreGivesNoEmail%0,              Zhibin%Zhu%coreGivesNoEmail%0,              Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                Yeming%Wang%NULL%0,                Danning%Wen%NULL%1,                Wen%Liu%NULL%1,                Jingli%Wang%NULL%0,                Guohui%Fan%NULL%0,                Lianguo%Ruan%NULL%1,                Bin%Song%NULL%0,                Yanping%Cai%NULL%1,                Ming%Wei%NULL%1,                Xingwang%Li%NULL%0,                Jiaan%Xia%NULL%0,                Nanshan%Chen%NULL%1,                Jie%Xiang%NULL%0,                Ting%Yu%NULL%0,                Tao%Bai%NULL%0,                Xuelei%Xie%NULL%0,                Li%Zhang%NULL%0,                Caihong%Li%NULL%1,                Ye%Yuan%NULL%1,                Hua%Chen%NULL%0,                Huadong%Li%NULL%1,                Hanping%Huang%NULL%1,                Shengjing%Tu%NULL%1,                Fengyun%Gong%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Chongya%Dong%NULL%1,                Fei%Zhou%NULL%1,                Xiaoying%Gu%NULL%0,                Jiuyang%Xu%NULL%0,                Zhibo%Liu%NULL%0,                Yi%Zhang%NULL%0,                Hui%Li%NULL%0,                Lianhan%Shang%NULL%1,                Ke%Wang%NULL%0,                Kunxia%Li%NULL%1,                Xia%Zhou%NULL%1,                Xuan%Dong%NULL%0,                Zhaohui%Qu%NULL%1,                Sixia%Lu%NULL%1,                Xujuan%Hu%NULL%1,                Shunan%Ruan%NULL%1,                Shanshan%Luo%NULL%1,                Jing%Wu%NULL%0,                Lu%Peng%NULL%1,                Fang%Cheng%NULL%0,                Lihong%Pan%NULL%1,                Jun%Zou%NULL%1,                Chunmin%Jia%NULL%1,                Juan%Wang%NULL%1,                Xia%Liu%NULL%1,                Shuzhen%Wang%NULL%1,                Xudong%Wu%NULL%0,                Qin%Ge%NULL%1,                Jing%He%NULL%1,                Haiyan%Zhan%NULL%1,                Fang%Qiu%NULL%1,                Li%Guo%NULL%0,                Chaolin%Huang%NULL%1,                Thomas%Jaki%NULL%1,                Frederick G.%Hayden%NULL%1,                Peter W.%Horby%NULL%1,                Dingyu%Zhang%NULL%1,                Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Ya-Kun%Liu%NULL%0,                Xiaoyong%Hu%NULL%0,                Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                Jia%Wei%NULL%1,                Liang%Zou%NULL%1,                Tiebin%Jiang%NULL%1,                Gaoxiang%Wang%NULL%1,                Liting%Chen%NULL%1,                Liang%Huang%NULL%1,                Fankai%Meng%NULL%1,                Lifang%Huang%NULL%1,                Na%Wang%NULL%1,                Xiaoxi%Zhou%NULL%1,                Hui%Luo%NULL%1,                Zekai%Mao%NULL%1,                Xing%Chen%NULL%1,                Jungang%Xie%NULL%0,                Jing%Liu%NULL%0,                Hui%Cheng%NULL%1,                Jianping%Zhao%NULL%0,                Gang%Huang%NULL%1,                Wei%Wang%NULL%0,                Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                Giacomo%De Luca%NULL%1,                Corrado%Campochiaro%NULL%1,                Emanuel%Della-Torre%NULL%1,                Marco%Ripa%NULL%1,                Diana%Canetti%NULL%1,                Chiara%Oltolini%NULL%1,                Barbara%Castiglioni%NULL%1,                Chiara%Tassan Din%NULL%1,                Nicola%Boffini%NULL%1,                Alessandro%Tomelleri%NULL%1,                Nicola%Farina%NULL%1,                Annalisa%Ruggeri%NULL%0,                Patrizia%Rovere-Querini%NULL%0,                Giuseppe%Di Lucca%NULL%1,                Sabina%Martinenghi%NULL%1,                Raffaella%Scotti%NULL%1,                Moreno%Tresoldi%NULL%0,                Fabio%Ciceri%NULL%1,                Giovanni%Landoni%NULL%0,                Alberto%Zangrillo%NULL%0,                Paolo%Scarpellini%NULL%0,                Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                Kim R.%Derespina%NULL%2,                Betsy C.%Herold%NULL%1,                David L.%Goldman%NULL%1,                Margaret%Aldrich%NULL%1,                Jacqueline%Weingarten%NULL%1,                Henry M.%Ushay%NULL%2,                Michael D.%Cabana%NULL%1,                Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,        Di%Wu%xref no email%0,        Wei%Guo%xref no email%0,        Yong%Cao%xref no email%0,        Da%Huang%xref no email%0,        Hongwu%Wang%xref no email%0,        Tao%Wang%xref no email%0,        Xiaoyun%Zhang%xref no email%0,        Huilong%Chen%xref no email%0,        Haijing%Yu%xref no email%0,        Xiaoping%Zhang%xref no email%0,        Minxia%Zhang%xref no email%0,        Shiji%Wu%xref no email%0,        Jianxin%Song%xref no email%0,        Tao%Chen%xref no email%0,        Meifang%Han%xref no email%0,        Shusheng%Li%xref no email%0,        Xiaoping%Luo%xref no email%0,        Jianping%Zhao%xref no email%0,        Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                Zhen-Zhen%Zhang%NULL%1,                Yao-Kai%Chen%NULL%1,                Quan-Xin%Long%NULL%1,                Wen-Guang%Tian%NULL%1,                Hai-Jun%Deng%NULL%1,                Jie-Li%Hu%NULL%1,                Xian-Xiang%Zhang%NULL%1,                NULL%Pu-Liao%NULL%1,                Jiang-Lin%Xiang%NULL%1,                Dao-Xin%Wang%NULL%1,                Peng%Hu%NULL%0,                Fa-Chun%Zhou%NULL%1,                Zhi-Jie%Li%NULL%1,                Hong-Mei%Xu%NULL%1,                Xue-Fei%Cai%NULL%1,                De-Qiang%Wang%NULL%1,                Yuan%Hu%NULL%1,                Ni%Tang%NULL%1,                Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                Gui-Cheng%Wu%wuguic@hotmail.com%1,                Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                Zhencang%Zheng%NULL%1,                Chao%Zhang%NULL%1,                Xijiang%Zhang%NULL%1,                Huijuan%Wu%NULL%1,                Jingdong%Wang%NULL%1,                Shuwei%Wang%NULL%1,                Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                Wenhua%Liang%NULL%0,                Mei%Jiang%NULL%0,                Weijie%Guan%NULL%0,                Chen%Zhan%NULL%0,                Tao%Wang%NULL%0,                Chunli%Tang%NULL%0,                Ling%Sang%NULL%0,                Jiaxing%Liu%NULL%0,                Zhengyi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chunliang%Lei%NULL%0,                Yixiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Yahua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jianming%Wang%NULL%0,                Jiyang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhijian%Zheng%NULL%0,                Shaoqin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Changjiang%Ye%NULL%0,                Shaoyong%Zhu%NULL%0,                Xiaoqing%Liu%NULL%0,                Linling%Cheng%NULL%0,                Feng%Ye%NULL%0,                Jinping%Zheng%NULL%0,                Nuofu%Zhang%NULL%0,                Yimin%Li%NULL%0,                Jianxing%He%NULL%0,                Shiyue%Li%lishiyue@188.com%0,                Nanshan%Zhong%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                Wei%An%NULL%2,                Wei%An%NULL%0,                Fei%Xia%NULL%0,                Ping%Yang%NULL%1,                Kuangyu%Li%NULL%1,                Qin%Zhou%NULL%1,                Shasha%Fang%NULL%1,                Yaling%Liao%NULL%1,                Xin%Xu%NULL%0,                Jialin%Liu%NULL%1,                Shiguo%Liu%NULL%1,                Tao%Qin%NULL%1,                Jianjun%Zhang%NULL%1,                Wei%Wei%NULL%0,                Yafang%Zhang%NULL%1,                Guowei%Zhang%NULL%1,                Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                Nan%Yang%NULL%2,                Nan%Yang%NULL%0,                Yanqiu%Wei%NULL%1,                Huihui%Yue%NULL%1,                Fengqin%Zhang%NULL%1,                Jianping%Zhao%NULL%0,                Li%He%NULL%1,                Gaohong%Sheng%NULL%2,                Gaohong%Sheng%NULL%0,                Peng%Chen%NULL%1,                Gang%Li%NULL%0,                Sisi%Wu%NULL%1,                Bo%Zhang%NULL%0,                Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                Xiaoping%Miao%miaoxp@hust.edu.cn%1,                Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                Wenhua%Liu%liuwh_2013@126.com%1,                Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                Susannah%Ahern%NULL%1,                Scott C.%Bell%NULL%1,                Keith%Brownlee%NULL%1,                Pierre-Régis%Burgel%NULL%1,                Cass%Byrnes%NULL%1,                Harriet%Corvol%NULL%1,                Stephanie Y.%Cheng%NULL%1,                Alexander%Elbert%NULL%1,                Albert%Faro%NULL%1,                Christopher H.%Goss%NULL%1,                Vincent%Gulmans%NULL%1,                Bruce C.%Marshall%NULL%1,                Edward%McKone%NULL%1,                Peter G.%Middleton%NULL%1,                Rasa%Ruseckaite%NULL%1,                Anne L.%Stephenson%NULL%1,                Siobhán B%Carr%NULL%1,                David%Reid%NULL%1,                Peter%Wark%NULL%1,                Géraldine%Daneau%NULL%1,                Véronique%Boussaud%NULL%1,                Graziella%Brinchault%NULL%1,                Emmanuelle%Coirier-Duet%NULL%1,                Jean-Christophe%Dubus%NULL%1,                Dominique%Grenet%NULL%1,                Sandra de%Miranda%NULL%1,                Laurence%Beaumont%NULL%1,                Reem%Kanaan%NULL%1,                Muriel%Lauraens%NULL%1,                Clémence%Martin%NULL%1,                Marie%Mittaine%NULL%1,                Anne%Prévotat%NULL%1,                Martine%Reynaud-Gaubert%NULL%1,                Isabelle%Sermet-Gaudelus%NULL%1,                Aurelie%Tatopoulos%NULL%1,                Lutz%Nährlich%NULL%1,                Barry%Plant%NULL%1,                Cedric%Gunaratnam%NULL%1,                Abaigeal%Jackson%NULL%1,                Karin M. de Winter-de%Groot%NULL%1,                Bart%Luijk%NULL%1,                Geertjan%Wesseling%NULL%1,                Mark%Allenby%NULL%1,                Jamie%Duckers%NULL%1,                Elaine%Gunn%NULL%1,                Andrew%Jones%NULL%1,                Robert Ian%Ketchell%NULL%1,                Susan L.%Madge%NULL%1,                Anirban%Maitra%NULL%1,                Ghulam%Mujtaba%NULL%1,                Helen%Rodgers%NULL%1,                Nadia%Shafi%NULL%1,                Nicholas%Simmonds%NULL%1,                Kevin%Southern%NULL%1,                Danie%Watson%NULL%1,                Samar%Rizvi%NULL%1,                Julie%Seguin%NULL%1,                Janet%Garbarz%NULL%1,                Kristen%Rosamilia%NULL%1,                Maria%Berdella%NULL%1,                Jerry A.%Nick%NULL%1,                Richard%Belkin%NULL%1,                Diana%Gilmore%NULL%1,                Kim%McBennett%NULL%1,                Rita%Padoan%NULL%1,                Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                Matthew R%Baldwin%NULL%0,                Darryl%Abrams%NULL%1,                Samuel D%Jacobson%NULL%1,                Benjamin J%Meyer%NULL%1,                Elizabeth M%Balough%NULL%1,                Justin G%Aaron%NULL%1,                Jan%Claassen%NULL%0,                LeRoy E%Rabbani%NULL%1,                Jonathan%Hastie%NULL%1,                Beth R%Hochman%NULL%1,                John%Salazar-Schicchi%NULL%1,                Natalie H%Yip%NULL%1,                Daniel%Brodie%NULL%0,                Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                Xin%Zhang%NULL%0,                Jianguo%Xia%NULL%1,                Tao%Zhang%NULL%1,                Yalei%Shang%NULL%1,                Renjun%Huang%NULL%1,                Rongrong%Liu%NULL%1,                Dan%Wang%NULL%0,                Min%Li%105549156@qq.com%1,                Jinping%Wu%czwjp@sina.com%1,                Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2210,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2170,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2199,7 +2268,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2228,7 +2297,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2257,7 +2326,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2286,7 +2355,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2315,7 +2384,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2344,7 +2413,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2373,7 +2442,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2402,7 +2471,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2431,7 +2500,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2460,7 +2529,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2489,7 +2558,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2518,7 +2587,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2547,7 +2616,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2576,7 +2645,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2605,7 +2674,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2634,7 +2703,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2663,7 +2732,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2692,7 +2761,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2721,7 +2790,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2750,7 +2819,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2779,7 +2848,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="530">
   <si>
     <t>Doi</t>
   </si>
@@ -1825,6 +1825,144 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                Xin%Zhang%NULL%0,                Jianguo%Xia%NULL%1,                Tao%Zhang%NULL%1,                Yalei%Shang%NULL%1,                Renjun%Huang%NULL%1,                Rongrong%Liu%NULL%1,                Dan%Wang%NULL%0,                Min%Li%105549156@qq.com%1,                Jinping%Wu%czwjp@sina.com%1,                Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                 Shiva%Samavat%NULL%1,                 Behdad%Behnam%NULL%1,                 Mehran%Arab-Ahmadi%NULL%1,                 Mohsen%Nafar%NULL%1,                 Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                 Elisa%Delbarba%NULL%2,                 Chiara%Manenti%NULL%2,                 Laura%Econimo%NULL%2,                 Francesca%Valerio%NULL%2,                 Alessandra%Pola%NULL%2,                 Camilla%Maffei%NULL%2,                 Stefano%Possenti%NULL%2,                 Nicole%Zambetti%NULL%1,                 Marianna%Moscato%NULL%1,                 Margherita%Venturini%NULL%1,                 Stefania%Affatato%NULL%2,                 Mario%Gaggiotti%NULL%2,                 Nicola%Bossini%NULL%2,                 Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                 Elisa%Delbarba%NULL%0,                 Chiara%Manenti%NULL%0,                 Laura%Econimo%NULL%0,                 Francesca%Valerio%NULL%0,                 Alessandra%Pola%NULL%0,                 Camilla%Maffei%NULL%0,                 Stefano%Possenti%NULL%0,                 Bernardo%Lucca%NULL%1,                 Roberta%Cortinovis%NULL%1,                 Vincenzo%Terlizzi%NULL%1,                 Mattia%Zappa%NULL%1,                 Chiara%Saccà%NULL%1,                 Elena%Pezzini%NULL%1,                 Eleonora%Calcaterra%NULL%1,                 Paola%Piarulli%NULL%1,                 Alice%Guerini%NULL%1,                 Francesca%Boni%NULL%1,                 Agnese%Gallico%NULL%1,                 Alberto%Mucchetti%NULL%1,                 Stefania%Affatato%NULL%0,                 Sergio%Bove%NULL%1,                 Martina%Bracchi%NULL%1,                 Ester Maria%Costantino%NULL%1,                 Roberto%Zubani%NULL%1,                 Corrado%Camerini%NULL%1,                 Paola%Gaggia%NULL%1,                 Ezio%Movilli%NULL%1,                 Nicola%Bossini%NULL%0,                 Mario%Gaggiotti%NULL%0,                 Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                 Jordi%Rello%NULL%1,                 Sofia%Tejada%NULL%1,                 Alejandro%Martín%NULL%1,                 Goiatz%Balziskueta%NULL%1,                 Cristina%Vinuesa%NULL%1,                 Borja%Fernández-Miret%NULL%1,                 Ana%Villagra%NULL%1,                 Ana%Vallejo%NULL%1,                 Ana%San Sebastián%NULL%1,                 Sara%Cabañes%NULL%1,                 Sebastián%Iribarren%NULL%1,                 Fernando%Fonseca%NULL%1,                 Javier%Maynar%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                 Denise J%McCulloch%NULL%2,                 Denise J%McCulloch%NULL%0,                 Vidya%Atluri%NULL%1,                 Michela%Blain%NULL%1,                 Sarah A%McGuffin%NULL%1,                 Arun K%Nalla%NULL%1,                 Meei-Li%Huang%NULL%1,                 Alex L%Greninger%NULL%1,                 Keith R%Jerome%NULL%1,                 Seth A%Cohen%NULL%1,                 Santiago%Neme%NULL%1,                 Margaret L%Green%NULL%1,                 Helen Y%Chu%NULL%1,                 H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                 Timothy%Mazzuchelli%NULL%1,                 Elia%Lo Priore%NULL%1,                 Carlo%Balmelli%NULL%1,                 Michael%Llamas%NULL%1,                 Micol%Pallanza%NULL%1,                 Luigia%Elzi%NULL%1,                 Vera%Consonni%NULL%1,                 Pierpaolo%Trimboli%NULL%1,                 Valentina%Forni-Ogna%NULL%1,                 Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,               Deliang%Huang%coreGivesNoEmail%0,               Hong%Yu%coreGivesNoEmail%0,               Jun%Chen%coreGivesNoEmail%0,               Lei%Liu%coreGivesNoEmail%0,               National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,               Pengcheng%Ou%coreGivesNoEmail%0,               Qing%He%coreGivesNoEmail%0,               Qingxian%Cai%coreGivesNoEmail%0,               Rossaint%J%coreGivesNoEmail%0,               Yang%Fu%coreGivesNoEmail%0,               Yiming%Zhang%coreGivesNoEmail%0,               Yinan%Su%coreGivesNoEmail%0,               Zhang%Xia%coreGivesNoEmail%0,               Zhenghua%Ma%coreGivesNoEmail%0,               Zhibin%Zhu%coreGivesNoEmail%0,               Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                 Yeming%Wang%NULL%0,                 Danning%Wen%NULL%1,                 Wen%Liu%NULL%1,                 Jingli%Wang%NULL%0,                 Guohui%Fan%NULL%0,                 Lianguo%Ruan%NULL%1,                 Bin%Song%NULL%0,                 Yanping%Cai%NULL%1,                 Ming%Wei%NULL%1,                 Xingwang%Li%NULL%0,                 Jiaan%Xia%NULL%0,                 Nanshan%Chen%NULL%1,                 Jie%Xiang%NULL%0,                 Ting%Yu%NULL%0,                 Tao%Bai%NULL%0,                 Xuelei%Xie%NULL%0,                 Li%Zhang%NULL%0,                 Caihong%Li%NULL%1,                 Ye%Yuan%NULL%1,                 Hua%Chen%NULL%0,                 Huadong%Li%NULL%1,                 Hanping%Huang%NULL%1,                 Shengjing%Tu%NULL%1,                 Fengyun%Gong%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Chongya%Dong%NULL%1,                 Fei%Zhou%NULL%1,                 Xiaoying%Gu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Zhibo%Liu%NULL%0,                 Yi%Zhang%NULL%0,                 Hui%Li%NULL%0,                 Lianhan%Shang%NULL%1,                 Ke%Wang%NULL%0,                 Kunxia%Li%NULL%1,                 Xia%Zhou%NULL%1,                 Xuan%Dong%NULL%0,                 Zhaohui%Qu%NULL%1,                 Sixia%Lu%NULL%1,                 Xujuan%Hu%NULL%1,                 Shunan%Ruan%NULL%1,                 Shanshan%Luo%NULL%1,                 Jing%Wu%NULL%0,                 Lu%Peng%NULL%1,                 Fang%Cheng%NULL%0,                 Lihong%Pan%NULL%1,                 Jun%Zou%NULL%1,                 Chunmin%Jia%NULL%1,                 Juan%Wang%NULL%1,                 Xia%Liu%NULL%1,                 Shuzhen%Wang%NULL%1,                 Xudong%Wu%NULL%0,                 Qin%Ge%NULL%1,                 Jing%He%NULL%1,                 Haiyan%Zhan%NULL%1,                 Fang%Qiu%NULL%1,                 Li%Guo%NULL%0,                 Chaolin%Huang%NULL%1,                 Thomas%Jaki%NULL%1,                 Frederick G.%Hayden%NULL%1,                 Peter W.%Horby%NULL%1,                 Dingyu%Zhang%NULL%1,                 Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Ya-Kun%Liu%NULL%0,                 Xiaoyong%Hu%NULL%0,                 Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                 Jia%Wei%NULL%1,                 Liang%Zou%NULL%1,                 Tiebin%Jiang%NULL%1,                 Gaoxiang%Wang%NULL%1,                 Liting%Chen%NULL%1,                 Liang%Huang%NULL%1,                 Fankai%Meng%NULL%1,                 Lifang%Huang%NULL%1,                 Na%Wang%NULL%1,                 Xiaoxi%Zhou%NULL%1,                 Hui%Luo%NULL%1,                 Zekai%Mao%NULL%1,                 Xing%Chen%NULL%1,                 Jungang%Xie%NULL%0,                 Jing%Liu%NULL%0,                 Hui%Cheng%NULL%1,                 Jianping%Zhao%NULL%0,                 Gang%Huang%NULL%1,                 Wei%Wang%NULL%0,                 Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                 Giacomo%De Luca%NULL%1,                 Corrado%Campochiaro%NULL%1,                 Emanuel%Della-Torre%NULL%1,                 Marco%Ripa%NULL%1,                 Diana%Canetti%NULL%1,                 Chiara%Oltolini%NULL%1,                 Barbara%Castiglioni%NULL%1,                 Chiara%Tassan Din%NULL%1,                 Nicola%Boffini%NULL%1,                 Alessandro%Tomelleri%NULL%1,                 Nicola%Farina%NULL%1,                 Annalisa%Ruggeri%NULL%0,                 Patrizia%Rovere-Querini%NULL%0,                 Giuseppe%Di Lucca%NULL%1,                 Sabina%Martinenghi%NULL%1,                 Raffaella%Scotti%NULL%1,                 Moreno%Tresoldi%NULL%0,                 Fabio%Ciceri%NULL%1,                 Giovanni%Landoni%NULL%0,                 Alberto%Zangrillo%NULL%0,                 Paolo%Scarpellini%NULL%0,                 Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                 Kim R.%Derespina%NULL%2,                 Betsy C.%Herold%NULL%1,                 David L.%Goldman%NULL%1,                 Margaret%Aldrich%NULL%1,                 Jacqueline%Weingarten%NULL%1,                 Henry M.%Ushay%NULL%2,                 Michael D.%Cabana%NULL%1,                 Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,         Di%Wu%xref no email%0,         Wei%Guo%xref no email%0,         Yong%Cao%xref no email%0,         Da%Huang%xref no email%0,         Hongwu%Wang%xref no email%0,         Tao%Wang%xref no email%0,         Xiaoyun%Zhang%xref no email%0,         Huilong%Chen%xref no email%0,         Haijing%Yu%xref no email%0,         Xiaoping%Zhang%xref no email%0,         Minxia%Zhang%xref no email%0,         Shiji%Wu%xref no email%0,         Jianxin%Song%xref no email%0,         Tao%Chen%xref no email%0,         Meifang%Han%xref no email%0,         Shusheng%Li%xref no email%0,         Xiaoping%Luo%xref no email%0,         Jianping%Zhao%xref no email%0,         Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                 Zhen-Zhen%Zhang%NULL%1,                 Yao-Kai%Chen%NULL%1,                 Quan-Xin%Long%NULL%1,                 Wen-Guang%Tian%NULL%1,                 Hai-Jun%Deng%NULL%1,                 Jie-Li%Hu%NULL%1,                 Xian-Xiang%Zhang%NULL%1,                 NULL%Pu-Liao%NULL%1,                 Jiang-Lin%Xiang%NULL%1,                 Dao-Xin%Wang%NULL%1,                 Peng%Hu%NULL%0,                 Fa-Chun%Zhou%NULL%1,                 Zhi-Jie%Li%NULL%1,                 Hong-Mei%Xu%NULL%1,                 Xue-Fei%Cai%NULL%1,                 De-Qiang%Wang%NULL%1,                 Yuan%Hu%NULL%1,                 Ni%Tang%NULL%1,                 Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                 Gui-Cheng%Wu%wuguic@hotmail.com%1,                 Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                 Zhencang%Zheng%NULL%1,                 Chao%Zhang%NULL%1,                 Xijiang%Zhang%NULL%1,                 Huijuan%Wu%NULL%1,                 Jingdong%Wang%NULL%1,                 Shuwei%Wang%NULL%1,                 Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                 Wenhua%Liang%NULL%0,                 Mei%Jiang%NULL%0,                 Weijie%Guan%NULL%0,                 Chen%Zhan%NULL%0,                 Tao%Wang%NULL%0,                 Chunli%Tang%NULL%0,                 Ling%Sang%NULL%0,                 Jiaxing%Liu%NULL%0,                 Zhengyi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chunliang%Lei%NULL%0,                 Yixiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Yahua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jianming%Wang%NULL%0,                 Jiyang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhijian%Zheng%NULL%0,                 Shaoqin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Changjiang%Ye%NULL%0,                 Shaoyong%Zhu%NULL%0,                 Xiaoqing%Liu%NULL%0,                 Linling%Cheng%NULL%0,                 Feng%Ye%NULL%0,                 Jinping%Zheng%NULL%0,                 Nuofu%Zhang%NULL%0,                 Yimin%Li%NULL%0,                 Jianxing%He%NULL%0,                 Shiyue%Li%lishiyue@188.com%0,                 Nanshan%Zhong%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                 Wei%An%NULL%2,                 Wei%An%NULL%0,                 Fei%Xia%NULL%0,                 Ping%Yang%NULL%1,                 Kuangyu%Li%NULL%1,                 Qin%Zhou%NULL%1,                 Shasha%Fang%NULL%1,                 Yaling%Liao%NULL%1,                 Xin%Xu%NULL%0,                 Jialin%Liu%NULL%1,                 Shiguo%Liu%NULL%1,                 Tao%Qin%NULL%1,                 Jianjun%Zhang%NULL%1,                 Wei%Wei%NULL%0,                 Yafang%Zhang%NULL%1,                 Guowei%Zhang%NULL%1,                 Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                 Nan%Yang%NULL%2,                 Nan%Yang%NULL%0,                 Yanqiu%Wei%NULL%1,                 Huihui%Yue%NULL%1,                 Fengqin%Zhang%NULL%1,                 Jianping%Zhao%NULL%0,                 Li%He%NULL%1,                 Gaohong%Sheng%NULL%2,                 Gaohong%Sheng%NULL%0,                 Peng%Chen%NULL%1,                 Gang%Li%NULL%0,                 Sisi%Wu%NULL%1,                 Bo%Zhang%NULL%0,                 Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                 Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                 Xiaoping%Miao%miaoxp@hust.edu.cn%1,                 Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                 Wenhua%Liu%liuwh_2013@126.com%1,                 Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                 Susannah%Ahern%NULL%1,                 Scott C.%Bell%NULL%1,                 Keith%Brownlee%NULL%1,                 Pierre-Régis%Burgel%NULL%1,                 Cass%Byrnes%NULL%1,                 Harriet%Corvol%NULL%1,                 Stephanie Y.%Cheng%NULL%1,                 Alexander%Elbert%NULL%1,                 Albert%Faro%NULL%1,                 Christopher H.%Goss%NULL%1,                 Vincent%Gulmans%NULL%1,                 Bruce C.%Marshall%NULL%1,                 Edward%McKone%NULL%1,                 Peter G.%Middleton%NULL%1,                 Rasa%Ruseckaite%NULL%1,                 Anne L.%Stephenson%NULL%1,                 Siobhán B%Carr%NULL%1,                 David%Reid%NULL%1,                 Peter%Wark%NULL%1,                 Géraldine%Daneau%NULL%1,                 Véronique%Boussaud%NULL%1,                 Graziella%Brinchault%NULL%1,                 Emmanuelle%Coirier-Duet%NULL%1,                 Jean-Christophe%Dubus%NULL%1,                 Dominique%Grenet%NULL%1,                 Sandra de%Miranda%NULL%1,                 Laurence%Beaumont%NULL%1,                 Reem%Kanaan%NULL%1,                 Muriel%Lauraens%NULL%1,                 Clémence%Martin%NULL%1,                 Marie%Mittaine%NULL%1,                 Anne%Prévotat%NULL%1,                 Martine%Reynaud-Gaubert%NULL%1,                 Isabelle%Sermet-Gaudelus%NULL%1,                 Aurelie%Tatopoulos%NULL%1,                 Lutz%Nährlich%NULL%1,                 Barry%Plant%NULL%1,                 Cedric%Gunaratnam%NULL%1,                 Abaigeal%Jackson%NULL%1,                 Karin M. de Winter-de%Groot%NULL%1,                 Bart%Luijk%NULL%1,                 Geertjan%Wesseling%NULL%1,                 Mark%Allenby%NULL%1,                 Jamie%Duckers%NULL%1,                 Elaine%Gunn%NULL%1,                 Andrew%Jones%NULL%1,                 Robert Ian%Ketchell%NULL%1,                 Susan L.%Madge%NULL%1,                 Anirban%Maitra%NULL%1,                 Ghulam%Mujtaba%NULL%1,                 Helen%Rodgers%NULL%1,                 Nadia%Shafi%NULL%1,                 Nicholas%Simmonds%NULL%1,                 Kevin%Southern%NULL%1,                 Danie%Watson%NULL%1,                 Samar%Rizvi%NULL%1,                 Julie%Seguin%NULL%1,                 Janet%Garbarz%NULL%1,                 Kristen%Rosamilia%NULL%1,                 Maria%Berdella%NULL%1,                 Jerry A.%Nick%NULL%1,                 Richard%Belkin%NULL%1,                 Diana%Gilmore%NULL%1,                 Kim%McBennett%NULL%1,                 Rita%Padoan%NULL%1,                 Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                 Matthew R%Baldwin%NULL%0,                 Darryl%Abrams%NULL%1,                 Samuel D%Jacobson%NULL%1,                 Benjamin J%Meyer%NULL%1,                 Elizabeth M%Balough%NULL%1,                 Justin G%Aaron%NULL%1,                 Jan%Claassen%NULL%0,                 LeRoy E%Rabbani%NULL%1,                 Jonathan%Hastie%NULL%1,                 Beth R%Hochman%NULL%1,                 John%Salazar-Schicchi%NULL%1,                 Natalie H%Yip%NULL%1,                 Daniel%Brodie%NULL%0,                 Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                 Xin%Zhang%NULL%0,                 Jianguo%Xia%NULL%1,                 Tao%Zhang%NULL%1,                 Yalei%Shang%NULL%1,                 Renjun%Huang%NULL%1,                 Rongrong%Liu%NULL%1,                 Dan%Wang%NULL%0,                 Min%Li%105549156@qq.com%1,                 Jinping%Wu%czwjp@sina.com%1,                 Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                 Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                  Shiva%Samavat%NULL%1,                  Behdad%Behnam%NULL%1,                  Mehran%Arab-Ahmadi%NULL%1,                  Mohsen%Nafar%NULL%1,                  Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                  Elisa%Delbarba%NULL%2,                  Chiara%Manenti%NULL%2,                  Laura%Econimo%NULL%2,                  Francesca%Valerio%NULL%2,                  Alessandra%Pola%NULL%2,                  Camilla%Maffei%NULL%2,                  Stefano%Possenti%NULL%2,                  Nicole%Zambetti%NULL%1,                  Marianna%Moscato%NULL%1,                  Margherita%Venturini%NULL%1,                  Stefania%Affatato%NULL%2,                  Mario%Gaggiotti%NULL%2,                  Nicola%Bossini%NULL%2,                  Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                  Elisa%Delbarba%NULL%0,                  Chiara%Manenti%NULL%0,                  Laura%Econimo%NULL%0,                  Francesca%Valerio%NULL%0,                  Alessandra%Pola%NULL%0,                  Camilla%Maffei%NULL%0,                  Stefano%Possenti%NULL%0,                  Bernardo%Lucca%NULL%1,                  Roberta%Cortinovis%NULL%1,                  Vincenzo%Terlizzi%NULL%1,                  Mattia%Zappa%NULL%1,                  Chiara%Saccà%NULL%1,                  Elena%Pezzini%NULL%1,                  Eleonora%Calcaterra%NULL%1,                  Paola%Piarulli%NULL%1,                  Alice%Guerini%NULL%1,                  Francesca%Boni%NULL%1,                  Agnese%Gallico%NULL%1,                  Alberto%Mucchetti%NULL%1,                  Stefania%Affatato%NULL%0,                  Sergio%Bove%NULL%1,                  Martina%Bracchi%NULL%1,                  Ester Maria%Costantino%NULL%1,                  Roberto%Zubani%NULL%1,                  Corrado%Camerini%NULL%1,                  Paola%Gaggia%NULL%1,                  Ezio%Movilli%NULL%1,                  Nicola%Bossini%NULL%0,                  Mario%Gaggiotti%NULL%0,                  Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                  Jordi%Rello%NULL%1,                  Sofia%Tejada%NULL%1,                  Alejandro%Martín%NULL%1,                  Goiatz%Balziskueta%NULL%1,                  Cristina%Vinuesa%NULL%1,                  Borja%Fernández-Miret%NULL%1,                  Ana%Villagra%NULL%1,                  Ana%Vallejo%NULL%1,                  Ana%San Sebastián%NULL%1,                  Sara%Cabañes%NULL%1,                  Sebastián%Iribarren%NULL%1,                  Fernando%Fonseca%NULL%1,                  Javier%Maynar%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                  Denise J%McCulloch%NULL%2,                  Denise J%McCulloch%NULL%0,                  Vidya%Atluri%NULL%1,                  Michela%Blain%NULL%1,                  Sarah A%McGuffin%NULL%1,                  Arun K%Nalla%NULL%1,                  Meei-Li%Huang%NULL%1,                  Alex L%Greninger%NULL%1,                  Keith R%Jerome%NULL%1,                  Seth A%Cohen%NULL%1,                  Santiago%Neme%NULL%1,                  Margaret L%Green%NULL%1,                  Helen Y%Chu%NULL%1,                  H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                  Timothy%Mazzuchelli%NULL%1,                  Elia%Lo Priore%NULL%1,                  Carlo%Balmelli%NULL%1,                  Michael%Llamas%NULL%1,                  Micol%Pallanza%NULL%1,                  Luigia%Elzi%NULL%1,                  Vera%Consonni%NULL%1,                  Pierpaolo%Trimboli%NULL%1,                  Valentina%Forni-Ogna%NULL%1,                  Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                Deliang%Huang%coreGivesNoEmail%0,                Hong%Yu%coreGivesNoEmail%0,                Jun%Chen%coreGivesNoEmail%0,                Lei%Liu%coreGivesNoEmail%0,                National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                Pengcheng%Ou%coreGivesNoEmail%0,                Qing%He%coreGivesNoEmail%0,                Qingxian%Cai%coreGivesNoEmail%0,                Rossaint%J%coreGivesNoEmail%0,                Yang%Fu%coreGivesNoEmail%0,                Yiming%Zhang%coreGivesNoEmail%0,                Yinan%Su%coreGivesNoEmail%0,                Zhang%Xia%coreGivesNoEmail%0,                Zhenghua%Ma%coreGivesNoEmail%0,                Zhibin%Zhu%coreGivesNoEmail%0,                Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                  Yeming%Wang%NULL%0,                  Danning%Wen%NULL%1,                  Wen%Liu%NULL%1,                  Jingli%Wang%NULL%0,                  Guohui%Fan%NULL%0,                  Lianguo%Ruan%NULL%1,                  Bin%Song%NULL%0,                  Yanping%Cai%NULL%1,                  Ming%Wei%NULL%1,                  Xingwang%Li%NULL%0,                  Jiaan%Xia%NULL%0,                  Nanshan%Chen%NULL%1,                  Jie%Xiang%NULL%0,                  Ting%Yu%NULL%0,                  Tao%Bai%NULL%0,                  Xuelei%Xie%NULL%0,                  Li%Zhang%NULL%0,                  Caihong%Li%NULL%1,                  Ye%Yuan%NULL%1,                  Hua%Chen%NULL%0,                  Huadong%Li%NULL%1,                  Hanping%Huang%NULL%1,                  Shengjing%Tu%NULL%1,                  Fengyun%Gong%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Chongya%Dong%NULL%1,                  Fei%Zhou%NULL%1,                  Xiaoying%Gu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Zhibo%Liu%NULL%0,                  Yi%Zhang%NULL%0,                  Hui%Li%NULL%0,                  Lianhan%Shang%NULL%1,                  Ke%Wang%NULL%0,                  Kunxia%Li%NULL%1,                  Xia%Zhou%NULL%1,                  Xuan%Dong%NULL%0,                  Zhaohui%Qu%NULL%1,                  Sixia%Lu%NULL%1,                  Xujuan%Hu%NULL%1,                  Shunan%Ruan%NULL%1,                  Shanshan%Luo%NULL%1,                  Jing%Wu%NULL%0,                  Lu%Peng%NULL%1,                  Fang%Cheng%NULL%0,                  Lihong%Pan%NULL%1,                  Jun%Zou%NULL%1,                  Chunmin%Jia%NULL%1,                  Juan%Wang%NULL%1,                  Xia%Liu%NULL%1,                  Shuzhen%Wang%NULL%1,                  Xudong%Wu%NULL%0,                  Qin%Ge%NULL%1,                  Jing%He%NULL%1,                  Haiyan%Zhan%NULL%1,                  Fang%Qiu%NULL%1,                  Li%Guo%NULL%0,                  Chaolin%Huang%NULL%1,                  Thomas%Jaki%NULL%1,                  Frederick G.%Hayden%NULL%1,                  Peter W.%Horby%NULL%1,                  Dingyu%Zhang%NULL%1,                  Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Ya-Kun%Liu%NULL%0,                  Xiaoyong%Hu%NULL%0,                  Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                  Jia%Wei%NULL%1,                  Liang%Zou%NULL%1,                  Tiebin%Jiang%NULL%1,                  Gaoxiang%Wang%NULL%1,                  Liting%Chen%NULL%1,                  Liang%Huang%NULL%1,                  Fankai%Meng%NULL%1,                  Lifang%Huang%NULL%1,                  Na%Wang%NULL%1,                  Xiaoxi%Zhou%NULL%1,                  Hui%Luo%NULL%1,                  Zekai%Mao%NULL%1,                  Xing%Chen%NULL%1,                  Jungang%Xie%NULL%0,                  Jing%Liu%NULL%0,                  Hui%Cheng%NULL%1,                  Jianping%Zhao%NULL%0,                  Gang%Huang%NULL%1,                  Wei%Wang%NULL%0,                  Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                  Giacomo%De Luca%NULL%1,                  Corrado%Campochiaro%NULL%1,                  Emanuel%Della-Torre%NULL%1,                  Marco%Ripa%NULL%1,                  Diana%Canetti%NULL%1,                  Chiara%Oltolini%NULL%1,                  Barbara%Castiglioni%NULL%1,                  Chiara%Tassan Din%NULL%1,                  Nicola%Boffini%NULL%1,                  Alessandro%Tomelleri%NULL%1,                  Nicola%Farina%NULL%1,                  Annalisa%Ruggeri%NULL%0,                  Patrizia%Rovere-Querini%NULL%0,                  Giuseppe%Di Lucca%NULL%1,                  Sabina%Martinenghi%NULL%1,                  Raffaella%Scotti%NULL%1,                  Moreno%Tresoldi%NULL%0,                  Fabio%Ciceri%NULL%1,                  Giovanni%Landoni%NULL%0,                  Alberto%Zangrillo%NULL%0,                  Paolo%Scarpellini%NULL%0,                  Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                  Kim R.%Derespina%NULL%2,                  Betsy C.%Herold%NULL%1,                  David L.%Goldman%NULL%1,                  Margaret%Aldrich%NULL%1,                  Jacqueline%Weingarten%NULL%1,                  Henry M.%Ushay%NULL%2,                  Michael D.%Cabana%NULL%1,                  Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,          Di%Wu%xref no email%0,          Wei%Guo%xref no email%0,          Yong%Cao%xref no email%0,          Da%Huang%xref no email%0,          Hongwu%Wang%xref no email%0,          Tao%Wang%xref no email%0,          Xiaoyun%Zhang%xref no email%0,          Huilong%Chen%xref no email%0,          Haijing%Yu%xref no email%0,          Xiaoping%Zhang%xref no email%0,          Minxia%Zhang%xref no email%0,          Shiji%Wu%xref no email%0,          Jianxin%Song%xref no email%0,          Tao%Chen%xref no email%0,          Meifang%Han%xref no email%0,          Shusheng%Li%xref no email%0,          Xiaoping%Luo%xref no email%0,          Jianping%Zhao%xref no email%0,          Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                  Zhen-Zhen%Zhang%NULL%1,                  Yao-Kai%Chen%NULL%1,                  Quan-Xin%Long%NULL%1,                  Wen-Guang%Tian%NULL%1,                  Hai-Jun%Deng%NULL%1,                  Jie-Li%Hu%NULL%1,                  Xian-Xiang%Zhang%NULL%1,                  NULL%Pu-Liao%NULL%1,                  Jiang-Lin%Xiang%NULL%1,                  Dao-Xin%Wang%NULL%1,                  Peng%Hu%NULL%0,                  Fa-Chun%Zhou%NULL%1,                  Zhi-Jie%Li%NULL%1,                  Hong-Mei%Xu%NULL%1,                  Xue-Fei%Cai%NULL%1,                  De-Qiang%Wang%NULL%1,                  Yuan%Hu%NULL%1,                  Ni%Tang%NULL%1,                  Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                  Gui-Cheng%Wu%wuguic@hotmail.com%1,                  Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                  Zhencang%Zheng%NULL%1,                  Chao%Zhang%NULL%1,                  Xijiang%Zhang%NULL%1,                  Huijuan%Wu%NULL%1,                  Jingdong%Wang%NULL%1,                  Shuwei%Wang%NULL%1,                  Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                  Wenhua%Liang%NULL%0,                  Mei%Jiang%NULL%0,                  Weijie%Guan%NULL%0,                  Chen%Zhan%NULL%0,                  Tao%Wang%NULL%0,                  Chunli%Tang%NULL%0,                  Ling%Sang%NULL%0,                  Jiaxing%Liu%NULL%0,                  Zhengyi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chunliang%Lei%NULL%0,                  Yixiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Yahua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jianming%Wang%NULL%0,                  Jiyang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhijian%Zheng%NULL%0,                  Shaoqin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Changjiang%Ye%NULL%0,                  Shaoyong%Zhu%NULL%0,                  Xiaoqing%Liu%NULL%0,                  Linling%Cheng%NULL%0,                  Feng%Ye%NULL%0,                  Jinping%Zheng%NULL%0,                  Nuofu%Zhang%NULL%0,                  Yimin%Li%NULL%0,                  Jianxing%He%NULL%0,                  Shiyue%Li%lishiyue@188.com%0,                  Nanshan%Zhong%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                  Wei%An%NULL%2,                  Wei%An%NULL%0,                  Fei%Xia%NULL%0,                  Ping%Yang%NULL%1,                  Kuangyu%Li%NULL%1,                  Qin%Zhou%NULL%1,                  Shasha%Fang%NULL%1,                  Yaling%Liao%NULL%1,                  Xin%Xu%NULL%0,                  Jialin%Liu%NULL%1,                  Shiguo%Liu%NULL%1,                  Tao%Qin%NULL%1,                  Jianjun%Zhang%NULL%1,                  Wei%Wei%NULL%0,                  Yafang%Zhang%NULL%1,                  Guowei%Zhang%NULL%1,                  Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                  Nan%Yang%NULL%2,                  Nan%Yang%NULL%0,                  Yanqiu%Wei%NULL%1,                  Huihui%Yue%NULL%1,                  Fengqin%Zhang%NULL%1,                  Jianping%Zhao%NULL%0,                  Li%He%NULL%1,                  Gaohong%Sheng%NULL%2,                  Gaohong%Sheng%NULL%0,                  Peng%Chen%NULL%1,                  Gang%Li%NULL%0,                  Sisi%Wu%NULL%1,                  Bo%Zhang%NULL%0,                  Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                  Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                  Xiaoping%Miao%miaoxp@hust.edu.cn%1,                  Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                  Wenhua%Liu%liuwh_2013@126.com%1,                  Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                  Susannah%Ahern%NULL%1,                  Scott C.%Bell%NULL%1,                  Keith%Brownlee%NULL%1,                  Pierre-Régis%Burgel%NULL%1,                  Cass%Byrnes%NULL%1,                  Harriet%Corvol%NULL%1,                  Stephanie Y.%Cheng%NULL%1,                  Alexander%Elbert%NULL%1,                  Albert%Faro%NULL%1,                  Christopher H.%Goss%NULL%1,                  Vincent%Gulmans%NULL%1,                  Bruce C.%Marshall%NULL%1,                  Edward%McKone%NULL%1,                  Peter G.%Middleton%NULL%1,                  Rasa%Ruseckaite%NULL%1,                  Anne L.%Stephenson%NULL%1,                  Siobhán B%Carr%NULL%1,                  David%Reid%NULL%1,                  Peter%Wark%NULL%1,                  Géraldine%Daneau%NULL%1,                  Véronique%Boussaud%NULL%1,                  Graziella%Brinchault%NULL%1,                  Emmanuelle%Coirier-Duet%NULL%1,                  Jean-Christophe%Dubus%NULL%1,                  Dominique%Grenet%NULL%1,                  Sandra de%Miranda%NULL%1,                  Laurence%Beaumont%NULL%1,                  Reem%Kanaan%NULL%1,                  Muriel%Lauraens%NULL%1,                  Clémence%Martin%NULL%1,                  Marie%Mittaine%NULL%1,                  Anne%Prévotat%NULL%1,                  Martine%Reynaud-Gaubert%NULL%1,                  Isabelle%Sermet-Gaudelus%NULL%1,                  Aurelie%Tatopoulos%NULL%1,                  Lutz%Nährlich%NULL%1,                  Barry%Plant%NULL%1,                  Cedric%Gunaratnam%NULL%1,                  Abaigeal%Jackson%NULL%1,                  Karin M. de Winter-de%Groot%NULL%1,                  Bart%Luijk%NULL%1,                  Geertjan%Wesseling%NULL%1,                  Mark%Allenby%NULL%1,                  Jamie%Duckers%NULL%1,                  Elaine%Gunn%NULL%1,                  Andrew%Jones%NULL%1,                  Robert Ian%Ketchell%NULL%1,                  Susan L.%Madge%NULL%1,                  Anirban%Maitra%NULL%1,                  Ghulam%Mujtaba%NULL%1,                  Helen%Rodgers%NULL%1,                  Nadia%Shafi%NULL%1,                  Nicholas%Simmonds%NULL%1,                  Kevin%Southern%NULL%1,                  Danie%Watson%NULL%1,                  Samar%Rizvi%NULL%1,                  Julie%Seguin%NULL%1,                  Janet%Garbarz%NULL%1,                  Kristen%Rosamilia%NULL%1,                  Maria%Berdella%NULL%1,                  Jerry A.%Nick%NULL%1,                  Richard%Belkin%NULL%1,                  Diana%Gilmore%NULL%1,                  Kim%McBennett%NULL%1,                  Rita%Padoan%NULL%1,                  Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                  Matthew R%Baldwin%NULL%0,                  Darryl%Abrams%NULL%1,                  Samuel D%Jacobson%NULL%1,                  Benjamin J%Meyer%NULL%1,                  Elizabeth M%Balough%NULL%1,                  Justin G%Aaron%NULL%1,                  Jan%Claassen%NULL%0,                  LeRoy E%Rabbani%NULL%1,                  Jonathan%Hastie%NULL%1,                  Beth R%Hochman%NULL%1,                  John%Salazar-Schicchi%NULL%1,                  Natalie H%Yip%NULL%1,                  Daniel%Brodie%NULL%0,                  Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                  Xin%Zhang%NULL%0,                  Jianguo%Xia%NULL%1,                  Tao%Zhang%NULL%1,                  Yalei%Shang%NULL%1,                  Renjun%Huang%NULL%1,                  Rongrong%Liu%NULL%1,                  Dan%Wang%NULL%0,                  Min%Li%105549156@qq.com%1,                  Jinping%Wu%czwjp@sina.com%1,                  Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                  Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2348,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2239,7 +2377,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2268,7 +2406,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2297,7 +2435,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2326,7 +2464,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2355,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2384,7 +2522,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2413,7 +2551,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2442,7 +2580,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2471,7 +2609,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2500,7 +2638,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2529,7 +2667,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2558,7 +2696,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2587,7 +2725,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2616,7 +2754,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2645,7 +2783,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2674,7 +2812,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2703,7 +2841,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2732,7 +2870,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2761,7 +2899,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2790,7 +2928,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2819,7 +2957,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2848,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="553">
   <si>
     <t>Doi</t>
   </si>
@@ -1963,6 +1963,75 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                  Xin%Zhang%NULL%0,                  Jianguo%Xia%NULL%1,                  Tao%Zhang%NULL%1,                  Yalei%Shang%NULL%1,                  Renjun%Huang%NULL%1,                  Rongrong%Liu%NULL%1,                  Dan%Wang%NULL%0,                  Min%Li%105549156@qq.com%1,                  Jinping%Wu%czwjp@sina.com%1,                  Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                  Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                   Shiva%Samavat%NULL%1,                   Behdad%Behnam%NULL%1,                   Mehran%Arab-Ahmadi%NULL%1,                   Mohsen%Nafar%NULL%1,                   Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                   Elisa%Delbarba%NULL%2,                   Chiara%Manenti%NULL%2,                   Laura%Econimo%NULL%2,                   Francesca%Valerio%NULL%2,                   Alessandra%Pola%NULL%2,                   Camilla%Maffei%NULL%2,                   Stefano%Possenti%NULL%2,                   Nicole%Zambetti%NULL%1,                   Marianna%Moscato%NULL%1,                   Margherita%Venturini%NULL%1,                   Stefania%Affatato%NULL%2,                   Mario%Gaggiotti%NULL%2,                   Nicola%Bossini%NULL%2,                   Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                   Elisa%Delbarba%NULL%0,                   Chiara%Manenti%NULL%0,                   Laura%Econimo%NULL%0,                   Francesca%Valerio%NULL%0,                   Alessandra%Pola%NULL%0,                   Camilla%Maffei%NULL%0,                   Stefano%Possenti%NULL%0,                   Bernardo%Lucca%NULL%1,                   Roberta%Cortinovis%NULL%1,                   Vincenzo%Terlizzi%NULL%1,                   Mattia%Zappa%NULL%1,                   Chiara%Saccà%NULL%1,                   Elena%Pezzini%NULL%1,                   Eleonora%Calcaterra%NULL%1,                   Paola%Piarulli%NULL%1,                   Alice%Guerini%NULL%1,                   Francesca%Boni%NULL%1,                   Agnese%Gallico%NULL%1,                   Alberto%Mucchetti%NULL%1,                   Stefania%Affatato%NULL%0,                   Sergio%Bove%NULL%1,                   Martina%Bracchi%NULL%1,                   Ester Maria%Costantino%NULL%1,                   Roberto%Zubani%NULL%1,                   Corrado%Camerini%NULL%1,                   Paola%Gaggia%NULL%1,                   Ezio%Movilli%NULL%1,                   Nicola%Bossini%NULL%0,                   Mario%Gaggiotti%NULL%0,                   Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                   Jordi%Rello%NULL%1,                   Sofia%Tejada%NULL%1,                   Alejandro%Martín%NULL%1,                   Goiatz%Balziskueta%NULL%1,                   Cristina%Vinuesa%NULL%1,                   Borja%Fernández-Miret%NULL%1,                   Ana%Villagra%NULL%1,                   Ana%Vallejo%NULL%1,                   Ana%San Sebastián%NULL%1,                   Sara%Cabañes%NULL%1,                   Sebastián%Iribarren%NULL%1,                   Fernando%Fonseca%NULL%1,                   Javier%Maynar%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                   Denise J%McCulloch%NULL%2,                   Denise J%McCulloch%NULL%0,                   Vidya%Atluri%NULL%1,                   Michela%Blain%NULL%1,                   Sarah A%McGuffin%NULL%1,                   Arun K%Nalla%NULL%1,                   Meei-Li%Huang%NULL%1,                   Alex L%Greninger%NULL%1,                   Keith R%Jerome%NULL%1,                   Seth A%Cohen%NULL%1,                   Santiago%Neme%NULL%1,                   Margaret L%Green%NULL%1,                   Helen Y%Chu%NULL%1,                   H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                   Timothy%Mazzuchelli%NULL%1,                   Elia%Lo Priore%NULL%1,                   Carlo%Balmelli%NULL%1,                   Michael%Llamas%NULL%1,                   Micol%Pallanza%NULL%1,                   Luigia%Elzi%NULL%1,                   Vera%Consonni%NULL%1,                   Pierpaolo%Trimboli%NULL%1,                   Valentina%Forni-Ogna%NULL%1,                   Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                 Deliang%Huang%coreGivesNoEmail%0,                 Hong%Yu%coreGivesNoEmail%0,                 Jun%Chen%coreGivesNoEmail%0,                 Lei%Liu%coreGivesNoEmail%0,                 National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                 Pengcheng%Ou%coreGivesNoEmail%0,                 Qing%He%coreGivesNoEmail%0,                 Qingxian%Cai%coreGivesNoEmail%0,                 Rossaint%J%coreGivesNoEmail%0,                 Yang%Fu%coreGivesNoEmail%0,                 Yiming%Zhang%coreGivesNoEmail%0,                 Yinan%Su%coreGivesNoEmail%0,                 Zhang%Xia%coreGivesNoEmail%0,                 Zhenghua%Ma%coreGivesNoEmail%0,                 Zhibin%Zhu%coreGivesNoEmail%0,                 Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%4,                   Yeming%Wang%NULL%0,                   Danning%Wen%NULL%1,                   Wen%Liu%NULL%1,                   Jingli%Wang%NULL%0,                   Guohui%Fan%NULL%0,                   Lianguo%Ruan%NULL%1,                   Bin%Song%NULL%0,                   Yanping%Cai%NULL%1,                   Ming%Wei%NULL%1,                   Xingwang%Li%NULL%0,                   Jiaan%Xia%NULL%0,                   Nanshan%Chen%NULL%1,                   Jie%Xiang%NULL%0,                   Ting%Yu%NULL%0,                   Tao%Bai%NULL%0,                   Xuelei%Xie%NULL%0,                   Li%Zhang%NULL%0,                   Caihong%Li%NULL%1,                   Ye%Yuan%NULL%1,                   Hua%Chen%NULL%0,                   Huadong%Li%NULL%1,                   Hanping%Huang%NULL%1,                   Shengjing%Tu%NULL%1,                   Fengyun%Gong%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Chongya%Dong%NULL%1,                   Fei%Zhou%NULL%1,                   Xiaoying%Gu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Zhibo%Liu%NULL%0,                   Yi%Zhang%NULL%0,                   Hui%Li%NULL%0,                   Lianhan%Shang%NULL%1,                   Ke%Wang%NULL%0,                   Kunxia%Li%NULL%1,                   Xia%Zhou%NULL%1,                   Xuan%Dong%NULL%0,                   Zhaohui%Qu%NULL%1,                   Sixia%Lu%NULL%1,                   Xujuan%Hu%NULL%1,                   Shunan%Ruan%NULL%1,                   Shanshan%Luo%NULL%1,                   Jing%Wu%NULL%0,                   Lu%Peng%NULL%1,                   Fang%Cheng%NULL%0,                   Lihong%Pan%NULL%1,                   Jun%Zou%NULL%1,                   Chunmin%Jia%NULL%1,                   Juan%Wang%NULL%1,                   Xia%Liu%NULL%1,                   Shuzhen%Wang%NULL%1,                   Xudong%Wu%NULL%0,                   Qin%Ge%NULL%1,                   Jing%He%NULL%1,                   Haiyan%Zhan%NULL%1,                   Fang%Qiu%NULL%1,                   Li%Guo%NULL%0,                   Chaolin%Huang%NULL%1,                   Thomas%Jaki%NULL%1,                   Frederick G.%Hayden%NULL%1,                   Peter W.%Horby%NULL%1,                   Dingyu%Zhang%NULL%1,                   Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Ya-Kun%Liu%NULL%0,                   Xiaoyong%Hu%NULL%0,                   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                   Jia%Wei%NULL%1,                   Liang%Zou%NULL%1,                   Tiebin%Jiang%NULL%1,                   Gaoxiang%Wang%NULL%1,                   Liting%Chen%NULL%1,                   Liang%Huang%NULL%1,                   Fankai%Meng%NULL%1,                   Lifang%Huang%NULL%1,                   Na%Wang%NULL%1,                   Xiaoxi%Zhou%NULL%1,                   Hui%Luo%NULL%1,                   Zekai%Mao%NULL%1,                   Xing%Chen%NULL%1,                   Jungang%Xie%NULL%0,                   Jing%Liu%NULL%0,                   Hui%Cheng%NULL%1,                   Jianping%Zhao%NULL%0,                   Gang%Huang%NULL%1,                   Wei%Wang%NULL%0,                   Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                   Giacomo%De Luca%NULL%1,                   Corrado%Campochiaro%NULL%1,                   Emanuel%Della-Torre%NULL%1,                   Marco%Ripa%NULL%1,                   Diana%Canetti%NULL%1,                   Chiara%Oltolini%NULL%1,                   Barbara%Castiglioni%NULL%1,                   Chiara%Tassan Din%NULL%1,                   Nicola%Boffini%NULL%1,                   Alessandro%Tomelleri%NULL%1,                   Nicola%Farina%NULL%1,                   Annalisa%Ruggeri%NULL%0,                   Patrizia%Rovere-Querini%NULL%0,                   Giuseppe%Di Lucca%NULL%1,                   Sabina%Martinenghi%NULL%1,                   Raffaella%Scotti%NULL%1,                   Moreno%Tresoldi%NULL%0,                   Fabio%Ciceri%NULL%1,                   Giovanni%Landoni%NULL%0,                   Alberto%Zangrillo%NULL%0,                   Paolo%Scarpellini%NULL%0,                   Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                   Kim R.%Derespina%NULL%2,                   Betsy C.%Herold%NULL%1,                   David L.%Goldman%NULL%1,                   Margaret%Aldrich%NULL%1,                   Jacqueline%Weingarten%NULL%1,                   Henry M.%Ushay%NULL%2,                   Michael D.%Cabana%NULL%1,                   Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,           Di%Wu%xref no email%0,           Wei%Guo%xref no email%0,           Yong%Cao%xref no email%0,           Da%Huang%xref no email%0,           Hongwu%Wang%xref no email%0,           Tao%Wang%xref no email%0,           Xiaoyun%Zhang%xref no email%0,           Huilong%Chen%xref no email%0,           Haijing%Yu%xref no email%0,           Xiaoping%Zhang%xref no email%0,           Minxia%Zhang%xref no email%0,           Shiji%Wu%xref no email%0,           Jianxin%Song%xref no email%0,           Tao%Chen%xref no email%0,           Meifang%Han%xref no email%0,           Shusheng%Li%xref no email%0,           Xiaoping%Luo%xref no email%0,           Jianping%Zhao%xref no email%0,           Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                   Zhen-Zhen%Zhang%NULL%1,                   Yao-Kai%Chen%NULL%1,                   Quan-Xin%Long%NULL%1,                   Wen-Guang%Tian%NULL%1,                   Hai-Jun%Deng%NULL%1,                   Jie-Li%Hu%NULL%1,                   Xian-Xiang%Zhang%NULL%1,                   NULL%Pu-Liao%NULL%1,                   Jiang-Lin%Xiang%NULL%1,                   Dao-Xin%Wang%NULL%1,                   Peng%Hu%NULL%0,                   Fa-Chun%Zhou%NULL%1,                   Zhi-Jie%Li%NULL%1,                   Hong-Mei%Xu%NULL%1,                   Xue-Fei%Cai%NULL%1,                   De-Qiang%Wang%NULL%1,                   Yuan%Hu%NULL%1,                   Ni%Tang%NULL%1,                   Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                   Gui-Cheng%Wu%wuguic@hotmail.com%1,                   Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                   Zhencang%Zheng%NULL%1,                   Chao%Zhang%NULL%1,                   Xijiang%Zhang%NULL%1,                   Huijuan%Wu%NULL%1,                   Jingdong%Wang%NULL%1,                   Shuwei%Wang%NULL%1,                   Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                   Wenhua%Liang%NULL%0,                   Mei%Jiang%NULL%0,                   Weijie%Guan%NULL%0,                   Chen%Zhan%NULL%0,                   Tao%Wang%NULL%0,                   Chunli%Tang%NULL%0,                   Ling%Sang%NULL%0,                   Jiaxing%Liu%NULL%0,                   Zhengyi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chunliang%Lei%NULL%0,                   Yixiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Yahua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jianming%Wang%NULL%0,                   Jiyang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhijian%Zheng%NULL%0,                   Shaoqin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Changjiang%Ye%NULL%0,                   Shaoyong%Zhu%NULL%0,                   Xiaoqing%Liu%NULL%0,                   Linling%Cheng%NULL%0,                   Feng%Ye%NULL%0,                   Jinping%Zheng%NULL%0,                   Nuofu%Zhang%NULL%0,                   Yimin%Li%NULL%0,                   Jianxing%He%NULL%0,                   Shiyue%Li%lishiyue@188.com%0,                   Nanshan%Zhong%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                   Wei%An%NULL%2,                   Wei%An%NULL%0,                   Fei%Xia%NULL%0,                   Ping%Yang%NULL%1,                   Kuangyu%Li%NULL%1,                   Qin%Zhou%NULL%1,                   Shasha%Fang%NULL%1,                   Yaling%Liao%NULL%1,                   Xin%Xu%NULL%0,                   Jialin%Liu%NULL%1,                   Shiguo%Liu%NULL%1,                   Tao%Qin%NULL%1,                   Jianjun%Zhang%NULL%1,                   Wei%Wei%NULL%0,                   Yafang%Zhang%NULL%1,                   Guowei%Zhang%NULL%1,                   Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                   Nan%Yang%NULL%2,                   Nan%Yang%NULL%0,                   Yanqiu%Wei%NULL%1,                   Huihui%Yue%NULL%1,                   Fengqin%Zhang%NULL%1,                   Jianping%Zhao%NULL%0,                   Li%He%NULL%1,                   Gaohong%Sheng%NULL%2,                   Gaohong%Sheng%NULL%0,                   Peng%Chen%NULL%1,                   Gang%Li%NULL%0,                   Sisi%Wu%NULL%1,                   Bo%Zhang%NULL%0,                   Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                   Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                   Xiaoping%Miao%miaoxp@hust.edu.cn%1,                   Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                   Wenhua%Liu%liuwh_2013@126.com%1,                   Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                   Susannah%Ahern%NULL%1,                   Scott C.%Bell%NULL%1,                   Keith%Brownlee%NULL%1,                   Pierre-Régis%Burgel%NULL%1,                   Cass%Byrnes%NULL%1,                   Harriet%Corvol%NULL%1,                   Stephanie Y.%Cheng%NULL%1,                   Alexander%Elbert%NULL%1,                   Albert%Faro%NULL%1,                   Christopher H.%Goss%NULL%1,                   Vincent%Gulmans%NULL%1,                   Bruce C.%Marshall%NULL%1,                   Edward%McKone%NULL%1,                   Peter G.%Middleton%NULL%1,                   Rasa%Ruseckaite%NULL%1,                   Anne L.%Stephenson%NULL%1,                   Siobhán B%Carr%NULL%1,                   David%Reid%NULL%1,                   Peter%Wark%NULL%1,                   Géraldine%Daneau%NULL%1,                   Véronique%Boussaud%NULL%1,                   Graziella%Brinchault%NULL%1,                   Emmanuelle%Coirier-Duet%NULL%1,                   Jean-Christophe%Dubus%NULL%1,                   Dominique%Grenet%NULL%1,                   Sandra de%Miranda%NULL%1,                   Laurence%Beaumont%NULL%1,                   Reem%Kanaan%NULL%1,                   Muriel%Lauraens%NULL%1,                   Clémence%Martin%NULL%1,                   Marie%Mittaine%NULL%1,                   Anne%Prévotat%NULL%1,                   Martine%Reynaud-Gaubert%NULL%1,                   Isabelle%Sermet-Gaudelus%NULL%1,                   Aurelie%Tatopoulos%NULL%1,                   Lutz%Nährlich%NULL%1,                   Barry%Plant%NULL%1,                   Cedric%Gunaratnam%NULL%1,                   Abaigeal%Jackson%NULL%1,                   Karin M. de Winter-de%Groot%NULL%1,                   Bart%Luijk%NULL%1,                   Geertjan%Wesseling%NULL%1,                   Mark%Allenby%NULL%1,                   Jamie%Duckers%NULL%1,                   Elaine%Gunn%NULL%1,                   Andrew%Jones%NULL%1,                   Robert Ian%Ketchell%NULL%1,                   Susan L.%Madge%NULL%1,                   Anirban%Maitra%NULL%1,                   Ghulam%Mujtaba%NULL%1,                   Helen%Rodgers%NULL%1,                   Nadia%Shafi%NULL%1,                   Nicholas%Simmonds%NULL%1,                   Kevin%Southern%NULL%1,                   Danie%Watson%NULL%1,                   Samar%Rizvi%NULL%1,                   Julie%Seguin%NULL%1,                   Janet%Garbarz%NULL%1,                   Kristen%Rosamilia%NULL%1,                   Maria%Berdella%NULL%1,                   Jerry A.%Nick%NULL%1,                   Richard%Belkin%NULL%1,                   Diana%Gilmore%NULL%1,                   Kim%McBennett%NULL%1,                   Rita%Padoan%NULL%1,                   Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                   Matthew R%Baldwin%NULL%0,                   Darryl%Abrams%NULL%1,                   Samuel D%Jacobson%NULL%1,                   Benjamin J%Meyer%NULL%1,                   Elizabeth M%Balough%NULL%1,                   Justin G%Aaron%NULL%1,                   Jan%Claassen%NULL%0,                   LeRoy E%Rabbani%NULL%1,                   Jonathan%Hastie%NULL%1,                   Beth R%Hochman%NULL%1,                   John%Salazar-Schicchi%NULL%1,                   Natalie H%Yip%NULL%1,                   Daniel%Brodie%NULL%0,                   Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                   Xin%Zhang%NULL%0,                   Jianguo%Xia%NULL%1,                   Tao%Zhang%NULL%1,                   Yalei%Shang%NULL%1,                   Renjun%Huang%NULL%1,                   Rongrong%Liu%NULL%1,                   Dan%Wang%NULL%0,                   Min%Li%105549156@qq.com%1,                   Jinping%Wu%czwjp@sina.com%1,                   Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                   Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2377,7 +2446,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2406,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2435,7 +2504,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2464,7 +2533,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2493,7 +2562,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2522,7 +2591,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2551,7 +2620,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2580,7 +2649,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2609,7 +2678,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2638,7 +2707,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2667,7 +2736,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2696,7 +2765,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2725,7 +2794,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2754,7 +2823,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2783,7 +2852,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2812,7 +2881,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2841,7 +2910,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2870,7 +2939,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2899,7 +2968,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2928,7 +2997,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -2957,7 +3026,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -2986,7 +3055,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="580">
   <si>
     <t>Doi</t>
   </si>
@@ -2032,6 +2032,87 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                   Xin%Zhang%NULL%0,                   Jianguo%Xia%NULL%1,                   Tao%Zhang%NULL%1,                   Yalei%Shang%NULL%1,                   Renjun%Huang%NULL%1,                   Rongrong%Liu%NULL%1,                   Dan%Wang%NULL%0,                   Min%Li%105549156@qq.com%1,                   Jinping%Wu%czwjp@sina.com%1,                   Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                   Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                    Shiva%Samavat%NULL%1,                    Behdad%Behnam%NULL%1,                    Mehran%Arab-Ahmadi%NULL%1,                    Mohsen%Nafar%NULL%1,                    Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                    Elisa%Delbarba%NULL%2,                    Chiara%Manenti%NULL%2,                    Laura%Econimo%NULL%2,                    Francesca%Valerio%NULL%2,                    Alessandra%Pola%NULL%2,                    Camilla%Maffei%NULL%2,                    Stefano%Possenti%NULL%2,                    Nicole%Zambetti%NULL%1,                    Marianna%Moscato%NULL%1,                    Margherita%Venturini%NULL%1,                    Stefania%Affatato%NULL%2,                    Mario%Gaggiotti%NULL%2,                    Nicola%Bossini%NULL%2,                    Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                    Elisa%Delbarba%NULL%0,                    Chiara%Manenti%NULL%0,                    Laura%Econimo%NULL%0,                    Francesca%Valerio%NULL%0,                    Alessandra%Pola%NULL%0,                    Camilla%Maffei%NULL%0,                    Stefano%Possenti%NULL%0,                    Bernardo%Lucca%NULL%1,                    Roberta%Cortinovis%NULL%1,                    Vincenzo%Terlizzi%NULL%1,                    Mattia%Zappa%NULL%1,                    Chiara%Saccà%NULL%1,                    Elena%Pezzini%NULL%1,                    Eleonora%Calcaterra%NULL%1,                    Paola%Piarulli%NULL%1,                    Alice%Guerini%NULL%1,                    Francesca%Boni%NULL%1,                    Agnese%Gallico%NULL%1,                    Alberto%Mucchetti%NULL%1,                    Stefania%Affatato%NULL%0,                    Sergio%Bove%NULL%1,                    Martina%Bracchi%NULL%1,                    Ester Maria%Costantino%NULL%1,                    Roberto%Zubani%NULL%1,                    Corrado%Camerini%NULL%1,                    Paola%Gaggia%NULL%1,                    Ezio%Movilli%NULL%1,                    Nicola%Bossini%NULL%0,                    Mario%Gaggiotti%NULL%0,                    Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                    Jordi%Rello%NULL%1,                    Sofia%Tejada%NULL%1,                    Alejandro%Martín%NULL%1,                    Goiatz%Balziskueta%NULL%1,                    Cristina%Vinuesa%NULL%1,                    Borja%Fernández-Miret%NULL%1,                    Ana%Villagra%NULL%1,                    Ana%Vallejo%NULL%1,                    Ana%San Sebastián%NULL%1,                    Sara%Cabañes%NULL%1,                    Sebastián%Iribarren%NULL%1,                    Fernando%Fonseca%NULL%1,                    Javier%Maynar%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                    Denise J%McCulloch%NULL%2,                    Denise J%McCulloch%NULL%0,                    Vidya%Atluri%NULL%1,                    Michela%Blain%NULL%1,                    Sarah A%McGuffin%NULL%1,                    Arun K%Nalla%NULL%1,                    Meei-Li%Huang%NULL%1,                    Alex L%Greninger%NULL%1,                    Keith R%Jerome%NULL%1,                    Seth A%Cohen%NULL%1,                    Santiago%Neme%NULL%1,                    Margaret L%Green%NULL%1,                    Helen Y%Chu%NULL%1,                    H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                    Timothy%Mazzuchelli%NULL%1,                    Elia%Lo Priore%NULL%1,                    Carlo%Balmelli%NULL%1,                    Michael%Llamas%NULL%1,                    Micol%Pallanza%NULL%1,                    Luigia%Elzi%NULL%1,                    Vera%Consonni%NULL%1,                    Pierpaolo%Trimboli%NULL%1,                    Valentina%Forni-Ogna%NULL%1,                    Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                  Deliang%Huang%coreGivesNoEmail%0,                  Hong%Yu%coreGivesNoEmail%0,                  Jun%Chen%coreGivesNoEmail%0,                  Lei%Liu%coreGivesNoEmail%0,                  National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                  Pengcheng%Ou%coreGivesNoEmail%0,                  Qing%He%coreGivesNoEmail%0,                  Qingxian%Cai%coreGivesNoEmail%0,                  Rossaint%J%coreGivesNoEmail%0,                  Yang%Fu%coreGivesNoEmail%0,                  Yiming%Zhang%coreGivesNoEmail%0,                  Yinan%Su%coreGivesNoEmail%0,                  Zhang%Xia%coreGivesNoEmail%0,                  Zhenghua%Ma%coreGivesNoEmail%0,                  Zhibin%Zhu%coreGivesNoEmail%0,                  Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                    Yeming%Wang%NULL%0,                    Danning%Wen%NULL%1,                    Wen%Liu%NULL%1,                    Jingli%Wang%NULL%0,                    Guohui%Fan%NULL%0,                    Lianguo%Ruan%NULL%1,                    Bin%Song%NULL%0,                    Yanping%Cai%NULL%1,                    Ming%Wei%NULL%1,                    Xingwang%Li%NULL%0,                    Jiaan%Xia%NULL%0,                    Nanshan%Chen%NULL%1,                    Jie%Xiang%NULL%0,                    Ting%Yu%NULL%0,                    Tao%Bai%NULL%0,                    Xuelei%Xie%NULL%0,                    Li%Zhang%NULL%0,                    Caihong%Li%NULL%1,                    Ye%Yuan%NULL%1,                    Hua%Chen%NULL%0,                    Huadong%Li%NULL%1,                    Hanping%Huang%NULL%1,                    Shengjing%Tu%NULL%1,                    Fengyun%Gong%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Chongya%Dong%NULL%1,                    Fei%Zhou%NULL%1,                    Xiaoying%Gu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Zhibo%Liu%NULL%0,                    Yi%Zhang%NULL%0,                    Hui%Li%NULL%0,                    Lianhan%Shang%NULL%1,                    Ke%Wang%NULL%0,                    Kunxia%Li%NULL%1,                    Xia%Zhou%NULL%1,                    Xuan%Dong%NULL%0,                    Zhaohui%Qu%NULL%1,                    Sixia%Lu%NULL%1,                    Xujuan%Hu%NULL%1,                    Shunan%Ruan%NULL%1,                    Shanshan%Luo%NULL%1,                    Jing%Wu%NULL%0,                    Lu%Peng%NULL%1,                    Fang%Cheng%NULL%0,                    Lihong%Pan%NULL%1,                    Jun%Zou%NULL%1,                    Chunmin%Jia%NULL%1,                    Juan%Wang%NULL%1,                    Xia%Liu%NULL%1,                    Shuzhen%Wang%NULL%1,                    Xudong%Wu%NULL%0,                    Qin%Ge%NULL%1,                    Jing%He%NULL%1,                    Haiyan%Zhan%NULL%1,                    Fang%Qiu%NULL%1,                    Li%Guo%NULL%0,                    Chaolin%Huang%NULL%1,                    Thomas%Jaki%NULL%1,                    Frederick G.%Hayden%NULL%1,                    Peter W.%Horby%NULL%1,                    Dingyu%Zhang%NULL%1,                    Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                    Wenlin%Cheng%NULL%0,                    Lei%Yu%NULL%0,                    Ya-Kun%Liu%NULL%0,                    Xiaoyong%Hu%NULL%0,                    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                    Jia%Wei%NULL%1,                    Liang%Zou%NULL%1,                    Tiebin%Jiang%NULL%1,                    Gaoxiang%Wang%NULL%1,                    Liting%Chen%NULL%1,                    Liang%Huang%NULL%1,                    Fankai%Meng%NULL%1,                    Lifang%Huang%NULL%1,                    Na%Wang%NULL%1,                    Xiaoxi%Zhou%NULL%1,                    Hui%Luo%NULL%1,                    Zekai%Mao%NULL%1,                    Xing%Chen%NULL%1,                    Jungang%Xie%NULL%0,                    Jing%Liu%NULL%0,                    Hui%Cheng%NULL%1,                    Jianping%Zhao%NULL%0,                    Gang%Huang%NULL%1,                    Wei%Wang%NULL%0,                    Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                    Giacomo%De Luca%NULL%1,                    Corrado%Campochiaro%NULL%1,                    Emanuel%Della-Torre%NULL%1,                    Marco%Ripa%NULL%1,                    Diana%Canetti%NULL%1,                    Chiara%Oltolini%NULL%1,                    Barbara%Castiglioni%NULL%1,                    Chiara%Tassan Din%NULL%1,                    Nicola%Boffini%NULL%1,                    Alessandro%Tomelleri%NULL%1,                    Nicola%Farina%NULL%1,                    Annalisa%Ruggeri%NULL%0,                    Patrizia%Rovere-Querini%NULL%0,                    Giuseppe%Di Lucca%NULL%1,                    Sabina%Martinenghi%NULL%1,                    Raffaella%Scotti%NULL%1,                    Moreno%Tresoldi%NULL%0,                    Fabio%Ciceri%NULL%1,                    Giovanni%Landoni%NULL%0,                    Alberto%Zangrillo%NULL%0,                    Paolo%Scarpellini%NULL%0,                    Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                    Kim R.%Derespina%NULL%2,                    Betsy C.%Herold%NULL%1,                    David L.%Goldman%NULL%1,                    Margaret%Aldrich%NULL%1,                    Jacqueline%Weingarten%NULL%1,                    Henry M.%Ushay%NULL%2,                    Michael D.%Cabana%NULL%1,                    Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,            Di%Wu%xref no email%0,            Wei%Guo%xref no email%0,            Yong%Cao%xref no email%0,            Da%Huang%xref no email%0,            Hongwu%Wang%xref no email%0,            Tao%Wang%xref no email%0,            Xiaoyun%Zhang%xref no email%0,            Huilong%Chen%xref no email%0,            Haijing%Yu%xref no email%0,            Xiaoping%Zhang%xref no email%0,            Minxia%Zhang%xref no email%0,            Shiji%Wu%xref no email%0,            Jianxin%Song%xref no email%0,            Tao%Chen%xref no email%0,            Meifang%Han%xref no email%0,            Shusheng%Li%xref no email%0,            Xiaoping%Luo%xref no email%0,            Jianping%Zhao%xref no email%0,            Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                    Zhen-Zhen%Zhang%NULL%1,                    Yao-Kai%Chen%NULL%1,                    Quan-Xin%Long%NULL%1,                    Wen-Guang%Tian%NULL%1,                    Hai-Jun%Deng%NULL%1,                    Jie-Li%Hu%NULL%1,                    Xian-Xiang%Zhang%NULL%1,                    NULL%Pu-Liao%NULL%1,                    Jiang-Lin%Xiang%NULL%1,                    Dao-Xin%Wang%NULL%1,                    Peng%Hu%NULL%0,                    Fa-Chun%Zhou%NULL%1,                    Zhi-Jie%Li%NULL%1,                    Hong-Mei%Xu%NULL%1,                    Xue-Fei%Cai%NULL%1,                    De-Qiang%Wang%NULL%1,                    Yuan%Hu%NULL%1,                    Ni%Tang%NULL%1,                    Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                    Gui-Cheng%Wu%wuguic@hotmail.com%1,                    Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%0,                    Xuan%Dong%NULL%0,                    Jieming%Qu%NULL%0,                    Fengyun%Gong%NULL%0,                    Yang%Han%NULL%0,                    Yang%Qiu%NULL%0,                    Jingli%Wang%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                    Zhencang%Zheng%NULL%1,                    Chao%Zhang%NULL%1,                    Xijiang%Zhang%NULL%1,                    Huijuan%Wu%NULL%1,                    Jingdong%Wang%NULL%1,                    Shuwei%Wang%NULL%1,                    Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                    Wenhua%Liang%NULL%0,                    Mei%Jiang%NULL%0,                    Weijie%Guan%NULL%0,                    Chen%Zhan%NULL%0,                    Tao%Wang%NULL%0,                    Chunli%Tang%NULL%0,                    Ling%Sang%NULL%0,                    Jiaxing%Liu%NULL%0,                    Zhengyi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chunliang%Lei%NULL%0,                    Yixiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Yahua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jianming%Wang%NULL%0,                    Jiyang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhijian%Zheng%NULL%0,                    Shaoqin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Changjiang%Ye%NULL%0,                    Shaoyong%Zhu%NULL%0,                    Xiaoqing%Liu%NULL%0,                    Linling%Cheng%NULL%0,                    Feng%Ye%NULL%0,                    Jinping%Zheng%NULL%0,                    Nuofu%Zhang%NULL%0,                    Yimin%Li%NULL%0,                    Jianxing%He%NULL%0,                    Shiyue%Li%lishiyue@188.com%0,                    Nanshan%Zhong%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                    Wei%An%NULL%2,                    Wei%An%NULL%0,                    Fei%Xia%NULL%0,                    Ping%Yang%NULL%1,                    Kuangyu%Li%NULL%1,                    Qin%Zhou%NULL%1,                    Shasha%Fang%NULL%1,                    Yaling%Liao%NULL%1,                    Xin%Xu%NULL%0,                    Jialin%Liu%NULL%1,                    Shiguo%Liu%NULL%1,                    Tao%Qin%NULL%1,                    Jianjun%Zhang%NULL%1,                    Wei%Wei%NULL%0,                    Yafang%Zhang%NULL%1,                    Guowei%Zhang%NULL%1,                    Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                    Nan%Yang%NULL%2,                    Nan%Yang%NULL%0,                    Yanqiu%Wei%NULL%1,                    Huihui%Yue%NULL%1,                    Fengqin%Zhang%NULL%1,                    Jianping%Zhao%NULL%0,                    Li%He%NULL%1,                    Gaohong%Sheng%NULL%2,                    Gaohong%Sheng%NULL%0,                    Peng%Chen%NULL%1,                    Gang%Li%NULL%0,                    Sisi%Wu%NULL%1,                    Bo%Zhang%NULL%0,                    Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                    Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                    Xiaoping%Miao%miaoxp@hust.edu.cn%1,                    Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                    Wenhua%Liu%liuwh_2013@126.com%1,                    Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                    Susannah%Ahern%NULL%1,                    Scott C.%Bell%NULL%1,                    Keith%Brownlee%NULL%1,                    Pierre-Régis%Burgel%NULL%1,                    Cass%Byrnes%NULL%1,                    Harriet%Corvol%NULL%1,                    Stephanie Y.%Cheng%NULL%1,                    Alexander%Elbert%NULL%1,                    Albert%Faro%NULL%1,                    Christopher H.%Goss%NULL%1,                    Vincent%Gulmans%NULL%1,                    Bruce C.%Marshall%NULL%1,                    Edward%McKone%NULL%1,                    Peter G.%Middleton%NULL%1,                    Rasa%Ruseckaite%NULL%1,                    Anne L.%Stephenson%NULL%1,                    Siobhán B%Carr%NULL%1,                    David%Reid%NULL%1,                    Peter%Wark%NULL%1,                    Géraldine%Daneau%NULL%1,                    Véronique%Boussaud%NULL%1,                    Graziella%Brinchault%NULL%1,                    Emmanuelle%Coirier-Duet%NULL%1,                    Jean-Christophe%Dubus%NULL%1,                    Dominique%Grenet%NULL%1,                    Sandra de%Miranda%NULL%1,                    Laurence%Beaumont%NULL%1,                    Reem%Kanaan%NULL%1,                    Muriel%Lauraens%NULL%1,                    Clémence%Martin%NULL%1,                    Marie%Mittaine%NULL%1,                    Anne%Prévotat%NULL%1,                    Martine%Reynaud-Gaubert%NULL%1,                    Isabelle%Sermet-Gaudelus%NULL%1,                    Aurelie%Tatopoulos%NULL%1,                    Lutz%Nährlich%NULL%1,                    Barry%Plant%NULL%1,                    Cedric%Gunaratnam%NULL%1,                    Abaigeal%Jackson%NULL%1,                    Karin M. de Winter-de%Groot%NULL%1,                    Bart%Luijk%NULL%1,                    Geertjan%Wesseling%NULL%1,                    Mark%Allenby%NULL%1,                    Jamie%Duckers%NULL%1,                    Elaine%Gunn%NULL%1,                    Andrew%Jones%NULL%1,                    Robert Ian%Ketchell%NULL%1,                    Susan L.%Madge%NULL%1,                    Anirban%Maitra%NULL%1,                    Ghulam%Mujtaba%NULL%1,                    Helen%Rodgers%NULL%1,                    Nadia%Shafi%NULL%1,                    Nicholas%Simmonds%NULL%1,                    Kevin%Southern%NULL%1,                    Danie%Watson%NULL%1,                    Samar%Rizvi%NULL%1,                    Julie%Seguin%NULL%1,                    Janet%Garbarz%NULL%1,                    Kristen%Rosamilia%NULL%1,                    Maria%Berdella%NULL%1,                    Jerry A.%Nick%NULL%1,                    Richard%Belkin%NULL%1,                    Diana%Gilmore%NULL%1,                    Kim%McBennett%NULL%1,                    Rita%Padoan%NULL%1,                    Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                    Matthew R%Baldwin%NULL%0,                    Darryl%Abrams%NULL%1,                    Samuel D%Jacobson%NULL%1,                    Benjamin J%Meyer%NULL%1,                    Elizabeth M%Balough%NULL%1,                    Justin G%Aaron%NULL%1,                    Jan%Claassen%NULL%0,                    LeRoy E%Rabbani%NULL%1,                    Jonathan%Hastie%NULL%1,                    Beth R%Hochman%NULL%1,                    John%Salazar-Schicchi%NULL%1,                    Natalie H%Yip%NULL%1,                    Daniel%Brodie%NULL%0,                    Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                    Xin%Zhang%NULL%0,                    Jianguo%Xia%NULL%1,                    Tao%Zhang%NULL%1,                    Yalei%Shang%NULL%1,                    Renjun%Huang%NULL%1,                    Rongrong%Liu%NULL%1,                    Dan%Wang%NULL%0,                    Min%Li%105549156@qq.com%1,                    Jinping%Wu%czwjp@sina.com%1,                    Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                    Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2498,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2429,7 +2510,7 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
@@ -2446,7 +2527,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2458,7 +2539,7 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
@@ -2475,7 +2556,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2487,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5">
@@ -2504,7 +2585,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2516,7 +2597,7 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
@@ -2533,7 +2614,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2545,7 +2626,7 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
@@ -2562,7 +2643,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2574,7 +2655,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8">
@@ -2591,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2603,7 +2684,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9">
@@ -2620,7 +2701,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2632,7 +2713,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
@@ -2649,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2661,7 +2742,7 @@
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
@@ -2678,7 +2759,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2690,7 +2771,7 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12">
@@ -2707,7 +2788,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2719,7 +2800,7 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
@@ -2736,7 +2817,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2748,7 +2829,7 @@
         <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
@@ -2765,7 +2846,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2777,7 +2858,7 @@
         <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
@@ -2794,7 +2875,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2806,7 +2887,7 @@
         <v>312</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16">
@@ -2823,7 +2904,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2835,7 +2916,7 @@
         <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17">
@@ -2852,7 +2933,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2864,7 +2945,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -2881,7 +2962,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2893,7 +2974,7 @@
         <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>223</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19">
@@ -2910,7 +2991,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2922,7 +3003,7 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20">
@@ -2939,7 +3020,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -2951,7 +3032,7 @@
         <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21">
@@ -2968,7 +3049,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2980,7 +3061,7 @@
         <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22">
@@ -2997,7 +3078,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3009,7 +3090,7 @@
         <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23">
@@ -3026,7 +3107,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -3038,7 +3119,7 @@
         <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24">
@@ -3055,7 +3136,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>
@@ -3067,7 +3148,7 @@
         <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="603">
   <si>
     <t>Doi</t>
   </si>
@@ -2113,6 +2113,75 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                    Xin%Zhang%NULL%0,                    Jianguo%Xia%NULL%1,                    Tao%Zhang%NULL%1,                    Yalei%Shang%NULL%1,                    Renjun%Huang%NULL%1,                    Rongrong%Liu%NULL%1,                    Dan%Wang%NULL%0,                    Min%Li%105549156@qq.com%1,                    Jinping%Wu%czwjp@sina.com%1,                    Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                    Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                     Shiva%Samavat%NULL%1,                     Behdad%Behnam%NULL%1,                     Mehran%Arab-Ahmadi%NULL%1,                     Mohsen%Nafar%NULL%1,                     Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                     Elisa%Delbarba%NULL%2,                     Chiara%Manenti%NULL%2,                     Laura%Econimo%NULL%2,                     Francesca%Valerio%NULL%2,                     Alessandra%Pola%NULL%2,                     Camilla%Maffei%NULL%2,                     Stefano%Possenti%NULL%2,                     Nicole%Zambetti%NULL%1,                     Marianna%Moscato%NULL%1,                     Margherita%Venturini%NULL%1,                     Stefania%Affatato%NULL%2,                     Mario%Gaggiotti%NULL%2,                     Nicola%Bossini%NULL%2,                     Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                     Elisa%Delbarba%NULL%0,                     Chiara%Manenti%NULL%0,                     Laura%Econimo%NULL%0,                     Francesca%Valerio%NULL%0,                     Alessandra%Pola%NULL%0,                     Camilla%Maffei%NULL%0,                     Stefano%Possenti%NULL%0,                     Bernardo%Lucca%NULL%1,                     Roberta%Cortinovis%NULL%1,                     Vincenzo%Terlizzi%NULL%1,                     Mattia%Zappa%NULL%1,                     Chiara%Saccà%NULL%1,                     Elena%Pezzini%NULL%1,                     Eleonora%Calcaterra%NULL%1,                     Paola%Piarulli%NULL%1,                     Alice%Guerini%NULL%1,                     Francesca%Boni%NULL%1,                     Agnese%Gallico%NULL%1,                     Alberto%Mucchetti%NULL%1,                     Stefania%Affatato%NULL%0,                     Sergio%Bove%NULL%1,                     Martina%Bracchi%NULL%1,                     Ester Maria%Costantino%NULL%1,                     Roberto%Zubani%NULL%1,                     Corrado%Camerini%NULL%1,                     Paola%Gaggia%NULL%1,                     Ezio%Movilli%NULL%1,                     Nicola%Bossini%NULL%0,                     Mario%Gaggiotti%NULL%0,                     Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                     Jordi%Rello%NULL%1,                     Sofia%Tejada%NULL%1,                     Alejandro%Martín%NULL%1,                     Goiatz%Balziskueta%NULL%1,                     Cristina%Vinuesa%NULL%1,                     Borja%Fernández-Miret%NULL%1,                     Ana%Villagra%NULL%1,                     Ana%Vallejo%NULL%1,                     Ana%San Sebastián%NULL%1,                     Sara%Cabañes%NULL%1,                     Sebastián%Iribarren%NULL%1,                     Fernando%Fonseca%NULL%1,                     Javier%Maynar%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                     Denise J%McCulloch%NULL%2,                     Denise J%McCulloch%NULL%0,                     Vidya%Atluri%NULL%1,                     Michela%Blain%NULL%1,                     Sarah A%McGuffin%NULL%1,                     Arun K%Nalla%NULL%1,                     Meei-Li%Huang%NULL%1,                     Alex L%Greninger%NULL%1,                     Keith R%Jerome%NULL%1,                     Seth A%Cohen%NULL%1,                     Santiago%Neme%NULL%1,                     Margaret L%Green%NULL%1,                     Helen Y%Chu%NULL%1,                     H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                     Timothy%Mazzuchelli%NULL%1,                     Elia%Lo Priore%NULL%1,                     Carlo%Balmelli%NULL%1,                     Michael%Llamas%NULL%1,                     Micol%Pallanza%NULL%1,                     Luigia%Elzi%NULL%1,                     Vera%Consonni%NULL%1,                     Pierpaolo%Trimboli%NULL%1,                     Valentina%Forni-Ogna%NULL%1,                     Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                   Deliang%Huang%coreGivesNoEmail%0,                   Hong%Yu%coreGivesNoEmail%0,                   Jun%Chen%coreGivesNoEmail%0,                   Lei%Liu%coreGivesNoEmail%0,                   National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                   Pengcheng%Ou%coreGivesNoEmail%0,                   Qing%He%coreGivesNoEmail%0,                   Qingxian%Cai%coreGivesNoEmail%0,                   Rossaint%J%coreGivesNoEmail%0,                   Yang%Fu%coreGivesNoEmail%0,                   Yiming%Zhang%coreGivesNoEmail%0,                   Yinan%Su%coreGivesNoEmail%0,                   Zhang%Xia%coreGivesNoEmail%0,                   Zhenghua%Ma%coreGivesNoEmail%0,                   Zhibin%Zhu%coreGivesNoEmail%0,                   Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                     Yeming%Wang%NULL%0,                     Danning%Wen%NULL%1,                     Wen%Liu%NULL%1,                     Jingli%Wang%NULL%0,                     Guohui%Fan%NULL%0,                     Lianguo%Ruan%NULL%1,                     Bin%Song%NULL%0,                     Yanping%Cai%NULL%1,                     Ming%Wei%NULL%1,                     Xingwang%Li%NULL%0,                     Jiaan%Xia%NULL%0,                     Nanshan%Chen%NULL%1,                     Jie%Xiang%NULL%0,                     Ting%Yu%NULL%0,                     Tao%Bai%NULL%0,                     Xuelei%Xie%NULL%0,                     Li%Zhang%NULL%0,                     Caihong%Li%NULL%1,                     Ye%Yuan%NULL%1,                     Hua%Chen%NULL%0,                     Huadong%Li%NULL%1,                     Hanping%Huang%NULL%1,                     Shengjing%Tu%NULL%1,                     Fengyun%Gong%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Chongya%Dong%NULL%1,                     Fei%Zhou%NULL%1,                     Xiaoying%Gu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Zhibo%Liu%NULL%0,                     Yi%Zhang%NULL%0,                     Hui%Li%NULL%0,                     Lianhan%Shang%NULL%1,                     Ke%Wang%NULL%0,                     Kunxia%Li%NULL%1,                     Xia%Zhou%NULL%1,                     Xuan%Dong%NULL%0,                     Zhaohui%Qu%NULL%1,                     Sixia%Lu%NULL%1,                     Xujuan%Hu%NULL%1,                     Shunan%Ruan%NULL%1,                     Shanshan%Luo%NULL%1,                     Jing%Wu%NULL%0,                     Lu%Peng%NULL%1,                     Fang%Cheng%NULL%0,                     Lihong%Pan%NULL%1,                     Jun%Zou%NULL%1,                     Chunmin%Jia%NULL%1,                     Juan%Wang%NULL%1,                     Xia%Liu%NULL%1,                     Shuzhen%Wang%NULL%1,                     Xudong%Wu%NULL%0,                     Qin%Ge%NULL%1,                     Jing%He%NULL%1,                     Haiyan%Zhan%NULL%1,                     Fang%Qiu%NULL%1,                     Li%Guo%NULL%0,                     Chaolin%Huang%NULL%1,                     Thomas%Jaki%NULL%1,                     Frederick G.%Hayden%NULL%1,                     Peter W.%Horby%NULL%1,                     Dingyu%Zhang%NULL%1,                     Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                     Wenlin%Cheng%NULL%0,                     Lei%Yu%NULL%0,                     Ya-Kun%Liu%NULL%0,                     Xiaoyong%Hu%NULL%0,                     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                     Jia%Wei%NULL%1,                     Liang%Zou%NULL%1,                     Tiebin%Jiang%NULL%1,                     Gaoxiang%Wang%NULL%1,                     Liting%Chen%NULL%1,                     Liang%Huang%NULL%1,                     Fankai%Meng%NULL%1,                     Lifang%Huang%NULL%1,                     Na%Wang%NULL%1,                     Xiaoxi%Zhou%NULL%1,                     Hui%Luo%NULL%1,                     Zekai%Mao%NULL%1,                     Xing%Chen%NULL%1,                     Jungang%Xie%NULL%0,                     Jing%Liu%NULL%0,                     Hui%Cheng%NULL%1,                     Jianping%Zhao%NULL%0,                     Gang%Huang%NULL%1,                     Wei%Wang%NULL%0,                     Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                     Giacomo%De Luca%NULL%1,                     Corrado%Campochiaro%NULL%1,                     Emanuel%Della-Torre%NULL%1,                     Marco%Ripa%NULL%1,                     Diana%Canetti%NULL%1,                     Chiara%Oltolini%NULL%1,                     Barbara%Castiglioni%NULL%1,                     Chiara%Tassan Din%NULL%1,                     Nicola%Boffini%NULL%1,                     Alessandro%Tomelleri%NULL%1,                     Nicola%Farina%NULL%1,                     Annalisa%Ruggeri%NULL%0,                     Patrizia%Rovere-Querini%NULL%0,                     Giuseppe%Di Lucca%NULL%1,                     Sabina%Martinenghi%NULL%1,                     Raffaella%Scotti%NULL%1,                     Moreno%Tresoldi%NULL%0,                     Fabio%Ciceri%NULL%1,                     Giovanni%Landoni%NULL%0,                     Alberto%Zangrillo%NULL%0,                     Paolo%Scarpellini%NULL%0,                     Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                     Kim R.%Derespina%NULL%2,                     Betsy C.%Herold%NULL%1,                     David L.%Goldman%NULL%1,                     Margaret%Aldrich%NULL%1,                     Jacqueline%Weingarten%NULL%1,                     Henry M.%Ushay%NULL%2,                     Michael D.%Cabana%NULL%1,                     Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,             Di%Wu%xref no email%0,             Wei%Guo%xref no email%0,             Yong%Cao%xref no email%0,             Da%Huang%xref no email%0,             Hongwu%Wang%xref no email%0,             Tao%Wang%xref no email%0,             Xiaoyun%Zhang%xref no email%0,             Huilong%Chen%xref no email%0,             Haijing%Yu%xref no email%0,             Xiaoping%Zhang%xref no email%0,             Minxia%Zhang%xref no email%0,             Shiji%Wu%xref no email%0,             Jianxin%Song%xref no email%0,             Tao%Chen%xref no email%0,             Meifang%Han%xref no email%0,             Shusheng%Li%xref no email%0,             Xiaoping%Luo%xref no email%0,             Jianping%Zhao%xref no email%0,             Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                     Zhen-Zhen%Zhang%NULL%1,                     Yao-Kai%Chen%NULL%1,                     Quan-Xin%Long%NULL%1,                     Wen-Guang%Tian%NULL%1,                     Hai-Jun%Deng%NULL%1,                     Jie-Li%Hu%NULL%1,                     Xian-Xiang%Zhang%NULL%1,                     NULL%Pu-Liao%NULL%1,                     Jiang-Lin%Xiang%NULL%1,                     Dao-Xin%Wang%NULL%1,                     Peng%Hu%NULL%0,                     Fa-Chun%Zhou%NULL%1,                     Zhi-Jie%Li%NULL%1,                     Hong-Mei%Xu%NULL%1,                     Xue-Fei%Cai%NULL%1,                     De-Qiang%Wang%NULL%1,                     Yuan%Hu%NULL%1,                     Ni%Tang%NULL%1,                     Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                     Gui-Cheng%Wu%wuguic@hotmail.com%1,                     Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%0,                     Xuan%Dong%NULL%0,                     Jieming%Qu%NULL%0,                     Fengyun%Gong%NULL%0,                     Yang%Han%NULL%0,                     Yang%Qiu%NULL%0,                     Jingli%Wang%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                     Zhencang%Zheng%NULL%1,                     Chao%Zhang%NULL%1,                     Xijiang%Zhang%NULL%1,                     Huijuan%Wu%NULL%1,                     Jingdong%Wang%NULL%1,                     Shuwei%Wang%NULL%1,                     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                     Wenhua%Liang%NULL%0,                     Mei%Jiang%NULL%0,                     Weijie%Guan%NULL%0,                     Chen%Zhan%NULL%0,                     Tao%Wang%NULL%0,                     Chunli%Tang%NULL%0,                     Ling%Sang%NULL%0,                     Jiaxing%Liu%NULL%0,                     Zhengyi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chunliang%Lei%NULL%0,                     Yixiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Yahua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jianming%Wang%NULL%0,                     Jiyang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhijian%Zheng%NULL%0,                     Shaoqin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Changjiang%Ye%NULL%0,                     Shaoyong%Zhu%NULL%0,                     Xiaoqing%Liu%NULL%0,                     Linling%Cheng%NULL%0,                     Feng%Ye%NULL%0,                     Jinping%Zheng%NULL%0,                     Nuofu%Zhang%NULL%0,                     Yimin%Li%NULL%0,                     Jianxing%He%NULL%0,                     Shiyue%Li%lishiyue@188.com%0,                     Nanshan%Zhong%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                     Wei%An%NULL%2,                     Wei%An%NULL%0,                     Fei%Xia%NULL%0,                     Ping%Yang%NULL%1,                     Kuangyu%Li%NULL%1,                     Qin%Zhou%NULL%1,                     Shasha%Fang%NULL%1,                     Yaling%Liao%NULL%1,                     Xin%Xu%NULL%0,                     Jialin%Liu%NULL%1,                     Shiguo%Liu%NULL%1,                     Tao%Qin%NULL%1,                     Jianjun%Zhang%NULL%1,                     Wei%Wei%NULL%0,                     Yafang%Zhang%NULL%1,                     Guowei%Zhang%NULL%1,                     Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                     Nan%Yang%NULL%2,                     Nan%Yang%NULL%0,                     Yanqiu%Wei%NULL%1,                     Huihui%Yue%NULL%1,                     Fengqin%Zhang%NULL%1,                     Jianping%Zhao%NULL%0,                     Li%He%NULL%1,                     Gaohong%Sheng%NULL%2,                     Gaohong%Sheng%NULL%0,                     Peng%Chen%NULL%1,                     Gang%Li%NULL%0,                     Sisi%Wu%NULL%1,                     Bo%Zhang%NULL%0,                     Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                     Xiaoping%Miao%miaoxp@hust.edu.cn%1,                     Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                     Wenhua%Liu%liuwh_2013@126.com%1,                     Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                     Susannah%Ahern%NULL%1,                     Scott C.%Bell%NULL%1,                     Keith%Brownlee%NULL%1,                     Pierre-Régis%Burgel%NULL%1,                     Cass%Byrnes%NULL%1,                     Harriet%Corvol%NULL%1,                     Stephanie Y.%Cheng%NULL%1,                     Alexander%Elbert%NULL%1,                     Albert%Faro%NULL%1,                     Christopher H.%Goss%NULL%1,                     Vincent%Gulmans%NULL%1,                     Bruce C.%Marshall%NULL%1,                     Edward%McKone%NULL%1,                     Peter G.%Middleton%NULL%1,                     Rasa%Ruseckaite%NULL%1,                     Anne L.%Stephenson%NULL%1,                     Siobhán B%Carr%NULL%1,                     David%Reid%NULL%1,                     Peter%Wark%NULL%1,                     Géraldine%Daneau%NULL%1,                     Véronique%Boussaud%NULL%1,                     Graziella%Brinchault%NULL%1,                     Emmanuelle%Coirier-Duet%NULL%1,                     Jean-Christophe%Dubus%NULL%1,                     Dominique%Grenet%NULL%1,                     Sandra de%Miranda%NULL%1,                     Laurence%Beaumont%NULL%1,                     Reem%Kanaan%NULL%1,                     Muriel%Lauraens%NULL%1,                     Clémence%Martin%NULL%1,                     Marie%Mittaine%NULL%1,                     Anne%Prévotat%NULL%1,                     Martine%Reynaud-Gaubert%NULL%1,                     Isabelle%Sermet-Gaudelus%NULL%1,                     Aurelie%Tatopoulos%NULL%1,                     Lutz%Nährlich%NULL%1,                     Barry%Plant%NULL%1,                     Cedric%Gunaratnam%NULL%1,                     Abaigeal%Jackson%NULL%1,                     Karin M. de Winter-de%Groot%NULL%1,                     Bart%Luijk%NULL%1,                     Geertjan%Wesseling%NULL%1,                     Mark%Allenby%NULL%1,                     Jamie%Duckers%NULL%1,                     Elaine%Gunn%NULL%1,                     Andrew%Jones%NULL%1,                     Robert Ian%Ketchell%NULL%1,                     Susan L.%Madge%NULL%1,                     Anirban%Maitra%NULL%1,                     Ghulam%Mujtaba%NULL%1,                     Helen%Rodgers%NULL%1,                     Nadia%Shafi%NULL%1,                     Nicholas%Simmonds%NULL%1,                     Kevin%Southern%NULL%1,                     Danie%Watson%NULL%1,                     Samar%Rizvi%NULL%1,                     Julie%Seguin%NULL%1,                     Janet%Garbarz%NULL%1,                     Kristen%Rosamilia%NULL%1,                     Maria%Berdella%NULL%1,                     Jerry A.%Nick%NULL%1,                     Richard%Belkin%NULL%1,                     Diana%Gilmore%NULL%1,                     Kim%McBennett%NULL%1,                     Rita%Padoan%NULL%1,                     Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                     Matthew R%Baldwin%NULL%0,                     Darryl%Abrams%NULL%1,                     Samuel D%Jacobson%NULL%1,                     Benjamin J%Meyer%NULL%1,                     Elizabeth M%Balough%NULL%1,                     Justin G%Aaron%NULL%1,                     Jan%Claassen%NULL%0,                     LeRoy E%Rabbani%NULL%1,                     Jonathan%Hastie%NULL%1,                     Beth R%Hochman%NULL%1,                     John%Salazar-Schicchi%NULL%1,                     Natalie H%Yip%NULL%1,                     Daniel%Brodie%NULL%0,                     Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                     Xin%Zhang%NULL%0,                     Jianguo%Xia%NULL%1,                     Tao%Zhang%NULL%1,                     Yalei%Shang%NULL%1,                     Renjun%Huang%NULL%1,                     Rongrong%Liu%NULL%1,                     Dan%Wang%NULL%0,                     Min%Li%105549156@qq.com%1,                     Jinping%Wu%czwjp@sina.com%1,                     Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                     Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2527,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2556,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2585,7 +2654,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2614,7 +2683,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2643,7 +2712,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2672,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2701,7 +2770,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2730,7 +2799,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2759,7 +2828,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2788,7 +2857,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2817,7 +2886,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2846,7 +2915,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2875,7 +2944,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2904,7 +2973,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2933,7 +3002,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -2962,7 +3031,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -2991,7 +3060,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3020,7 +3089,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -3049,7 +3118,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3078,7 +3147,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3107,7 +3176,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -3136,7 +3205,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="716">
   <si>
     <t>Doi</t>
   </si>
@@ -2182,6 +2182,345 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                     Xin%Zhang%NULL%0,                     Jianguo%Xia%NULL%1,                     Tao%Zhang%NULL%1,                     Yalei%Shang%NULL%1,                     Renjun%Huang%NULL%1,                     Rongrong%Liu%NULL%1,                     Dan%Wang%NULL%0,                     Min%Li%105549156@qq.com%1,                     Jinping%Wu%czwjp@sina.com%1,                     Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                     Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                      Shiva%Samavat%NULL%1,                      Behdad%Behnam%NULL%1,                      Mehran%Arab-Ahmadi%NULL%1,                      Mohsen%Nafar%NULL%1,                      Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                      Elisa%Delbarba%NULL%2,                      Chiara%Manenti%NULL%2,                      Laura%Econimo%NULL%2,                      Francesca%Valerio%NULL%2,                      Alessandra%Pola%NULL%2,                      Camilla%Maffei%NULL%2,                      Stefano%Possenti%NULL%2,                      Nicole%Zambetti%NULL%1,                      Marianna%Moscato%NULL%1,                      Margherita%Venturini%NULL%1,                      Stefania%Affatato%NULL%2,                      Mario%Gaggiotti%NULL%2,                      Nicola%Bossini%NULL%2,                      Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                      Elisa%Delbarba%NULL%0,                      Chiara%Manenti%NULL%0,                      Laura%Econimo%NULL%0,                      Francesca%Valerio%NULL%0,                      Alessandra%Pola%NULL%0,                      Camilla%Maffei%NULL%0,                      Stefano%Possenti%NULL%0,                      Bernardo%Lucca%NULL%1,                      Roberta%Cortinovis%NULL%1,                      Vincenzo%Terlizzi%NULL%1,                      Mattia%Zappa%NULL%1,                      Chiara%Saccà%NULL%1,                      Elena%Pezzini%NULL%1,                      Eleonora%Calcaterra%NULL%1,                      Paola%Piarulli%NULL%1,                      Alice%Guerini%NULL%1,                      Francesca%Boni%NULL%1,                      Agnese%Gallico%NULL%1,                      Alberto%Mucchetti%NULL%1,                      Stefania%Affatato%NULL%0,                      Sergio%Bove%NULL%1,                      Martina%Bracchi%NULL%1,                      Ester Maria%Costantino%NULL%1,                      Roberto%Zubani%NULL%1,                      Corrado%Camerini%NULL%1,                      Paola%Gaggia%NULL%1,                      Ezio%Movilli%NULL%1,                      Nicola%Bossini%NULL%0,                      Mario%Gaggiotti%NULL%0,                      Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                      Jordi%Rello%NULL%1,                      Sofia%Tejada%NULL%1,                      Alejandro%Martín%NULL%1,                      Goiatz%Balziskueta%NULL%1,                      Cristina%Vinuesa%NULL%1,                      Borja%Fernández-Miret%NULL%1,                      Ana%Villagra%NULL%1,                      Ana%Vallejo%NULL%1,                      Ana%San Sebastián%NULL%1,                      Sara%Cabañes%NULL%1,                      Sebastián%Iribarren%NULL%1,                      Fernando%Fonseca%NULL%1,                      Javier%Maynar%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                      Denise J%McCulloch%NULL%2,                      Denise J%McCulloch%NULL%0,                      Vidya%Atluri%NULL%1,                      Michela%Blain%NULL%1,                      Sarah A%McGuffin%NULL%1,                      Arun K%Nalla%NULL%1,                      Meei-Li%Huang%NULL%1,                      Alex L%Greninger%NULL%1,                      Keith R%Jerome%NULL%1,                      Seth A%Cohen%NULL%1,                      Santiago%Neme%NULL%1,                      Margaret L%Green%NULL%1,                      Helen Y%Chu%NULL%1,                      H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                      Timothy%Mazzuchelli%NULL%1,                      Elia%Lo Priore%NULL%1,                      Carlo%Balmelli%NULL%1,                      Michael%Llamas%NULL%1,                      Micol%Pallanza%NULL%1,                      Luigia%Elzi%NULL%1,                      Vera%Consonni%NULL%1,                      Pierpaolo%Trimboli%NULL%1,                      Valentina%Forni-Ogna%NULL%1,                      Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                    Deliang%Huang%coreGivesNoEmail%0,                    Hong%Yu%coreGivesNoEmail%0,                    Jun%Chen%coreGivesNoEmail%0,                    Lei%Liu%coreGivesNoEmail%0,                    National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                    Pengcheng%Ou%coreGivesNoEmail%0,                    Qing%He%coreGivesNoEmail%0,                    Qingxian%Cai%coreGivesNoEmail%0,                    Rossaint%J%coreGivesNoEmail%0,                    Yang%Fu%coreGivesNoEmail%0,                    Yiming%Zhang%coreGivesNoEmail%0,                    Yinan%Su%coreGivesNoEmail%0,                    Zhang%Xia%coreGivesNoEmail%0,                    Zhenghua%Ma%coreGivesNoEmail%0,                    Zhibin%Zhu%coreGivesNoEmail%0,                    Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                      Yeming%Wang%NULL%0,                      Danning%Wen%NULL%1,                      Wen%Liu%NULL%1,                      Jingli%Wang%NULL%0,                      Guohui%Fan%NULL%0,                      Lianguo%Ruan%NULL%1,                      Bin%Song%NULL%0,                      Yanping%Cai%NULL%1,                      Ming%Wei%NULL%1,                      Xingwang%Li%NULL%0,                      Jiaan%Xia%NULL%0,                      Nanshan%Chen%NULL%1,                      Jie%Xiang%NULL%0,                      Ting%Yu%NULL%0,                      Tao%Bai%NULL%0,                      Xuelei%Xie%NULL%0,                      Li%Zhang%NULL%0,                      Caihong%Li%NULL%1,                      Ye%Yuan%NULL%1,                      Hua%Chen%NULL%0,                      Huadong%Li%NULL%1,                      Hanping%Huang%NULL%1,                      Shengjing%Tu%NULL%1,                      Fengyun%Gong%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Chongya%Dong%NULL%1,                      Fei%Zhou%NULL%1,                      Xiaoying%Gu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Zhibo%Liu%NULL%0,                      Yi%Zhang%NULL%0,                      Hui%Li%NULL%0,                      Lianhan%Shang%NULL%1,                      Ke%Wang%NULL%0,                      Kunxia%Li%NULL%1,                      Xia%Zhou%NULL%1,                      Xuan%Dong%NULL%0,                      Zhaohui%Qu%NULL%1,                      Sixia%Lu%NULL%1,                      Xujuan%Hu%NULL%1,                      Shunan%Ruan%NULL%1,                      Shanshan%Luo%NULL%1,                      Jing%Wu%NULL%0,                      Lu%Peng%NULL%1,                      Fang%Cheng%NULL%0,                      Lihong%Pan%NULL%1,                      Jun%Zou%NULL%1,                      Chunmin%Jia%NULL%1,                      Juan%Wang%NULL%1,                      Xia%Liu%NULL%1,                      Shuzhen%Wang%NULL%1,                      Xudong%Wu%NULL%0,                      Qin%Ge%NULL%1,                      Jing%He%NULL%1,                      Haiyan%Zhan%NULL%1,                      Fang%Qiu%NULL%1,                      Li%Guo%NULL%0,                      Chaolin%Huang%NULL%1,                      Thomas%Jaki%NULL%1,                      Frederick G.%Hayden%NULL%1,                      Peter W.%Horby%NULL%1,                      Dingyu%Zhang%NULL%1,                      Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                      Wenlin%Cheng%NULL%0,                      Lei%Yu%NULL%0,                      Ya-Kun%Liu%NULL%0,                      Xiaoyong%Hu%NULL%0,                      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                      Jia%Wei%NULL%1,                      Liang%Zou%NULL%1,                      Tiebin%Jiang%NULL%1,                      Gaoxiang%Wang%NULL%1,                      Liting%Chen%NULL%1,                      Liang%Huang%NULL%1,                      Fankai%Meng%NULL%1,                      Lifang%Huang%NULL%1,                      Na%Wang%NULL%1,                      Xiaoxi%Zhou%NULL%1,                      Hui%Luo%NULL%1,                      Zekai%Mao%NULL%1,                      Xing%Chen%NULL%1,                      Jungang%Xie%NULL%0,                      Jing%Liu%NULL%0,                      Hui%Cheng%NULL%1,                      Jianping%Zhao%NULL%0,                      Gang%Huang%NULL%1,                      Wei%Wang%NULL%0,                      Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                      Giacomo%De Luca%NULL%1,                      Corrado%Campochiaro%NULL%1,                      Emanuel%Della-Torre%NULL%1,                      Marco%Ripa%NULL%1,                      Diana%Canetti%NULL%1,                      Chiara%Oltolini%NULL%1,                      Barbara%Castiglioni%NULL%1,                      Chiara%Tassan Din%NULL%1,                      Nicola%Boffini%NULL%1,                      Alessandro%Tomelleri%NULL%1,                      Nicola%Farina%NULL%1,                      Annalisa%Ruggeri%NULL%0,                      Patrizia%Rovere-Querini%NULL%0,                      Giuseppe%Di Lucca%NULL%1,                      Sabina%Martinenghi%NULL%1,                      Raffaella%Scotti%NULL%1,                      Moreno%Tresoldi%NULL%0,                      Fabio%Ciceri%NULL%1,                      Giovanni%Landoni%NULL%0,                      Alberto%Zangrillo%NULL%0,                      Paolo%Scarpellini%NULL%0,                      Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                      Kim R.%Derespina%NULL%2,                      Betsy C.%Herold%NULL%1,                      David L.%Goldman%NULL%1,                      Margaret%Aldrich%NULL%1,                      Jacqueline%Weingarten%NULL%1,                      Henry M.%Ushay%NULL%2,                      Michael D.%Cabana%NULL%1,                      Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Clinical Investigation</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                      Zhen-Zhen%Zhang%NULL%1,                      Yao-Kai%Chen%NULL%1,                      Quan-Xin%Long%NULL%1,                      Wen-Guang%Tian%NULL%1,                      Hai-Jun%Deng%NULL%1,                      Jie-Li%Hu%NULL%1,                      Xian-Xiang%Zhang%NULL%1,                      NULL%Pu-Liao%NULL%1,                      Jiang-Lin%Xiang%NULL%1,                      Dao-Xin%Wang%NULL%1,                      Peng%Hu%NULL%0,                      Fa-Chun%Zhou%NULL%1,                      Zhi-Jie%Li%NULL%1,                      Hong-Mei%Xu%NULL%1,                      Xue-Fei%Cai%NULL%1,                      De-Qiang%Wang%NULL%1,                      Yuan%Hu%NULL%1,                      Ni%Tang%NULL%1,                      Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                      Gui-Cheng%Wu%wuguic@hotmail.com%1,                      Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%0,                      Xuan%Dong%NULL%0,                      Jieming%Qu%NULL%0,                      Fengyun%Gong%NULL%0,                      Yang%Han%NULL%0,                      Yang%Qiu%NULL%0,                      Jingli%Wang%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                      Zhencang%Zheng%NULL%1,                      Chao%Zhang%NULL%1,                      Xijiang%Zhang%NULL%1,                      Huijuan%Wu%NULL%1,                      Jingdong%Wang%NULL%1,                      Shuwei%Wang%NULL%1,                      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                      Wenhua%Liang%NULL%0,                      Mei%Jiang%NULL%0,                      Weijie%Guan%NULL%0,                      Chen%Zhan%NULL%0,                      Tao%Wang%NULL%0,                      Chunli%Tang%NULL%0,                      Ling%Sang%NULL%0,                      Jiaxing%Liu%NULL%0,                      Zhengyi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chunliang%Lei%NULL%0,                      Yixiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Yahua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jianming%Wang%NULL%0,                      Jiyang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhijian%Zheng%NULL%0,                      Shaoqin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Changjiang%Ye%NULL%0,                      Shaoyong%Zhu%NULL%0,                      Xiaoqing%Liu%NULL%0,                      Linling%Cheng%NULL%0,                      Feng%Ye%NULL%0,                      Jinping%Zheng%NULL%0,                      Nuofu%Zhang%NULL%0,                      Yimin%Li%NULL%0,                      Jianxing%He%NULL%0,                      Shiyue%Li%lishiyue@188.com%0,                      Nanshan%Zhong%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                      Wei%An%NULL%2,                      Wei%An%NULL%0,                      Fei%Xia%NULL%0,                      Ping%Yang%NULL%1,                      Kuangyu%Li%NULL%1,                      Qin%Zhou%NULL%1,                      Shasha%Fang%NULL%1,                      Yaling%Liao%NULL%1,                      Xin%Xu%NULL%0,                      Jialin%Liu%NULL%1,                      Shiguo%Liu%NULL%1,                      Tao%Qin%NULL%1,                      Jianjun%Zhang%NULL%1,                      Wei%Wei%NULL%0,                      Yafang%Zhang%NULL%1,                      Guowei%Zhang%NULL%1,                      Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                      Nan%Yang%NULL%2,                      Nan%Yang%NULL%0,                      Yanqiu%Wei%NULL%1,                      Huihui%Yue%NULL%1,                      Fengqin%Zhang%NULL%1,                      Jianping%Zhao%NULL%0,                      Li%He%NULL%1,                      Gaohong%Sheng%NULL%2,                      Gaohong%Sheng%NULL%0,                      Peng%Chen%NULL%1,                      Gang%Li%NULL%0,                      Sisi%Wu%NULL%1,                      Bo%Zhang%NULL%0,                      Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                      Xiaoping%Miao%miaoxp@hust.edu.cn%1,                      Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                      Wenhua%Liu%liuwh_2013@126.com%1,                      Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                      Susannah%Ahern%NULL%1,                      Scott C.%Bell%NULL%1,                      Keith%Brownlee%NULL%1,                      Pierre-Régis%Burgel%NULL%1,                      Cass%Byrnes%NULL%1,                      Harriet%Corvol%NULL%1,                      Stephanie Y.%Cheng%NULL%1,                      Alexander%Elbert%NULL%1,                      Albert%Faro%NULL%1,                      Christopher H.%Goss%NULL%1,                      Vincent%Gulmans%NULL%1,                      Bruce C.%Marshall%NULL%1,                      Edward%McKone%NULL%1,                      Peter G.%Middleton%NULL%1,                      Rasa%Ruseckaite%NULL%1,                      Anne L.%Stephenson%NULL%1,                      Siobhán B%Carr%NULL%1,                      David%Reid%NULL%1,                      Peter%Wark%NULL%1,                      Géraldine%Daneau%NULL%1,                      Véronique%Boussaud%NULL%1,                      Graziella%Brinchault%NULL%1,                      Emmanuelle%Coirier-Duet%NULL%1,                      Jean-Christophe%Dubus%NULL%1,                      Dominique%Grenet%NULL%1,                      Sandra de%Miranda%NULL%1,                      Laurence%Beaumont%NULL%1,                      Reem%Kanaan%NULL%1,                      Muriel%Lauraens%NULL%1,                      Clémence%Martin%NULL%1,                      Marie%Mittaine%NULL%1,                      Anne%Prévotat%NULL%1,                      Martine%Reynaud-Gaubert%NULL%1,                      Isabelle%Sermet-Gaudelus%NULL%1,                      Aurelie%Tatopoulos%NULL%1,                      Lutz%Nährlich%NULL%1,                      Barry%Plant%NULL%1,                      Cedric%Gunaratnam%NULL%1,                      Abaigeal%Jackson%NULL%1,                      Karin M. de Winter-de%Groot%NULL%1,                      Bart%Luijk%NULL%1,                      Geertjan%Wesseling%NULL%1,                      Mark%Allenby%NULL%1,                      Jamie%Duckers%NULL%1,                      Elaine%Gunn%NULL%1,                      Andrew%Jones%NULL%1,                      Robert Ian%Ketchell%NULL%1,                      Susan L.%Madge%NULL%1,                      Anirban%Maitra%NULL%1,                      Ghulam%Mujtaba%NULL%1,                      Helen%Rodgers%NULL%1,                      Nadia%Shafi%NULL%1,                      Nicholas%Simmonds%NULL%1,                      Kevin%Southern%NULL%1,                      Danie%Watson%NULL%1,                      Samar%Rizvi%NULL%1,                      Julie%Seguin%NULL%1,                      Janet%Garbarz%NULL%1,                      Kristen%Rosamilia%NULL%1,                      Maria%Berdella%NULL%1,                      Jerry A.%Nick%NULL%1,                      Richard%Belkin%NULL%1,                      Diana%Gilmore%NULL%1,                      Kim%McBennett%NULL%1,                      Rita%Padoan%NULL%1,                      Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                      Matthew R%Baldwin%NULL%0,                      Darryl%Abrams%NULL%1,                      Samuel D%Jacobson%NULL%1,                      Benjamin J%Meyer%NULL%1,                      Elizabeth M%Balough%NULL%1,                      Justin G%Aaron%NULL%1,                      Jan%Claassen%NULL%0,                      LeRoy E%Rabbani%NULL%1,                      Jonathan%Hastie%NULL%1,                      Beth R%Hochman%NULL%1,                      John%Salazar-Schicchi%NULL%1,                      Natalie H%Yip%NULL%1,                      Daniel%Brodie%NULL%0,                      Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                      Xin%Zhang%NULL%0,                      Jianguo%Xia%NULL%1,                      Tao%Zhang%NULL%1,                      Yalei%Shang%NULL%1,                      Renjun%Huang%NULL%1,                      Rongrong%Liu%NULL%1,                      Dan%Wang%NULL%0,                      Min%Li%105549156@qq.com%1,                      Jinping%Wu%czwjp@sina.com%1,                      Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                      Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                       Shiva%Samavat%NULL%1,                       Behdad%Behnam%NULL%1,                       Mehran%Arab-Ahmadi%NULL%1,                       Mohsen%Nafar%NULL%1,                       Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                       Elisa%Delbarba%NULL%2,                       Chiara%Manenti%NULL%2,                       Laura%Econimo%NULL%2,                       Francesca%Valerio%NULL%2,                       Alessandra%Pola%NULL%2,                       Camilla%Maffei%NULL%2,                       Stefano%Possenti%NULL%2,                       Nicole%Zambetti%NULL%1,                       Marianna%Moscato%NULL%1,                       Margherita%Venturini%NULL%1,                       Stefania%Affatato%NULL%2,                       Mario%Gaggiotti%NULL%2,                       Nicola%Bossini%NULL%2,                       Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                       Elisa%Delbarba%NULL%0,                       Chiara%Manenti%NULL%0,                       Laura%Econimo%NULL%0,                       Francesca%Valerio%NULL%0,                       Alessandra%Pola%NULL%0,                       Camilla%Maffei%NULL%0,                       Stefano%Possenti%NULL%0,                       Bernardo%Lucca%NULL%1,                       Roberta%Cortinovis%NULL%1,                       Vincenzo%Terlizzi%NULL%1,                       Mattia%Zappa%NULL%1,                       Chiara%Saccà%NULL%1,                       Elena%Pezzini%NULL%1,                       Eleonora%Calcaterra%NULL%1,                       Paola%Piarulli%NULL%1,                       Alice%Guerini%NULL%1,                       Francesca%Boni%NULL%1,                       Agnese%Gallico%NULL%1,                       Alberto%Mucchetti%NULL%1,                       Stefania%Affatato%NULL%0,                       Sergio%Bove%NULL%1,                       Martina%Bracchi%NULL%1,                       Ester Maria%Costantino%NULL%1,                       Roberto%Zubani%NULL%1,                       Corrado%Camerini%NULL%1,                       Paola%Gaggia%NULL%1,                       Ezio%Movilli%NULL%1,                       Nicola%Bossini%NULL%0,                       Mario%Gaggiotti%NULL%0,                       Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                       Jordi%Rello%NULL%1,                       Sofia%Tejada%NULL%1,                       Alejandro%Martín%NULL%1,                       Goiatz%Balziskueta%NULL%1,                       Cristina%Vinuesa%NULL%1,                       Borja%Fernández-Miret%NULL%1,                       Ana%Villagra%NULL%1,                       Ana%Vallejo%NULL%1,                       Ana%San Sebastián%NULL%1,                       Sara%Cabañes%NULL%1,                       Sebastián%Iribarren%NULL%1,                       Fernando%Fonseca%NULL%1,                       Javier%Maynar%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                       Denise J%McCulloch%NULL%2,                       Denise J%McCulloch%NULL%0,                       Vidya%Atluri%NULL%1,                       Michela%Blain%NULL%1,                       Sarah A%McGuffin%NULL%1,                       Arun K%Nalla%NULL%1,                       Meei-Li%Huang%NULL%1,                       Alex L%Greninger%NULL%1,                       Keith R%Jerome%NULL%1,                       Seth A%Cohen%NULL%1,                       Santiago%Neme%NULL%1,                       Margaret L%Green%NULL%1,                       Helen Y%Chu%NULL%1,                       H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                       Timothy%Mazzuchelli%NULL%1,                       Elia%Lo Priore%NULL%1,                       Carlo%Balmelli%NULL%1,                       Michael%Llamas%NULL%1,                       Micol%Pallanza%NULL%1,                       Luigia%Elzi%NULL%1,                       Vera%Consonni%NULL%1,                       Pierpaolo%Trimboli%NULL%1,                       Valentina%Forni-Ogna%NULL%1,                       Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                     Deliang%Huang%coreGivesNoEmail%0,                     Hong%Yu%coreGivesNoEmail%0,                     Jun%Chen%coreGivesNoEmail%0,                     Lei%Liu%coreGivesNoEmail%0,                     National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                     Pengcheng%Ou%coreGivesNoEmail%0,                     Qing%He%coreGivesNoEmail%0,                     Qingxian%Cai%coreGivesNoEmail%0,                     Rossaint%J%coreGivesNoEmail%0,                     Yang%Fu%coreGivesNoEmail%0,                     Yiming%Zhang%coreGivesNoEmail%0,                     Yinan%Su%coreGivesNoEmail%0,                     Zhang%Xia%coreGivesNoEmail%0,                     Zhenghua%Ma%coreGivesNoEmail%0,                     Zhibin%Zhu%coreGivesNoEmail%0,                     Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                       Yeming%Wang%NULL%0,                       Danning%Wen%NULL%1,                       Wen%Liu%NULL%1,                       Jingli%Wang%NULL%0,                       Guohui%Fan%NULL%0,                       Lianguo%Ruan%NULL%1,                       Bin%Song%NULL%0,                       Yanping%Cai%NULL%1,                       Ming%Wei%NULL%1,                       Xingwang%Li%NULL%0,                       Jiaan%Xia%NULL%0,                       Nanshan%Chen%NULL%1,                       Jie%Xiang%NULL%0,                       Ting%Yu%NULL%0,                       Tao%Bai%NULL%0,                       Xuelei%Xie%NULL%0,                       Li%Zhang%NULL%0,                       Caihong%Li%NULL%1,                       Ye%Yuan%NULL%1,                       Hua%Chen%NULL%0,                       Huadong%Li%NULL%1,                       Hanping%Huang%NULL%1,                       Shengjing%Tu%NULL%1,                       Fengyun%Gong%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Chongya%Dong%NULL%1,                       Fei%Zhou%NULL%1,                       Xiaoying%Gu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Zhibo%Liu%NULL%0,                       Yi%Zhang%NULL%0,                       Hui%Li%NULL%0,                       Lianhan%Shang%NULL%1,                       Ke%Wang%NULL%0,                       Kunxia%Li%NULL%1,                       Xia%Zhou%NULL%1,                       Xuan%Dong%NULL%0,                       Zhaohui%Qu%NULL%1,                       Sixia%Lu%NULL%1,                       Xujuan%Hu%NULL%1,                       Shunan%Ruan%NULL%1,                       Shanshan%Luo%NULL%1,                       Jing%Wu%NULL%0,                       Lu%Peng%NULL%1,                       Fang%Cheng%NULL%0,                       Lihong%Pan%NULL%1,                       Jun%Zou%NULL%1,                       Chunmin%Jia%NULL%1,                       Juan%Wang%NULL%1,                       Xia%Liu%NULL%1,                       Shuzhen%Wang%NULL%1,                       Xudong%Wu%NULL%0,                       Qin%Ge%NULL%1,                       Jing%He%NULL%1,                       Haiyan%Zhan%NULL%1,                       Fang%Qiu%NULL%1,                       Li%Guo%NULL%0,                       Chaolin%Huang%NULL%1,                       Thomas%Jaki%NULL%1,                       Frederick G.%Hayden%NULL%1,                       Peter W.%Horby%NULL%1,                       Dingyu%Zhang%NULL%1,                       Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                       Wenlin%Cheng%NULL%0,                       Lei%Yu%NULL%0,                       Ya-Kun%Liu%NULL%0,                       Xiaoyong%Hu%NULL%0,                       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                       Jia%Wei%NULL%1,                       Liang%Zou%NULL%1,                       Tiebin%Jiang%NULL%1,                       Gaoxiang%Wang%NULL%1,                       Liting%Chen%NULL%1,                       Liang%Huang%NULL%1,                       Fankai%Meng%NULL%1,                       Lifang%Huang%NULL%1,                       Na%Wang%NULL%1,                       Xiaoxi%Zhou%NULL%1,                       Hui%Luo%NULL%1,                       Zekai%Mao%NULL%1,                       Xing%Chen%NULL%1,                       Jungang%Xie%NULL%0,                       Jing%Liu%NULL%0,                       Hui%Cheng%NULL%1,                       Jianping%Zhao%NULL%0,                       Gang%Huang%NULL%1,                       Wei%Wang%NULL%0,                       Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                       Giacomo%De Luca%NULL%1,                       Corrado%Campochiaro%NULL%1,                       Emanuel%Della-Torre%NULL%1,                       Marco%Ripa%NULL%1,                       Diana%Canetti%NULL%1,                       Chiara%Oltolini%NULL%1,                       Barbara%Castiglioni%NULL%1,                       Chiara%Tassan Din%NULL%1,                       Nicola%Boffini%NULL%1,                       Alessandro%Tomelleri%NULL%1,                       Nicola%Farina%NULL%1,                       Annalisa%Ruggeri%NULL%0,                       Patrizia%Rovere-Querini%NULL%0,                       Giuseppe%Di Lucca%NULL%1,                       Sabina%Martinenghi%NULL%1,                       Raffaella%Scotti%NULL%1,                       Moreno%Tresoldi%NULL%0,                       Fabio%Ciceri%NULL%1,                       Giovanni%Landoni%NULL%0,                       Alberto%Zangrillo%NULL%0,                       Paolo%Scarpellini%NULL%0,                       Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                       Kim R.%Derespina%NULL%2,                       Betsy C.%Herold%NULL%1,                       David L.%Goldman%NULL%1,                       Margaret%Aldrich%NULL%1,                       Jacqueline%Weingarten%NULL%1,                       Henry M.%Ushay%NULL%2,                       Michael D.%Cabana%NULL%1,                       Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                       Zhen-Zhen%Zhang%NULL%1,                       Yao-Kai%Chen%NULL%1,                       Quan-Xin%Long%NULL%1,                       Wen-Guang%Tian%NULL%1,                       Hai-Jun%Deng%NULL%1,                       Jie-Li%Hu%NULL%1,                       Xian-Xiang%Zhang%NULL%1,                       NULL%Pu-Liao%NULL%1,                       Jiang-Lin%Xiang%NULL%1,                       Dao-Xin%Wang%NULL%1,                       Peng%Hu%NULL%0,                       Fa-Chun%Zhou%NULL%1,                       Zhi-Jie%Li%NULL%1,                       Hong-Mei%Xu%NULL%1,                       Xue-Fei%Cai%NULL%1,                       De-Qiang%Wang%NULL%1,                       Yuan%Hu%NULL%1,                       Ni%Tang%NULL%1,                       Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                       Gui-Cheng%Wu%wuguic@hotmail.com%1,                       Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%0,                       Xuan%Dong%NULL%0,                       Jieming%Qu%NULL%0,                       Fengyun%Gong%NULL%0,                       Yang%Han%NULL%0,                       Yang%Qiu%NULL%0,                       Jingli%Wang%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                       Zhencang%Zheng%NULL%1,                       Chao%Zhang%NULL%1,                       Xijiang%Zhang%NULL%1,                       Huijuan%Wu%NULL%1,                       Jingdong%Wang%NULL%1,                       Shuwei%Wang%NULL%1,                       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                       Wenhua%Liang%NULL%0,                       Mei%Jiang%NULL%0,                       Weijie%Guan%NULL%0,                       Chen%Zhan%NULL%0,                       Tao%Wang%NULL%0,                       Chunli%Tang%NULL%0,                       Ling%Sang%NULL%0,                       Jiaxing%Liu%NULL%0,                       Zhengyi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chunliang%Lei%NULL%0,                       Yixiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Yahua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jianming%Wang%NULL%0,                       Jiyang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhijian%Zheng%NULL%0,                       Shaoqin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Changjiang%Ye%NULL%0,                       Shaoyong%Zhu%NULL%0,                       Xiaoqing%Liu%NULL%0,                       Linling%Cheng%NULL%0,                       Feng%Ye%NULL%0,                       Jinping%Zheng%NULL%0,                       Nuofu%Zhang%NULL%0,                       Yimin%Li%NULL%0,                       Jianxing%He%NULL%0,                       Shiyue%Li%lishiyue@188.com%0,                       Nanshan%Zhong%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                       Wei%An%NULL%2,                       Wei%An%NULL%0,                       Fei%Xia%NULL%0,                       Ping%Yang%NULL%1,                       Kuangyu%Li%NULL%1,                       Qin%Zhou%NULL%1,                       Shasha%Fang%NULL%1,                       Yaling%Liao%NULL%1,                       Xin%Xu%NULL%0,                       Jialin%Liu%NULL%1,                       Shiguo%Liu%NULL%1,                       Tao%Qin%NULL%1,                       Jianjun%Zhang%NULL%1,                       Wei%Wei%NULL%0,                       Yafang%Zhang%NULL%1,                       Guowei%Zhang%NULL%1,                       Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                       Nan%Yang%NULL%2,                       Nan%Yang%NULL%0,                       Yanqiu%Wei%NULL%1,                       Huihui%Yue%NULL%1,                       Fengqin%Zhang%NULL%1,                       Jianping%Zhao%NULL%0,                       Li%He%NULL%1,                       Gaohong%Sheng%NULL%2,                       Gaohong%Sheng%NULL%0,                       Peng%Chen%NULL%1,                       Gang%Li%NULL%0,                       Sisi%Wu%NULL%1,                       Bo%Zhang%NULL%0,                       Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                       Xiaoping%Miao%miaoxp@hust.edu.cn%1,                       Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                       Wenhua%Liu%liuwh_2013@126.com%1,                       Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                       Susannah%Ahern%NULL%1,                       Scott C.%Bell%NULL%1,                       Keith%Brownlee%NULL%1,                       Pierre-Régis%Burgel%NULL%1,                       Cass%Byrnes%NULL%1,                       Harriet%Corvol%NULL%1,                       Stephanie Y.%Cheng%NULL%1,                       Alexander%Elbert%NULL%1,                       Albert%Faro%NULL%1,                       Christopher H.%Goss%NULL%1,                       Vincent%Gulmans%NULL%1,                       Bruce C.%Marshall%NULL%1,                       Edward%McKone%NULL%1,                       Peter G.%Middleton%NULL%1,                       Rasa%Ruseckaite%NULL%1,                       Anne L.%Stephenson%NULL%1,                       Siobhán B%Carr%NULL%1,                       David%Reid%NULL%1,                       Peter%Wark%NULL%1,                       Géraldine%Daneau%NULL%1,                       Véronique%Boussaud%NULL%1,                       Graziella%Brinchault%NULL%1,                       Emmanuelle%Coirier-Duet%NULL%1,                       Jean-Christophe%Dubus%NULL%1,                       Dominique%Grenet%NULL%1,                       Sandra de%Miranda%NULL%1,                       Laurence%Beaumont%NULL%1,                       Reem%Kanaan%NULL%1,                       Muriel%Lauraens%NULL%1,                       Clémence%Martin%NULL%1,                       Marie%Mittaine%NULL%1,                       Anne%Prévotat%NULL%1,                       Martine%Reynaud-Gaubert%NULL%1,                       Isabelle%Sermet-Gaudelus%NULL%1,                       Aurelie%Tatopoulos%NULL%1,                       Lutz%Nährlich%NULL%1,                       Barry%Plant%NULL%1,                       Cedric%Gunaratnam%NULL%1,                       Abaigeal%Jackson%NULL%1,                       Karin M. de Winter-de%Groot%NULL%1,                       Bart%Luijk%NULL%1,                       Geertjan%Wesseling%NULL%1,                       Mark%Allenby%NULL%1,                       Jamie%Duckers%NULL%1,                       Elaine%Gunn%NULL%1,                       Andrew%Jones%NULL%1,                       Robert Ian%Ketchell%NULL%1,                       Susan L.%Madge%NULL%1,                       Anirban%Maitra%NULL%1,                       Ghulam%Mujtaba%NULL%1,                       Helen%Rodgers%NULL%1,                       Nadia%Shafi%NULL%1,                       Nicholas%Simmonds%NULL%1,                       Kevin%Southern%NULL%1,                       Danie%Watson%NULL%1,                       Samar%Rizvi%NULL%1,                       Julie%Seguin%NULL%1,                       Janet%Garbarz%NULL%1,                       Kristen%Rosamilia%NULL%1,                       Maria%Berdella%NULL%1,                       Jerry A.%Nick%NULL%1,                       Richard%Belkin%NULL%1,                       Diana%Gilmore%NULL%1,                       Kim%McBennett%NULL%1,                       Rita%Padoan%NULL%1,                       Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                       Matthew R%Baldwin%NULL%0,                       Darryl%Abrams%NULL%1,                       Samuel D%Jacobson%NULL%1,                       Benjamin J%Meyer%NULL%1,                       Elizabeth M%Balough%NULL%1,                       Justin G%Aaron%NULL%1,                       Jan%Claassen%NULL%0,                       LeRoy E%Rabbani%NULL%1,                       Jonathan%Hastie%NULL%1,                       Beth R%Hochman%NULL%1,                       John%Salazar-Schicchi%NULL%1,                       Natalie H%Yip%NULL%1,                       Daniel%Brodie%NULL%0,                       Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                       Xin%Zhang%NULL%0,                       Jianguo%Xia%NULL%1,                       Tao%Zhang%NULL%1,                       Yalei%Shang%NULL%1,                       Renjun%Huang%NULL%1,                       Rongrong%Liu%NULL%1,                       Dan%Wang%NULL%0,                       Min%Li%105549156@qq.com%1,                       Jinping%Wu%czwjp@sina.com%1,                       Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                       Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                        Shiva%Samavat%NULL%1,                        Behdad%Behnam%NULL%1,                        Mehran%Arab-Ahmadi%NULL%1,                        Mohsen%Nafar%NULL%1,                        Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                        Elisa%Delbarba%NULL%2,                        Chiara%Manenti%NULL%2,                        Laura%Econimo%NULL%2,                        Francesca%Valerio%NULL%2,                        Alessandra%Pola%NULL%2,                        Camilla%Maffei%NULL%2,                        Stefano%Possenti%NULL%2,                        Nicole%Zambetti%NULL%1,                        Marianna%Moscato%NULL%1,                        Margherita%Venturini%NULL%1,                        Stefania%Affatato%NULL%2,                        Mario%Gaggiotti%NULL%2,                        Nicola%Bossini%NULL%2,                        Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                        Elisa%Delbarba%NULL%0,                        Chiara%Manenti%NULL%0,                        Laura%Econimo%NULL%0,                        Francesca%Valerio%NULL%0,                        Alessandra%Pola%NULL%0,                        Camilla%Maffei%NULL%0,                        Stefano%Possenti%NULL%0,                        Bernardo%Lucca%NULL%1,                        Roberta%Cortinovis%NULL%1,                        Vincenzo%Terlizzi%NULL%1,                        Mattia%Zappa%NULL%1,                        Chiara%Saccà%NULL%1,                        Elena%Pezzini%NULL%1,                        Eleonora%Calcaterra%NULL%1,                        Paola%Piarulli%NULL%1,                        Alice%Guerini%NULL%1,                        Francesca%Boni%NULL%1,                        Agnese%Gallico%NULL%1,                        Alberto%Mucchetti%NULL%1,                        Stefania%Affatato%NULL%0,                        Sergio%Bove%NULL%1,                        Martina%Bracchi%NULL%1,                        Ester Maria%Costantino%NULL%1,                        Roberto%Zubani%NULL%1,                        Corrado%Camerini%NULL%1,                        Paola%Gaggia%NULL%1,                        Ezio%Movilli%NULL%1,                        Nicola%Bossini%NULL%0,                        Mario%Gaggiotti%NULL%0,                        Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                        Jordi%Rello%NULL%1,                        Sofia%Tejada%NULL%1,                        Alejandro%Martín%NULL%1,                        Goiatz%Balziskueta%NULL%1,                        Cristina%Vinuesa%NULL%1,                        Borja%Fernández-Miret%NULL%1,                        Ana%Villagra%NULL%1,                        Ana%Vallejo%NULL%1,                        Ana%San Sebastián%NULL%1,                        Sara%Cabañes%NULL%1,                        Sebastián%Iribarren%NULL%1,                        Fernando%Fonseca%NULL%1,                        Javier%Maynar%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                        Denise J%McCulloch%NULL%2,                        Denise J%McCulloch%NULL%0,                        Vidya%Atluri%NULL%1,                        Michela%Blain%NULL%1,                        Sarah A%McGuffin%NULL%1,                        Arun K%Nalla%NULL%1,                        Meei-Li%Huang%NULL%1,                        Alex L%Greninger%NULL%1,                        Keith R%Jerome%NULL%1,                        Seth A%Cohen%NULL%1,                        Santiago%Neme%NULL%1,                        Margaret L%Green%NULL%1,                        Helen Y%Chu%NULL%1,                        H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                        Timothy%Mazzuchelli%NULL%1,                        Elia%Lo Priore%NULL%1,                        Carlo%Balmelli%NULL%1,                        Michael%Llamas%NULL%1,                        Micol%Pallanza%NULL%1,                        Luigia%Elzi%NULL%1,                        Vera%Consonni%NULL%1,                        Pierpaolo%Trimboli%NULL%1,                        Valentina%Forni-Ogna%NULL%1,                        Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                      Deliang%Huang%coreGivesNoEmail%0,                      Hong%Yu%coreGivesNoEmail%0,                      Jun%Chen%coreGivesNoEmail%0,                      Lei%Liu%coreGivesNoEmail%0,                      National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                      Pengcheng%Ou%coreGivesNoEmail%0,                      Qing%He%coreGivesNoEmail%0,                      Qingxian%Cai%coreGivesNoEmail%0,                      Rossaint%J%coreGivesNoEmail%0,                      Yang%Fu%coreGivesNoEmail%0,                      Yiming%Zhang%coreGivesNoEmail%0,                      Yinan%Su%coreGivesNoEmail%0,                      Zhang%Xia%coreGivesNoEmail%0,                      Zhenghua%Ma%coreGivesNoEmail%0,                      Zhibin%Zhu%coreGivesNoEmail%0,                      Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                        Yeming%Wang%NULL%0,                        Danning%Wen%NULL%1,                        Wen%Liu%NULL%1,                        Jingli%Wang%NULL%0,                        Guohui%Fan%NULL%0,                        Lianguo%Ruan%NULL%1,                        Bin%Song%NULL%0,                        Yanping%Cai%NULL%1,                        Ming%Wei%NULL%1,                        Xingwang%Li%NULL%0,                        Jiaan%Xia%NULL%0,                        Nanshan%Chen%NULL%1,                        Jie%Xiang%NULL%0,                        Ting%Yu%NULL%0,                        Tao%Bai%NULL%0,                        Xuelei%Xie%NULL%0,                        Li%Zhang%NULL%0,                        Caihong%Li%NULL%1,                        Ye%Yuan%NULL%1,                        Hua%Chen%NULL%0,                        Huadong%Li%NULL%1,                        Hanping%Huang%NULL%1,                        Shengjing%Tu%NULL%1,                        Fengyun%Gong%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Chongya%Dong%NULL%1,                        Fei%Zhou%NULL%1,                        Xiaoying%Gu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Zhibo%Liu%NULL%0,                        Yi%Zhang%NULL%0,                        Hui%Li%NULL%0,                        Lianhan%Shang%NULL%1,                        Ke%Wang%NULL%0,                        Kunxia%Li%NULL%1,                        Xia%Zhou%NULL%1,                        Xuan%Dong%NULL%0,                        Zhaohui%Qu%NULL%1,                        Sixia%Lu%NULL%1,                        Xujuan%Hu%NULL%1,                        Shunan%Ruan%NULL%1,                        Shanshan%Luo%NULL%1,                        Jing%Wu%NULL%0,                        Lu%Peng%NULL%1,                        Fang%Cheng%NULL%0,                        Lihong%Pan%NULL%1,                        Jun%Zou%NULL%1,                        Chunmin%Jia%NULL%1,                        Juan%Wang%NULL%1,                        Xia%Liu%NULL%1,                        Shuzhen%Wang%NULL%1,                        Xudong%Wu%NULL%0,                        Qin%Ge%NULL%1,                        Jing%He%NULL%1,                        Haiyan%Zhan%NULL%1,                        Fang%Qiu%NULL%1,                        Li%Guo%NULL%0,                        Chaolin%Huang%NULL%1,                        Thomas%Jaki%NULL%1,                        Frederick G.%Hayden%NULL%1,                        Peter W.%Horby%NULL%1,                        Dingyu%Zhang%NULL%1,                        Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                        Wenlin%Cheng%NULL%0,                        Lei%Yu%NULL%0,                        Ya-Kun%Liu%NULL%0,                        Xiaoyong%Hu%NULL%0,                        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                        Jia%Wei%NULL%1,                        Liang%Zou%NULL%1,                        Tiebin%Jiang%NULL%1,                        Gaoxiang%Wang%NULL%1,                        Liting%Chen%NULL%1,                        Liang%Huang%NULL%1,                        Fankai%Meng%NULL%1,                        Lifang%Huang%NULL%1,                        Na%Wang%NULL%1,                        Xiaoxi%Zhou%NULL%1,                        Hui%Luo%NULL%1,                        Zekai%Mao%NULL%1,                        Xing%Chen%NULL%1,                        Jungang%Xie%NULL%0,                        Jing%Liu%NULL%0,                        Hui%Cheng%NULL%1,                        Jianping%Zhao%NULL%0,                        Gang%Huang%NULL%1,                        Wei%Wang%NULL%0,                        Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                        Giacomo%De Luca%NULL%1,                        Corrado%Campochiaro%NULL%1,                        Emanuel%Della-Torre%NULL%1,                        Marco%Ripa%NULL%1,                        Diana%Canetti%NULL%1,                        Chiara%Oltolini%NULL%1,                        Barbara%Castiglioni%NULL%1,                        Chiara%Tassan Din%NULL%1,                        Nicola%Boffini%NULL%1,                        Alessandro%Tomelleri%NULL%1,                        Nicola%Farina%NULL%1,                        Annalisa%Ruggeri%NULL%0,                        Patrizia%Rovere-Querini%NULL%0,                        Giuseppe%Di Lucca%NULL%1,                        Sabina%Martinenghi%NULL%1,                        Raffaella%Scotti%NULL%1,                        Moreno%Tresoldi%NULL%0,                        Fabio%Ciceri%NULL%1,                        Giovanni%Landoni%NULL%0,                        Alberto%Zangrillo%NULL%0,                        Paolo%Scarpellini%NULL%0,                        Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                        Kim R.%Derespina%NULL%2,                        Betsy C.%Herold%NULL%1,                        David L.%Goldman%NULL%1,                        Margaret%Aldrich%NULL%1,                        Jacqueline%Weingarten%NULL%1,                        Henry M.%Ushay%NULL%2,                        Michael D.%Cabana%NULL%1,                        Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                        Zhen-Zhen%Zhang%NULL%1,                        Yao-Kai%Chen%NULL%1,                        Quan-Xin%Long%NULL%1,                        Wen-Guang%Tian%NULL%1,                        Hai-Jun%Deng%NULL%1,                        Jie-Li%Hu%NULL%1,                        Xian-Xiang%Zhang%NULL%1,                        NULL%Pu-Liao%NULL%1,                        Jiang-Lin%Xiang%NULL%1,                        Dao-Xin%Wang%NULL%1,                        Peng%Hu%NULL%0,                        Fa-Chun%Zhou%NULL%1,                        Zhi-Jie%Li%NULL%1,                        Hong-Mei%Xu%NULL%1,                        Xue-Fei%Cai%NULL%1,                        De-Qiang%Wang%NULL%1,                        Yuan%Hu%NULL%1,                        Ni%Tang%NULL%1,                        Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                        Gui-Cheng%Wu%wuguic@hotmail.com%1,                        Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%0,                        Xuan%Dong%NULL%0,                        Jieming%Qu%NULL%0,                        Fengyun%Gong%NULL%0,                        Yang%Han%NULL%0,                        Yang%Qiu%NULL%0,                        Jingli%Wang%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                        Zhencang%Zheng%NULL%1,                        Chao%Zhang%NULL%1,                        Xijiang%Zhang%NULL%1,                        Huijuan%Wu%NULL%1,                        Jingdong%Wang%NULL%1,                        Shuwei%Wang%NULL%1,                        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                        Wenhua%Liang%NULL%0,                        Mei%Jiang%NULL%0,                        Weijie%Guan%NULL%0,                        Chen%Zhan%NULL%0,                        Tao%Wang%NULL%0,                        Chunli%Tang%NULL%0,                        Ling%Sang%NULL%0,                        Jiaxing%Liu%NULL%0,                        Zhengyi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chunliang%Lei%NULL%0,                        Yixiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Yahua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jianming%Wang%NULL%0,                        Jiyang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhijian%Zheng%NULL%0,                        Shaoqin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Changjiang%Ye%NULL%0,                        Shaoyong%Zhu%NULL%0,                        Xiaoqing%Liu%NULL%0,                        Linling%Cheng%NULL%0,                        Feng%Ye%NULL%0,                        Jinping%Zheng%NULL%0,                        Nuofu%Zhang%NULL%0,                        Yimin%Li%NULL%0,                        Jianxing%He%NULL%0,                        Shiyue%Li%lishiyue@188.com%0,                        Nanshan%Zhong%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                        Wei%An%NULL%2,                        Wei%An%NULL%0,                        Fei%Xia%NULL%0,                        Ping%Yang%NULL%1,                        Kuangyu%Li%NULL%1,                        Qin%Zhou%NULL%1,                        Shasha%Fang%NULL%1,                        Yaling%Liao%NULL%1,                        Xin%Xu%NULL%0,                        Jialin%Liu%NULL%1,                        Shiguo%Liu%NULL%1,                        Tao%Qin%NULL%1,                        Jianjun%Zhang%NULL%1,                        Wei%Wei%NULL%0,                        Yafang%Zhang%NULL%1,                        Guowei%Zhang%NULL%1,                        Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                        Nan%Yang%NULL%2,                        Nan%Yang%NULL%0,                        Yanqiu%Wei%NULL%1,                        Huihui%Yue%NULL%1,                        Fengqin%Zhang%NULL%1,                        Jianping%Zhao%NULL%0,                        Li%He%NULL%1,                        Gaohong%Sheng%NULL%2,                        Gaohong%Sheng%NULL%0,                        Peng%Chen%NULL%1,                        Gang%Li%NULL%0,                        Sisi%Wu%NULL%1,                        Bo%Zhang%NULL%0,                        Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                        Xiaoping%Miao%miaoxp@hust.edu.cn%1,                        Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                        Wenhua%Liu%liuwh_2013@126.com%1,                        Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                        Susannah%Ahern%NULL%1,                        Scott C.%Bell%NULL%1,                        Keith%Brownlee%NULL%1,                        Pierre-Régis%Burgel%NULL%1,                        Cass%Byrnes%NULL%1,                        Harriet%Corvol%NULL%1,                        Stephanie Y.%Cheng%NULL%1,                        Alexander%Elbert%NULL%1,                        Albert%Faro%NULL%1,                        Christopher H.%Goss%NULL%1,                        Vincent%Gulmans%NULL%1,                        Bruce C.%Marshall%NULL%1,                        Edward%McKone%NULL%1,                        Peter G.%Middleton%NULL%1,                        Rasa%Ruseckaite%NULL%1,                        Anne L.%Stephenson%NULL%1,                        Siobhán B%Carr%NULL%1,                        David%Reid%NULL%1,                        Peter%Wark%NULL%1,                        Géraldine%Daneau%NULL%1,                        Véronique%Boussaud%NULL%1,                        Graziella%Brinchault%NULL%1,                        Emmanuelle%Coirier-Duet%NULL%1,                        Jean-Christophe%Dubus%NULL%1,                        Dominique%Grenet%NULL%1,                        Sandra de%Miranda%NULL%1,                        Laurence%Beaumont%NULL%1,                        Reem%Kanaan%NULL%1,                        Muriel%Lauraens%NULL%1,                        Clémence%Martin%NULL%1,                        Marie%Mittaine%NULL%1,                        Anne%Prévotat%NULL%1,                        Martine%Reynaud-Gaubert%NULL%1,                        Isabelle%Sermet-Gaudelus%NULL%1,                        Aurelie%Tatopoulos%NULL%1,                        Lutz%Nährlich%NULL%1,                        Barry%Plant%NULL%1,                        Cedric%Gunaratnam%NULL%1,                        Abaigeal%Jackson%NULL%1,                        Karin M. de Winter-de%Groot%NULL%1,                        Bart%Luijk%NULL%1,                        Geertjan%Wesseling%NULL%1,                        Mark%Allenby%NULL%1,                        Jamie%Duckers%NULL%1,                        Elaine%Gunn%NULL%1,                        Andrew%Jones%NULL%1,                        Robert Ian%Ketchell%NULL%1,                        Susan L.%Madge%NULL%1,                        Anirban%Maitra%NULL%1,                        Ghulam%Mujtaba%NULL%1,                        Helen%Rodgers%NULL%1,                        Nadia%Shafi%NULL%1,                        Nicholas%Simmonds%NULL%1,                        Kevin%Southern%NULL%1,                        Danie%Watson%NULL%1,                        Samar%Rizvi%NULL%1,                        Julie%Seguin%NULL%1,                        Janet%Garbarz%NULL%1,                        Kristen%Rosamilia%NULL%1,                        Maria%Berdella%NULL%1,                        Jerry A.%Nick%NULL%1,                        Richard%Belkin%NULL%1,                        Diana%Gilmore%NULL%1,                        Kim%McBennett%NULL%1,                        Rita%Padoan%NULL%1,                        Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                        Matthew R%Baldwin%NULL%0,                        Darryl%Abrams%NULL%1,                        Samuel D%Jacobson%NULL%1,                        Benjamin J%Meyer%NULL%1,                        Elizabeth M%Balough%NULL%1,                        Justin G%Aaron%NULL%1,                        Jan%Claassen%NULL%0,                        LeRoy E%Rabbani%NULL%1,                        Jonathan%Hastie%NULL%1,                        Beth R%Hochman%NULL%1,                        John%Salazar-Schicchi%NULL%1,                        Natalie H%Yip%NULL%1,                        Daniel%Brodie%NULL%0,                        Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                        Xin%Zhang%NULL%0,                        Jianguo%Xia%NULL%1,                        Tao%Zhang%NULL%1,                        Yalei%Shang%NULL%1,                        Renjun%Huang%NULL%1,                        Rongrong%Liu%NULL%1,                        Dan%Wang%NULL%0,                        Min%Li%105549156@qq.com%1,                        Jinping%Wu%czwjp@sina.com%1,                        Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                        Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                         Shiva%Samavat%NULL%1,                         Behdad%Behnam%NULL%1,                         Mehran%Arab-Ahmadi%NULL%1,                         Mohsen%Nafar%NULL%1,                         Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                         Elisa%Delbarba%NULL%2,                         Chiara%Manenti%NULL%2,                         Laura%Econimo%NULL%2,                         Francesca%Valerio%NULL%2,                         Alessandra%Pola%NULL%2,                         Camilla%Maffei%NULL%2,                         Stefano%Possenti%NULL%2,                         Nicole%Zambetti%NULL%1,                         Marianna%Moscato%NULL%1,                         Margherita%Venturini%NULL%1,                         Stefania%Affatato%NULL%2,                         Mario%Gaggiotti%NULL%2,                         Nicola%Bossini%NULL%2,                         Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                         Elisa%Delbarba%NULL%0,                         Chiara%Manenti%NULL%0,                         Laura%Econimo%NULL%0,                         Francesca%Valerio%NULL%0,                         Alessandra%Pola%NULL%0,                         Camilla%Maffei%NULL%0,                         Stefano%Possenti%NULL%0,                         Bernardo%Lucca%NULL%1,                         Roberta%Cortinovis%NULL%1,                         Vincenzo%Terlizzi%NULL%1,                         Mattia%Zappa%NULL%1,                         Chiara%Saccà%NULL%1,                         Elena%Pezzini%NULL%1,                         Eleonora%Calcaterra%NULL%1,                         Paola%Piarulli%NULL%1,                         Alice%Guerini%NULL%1,                         Francesca%Boni%NULL%1,                         Agnese%Gallico%NULL%1,                         Alberto%Mucchetti%NULL%1,                         Stefania%Affatato%NULL%0,                         Sergio%Bove%NULL%1,                         Martina%Bracchi%NULL%1,                         Ester Maria%Costantino%NULL%1,                         Roberto%Zubani%NULL%1,                         Corrado%Camerini%NULL%1,                         Paola%Gaggia%NULL%1,                         Ezio%Movilli%NULL%1,                         Nicola%Bossini%NULL%0,                         Mario%Gaggiotti%NULL%0,                         Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                         Jordi%Rello%NULL%1,                         Sofia%Tejada%NULL%1,                         Alejandro%Martín%NULL%1,                         Goiatz%Balziskueta%NULL%1,                         Cristina%Vinuesa%NULL%1,                         Borja%Fernández-Miret%NULL%1,                         Ana%Villagra%NULL%1,                         Ana%Vallejo%NULL%1,                         Ana%San Sebastián%NULL%1,                         Sara%Cabañes%NULL%1,                         Sebastián%Iribarren%NULL%1,                         Fernando%Fonseca%NULL%1,                         Javier%Maynar%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                         Denise J%McCulloch%NULL%2,                         Denise J%McCulloch%NULL%0,                         Vidya%Atluri%NULL%1,                         Michela%Blain%NULL%1,                         Sarah A%McGuffin%NULL%1,                         Arun K%Nalla%NULL%1,                         Meei-Li%Huang%NULL%1,                         Alex L%Greninger%NULL%1,                         Keith R%Jerome%NULL%1,                         Seth A%Cohen%NULL%1,                         Santiago%Neme%NULL%1,                         Margaret L%Green%NULL%1,                         Helen Y%Chu%NULL%1,                         H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                         Timothy%Mazzuchelli%NULL%1,                         Elia%Lo Priore%NULL%1,                         Carlo%Balmelli%NULL%1,                         Michael%Llamas%NULL%1,                         Micol%Pallanza%NULL%1,                         Luigia%Elzi%NULL%1,                         Vera%Consonni%NULL%1,                         Pierpaolo%Trimboli%NULL%1,                         Valentina%Forni-Ogna%NULL%1,                         Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                       Deliang%Huang%coreGivesNoEmail%0,                       Hong%Yu%coreGivesNoEmail%0,                       Jun%Chen%coreGivesNoEmail%0,                       Lei%Liu%coreGivesNoEmail%0,                       National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                       Pengcheng%Ou%coreGivesNoEmail%0,                       Qing%He%coreGivesNoEmail%0,                       Qingxian%Cai%coreGivesNoEmail%0,                       Rossaint%J%coreGivesNoEmail%0,                       Yang%Fu%coreGivesNoEmail%0,                       Yiming%Zhang%coreGivesNoEmail%0,                       Yinan%Su%coreGivesNoEmail%0,                       Zhang%Xia%coreGivesNoEmail%0,                       Zhenghua%Ma%coreGivesNoEmail%0,                       Zhibin%Zhu%coreGivesNoEmail%0,                       Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                         Yeming%Wang%NULL%0,                         Danning%Wen%NULL%1,                         Wen%Liu%NULL%1,                         Jingli%Wang%NULL%0,                         Guohui%Fan%NULL%0,                         Lianguo%Ruan%NULL%1,                         Bin%Song%NULL%0,                         Yanping%Cai%NULL%1,                         Ming%Wei%NULL%1,                         Xingwang%Li%NULL%0,                         Jiaan%Xia%NULL%0,                         Nanshan%Chen%NULL%1,                         Jie%Xiang%NULL%0,                         Ting%Yu%NULL%0,                         Tao%Bai%NULL%0,                         Xuelei%Xie%NULL%0,                         Li%Zhang%NULL%0,                         Caihong%Li%NULL%1,                         Ye%Yuan%NULL%1,                         Hua%Chen%NULL%0,                         Huadong%Li%NULL%1,                         Hanping%Huang%NULL%1,                         Shengjing%Tu%NULL%1,                         Fengyun%Gong%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Chongya%Dong%NULL%1,                         Fei%Zhou%NULL%1,                         Xiaoying%Gu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Zhibo%Liu%NULL%0,                         Yi%Zhang%NULL%0,                         Hui%Li%NULL%0,                         Lianhan%Shang%NULL%1,                         Ke%Wang%NULL%0,                         Kunxia%Li%NULL%1,                         Xia%Zhou%NULL%1,                         Xuan%Dong%NULL%0,                         Zhaohui%Qu%NULL%1,                         Sixia%Lu%NULL%1,                         Xujuan%Hu%NULL%1,                         Shunan%Ruan%NULL%1,                         Shanshan%Luo%NULL%1,                         Jing%Wu%NULL%0,                         Lu%Peng%NULL%1,                         Fang%Cheng%NULL%0,                         Lihong%Pan%NULL%1,                         Jun%Zou%NULL%1,                         Chunmin%Jia%NULL%1,                         Juan%Wang%NULL%1,                         Xia%Liu%NULL%1,                         Shuzhen%Wang%NULL%1,                         Xudong%Wu%NULL%0,                         Qin%Ge%NULL%1,                         Jing%He%NULL%1,                         Haiyan%Zhan%NULL%1,                         Fang%Qiu%NULL%1,                         Li%Guo%NULL%0,                         Chaolin%Huang%NULL%1,                         Thomas%Jaki%NULL%1,                         Frederick G.%Hayden%NULL%1,                         Peter W.%Horby%NULL%1,                         Dingyu%Zhang%NULL%1,                         Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                         Wenlin%Cheng%NULL%0,                         Lei%Yu%NULL%0,                         Ya-Kun%Liu%NULL%0,                         Xiaoyong%Hu%NULL%0,                         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                         Jia%Wei%NULL%1,                         Liang%Zou%NULL%1,                         Tiebin%Jiang%NULL%1,                         Gaoxiang%Wang%NULL%1,                         Liting%Chen%NULL%1,                         Liang%Huang%NULL%1,                         Fankai%Meng%NULL%1,                         Lifang%Huang%NULL%1,                         Na%Wang%NULL%1,                         Xiaoxi%Zhou%NULL%1,                         Hui%Luo%NULL%1,                         Zekai%Mao%NULL%1,                         Xing%Chen%NULL%1,                         Jungang%Xie%NULL%0,                         Jing%Liu%NULL%0,                         Hui%Cheng%NULL%1,                         Jianping%Zhao%NULL%0,                         Gang%Huang%NULL%1,                         Wei%Wang%NULL%0,                         Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                         Giacomo%De Luca%NULL%1,                         Corrado%Campochiaro%NULL%1,                         Emanuel%Della-Torre%NULL%1,                         Marco%Ripa%NULL%1,                         Diana%Canetti%NULL%1,                         Chiara%Oltolini%NULL%1,                         Barbara%Castiglioni%NULL%1,                         Chiara%Tassan Din%NULL%1,                         Nicola%Boffini%NULL%1,                         Alessandro%Tomelleri%NULL%1,                         Nicola%Farina%NULL%1,                         Annalisa%Ruggeri%NULL%0,                         Patrizia%Rovere-Querini%NULL%0,                         Giuseppe%Di Lucca%NULL%1,                         Sabina%Martinenghi%NULL%1,                         Raffaella%Scotti%NULL%1,                         Moreno%Tresoldi%NULL%0,                         Fabio%Ciceri%NULL%1,                         Giovanni%Landoni%NULL%0,                         Alberto%Zangrillo%NULL%0,                         Paolo%Scarpellini%NULL%0,                         Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                         Kim R.%Derespina%NULL%2,                         Betsy C.%Herold%NULL%1,                         David L.%Goldman%NULL%1,                         Margaret%Aldrich%NULL%1,                         Jacqueline%Weingarten%NULL%1,                         Henry M.%Ushay%NULL%2,                         Michael D.%Cabana%NULL%1,                         Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                         Zhen-Zhen%Zhang%NULL%1,                         Yao-Kai%Chen%NULL%1,                         Quan-Xin%Long%NULL%1,                         Wen-Guang%Tian%NULL%1,                         Hai-Jun%Deng%NULL%1,                         Jie-Li%Hu%NULL%1,                         Xian-Xiang%Zhang%NULL%1,                         NULL%Pu-Liao%NULL%1,                         Jiang-Lin%Xiang%NULL%1,                         Dao-Xin%Wang%NULL%1,                         Peng%Hu%NULL%0,                         Fa-Chun%Zhou%NULL%1,                         Zhi-Jie%Li%NULL%1,                         Hong-Mei%Xu%NULL%1,                         Xue-Fei%Cai%NULL%1,                         De-Qiang%Wang%NULL%1,                         Yuan%Hu%NULL%1,                         Ni%Tang%NULL%1,                         Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                         Gui-Cheng%Wu%wuguic@hotmail.com%1,                         Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%0,                         Xuan%Dong%NULL%0,                         Jieming%Qu%NULL%0,                         Fengyun%Gong%NULL%0,                         Yang%Han%NULL%0,                         Yang%Qiu%NULL%0,                         Jingli%Wang%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                         Zhencang%Zheng%NULL%1,                         Chao%Zhang%NULL%1,                         Xijiang%Zhang%NULL%1,                         Huijuan%Wu%NULL%1,                         Jingdong%Wang%NULL%1,                         Shuwei%Wang%NULL%1,                         Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                         Wenhua%Liang%NULL%0,                         Mei%Jiang%NULL%0,                         Weijie%Guan%NULL%0,                         Chen%Zhan%NULL%0,                         Tao%Wang%NULL%0,                         Chunli%Tang%NULL%0,                         Ling%Sang%NULL%0,                         Jiaxing%Liu%NULL%0,                         Zhengyi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chunliang%Lei%NULL%0,                         Yixiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Yahua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jianming%Wang%NULL%0,                         Jiyang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhijian%Zheng%NULL%0,                         Shaoqin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Changjiang%Ye%NULL%0,                         Shaoyong%Zhu%NULL%0,                         Xiaoqing%Liu%NULL%0,                         Linling%Cheng%NULL%0,                         Feng%Ye%NULL%0,                         Jinping%Zheng%NULL%0,                         Nuofu%Zhang%NULL%0,                         Yimin%Li%NULL%0,                         Jianxing%He%NULL%0,                         Shiyue%Li%lishiyue@188.com%0,                         Nanshan%Zhong%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                         Wei%An%NULL%2,                         Wei%An%NULL%0,                         Fei%Xia%NULL%0,                         Ping%Yang%NULL%1,                         Kuangyu%Li%NULL%1,                         Qin%Zhou%NULL%1,                         Shasha%Fang%NULL%1,                         Yaling%Liao%NULL%1,                         Xin%Xu%NULL%0,                         Jialin%Liu%NULL%1,                         Shiguo%Liu%NULL%1,                         Tao%Qin%NULL%1,                         Jianjun%Zhang%NULL%1,                         Wei%Wei%NULL%0,                         Yafang%Zhang%NULL%1,                         Guowei%Zhang%NULL%1,                         Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                         Nan%Yang%NULL%2,                         Nan%Yang%NULL%0,                         Yanqiu%Wei%NULL%1,                         Huihui%Yue%NULL%1,                         Fengqin%Zhang%NULL%1,                         Jianping%Zhao%NULL%0,                         Li%He%NULL%1,                         Gaohong%Sheng%NULL%2,                         Gaohong%Sheng%NULL%0,                         Peng%Chen%NULL%1,                         Gang%Li%NULL%0,                         Sisi%Wu%NULL%1,                         Bo%Zhang%NULL%0,                         Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                         Xiaoping%Miao%miaoxp@hust.edu.cn%1,                         Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                         Wenhua%Liu%liuwh_2013@126.com%1,                         Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                         Susannah%Ahern%NULL%1,                         Scott C.%Bell%NULL%1,                         Keith%Brownlee%NULL%1,                         Pierre-Régis%Burgel%NULL%1,                         Cass%Byrnes%NULL%1,                         Harriet%Corvol%NULL%1,                         Stephanie Y.%Cheng%NULL%1,                         Alexander%Elbert%NULL%1,                         Albert%Faro%NULL%1,                         Christopher H.%Goss%NULL%1,                         Vincent%Gulmans%NULL%1,                         Bruce C.%Marshall%NULL%1,                         Edward%McKone%NULL%1,                         Peter G.%Middleton%NULL%1,                         Rasa%Ruseckaite%NULL%1,                         Anne L.%Stephenson%NULL%1,                         Siobhán B%Carr%NULL%1,                         David%Reid%NULL%1,                         Peter%Wark%NULL%1,                         Géraldine%Daneau%NULL%1,                         Véronique%Boussaud%NULL%1,                         Graziella%Brinchault%NULL%1,                         Emmanuelle%Coirier-Duet%NULL%1,                         Jean-Christophe%Dubus%NULL%1,                         Dominique%Grenet%NULL%1,                         Sandra de%Miranda%NULL%1,                         Laurence%Beaumont%NULL%1,                         Reem%Kanaan%NULL%1,                         Muriel%Lauraens%NULL%1,                         Clémence%Martin%NULL%1,                         Marie%Mittaine%NULL%1,                         Anne%Prévotat%NULL%1,                         Martine%Reynaud-Gaubert%NULL%1,                         Isabelle%Sermet-Gaudelus%NULL%1,                         Aurelie%Tatopoulos%NULL%1,                         Lutz%Nährlich%NULL%1,                         Barry%Plant%NULL%1,                         Cedric%Gunaratnam%NULL%1,                         Abaigeal%Jackson%NULL%1,                         Karin M. de Winter-de%Groot%NULL%1,                         Bart%Luijk%NULL%1,                         Geertjan%Wesseling%NULL%1,                         Mark%Allenby%NULL%1,                         Jamie%Duckers%NULL%1,                         Elaine%Gunn%NULL%1,                         Andrew%Jones%NULL%1,                         Robert Ian%Ketchell%NULL%1,                         Susan L.%Madge%NULL%1,                         Anirban%Maitra%NULL%1,                         Ghulam%Mujtaba%NULL%1,                         Helen%Rodgers%NULL%1,                         Nadia%Shafi%NULL%1,                         Nicholas%Simmonds%NULL%1,                         Kevin%Southern%NULL%1,                         Danie%Watson%NULL%1,                         Samar%Rizvi%NULL%1,                         Julie%Seguin%NULL%1,                         Janet%Garbarz%NULL%1,                         Kristen%Rosamilia%NULL%1,                         Maria%Berdella%NULL%1,                         Jerry A.%Nick%NULL%1,                         Richard%Belkin%NULL%1,                         Diana%Gilmore%NULL%1,                         Kim%McBennett%NULL%1,                         Rita%Padoan%NULL%1,                         Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                         Matthew R%Baldwin%NULL%0,                         Darryl%Abrams%NULL%1,                         Samuel D%Jacobson%NULL%1,                         Benjamin J%Meyer%NULL%1,                         Elizabeth M%Balough%NULL%1,                         Justin G%Aaron%NULL%1,                         Jan%Claassen%NULL%0,                         LeRoy E%Rabbani%NULL%1,                         Jonathan%Hastie%NULL%1,                         Beth R%Hochman%NULL%1,                         John%Salazar-Schicchi%NULL%1,                         Natalie H%Yip%NULL%1,                         Daniel%Brodie%NULL%0,                         Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                         Xin%Zhang%NULL%0,                         Jianguo%Xia%NULL%1,                         Tao%Zhang%NULL%1,                         Yalei%Shang%NULL%1,                         Renjun%Huang%NULL%1,                         Rongrong%Liu%NULL%1,                         Dan%Wang%NULL%0,                         Min%Li%105549156@qq.com%1,                         Jinping%Wu%czwjp@sina.com%1,                         Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                         Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                          Shiva%Samavat%NULL%1,                          Behdad%Behnam%NULL%1,                          Mehran%Arab-Ahmadi%NULL%1,                          Mohsen%Nafar%NULL%1,                          Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                          Elisa%Delbarba%NULL%2,                          Chiara%Manenti%NULL%2,                          Laura%Econimo%NULL%2,                          Francesca%Valerio%NULL%2,                          Alessandra%Pola%NULL%2,                          Camilla%Maffei%NULL%2,                          Stefano%Possenti%NULL%2,                          Nicole%Zambetti%NULL%1,                          Marianna%Moscato%NULL%1,                          Margherita%Venturini%NULL%1,                          Stefania%Affatato%NULL%2,                          Mario%Gaggiotti%NULL%2,                          Nicola%Bossini%NULL%2,                          Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                          Elisa%Delbarba%NULL%0,                          Chiara%Manenti%NULL%0,                          Laura%Econimo%NULL%0,                          Francesca%Valerio%NULL%0,                          Alessandra%Pola%NULL%0,                          Camilla%Maffei%NULL%0,                          Stefano%Possenti%NULL%0,                          Bernardo%Lucca%NULL%1,                          Roberta%Cortinovis%NULL%1,                          Vincenzo%Terlizzi%NULL%1,                          Mattia%Zappa%NULL%1,                          Chiara%Saccà%NULL%1,                          Elena%Pezzini%NULL%1,                          Eleonora%Calcaterra%NULL%1,                          Paola%Piarulli%NULL%1,                          Alice%Guerini%NULL%1,                          Francesca%Boni%NULL%1,                          Agnese%Gallico%NULL%1,                          Alberto%Mucchetti%NULL%1,                          Stefania%Affatato%NULL%0,                          Sergio%Bove%NULL%1,                          Martina%Bracchi%NULL%1,                          Ester Maria%Costantino%NULL%1,                          Roberto%Zubani%NULL%1,                          Corrado%Camerini%NULL%1,                          Paola%Gaggia%NULL%1,                          Ezio%Movilli%NULL%1,                          Nicola%Bossini%NULL%0,                          Mario%Gaggiotti%NULL%0,                          Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                          Jordi%Rello%NULL%1,                          Sofia%Tejada%NULL%1,                          Alejandro%Martín%NULL%1,                          Goiatz%Balziskueta%NULL%1,                          Cristina%Vinuesa%NULL%1,                          Borja%Fernández-Miret%NULL%1,                          Ana%Villagra%NULL%1,                          Ana%Vallejo%NULL%1,                          Ana%San Sebastián%NULL%1,                          Sara%Cabañes%NULL%1,                          Sebastián%Iribarren%NULL%1,                          Fernando%Fonseca%NULL%1,                          Javier%Maynar%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                          Denise J%McCulloch%NULL%2,                          Denise J%McCulloch%NULL%0,                          Vidya%Atluri%NULL%1,                          Michela%Blain%NULL%1,                          Sarah A%McGuffin%NULL%1,                          Arun K%Nalla%NULL%1,                          Meei-Li%Huang%NULL%1,                          Alex L%Greninger%NULL%1,                          Keith R%Jerome%NULL%1,                          Seth A%Cohen%NULL%1,                          Santiago%Neme%NULL%1,                          Margaret L%Green%NULL%1,                          Helen Y%Chu%NULL%1,                          H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                          Timothy%Mazzuchelli%NULL%1,                          Elia%Lo Priore%NULL%1,                          Carlo%Balmelli%NULL%1,                          Michael%Llamas%NULL%1,                          Micol%Pallanza%NULL%1,                          Luigia%Elzi%NULL%1,                          Vera%Consonni%NULL%1,                          Pierpaolo%Trimboli%NULL%1,                          Valentina%Forni-Ogna%NULL%1,                          Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                        Deliang%Huang%coreGivesNoEmail%0,                        Hong%Yu%coreGivesNoEmail%0,                        Jun%Chen%coreGivesNoEmail%0,                        Lei%Liu%coreGivesNoEmail%0,                        National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                        Pengcheng%Ou%coreGivesNoEmail%0,                        Qing%He%coreGivesNoEmail%0,                        Qingxian%Cai%coreGivesNoEmail%0,                        Rossaint%J%coreGivesNoEmail%0,                        Yang%Fu%coreGivesNoEmail%0,                        Yiming%Zhang%coreGivesNoEmail%0,                        Yinan%Su%coreGivesNoEmail%0,                        Zhang%Xia%coreGivesNoEmail%0,                        Zhenghua%Ma%coreGivesNoEmail%0,                        Zhibin%Zhu%coreGivesNoEmail%0,                        Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                          Yeming%Wang%NULL%0,                          Danning%Wen%NULL%1,                          Wen%Liu%NULL%1,                          Jingli%Wang%NULL%0,                          Guohui%Fan%NULL%0,                          Lianguo%Ruan%NULL%1,                          Bin%Song%NULL%0,                          Yanping%Cai%NULL%1,                          Ming%Wei%NULL%1,                          Xingwang%Li%NULL%0,                          Jiaan%Xia%NULL%0,                          Nanshan%Chen%NULL%1,                          Jie%Xiang%NULL%0,                          Ting%Yu%NULL%0,                          Tao%Bai%NULL%0,                          Xuelei%Xie%NULL%0,                          Li%Zhang%NULL%0,                          Caihong%Li%NULL%1,                          Ye%Yuan%NULL%1,                          Hua%Chen%NULL%0,                          Huadong%Li%NULL%1,                          Hanping%Huang%NULL%1,                          Shengjing%Tu%NULL%1,                          Fengyun%Gong%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Chongya%Dong%NULL%1,                          Fei%Zhou%NULL%1,                          Xiaoying%Gu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Zhibo%Liu%NULL%0,                          Yi%Zhang%NULL%0,                          Hui%Li%NULL%0,                          Lianhan%Shang%NULL%1,                          Ke%Wang%NULL%0,                          Kunxia%Li%NULL%1,                          Xia%Zhou%NULL%1,                          Xuan%Dong%NULL%0,                          Zhaohui%Qu%NULL%1,                          Sixia%Lu%NULL%1,                          Xujuan%Hu%NULL%1,                          Shunan%Ruan%NULL%1,                          Shanshan%Luo%NULL%1,                          Jing%Wu%NULL%0,                          Lu%Peng%NULL%1,                          Fang%Cheng%NULL%0,                          Lihong%Pan%NULL%1,                          Jun%Zou%NULL%1,                          Chunmin%Jia%NULL%1,                          Juan%Wang%NULL%1,                          Xia%Liu%NULL%1,                          Shuzhen%Wang%NULL%1,                          Xudong%Wu%NULL%0,                          Qin%Ge%NULL%1,                          Jing%He%NULL%1,                          Haiyan%Zhan%NULL%1,                          Fang%Qiu%NULL%1,                          Li%Guo%NULL%0,                          Chaolin%Huang%NULL%1,                          Thomas%Jaki%NULL%1,                          Frederick G.%Hayden%NULL%1,                          Peter W.%Horby%NULL%1,                          Dingyu%Zhang%NULL%1,                          Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                          Wenlin%Cheng%NULL%0,                          Lei%Yu%NULL%0,                          Ya-Kun%Liu%NULL%0,                          Xiaoyong%Hu%NULL%0,                          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                          Jia%Wei%NULL%1,                          Liang%Zou%NULL%1,                          Tiebin%Jiang%NULL%1,                          Gaoxiang%Wang%NULL%1,                          Liting%Chen%NULL%1,                          Liang%Huang%NULL%1,                          Fankai%Meng%NULL%1,                          Lifang%Huang%NULL%1,                          Na%Wang%NULL%1,                          Xiaoxi%Zhou%NULL%1,                          Hui%Luo%NULL%1,                          Zekai%Mao%NULL%1,                          Xing%Chen%NULL%1,                          Jungang%Xie%NULL%0,                          Jing%Liu%NULL%0,                          Hui%Cheng%NULL%1,                          Jianping%Zhao%NULL%0,                          Gang%Huang%NULL%1,                          Wei%Wang%NULL%0,                          Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                          Giacomo%De Luca%NULL%1,                          Corrado%Campochiaro%NULL%1,                          Emanuel%Della-Torre%NULL%1,                          Marco%Ripa%NULL%1,                          Diana%Canetti%NULL%1,                          Chiara%Oltolini%NULL%1,                          Barbara%Castiglioni%NULL%1,                          Chiara%Tassan Din%NULL%1,                          Nicola%Boffini%NULL%1,                          Alessandro%Tomelleri%NULL%1,                          Nicola%Farina%NULL%1,                          Annalisa%Ruggeri%NULL%0,                          Patrizia%Rovere-Querini%NULL%0,                          Giuseppe%Di Lucca%NULL%1,                          Sabina%Martinenghi%NULL%1,                          Raffaella%Scotti%NULL%1,                          Moreno%Tresoldi%NULL%0,                          Fabio%Ciceri%NULL%1,                          Giovanni%Landoni%NULL%0,                          Alberto%Zangrillo%NULL%0,                          Paolo%Scarpellini%NULL%0,                          Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                          Kim R.%Derespina%NULL%2,                          Betsy C.%Herold%NULL%1,                          David L.%Goldman%NULL%1,                          Margaret%Aldrich%NULL%1,                          Jacqueline%Weingarten%NULL%1,                          Henry M.%Ushay%NULL%2,                          Michael D.%Cabana%NULL%1,                          Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                          Zhen-Zhen%Zhang%NULL%1,                          Yao-Kai%Chen%NULL%1,                          Quan-Xin%Long%NULL%1,                          Wen-Guang%Tian%NULL%1,                          Hai-Jun%Deng%NULL%1,                          Jie-Li%Hu%NULL%1,                          Xian-Xiang%Zhang%NULL%1,                          NULL%Pu-Liao%NULL%1,                          Jiang-Lin%Xiang%NULL%1,                          Dao-Xin%Wang%NULL%1,                          Peng%Hu%NULL%0,                          Fa-Chun%Zhou%NULL%1,                          Zhi-Jie%Li%NULL%1,                          Hong-Mei%Xu%NULL%1,                          Xue-Fei%Cai%NULL%1,                          De-Qiang%Wang%NULL%1,                          Yuan%Hu%NULL%1,                          Ni%Tang%NULL%1,                          Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                          Gui-Cheng%Wu%wuguic@hotmail.com%1,                          Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%0,                          Xuan%Dong%NULL%0,                          Jieming%Qu%NULL%0,                          Fengyun%Gong%NULL%0,                          Yang%Han%NULL%0,                          Yang%Qiu%NULL%0,                          Jingli%Wang%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                          Zhencang%Zheng%NULL%1,                          Chao%Zhang%NULL%1,                          Xijiang%Zhang%NULL%1,                          Huijuan%Wu%NULL%1,                          Jingdong%Wang%NULL%1,                          Shuwei%Wang%NULL%1,                          Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                          Wenhua%Liang%NULL%0,                          Mei%Jiang%NULL%0,                          Weijie%Guan%NULL%0,                          Chen%Zhan%NULL%0,                          Tao%Wang%NULL%0,                          Chunli%Tang%NULL%0,                          Ling%Sang%NULL%0,                          Jiaxing%Liu%NULL%0,                          Zhengyi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chunliang%Lei%NULL%0,                          Yixiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Yahua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jianming%Wang%NULL%0,                          Jiyang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhijian%Zheng%NULL%0,                          Shaoqin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Changjiang%Ye%NULL%0,                          Shaoyong%Zhu%NULL%0,                          Xiaoqing%Liu%NULL%0,                          Linling%Cheng%NULL%0,                          Feng%Ye%NULL%0,                          Jinping%Zheng%NULL%0,                          Nuofu%Zhang%NULL%0,                          Yimin%Li%NULL%0,                          Jianxing%He%NULL%0,                          Shiyue%Li%lishiyue@188.com%0,                          Nanshan%Zhong%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                          Wei%An%NULL%2,                          Wei%An%NULL%0,                          Fei%Xia%NULL%0,                          Ping%Yang%NULL%1,                          Kuangyu%Li%NULL%1,                          Qin%Zhou%NULL%1,                          Shasha%Fang%NULL%1,                          Yaling%Liao%NULL%1,                          Xin%Xu%NULL%0,                          Jialin%Liu%NULL%1,                          Shiguo%Liu%NULL%1,                          Tao%Qin%NULL%1,                          Jianjun%Zhang%NULL%1,                          Wei%Wei%NULL%0,                          Yafang%Zhang%NULL%1,                          Guowei%Zhang%NULL%1,                          Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                          Nan%Yang%NULL%2,                          Nan%Yang%NULL%0,                          Yanqiu%Wei%NULL%1,                          Huihui%Yue%NULL%1,                          Fengqin%Zhang%NULL%1,                          Jianping%Zhao%NULL%0,                          Li%He%NULL%1,                          Gaohong%Sheng%NULL%2,                          Gaohong%Sheng%NULL%0,                          Peng%Chen%NULL%1,                          Gang%Li%NULL%0,                          Sisi%Wu%NULL%1,                          Bo%Zhang%NULL%0,                          Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                          Xiaoping%Miao%miaoxp@hust.edu.cn%1,                          Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                          Wenhua%Liu%liuwh_2013@126.com%1,                          Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                          Susannah%Ahern%NULL%1,                          Scott C.%Bell%NULL%1,                          Keith%Brownlee%NULL%1,                          Pierre-Régis%Burgel%NULL%1,                          Cass%Byrnes%NULL%1,                          Harriet%Corvol%NULL%1,                          Stephanie Y.%Cheng%NULL%1,                          Alexander%Elbert%NULL%1,                          Albert%Faro%NULL%1,                          Christopher H.%Goss%NULL%1,                          Vincent%Gulmans%NULL%1,                          Bruce C.%Marshall%NULL%1,                          Edward%McKone%NULL%1,                          Peter G.%Middleton%NULL%1,                          Rasa%Ruseckaite%NULL%1,                          Anne L.%Stephenson%NULL%1,                          Siobhán B%Carr%NULL%1,                          David%Reid%NULL%1,                          Peter%Wark%NULL%1,                          Géraldine%Daneau%NULL%1,                          Véronique%Boussaud%NULL%1,                          Graziella%Brinchault%NULL%1,                          Emmanuelle%Coirier-Duet%NULL%1,                          Jean-Christophe%Dubus%NULL%1,                          Dominique%Grenet%NULL%1,                          Sandra de%Miranda%NULL%1,                          Laurence%Beaumont%NULL%1,                          Reem%Kanaan%NULL%1,                          Muriel%Lauraens%NULL%1,                          Clémence%Martin%NULL%1,                          Marie%Mittaine%NULL%1,                          Anne%Prévotat%NULL%1,                          Martine%Reynaud-Gaubert%NULL%1,                          Isabelle%Sermet-Gaudelus%NULL%1,                          Aurelie%Tatopoulos%NULL%1,                          Lutz%Nährlich%NULL%1,                          Barry%Plant%NULL%1,                          Cedric%Gunaratnam%NULL%1,                          Abaigeal%Jackson%NULL%1,                          Karin M. de Winter-de%Groot%NULL%1,                          Bart%Luijk%NULL%1,                          Geertjan%Wesseling%NULL%1,                          Mark%Allenby%NULL%1,                          Jamie%Duckers%NULL%1,                          Elaine%Gunn%NULL%1,                          Andrew%Jones%NULL%1,                          Robert Ian%Ketchell%NULL%1,                          Susan L.%Madge%NULL%1,                          Anirban%Maitra%NULL%1,                          Ghulam%Mujtaba%NULL%1,                          Helen%Rodgers%NULL%1,                          Nadia%Shafi%NULL%1,                          Nicholas%Simmonds%NULL%1,                          Kevin%Southern%NULL%1,                          Danie%Watson%NULL%1,                          Samar%Rizvi%NULL%1,                          Julie%Seguin%NULL%1,                          Janet%Garbarz%NULL%1,                          Kristen%Rosamilia%NULL%1,                          Maria%Berdella%NULL%1,                          Jerry A.%Nick%NULL%1,                          Richard%Belkin%NULL%1,                          Diana%Gilmore%NULL%1,                          Kim%McBennett%NULL%1,                          Rita%Padoan%NULL%1,                          Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                          Matthew R%Baldwin%NULL%0,                          Darryl%Abrams%NULL%1,                          Samuel D%Jacobson%NULL%1,                          Benjamin J%Meyer%NULL%1,                          Elizabeth M%Balough%NULL%1,                          Justin G%Aaron%NULL%1,                          Jan%Claassen%NULL%0,                          LeRoy E%Rabbani%NULL%1,                          Jonathan%Hastie%NULL%1,                          Beth R%Hochman%NULL%1,                          John%Salazar-Schicchi%NULL%1,                          Natalie H%Yip%NULL%1,                          Daniel%Brodie%NULL%0,                          Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                          Xin%Zhang%NULL%0,                          Jianguo%Xia%NULL%1,                          Tao%Zhang%NULL%1,                          Yalei%Shang%NULL%1,                          Renjun%Huang%NULL%1,                          Rongrong%Liu%NULL%1,                          Dan%Wang%NULL%0,                          Min%Li%105549156@qq.com%1,                          Jinping%Wu%czwjp@sina.com%1,                          Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                          Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2552,6 +2891,9 @@
       <c r="I1" t="s">
         <v>204</v>
       </c>
+      <c r="J1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2567,7 +2909,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2580,6 +2922,9 @@
       </c>
       <c r="I2" t="s">
         <v>554</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -2596,7 +2941,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2609,6 +2954,9 @@
       </c>
       <c r="I3" t="s">
         <v>554</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2625,7 +2973,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2638,6 +2986,9 @@
       </c>
       <c r="I4" t="s">
         <v>554</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2654,7 +3005,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2667,6 +3018,9 @@
       </c>
       <c r="I5" t="s">
         <v>554</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -2683,7 +3037,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>584</v>
+        <v>698</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2696,6 +3050,9 @@
       </c>
       <c r="I6" t="s">
         <v>559</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -2712,7 +3069,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>585</v>
+        <v>699</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2725,6 +3082,9 @@
       </c>
       <c r="I7" t="s">
         <v>554</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -2741,7 +3101,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2754,6 +3114,9 @@
       </c>
       <c r="I8" t="s">
         <v>562</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -2770,7 +3133,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>587</v>
+        <v>701</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2783,6 +3146,9 @@
       </c>
       <c r="I9" t="s">
         <v>559</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -2799,7 +3165,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -2812,6 +3178,9 @@
       </c>
       <c r="I10" t="s">
         <v>559</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2828,7 +3197,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -2841,6 +3210,9 @@
       </c>
       <c r="I11" t="s">
         <v>554</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -2857,7 +3229,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>590</v>
+        <v>704</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -2870,6 +3242,9 @@
       </c>
       <c r="I12" t="s">
         <v>554</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -2886,7 +3261,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -2899,6 +3274,9 @@
       </c>
       <c r="I13" t="s">
         <v>554</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2915,7 +3293,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -2928,6 +3306,9 @@
       </c>
       <c r="I14" t="s">
         <v>559</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -2944,7 +3325,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>593</v>
+        <v>404</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -2953,10 +3334,13 @@
         <v>311</v>
       </c>
       <c r="H15" t="s">
-        <v>312</v>
+        <v>617</v>
       </c>
       <c r="I15" t="s">
-        <v>562</v>
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="16">
@@ -2973,7 +3357,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -2986,6 +3370,9 @@
       </c>
       <c r="I16" t="s">
         <v>554</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -3002,7 +3389,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>595</v>
+        <v>708</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -3015,6 +3402,9 @@
       </c>
       <c r="I17" t="s">
         <v>554</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -3031,7 +3421,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -3044,6 +3434,9 @@
       </c>
       <c r="I18" t="s">
         <v>573</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -3060,7 +3453,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>597</v>
+        <v>710</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3073,6 +3466,9 @@
       </c>
       <c r="I19" t="s">
         <v>554</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -3089,7 +3485,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>598</v>
+        <v>711</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -3102,6 +3498,9 @@
       </c>
       <c r="I20" t="s">
         <v>559</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -3118,7 +3517,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>599</v>
+        <v>712</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3131,6 +3530,9 @@
       </c>
       <c r="I21" t="s">
         <v>559</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -3147,7 +3549,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>600</v>
+        <v>713</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3160,6 +3562,9 @@
       </c>
       <c r="I22" t="s">
         <v>554</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -3176,7 +3581,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>601</v>
+        <v>714</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -3189,6 +3594,9 @@
       </c>
       <c r="I23" t="s">
         <v>554</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -3205,7 +3613,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>
@@ -3218,6 +3626,9 @@
       </c>
       <c r="I24" t="s">
         <v>554</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/105.xlsx
+++ b/Covid_19_Dataset_and_References/References/105.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="760">
   <si>
     <t>Doi</t>
   </si>
@@ -2521,6 +2521,138 @@
   </si>
   <si>
     <t>[Hui%Dai%NULL%1,                          Xin%Zhang%NULL%0,                          Jianguo%Xia%NULL%1,                          Tao%Zhang%NULL%1,                          Yalei%Shang%NULL%1,                          Renjun%Huang%NULL%1,                          Rongrong%Liu%NULL%1,                          Dan%Wang%NULL%0,                          Min%Li%105549156@qq.com%1,                          Jinping%Wu%czwjp@sina.com%1,                          Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                          Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                           Shiva%Samavat%NULL%1,                           Behdad%Behnam%NULL%1,                           Mehran%Arab-Ahmadi%NULL%1,                           Mohsen%Nafar%NULL%1,                           Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                           Elisa%Delbarba%NULL%2,                           Chiara%Manenti%NULL%2,                           Laura%Econimo%NULL%2,                           Francesca%Valerio%NULL%2,                           Alessandra%Pola%NULL%2,                           Camilla%Maffei%NULL%2,                           Stefano%Possenti%NULL%2,                           Nicole%Zambetti%NULL%1,                           Marianna%Moscato%NULL%1,                           Margherita%Venturini%NULL%1,                           Stefania%Affatato%NULL%2,                           Mario%Gaggiotti%NULL%2,                           Nicola%Bossini%NULL%2,                           Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                           Elisa%Delbarba%NULL%0,                           Chiara%Manenti%NULL%0,                           Laura%Econimo%NULL%0,                           Francesca%Valerio%NULL%0,                           Alessandra%Pola%NULL%0,                           Camilla%Maffei%NULL%0,                           Stefano%Possenti%NULL%0,                           Bernardo%Lucca%NULL%1,                           Roberta%Cortinovis%NULL%1,                           Vincenzo%Terlizzi%NULL%1,                           Mattia%Zappa%NULL%1,                           Chiara%Saccà%NULL%1,                           Elena%Pezzini%NULL%1,                           Eleonora%Calcaterra%NULL%1,                           Paola%Piarulli%NULL%1,                           Alice%Guerini%NULL%1,                           Francesca%Boni%NULL%1,                           Agnese%Gallico%NULL%1,                           Alberto%Mucchetti%NULL%1,                           Stefania%Affatato%NULL%0,                           Sergio%Bove%NULL%1,                           Martina%Bracchi%NULL%1,                           Ester Maria%Costantino%NULL%1,                           Roberto%Zubani%NULL%1,                           Corrado%Camerini%NULL%1,                           Paola%Gaggia%NULL%1,                           Ezio%Movilli%NULL%1,                           Nicola%Bossini%NULL%0,                           Mario%Gaggiotti%NULL%0,                           Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                           Jordi%Rello%NULL%1,                           Sofia%Tejada%NULL%1,                           Alejandro%Martín%NULL%1,                           Goiatz%Balziskueta%NULL%1,                           Cristina%Vinuesa%NULL%1,                           Borja%Fernández-Miret%NULL%1,                           Ana%Villagra%NULL%1,                           Ana%Vallejo%NULL%1,                           Ana%San Sebastián%NULL%1,                           Sara%Cabañes%NULL%1,                           Sebastián%Iribarren%NULL%1,                           Fernando%Fonseca%NULL%1,                           Javier%Maynar%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                           Denise J%McCulloch%NULL%2,                           Denise J%McCulloch%NULL%0,                           Vidya%Atluri%NULL%1,                           Michela%Blain%NULL%1,                           Sarah A%McGuffin%NULL%1,                           Arun K%Nalla%NULL%1,                           Meei-Li%Huang%NULL%1,                           Alex L%Greninger%NULL%1,                           Keith R%Jerome%NULL%1,                           Seth A%Cohen%NULL%1,                           Santiago%Neme%NULL%1,                           Margaret L%Green%NULL%1,                           Helen Y%Chu%NULL%1,                           H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                           Timothy%Mazzuchelli%NULL%1,                           Elia%Lo Priore%NULL%1,                           Carlo%Balmelli%NULL%1,                           Michael%Llamas%NULL%1,                           Micol%Pallanza%NULL%1,                           Luigia%Elzi%NULL%1,                           Vera%Consonni%NULL%1,                           Pierpaolo%Trimboli%NULL%1,                           Valentina%Forni-Ogna%NULL%1,                           Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                         Deliang%Huang%coreGivesNoEmail%0,                         Hong%Yu%coreGivesNoEmail%0,                         Jun%Chen%coreGivesNoEmail%0,                         Lei%Liu%coreGivesNoEmail%0,                         National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                         Pengcheng%Ou%coreGivesNoEmail%0,                         Qing%He%coreGivesNoEmail%0,                         Qingxian%Cai%coreGivesNoEmail%0,                         Rossaint%J%coreGivesNoEmail%0,                         Yang%Fu%coreGivesNoEmail%0,                         Yiming%Zhang%coreGivesNoEmail%0,                         Yinan%Su%coreGivesNoEmail%0,                         Zhang%Xia%coreGivesNoEmail%0,                         Zhenghua%Ma%coreGivesNoEmail%0,                         Zhibin%Zhu%coreGivesNoEmail%0,                         Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                           Yeming%Wang%NULL%0,                           Danning%Wen%NULL%1,                           Wen%Liu%NULL%1,                           Jingli%Wang%NULL%0,                           Guohui%Fan%NULL%0,                           Lianguo%Ruan%NULL%1,                           Bin%Song%NULL%0,                           Yanping%Cai%NULL%1,                           Ming%Wei%NULL%1,                           Xingwang%Li%NULL%0,                           Jiaan%Xia%NULL%0,                           Nanshan%Chen%NULL%1,                           Jie%Xiang%NULL%0,                           Ting%Yu%NULL%0,                           Tao%Bai%NULL%0,                           Xuelei%Xie%NULL%0,                           Li%Zhang%NULL%0,                           Caihong%Li%NULL%1,                           Ye%Yuan%NULL%1,                           Hua%Chen%NULL%0,                           Huadong%Li%NULL%1,                           Hanping%Huang%NULL%1,                           Shengjing%Tu%NULL%1,                           Fengyun%Gong%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Chongya%Dong%NULL%1,                           Fei%Zhou%NULL%1,                           Xiaoying%Gu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Zhibo%Liu%NULL%0,                           Yi%Zhang%NULL%0,                           Hui%Li%NULL%0,                           Lianhan%Shang%NULL%1,                           Ke%Wang%NULL%0,                           Kunxia%Li%NULL%1,                           Xia%Zhou%NULL%1,                           Xuan%Dong%NULL%0,                           Zhaohui%Qu%NULL%1,                           Sixia%Lu%NULL%1,                           Xujuan%Hu%NULL%1,                           Shunan%Ruan%NULL%1,                           Shanshan%Luo%NULL%1,                           Jing%Wu%NULL%0,                           Lu%Peng%NULL%1,                           Fang%Cheng%NULL%0,                           Lihong%Pan%NULL%1,                           Jun%Zou%NULL%1,                           Chunmin%Jia%NULL%1,                           Juan%Wang%NULL%1,                           Xia%Liu%NULL%1,                           Shuzhen%Wang%NULL%1,                           Xudong%Wu%NULL%0,                           Qin%Ge%NULL%1,                           Jing%He%NULL%1,                           Haiyan%Zhan%NULL%1,                           Fang%Qiu%NULL%1,                           Li%Guo%NULL%0,                           Chaolin%Huang%NULL%1,                           Thomas%Jaki%NULL%1,                           Frederick G.%Hayden%NULL%1,                           Peter W.%Horby%NULL%1,                           Dingyu%Zhang%NULL%1,                           Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                           Wenlin%Cheng%NULL%0,                           Lei%Yu%NULL%0,                           Ya-Kun%Liu%NULL%0,                           Xiaoyong%Hu%NULL%0,                           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                           Jia%Wei%NULL%1,                           Liang%Zou%NULL%1,                           Tiebin%Jiang%NULL%1,                           Gaoxiang%Wang%NULL%1,                           Liting%Chen%NULL%1,                           Liang%Huang%NULL%1,                           Fankai%Meng%NULL%1,                           Lifang%Huang%NULL%1,                           Na%Wang%NULL%1,                           Xiaoxi%Zhou%NULL%1,                           Hui%Luo%NULL%1,                           Zekai%Mao%NULL%1,                           Xing%Chen%NULL%1,                           Jungang%Xie%NULL%0,                           Jing%Liu%NULL%0,                           Hui%Cheng%NULL%1,                           Jianping%Zhao%NULL%0,                           Gang%Huang%NULL%1,                           Wei%Wang%NULL%0,                           Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                           Giacomo%De Luca%NULL%1,                           Corrado%Campochiaro%NULL%1,                           Emanuel%Della-Torre%NULL%1,                           Marco%Ripa%NULL%1,                           Diana%Canetti%NULL%1,                           Chiara%Oltolini%NULL%1,                           Barbara%Castiglioni%NULL%1,                           Chiara%Tassan Din%NULL%1,                           Nicola%Boffini%NULL%1,                           Alessandro%Tomelleri%NULL%1,                           Nicola%Farina%NULL%1,                           Annalisa%Ruggeri%NULL%0,                           Patrizia%Rovere-Querini%NULL%0,                           Giuseppe%Di Lucca%NULL%1,                           Sabina%Martinenghi%NULL%1,                           Raffaella%Scotti%NULL%1,                           Moreno%Tresoldi%NULL%0,                           Fabio%Ciceri%NULL%1,                           Giovanni%Landoni%NULL%0,                           Alberto%Zangrillo%NULL%0,                           Paolo%Scarpellini%NULL%0,                           Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                           Kim R.%Derespina%NULL%2,                           Betsy C.%Herold%NULL%1,                           David L.%Goldman%NULL%1,                           Margaret%Aldrich%NULL%1,                           Jacqueline%Weingarten%NULL%1,                           Henry M.%Ushay%NULL%2,                           Michael D.%Cabana%NULL%1,                           Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                           Zhen-Zhen%Zhang%NULL%1,                           Yao-Kai%Chen%NULL%1,                           Quan-Xin%Long%NULL%1,                           Wen-Guang%Tian%NULL%1,                           Hai-Jun%Deng%NULL%1,                           Jie-Li%Hu%NULL%1,                           Xian-Xiang%Zhang%NULL%1,                           NULL%Pu-Liao%NULL%1,                           Jiang-Lin%Xiang%NULL%1,                           Dao-Xin%Wang%NULL%1,                           Peng%Hu%NULL%0,                           Fa-Chun%Zhou%NULL%1,                           Zhi-Jie%Li%NULL%1,                           Hong-Mei%Xu%NULL%1,                           Xue-Fei%Cai%NULL%1,                           De-Qiang%Wang%NULL%1,                           Yuan%Hu%NULL%1,                           Ni%Tang%NULL%1,                           Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                           Gui-Cheng%Wu%wuguic@hotmail.com%1,                           Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%0,                           Xuan%Dong%NULL%0,                           Jieming%Qu%NULL%0,                           Fengyun%Gong%NULL%0,                           Yang%Han%NULL%0,                           Yang%Qiu%NULL%0,                           Jingli%Wang%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                           Zhencang%Zheng%NULL%1,                           Chao%Zhang%NULL%1,                           Xijiang%Zhang%NULL%1,                           Huijuan%Wu%NULL%1,                           Jingdong%Wang%NULL%1,                           Shuwei%Wang%NULL%1,                           Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                           Wenhua%Liang%NULL%0,                           Mei%Jiang%NULL%0,                           Weijie%Guan%NULL%0,                           Chen%Zhan%NULL%0,                           Tao%Wang%NULL%0,                           Chunli%Tang%NULL%0,                           Ling%Sang%NULL%0,                           Jiaxing%Liu%NULL%0,                           Zhengyi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chunliang%Lei%NULL%0,                           Yixiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Yahua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jianming%Wang%NULL%0,                           Jiyang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhijian%Zheng%NULL%0,                           Shaoqin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Changjiang%Ye%NULL%0,                           Shaoyong%Zhu%NULL%0,                           Xiaoqing%Liu%NULL%0,                           Linling%Cheng%NULL%0,                           Feng%Ye%NULL%0,                           Jinping%Zheng%NULL%0,                           Nuofu%Zhang%NULL%0,                           Yimin%Li%NULL%0,                           Jianxing%He%NULL%0,                           Shiyue%Li%lishiyue@188.com%0,                           Nanshan%Zhong%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                           Wei%An%NULL%2,                           Wei%An%NULL%0,                           Fei%Xia%NULL%0,                           Ping%Yang%NULL%1,                           Kuangyu%Li%NULL%1,                           Qin%Zhou%NULL%1,                           Shasha%Fang%NULL%1,                           Yaling%Liao%NULL%1,                           Xin%Xu%NULL%0,                           Jialin%Liu%NULL%1,                           Shiguo%Liu%NULL%1,                           Tao%Qin%NULL%1,                           Jianjun%Zhang%NULL%1,                           Wei%Wei%NULL%0,                           Yafang%Zhang%NULL%1,                           Guowei%Zhang%NULL%1,                           Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                           Nan%Yang%NULL%2,                           Nan%Yang%NULL%0,                           Yanqiu%Wei%NULL%1,                           Huihui%Yue%NULL%1,                           Fengqin%Zhang%NULL%1,                           Jianping%Zhao%NULL%0,                           Li%He%NULL%1,                           Gaohong%Sheng%NULL%2,                           Gaohong%Sheng%NULL%0,                           Peng%Chen%NULL%1,                           Gang%Li%NULL%0,                           Sisi%Wu%NULL%1,                           Bo%Zhang%NULL%0,                           Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                           Xiaoping%Miao%miaoxp@hust.edu.cn%1,                           Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                           Wenhua%Liu%liuwh_2013@126.com%1,                           Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                           Susannah%Ahern%NULL%1,                           Scott C.%Bell%NULL%1,                           Keith%Brownlee%NULL%1,                           Pierre-Régis%Burgel%NULL%1,                           Cass%Byrnes%NULL%1,                           Harriet%Corvol%NULL%1,                           Stephanie Y.%Cheng%NULL%1,                           Alexander%Elbert%NULL%1,                           Albert%Faro%NULL%1,                           Christopher H.%Goss%NULL%1,                           Vincent%Gulmans%NULL%1,                           Bruce C.%Marshall%NULL%1,                           Edward%McKone%NULL%1,                           Peter G.%Middleton%NULL%1,                           Rasa%Ruseckaite%NULL%1,                           Anne L.%Stephenson%NULL%1,                           Siobhán B%Carr%NULL%1,                           David%Reid%NULL%1,                           Peter%Wark%NULL%1,                           Géraldine%Daneau%NULL%1,                           Véronique%Boussaud%NULL%1,                           Graziella%Brinchault%NULL%1,                           Emmanuelle%Coirier-Duet%NULL%1,                           Jean-Christophe%Dubus%NULL%1,                           Dominique%Grenet%NULL%1,                           Sandra de%Miranda%NULL%1,                           Laurence%Beaumont%NULL%1,                           Reem%Kanaan%NULL%1,                           Muriel%Lauraens%NULL%1,                           Clémence%Martin%NULL%1,                           Marie%Mittaine%NULL%1,                           Anne%Prévotat%NULL%1,                           Martine%Reynaud-Gaubert%NULL%1,                           Isabelle%Sermet-Gaudelus%NULL%1,                           Aurelie%Tatopoulos%NULL%1,                           Lutz%Nährlich%NULL%1,                           Barry%Plant%NULL%1,                           Cedric%Gunaratnam%NULL%1,                           Abaigeal%Jackson%NULL%1,                           Karin M. de Winter-de%Groot%NULL%1,                           Bart%Luijk%NULL%1,                           Geertjan%Wesseling%NULL%1,                           Mark%Allenby%NULL%1,                           Jamie%Duckers%NULL%1,                           Elaine%Gunn%NULL%1,                           Andrew%Jones%NULL%1,                           Robert Ian%Ketchell%NULL%1,                           Susan L.%Madge%NULL%1,                           Anirban%Maitra%NULL%1,                           Ghulam%Mujtaba%NULL%1,                           Helen%Rodgers%NULL%1,                           Nadia%Shafi%NULL%1,                           Nicholas%Simmonds%NULL%1,                           Kevin%Southern%NULL%1,                           Danie%Watson%NULL%1,                           Samar%Rizvi%NULL%1,                           Julie%Seguin%NULL%1,                           Janet%Garbarz%NULL%1,                           Kristen%Rosamilia%NULL%1,                           Maria%Berdella%NULL%1,                           Jerry A.%Nick%NULL%1,                           Richard%Belkin%NULL%1,                           Diana%Gilmore%NULL%1,                           Kim%McBennett%NULL%1,                           Rita%Padoan%NULL%1,                           Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                           Matthew R%Baldwin%NULL%0,                           Darryl%Abrams%NULL%1,                           Samuel D%Jacobson%NULL%1,                           Benjamin J%Meyer%NULL%1,                           Elizabeth M%Balough%NULL%1,                           Justin G%Aaron%NULL%1,                           Jan%Claassen%NULL%0,                           LeRoy E%Rabbani%NULL%1,                           Jonathan%Hastie%NULL%1,                           Beth R%Hochman%NULL%1,                           John%Salazar-Schicchi%NULL%1,                           Natalie H%Yip%NULL%1,                           Daniel%Brodie%NULL%0,                           Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                           Xin%Zhang%NULL%0,                           Jianguo%Xia%NULL%1,                           Tao%Zhang%NULL%1,                           Yalei%Shang%NULL%1,                           Renjun%Huang%NULL%1,                           Rongrong%Liu%NULL%1,                           Dan%Wang%NULL%0,                           Min%Li%105549156@qq.com%1,                           Jinping%Wu%czwjp@sina.com%1,                           Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                           Yonggang%Li%liyonggang224@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Alireza%Abrishami%NULL%1,                            Shiva%Samavat%NULL%1,                            Behdad%Behnam%NULL%1,                            Mehran%Arab-Ahmadi%NULL%1,                            Mohsen%Nafar%NULL%1,                            Morteza%Sanei Taheri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%NULL%2,                            Elisa%Delbarba%NULL%2,                            Chiara%Manenti%NULL%2,                            Laura%Econimo%NULL%2,                            Francesca%Valerio%NULL%2,                            Alessandra%Pola%NULL%2,                            Camilla%Maffei%NULL%2,                            Stefano%Possenti%NULL%2,                            Nicole%Zambetti%NULL%1,                            Marianna%Moscato%NULL%1,                            Margherita%Venturini%NULL%1,                            Stefania%Affatato%NULL%2,                            Mario%Gaggiotti%NULL%2,                            Nicola%Bossini%NULL%2,                            Francesco%Scolari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Federico%Alberici%federico.alberici@unibs.it%0,                            Elisa%Delbarba%NULL%0,                            Chiara%Manenti%NULL%0,                            Laura%Econimo%NULL%0,                            Francesca%Valerio%NULL%0,                            Alessandra%Pola%NULL%0,                            Camilla%Maffei%NULL%0,                            Stefano%Possenti%NULL%0,                            Bernardo%Lucca%NULL%1,                            Roberta%Cortinovis%NULL%1,                            Vincenzo%Terlizzi%NULL%1,                            Mattia%Zappa%NULL%1,                            Chiara%Saccà%NULL%1,                            Elena%Pezzini%NULL%1,                            Eleonora%Calcaterra%NULL%1,                            Paola%Piarulli%NULL%1,                            Alice%Guerini%NULL%1,                            Francesca%Boni%NULL%1,                            Agnese%Gallico%NULL%1,                            Alberto%Mucchetti%NULL%1,                            Stefania%Affatato%NULL%0,                            Sergio%Bove%NULL%1,                            Martina%Bracchi%NULL%1,                            Ester Maria%Costantino%NULL%1,                            Roberto%Zubani%NULL%1,                            Corrado%Camerini%NULL%1,                            Paola%Gaggia%NULL%1,                            Ezio%Movilli%NULL%1,                            Nicola%Bossini%NULL%0,                            Mario%Gaggiotti%NULL%0,                            Francesco%Scolari%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0,                            Jordi%Rello%NULL%1,                            Sofia%Tejada%NULL%1,                            Alejandro%Martín%NULL%1,                            Goiatz%Balziskueta%NULL%1,                            Cristina%Vinuesa%NULL%1,                            Borja%Fernández-Miret%NULL%1,                            Ana%Villagra%NULL%1,                            Ana%Vallejo%NULL%1,                            Ana%San Sebastián%NULL%1,                            Sara%Cabañes%NULL%1,                            Sebastián%Iribarren%NULL%1,                            Fernando%Fonseca%NULL%1,                            Javier%Maynar%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                            Denise J%McCulloch%NULL%2,                            Denise J%McCulloch%NULL%0,                            Vidya%Atluri%NULL%1,                            Michela%Blain%NULL%1,                            Sarah A%McGuffin%NULL%1,                            Arun K%Nalla%NULL%1,                            Meei-Li%Huang%NULL%1,                            Alex L%Greninger%NULL%1,                            Keith R%Jerome%NULL%1,                            Seth A%Cohen%NULL%1,                            Santiago%Neme%NULL%1,                            Margaret L%Green%NULL%1,                            Helen Y%Chu%NULL%1,                            H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niccolò%Buetti%NULL%1,                            Timothy%Mazzuchelli%NULL%1,                            Elia%Lo Priore%NULL%1,                            Carlo%Balmelli%NULL%1,                            Michael%Llamas%NULL%1,                            Micol%Pallanza%NULL%1,                            Luigia%Elzi%NULL%1,                            Vera%Consonni%NULL%1,                            Pierpaolo%Trimboli%NULL%1,                            Valentina%Forni-Ogna%NULL%1,                            Enos%Bernasconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%0,                          Deliang%Huang%coreGivesNoEmail%0,                          Hong%Yu%coreGivesNoEmail%0,                          Jun%Chen%coreGivesNoEmail%0,                          Lei%Liu%coreGivesNoEmail%0,                          National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%0,                          Pengcheng%Ou%coreGivesNoEmail%0,                          Qing%He%coreGivesNoEmail%0,                          Qingxian%Cai%coreGivesNoEmail%0,                          Rossaint%J%coreGivesNoEmail%0,                          Yang%Fu%coreGivesNoEmail%0,                          Yiming%Zhang%coreGivesNoEmail%0,                          Yinan%Su%coreGivesNoEmail%0,                          Zhang%Xia%coreGivesNoEmail%0,                          Zhenghua%Ma%coreGivesNoEmail%0,                          Zhibin%Zhu%coreGivesNoEmail%0,                          Zhiwei%Li%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Cao%NULL%1,                            Yeming%Wang%NULL%0,                            Danning%Wen%NULL%1,                            Wen%Liu%NULL%1,                            Jingli%Wang%NULL%0,                            Guohui%Fan%NULL%0,                            Lianguo%Ruan%NULL%1,                            Bin%Song%NULL%0,                            Yanping%Cai%NULL%1,                            Ming%Wei%NULL%1,                            Xingwang%Li%NULL%0,                            Jiaan%Xia%NULL%0,                            Nanshan%Chen%NULL%1,                            Jie%Xiang%NULL%0,                            Ting%Yu%NULL%0,                            Tao%Bai%NULL%0,                            Xuelei%Xie%NULL%0,                            Li%Zhang%NULL%0,                            Caihong%Li%NULL%1,                            Ye%Yuan%NULL%1,                            Hua%Chen%NULL%0,                            Huadong%Li%NULL%1,                            Hanping%Huang%NULL%1,                            Shengjing%Tu%NULL%1,                            Fengyun%Gong%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Chongya%Dong%NULL%1,                            Fei%Zhou%NULL%1,                            Xiaoying%Gu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Zhibo%Liu%NULL%0,                            Yi%Zhang%NULL%0,                            Hui%Li%NULL%0,                            Lianhan%Shang%NULL%1,                            Ke%Wang%NULL%0,                            Kunxia%Li%NULL%1,                            Xia%Zhou%NULL%1,                            Xuan%Dong%NULL%0,                            Zhaohui%Qu%NULL%1,                            Sixia%Lu%NULL%1,                            Xujuan%Hu%NULL%1,                            Shunan%Ruan%NULL%1,                            Shanshan%Luo%NULL%1,                            Jing%Wu%NULL%0,                            Lu%Peng%NULL%1,                            Fang%Cheng%NULL%0,                            Lihong%Pan%NULL%1,                            Jun%Zou%NULL%1,                            Chunmin%Jia%NULL%1,                            Juan%Wang%NULL%1,                            Xia%Liu%NULL%1,                            Shuzhen%Wang%NULL%1,                            Xudong%Wu%NULL%0,                            Qin%Ge%NULL%1,                            Jing%He%NULL%1,                            Haiyan%Zhan%NULL%1,                            Fang%Qiu%NULL%1,                            Li%Guo%NULL%0,                            Chaolin%Huang%NULL%1,                            Thomas%Jaki%NULL%1,                            Frederick G.%Hayden%NULL%1,                            Peter W.%Horby%NULL%1,                            Dingyu%Zhang%NULL%1,                            Chen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                            Wenlin%Cheng%NULL%0,                            Lei%Yu%NULL%0,                            Ya-Kun%Liu%NULL%0,                            Xiaoyong%Hu%NULL%0,                            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Cao%NULL%1,                            Jia%Wei%NULL%1,                            Liang%Zou%NULL%1,                            Tiebin%Jiang%NULL%1,                            Gaoxiang%Wang%NULL%1,                            Liting%Chen%NULL%1,                            Liang%Huang%NULL%1,                            Fankai%Meng%NULL%1,                            Lifang%Huang%NULL%1,                            Na%Wang%NULL%1,                            Xiaoxi%Zhou%NULL%1,                            Hui%Luo%NULL%1,                            Zekai%Mao%NULL%1,                            Xing%Chen%NULL%1,                            Jungang%Xie%NULL%0,                            Jing%Liu%NULL%0,                            Hui%Cheng%NULL%1,                            Jianping%Zhao%NULL%0,                            Gang%Huang%NULL%1,                            Wei%Wang%NULL%0,                            Jianfeng%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giulio%Cavalli%cavalli.giulio@hsr.it%1,                            Giacomo%De Luca%NULL%1,                            Corrado%Campochiaro%NULL%1,                            Emanuel%Della-Torre%NULL%1,                            Marco%Ripa%NULL%1,                            Diana%Canetti%NULL%1,                            Chiara%Oltolini%NULL%1,                            Barbara%Castiglioni%NULL%1,                            Chiara%Tassan Din%NULL%1,                            Nicola%Boffini%NULL%1,                            Alessandro%Tomelleri%NULL%1,                            Nicola%Farina%NULL%1,                            Annalisa%Ruggeri%NULL%0,                            Patrizia%Rovere-Querini%NULL%0,                            Giuseppe%Di Lucca%NULL%1,                            Sabina%Martinenghi%NULL%1,                            Raffaella%Scotti%NULL%1,                            Moreno%Tresoldi%NULL%0,                            Fabio%Ciceri%NULL%1,                            Giovanni%Landoni%NULL%0,                            Alberto%Zangrillo%NULL%0,                            Paolo%Scarpellini%NULL%0,                            Lorenzo%Dagna%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerry Y.%Chao%NULL%1,                            Kim R.%Derespina%NULL%2,                            Betsy C.%Herold%NULL%1,                            David L.%Goldman%NULL%1,                            Margaret%Aldrich%NULL%1,                            Jacqueline%Weingarten%NULL%1,                            Henry M.%Ushay%NULL%2,                            Michael D.%Cabana%NULL%1,                            Shivanand S.%Medar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Chen%NULL%1,                            Zhen-Zhen%Zhang%NULL%1,                            Yao-Kai%Chen%NULL%1,                            Quan-Xin%Long%NULL%1,                            Wen-Guang%Tian%NULL%1,                            Hai-Jun%Deng%NULL%1,                            Jie-Li%Hu%NULL%1,                            Xian-Xiang%Zhang%NULL%1,                            NULL%Pu-Liao%NULL%1,                            Jiang-Lin%Xiang%NULL%1,                            Dao-Xin%Wang%NULL%1,                            Peng%Hu%NULL%0,                            Fa-Chun%Zhou%NULL%1,                            Zhi-Jie%Li%NULL%1,                            Hong-Mei%Xu%NULL%1,                            Xue-Fei%Cai%NULL%1,                            De-Qiang%Wang%NULL%1,                            Yuan%Hu%NULL%1,                            Ni%Tang%NULL%1,                            Bei-Zhong%Liu%liubeizhong@cqmu.edu.cn%1,                            Gui-Cheng%Wu%wuguic@hotmail.com%1,                            Ai-Long%Huang%ahuang@cqmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%0,                            Xuan%Dong%NULL%0,                            Jieming%Qu%NULL%0,                            Fengyun%Gong%NULL%0,                            Yang%Han%NULL%0,                            Yang%Qiu%NULL%0,                            Jingli%Wang%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%0,                            Zhencang%Zheng%NULL%1,                            Chao%Zhang%NULL%1,                            Xijiang%Zhang%NULL%1,                            Huijuan%Wu%NULL%1,                            Jingdong%Wang%NULL%1,                            Shuwei%Wang%NULL%1,                            Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                            Wenhua%Liang%NULL%0,                            Mei%Jiang%NULL%0,                            Weijie%Guan%NULL%0,                            Chen%Zhan%NULL%0,                            Tao%Wang%NULL%0,                            Chunli%Tang%NULL%0,                            Ling%Sang%NULL%0,                            Jiaxing%Liu%NULL%0,                            Zhengyi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chunliang%Lei%NULL%0,                            Yixiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Yahua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jianming%Wang%NULL%0,                            Jiyang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhijian%Zheng%NULL%0,                            Shaoqin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Changjiang%Ye%NULL%0,                            Shaoyong%Zhu%NULL%0,                            Xiaoqing%Liu%NULL%0,                            Linling%Cheng%NULL%0,                            Feng%Ye%NULL%0,                            Jinping%Zheng%NULL%0,                            Nuofu%Zhang%NULL%0,                            Yimin%Li%NULL%0,                            Jianxing%He%NULL%0,                            Shiyue%Li%lishiyue@188.com%0,                            Nanshan%Zhong%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min%Chen%NULL%1,                            Wei%An%NULL%2,                            Wei%An%NULL%0,                            Fei%Xia%NULL%0,                            Ping%Yang%NULL%1,                            Kuangyu%Li%NULL%1,                            Qin%Zhou%NULL%1,                            Shasha%Fang%NULL%1,                            Yaling%Liao%NULL%1,                            Xin%Xu%NULL%0,                            Jialin%Liu%NULL%1,                            Shiguo%Liu%NULL%1,                            Tao%Qin%NULL%1,                            Jianjun%Zhang%NULL%1,                            Wei%Wei%NULL%0,                            Yafang%Zhang%NULL%1,                            Guowei%Zhang%NULL%1,                            Mingwei%Zhang%383193522@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                            Nan%Yang%NULL%2,                            Nan%Yang%NULL%0,                            Yanqiu%Wei%NULL%1,                            Huihui%Yue%NULL%1,                            Fengqin%Zhang%NULL%1,                            Jianping%Zhao%NULL%0,                            Li%He%NULL%1,                            Gaohong%Sheng%NULL%2,                            Gaohong%Sheng%NULL%0,                            Peng%Chen%NULL%1,                            Gang%Li%NULL%0,                            Sisi%Wu%NULL%1,                            Bo%Zhang%NULL%0,                            Shu%Zhang%szhang@tjh.tjmu.edu.cn%1,                            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%1,                            Xiaoping%Miao%miaoxp@hust.edu.cn%1,                            Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                            Wenhua%Liu%liuwh_2013@126.com%1,                            Huilan%Zhang%huilanz_76@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rebecca%Cosgriff%NULL%1,                            Susannah%Ahern%NULL%1,                            Scott C.%Bell%NULL%1,                            Keith%Brownlee%NULL%1,                            Pierre-Régis%Burgel%NULL%1,                            Cass%Byrnes%NULL%1,                            Harriet%Corvol%NULL%1,                            Stephanie Y.%Cheng%NULL%1,                            Alexander%Elbert%NULL%1,                            Albert%Faro%NULL%1,                            Christopher H.%Goss%NULL%1,                            Vincent%Gulmans%NULL%1,                            Bruce C.%Marshall%NULL%1,                            Edward%McKone%NULL%1,                            Peter G.%Middleton%NULL%1,                            Rasa%Ruseckaite%NULL%1,                            Anne L.%Stephenson%NULL%1,                            Siobhán B%Carr%NULL%1,                            David%Reid%NULL%1,                            Peter%Wark%NULL%1,                            Géraldine%Daneau%NULL%1,                            Véronique%Boussaud%NULL%1,                            Graziella%Brinchault%NULL%1,                            Emmanuelle%Coirier-Duet%NULL%1,                            Jean-Christophe%Dubus%NULL%1,                            Dominique%Grenet%NULL%1,                            Sandra de%Miranda%NULL%1,                            Laurence%Beaumont%NULL%1,                            Reem%Kanaan%NULL%1,                            Muriel%Lauraens%NULL%1,                            Clémence%Martin%NULL%1,                            Marie%Mittaine%NULL%1,                            Anne%Prévotat%NULL%1,                            Martine%Reynaud-Gaubert%NULL%1,                            Isabelle%Sermet-Gaudelus%NULL%1,                            Aurelie%Tatopoulos%NULL%1,                            Lutz%Nährlich%NULL%1,                            Barry%Plant%NULL%1,                            Cedric%Gunaratnam%NULL%1,                            Abaigeal%Jackson%NULL%1,                            Karin M. de Winter-de%Groot%NULL%1,                            Bart%Luijk%NULL%1,                            Geertjan%Wesseling%NULL%1,                            Mark%Allenby%NULL%1,                            Jamie%Duckers%NULL%1,                            Elaine%Gunn%NULL%1,                            Andrew%Jones%NULL%1,                            Robert Ian%Ketchell%NULL%1,                            Susan L.%Madge%NULL%1,                            Anirban%Maitra%NULL%1,                            Ghulam%Mujtaba%NULL%1,                            Helen%Rodgers%NULL%1,                            Nadia%Shafi%NULL%1,                            Nicholas%Simmonds%NULL%1,                            Kevin%Southern%NULL%1,                            Danie%Watson%NULL%1,                            Samar%Rizvi%NULL%1,                            Julie%Seguin%NULL%1,                            Janet%Garbarz%NULL%1,                            Kristen%Rosamilia%NULL%1,                            Maria%Berdella%NULL%1,                            Jerry A.%Nick%NULL%1,                            Richard%Belkin%NULL%1,                            Diana%Gilmore%NULL%1,                            Kim%McBennett%NULL%1,                            Rita%Padoan%NULL%1,                            Marco%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0,                            Matthew R%Baldwin%NULL%0,                            Darryl%Abrams%NULL%1,                            Samuel D%Jacobson%NULL%1,                            Benjamin J%Meyer%NULL%1,                            Elizabeth M%Balough%NULL%1,                            Justin G%Aaron%NULL%1,                            Jan%Claassen%NULL%0,                            LeRoy E%Rabbani%NULL%1,                            Jonathan%Hastie%NULL%1,                            Beth R%Hochman%NULL%1,                            John%Salazar-Schicchi%NULL%1,                            Natalie H%Yip%NULL%1,                            Daniel%Brodie%NULL%0,                            Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Dai%NULL%1,                            Xin%Zhang%NULL%0,                            Jianguo%Xia%NULL%1,                            Tao%Zhang%NULL%1,                            Yalei%Shang%NULL%1,                            Renjun%Huang%NULL%1,                            Rongrong%Liu%NULL%1,                            Dan%Wang%NULL%0,                            Min%Li%105549156@qq.com%1,                            Jinping%Wu%czwjp@sina.com%1,                            Qiuzhen%Xu%xuqiuzhen831@sina.com%1,                            Yonggang%Li%liyonggang224@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2941,7 +3073,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2973,7 +3105,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -3005,7 +3137,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -3037,7 +3169,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -3069,7 +3201,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -3101,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>700</v>
+        <v>744</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -3133,7 +3265,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>745</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -3165,7 +3297,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>702</v>
+        <v>746</v>
       </c>
       <c r="F10" t="s">
         <v>75</v>
@@ -3197,7 +3329,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="F11" t="s">
         <v>79</v>
@@ -3229,7 +3361,7 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="F12" t="s">
         <v>84</v>
@@ -3261,7 +3393,7 @@
         <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="F13" t="s">
         <v>88</v>
@@ -3293,7 +3425,7 @@
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -3325,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -3357,7 +3489,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="F16" t="s">
         <v>98</v>
@@ -3389,7 +3521,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
@@ -3421,7 +3553,7 @@
         <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>709</v>
+        <v>753</v>
       </c>
       <c r="F18" t="s">
         <v>107</v>
@@ -3453,7 +3585,7 @@
         <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3485,7 +3617,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="F20" t="s">
         <v>116</v>
@@ -3517,7 +3649,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>712</v>
+        <v>756</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3549,7 +3681,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>713</v>
+        <v>757</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -3581,7 +3713,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
@@ -3613,7 +3745,7 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>715</v>
+        <v>759</v>
       </c>
       <c r="F24" t="s">
         <v>135</v>
